--- a/Presentacion 1/resultados_regresion_pisa.xlsx
+++ b/Presentacion 1/resultados_regresion_pisa.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="78">
   <si>
     <t>coef</t>
   </si>
@@ -240,25 +240,16 @@
     <t>ST004D01T_2</t>
   </si>
   <si>
-    <t>ST004D01T_&lt;NA&gt;</t>
-  </si>
-  <si>
     <t>IMMIG_2</t>
   </si>
   <si>
     <t>IMMIG_3</t>
   </si>
   <si>
-    <t>IMMIG_&lt;NA&gt;</t>
-  </si>
-  <si>
     <t>TARDYSD_1</t>
   </si>
   <si>
     <t>TARDYSD_2</t>
-  </si>
-  <si>
-    <t>TARDYSD_&lt;NA&gt;</t>
   </si>
 </sst>
 </file>
@@ -616,7 +607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -647,22 +638,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>3.211887252821398</v>
+        <v>3.050267506355212</v>
       </c>
       <c r="C2">
-        <v>1.893532207850577</v>
+        <v>1.897069903815753</v>
       </c>
       <c r="D2">
-        <v>1.696241151592207</v>
+        <v>1.607883557806661</v>
       </c>
       <c r="E2">
-        <v>0.08984022009664927</v>
+        <v>0.1078606835429109</v>
       </c>
       <c r="F2">
-        <v>-0.4993676781323457</v>
+        <v>-0.6679211812785275</v>
       </c>
       <c r="G2">
-        <v>6.923142183775141</v>
+        <v>6.768456193988952</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -670,22 +661,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>7.136617919113235</v>
+        <v>7.226434426686164</v>
       </c>
       <c r="C3">
-        <v>1.464732140730473</v>
+        <v>1.469167305556593</v>
       </c>
       <c r="D3">
-        <v>4.872302396227987</v>
+        <v>4.918728043671265</v>
       </c>
       <c r="E3">
-        <v>1.103051614209432E-06</v>
+        <v>8.710839380967567E-07</v>
       </c>
       <c r="F3">
-        <v>4.265795676283252</v>
+        <v>4.346919420531489</v>
       </c>
       <c r="G3">
-        <v>10.00744016194322</v>
+        <v>10.10594943284084</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -693,22 +684,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.03452995366673958</v>
+        <v>0.03467945241019496</v>
       </c>
       <c r="C4">
-        <v>0.02749223795708136</v>
+        <v>0.02754802087785743</v>
       </c>
       <c r="D4">
-        <v>1.255989189408477</v>
+        <v>1.258872735865742</v>
       </c>
       <c r="E4">
-        <v>0.2091198896232321</v>
+        <v>0.208076302974059</v>
       </c>
       <c r="F4">
-        <v>-0.01935384258354491</v>
+        <v>-0.01931367635576308</v>
       </c>
       <c r="G4">
-        <v>0.08841374991702408</v>
+        <v>0.08867258117615301</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -716,22 +707,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-20.26532427068939</v>
+        <v>-20.56989503443501</v>
       </c>
       <c r="C5">
-        <v>2.208207479541992</v>
+        <v>2.212786790386501</v>
       </c>
       <c r="D5">
-        <v>-9.177273629601444</v>
+        <v>-9.295922735891843</v>
       </c>
       <c r="E5">
-        <v>4.421436960434139E-20</v>
+        <v>1.45934805106445E-20</v>
       </c>
       <c r="F5">
-        <v>-24.59333140098366</v>
+        <v>-24.90687744905853</v>
       </c>
       <c r="G5">
-        <v>-15.93731714039512</v>
+        <v>-16.23291261981148</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -739,22 +730,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-8.321919364410981</v>
+        <v>-8.589632468189267</v>
       </c>
       <c r="C6">
-        <v>1.987241145624597</v>
+        <v>1.986441063179101</v>
       </c>
       <c r="D6">
-        <v>-4.187674647706316</v>
+        <v>-4.324131547322334</v>
       </c>
       <c r="E6">
-        <v>2.818271340899929E-05</v>
+        <v>1.531339048828029E-05</v>
       </c>
       <c r="F6">
-        <v>-12.21684043843131</v>
+        <v>-12.48298540943176</v>
       </c>
       <c r="G6">
-        <v>-4.426998290390653</v>
+        <v>-4.696279526946775</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -762,22 +753,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-2.51281236753595</v>
+        <v>-2.853823463614104</v>
       </c>
       <c r="C7">
-        <v>1.167054997158679</v>
+        <v>1.162017944025515</v>
       </c>
       <c r="D7">
-        <v>-2.153122495215447</v>
+        <v>-2.455920305092502</v>
       </c>
       <c r="E7">
-        <v>0.03130905276382871</v>
+        <v>0.01405243172476438</v>
       </c>
       <c r="F7">
-        <v>-4.800198129944456</v>
+        <v>-5.131336783293393</v>
       </c>
       <c r="G7">
-        <v>-0.2254266051274447</v>
+        <v>-0.5763101439348146</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -785,22 +776,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-2.063711430715997</v>
+        <v>-2.097947060066272</v>
       </c>
       <c r="C8">
-        <v>0.1559009539858273</v>
+        <v>0.1562422205285951</v>
       </c>
       <c r="D8">
-        <v>-13.23732394160722</v>
+        <v>-13.42752972255864</v>
       </c>
       <c r="E8">
-        <v>5.341848293689667E-40</v>
+        <v>4.170941137751178E-41</v>
       </c>
       <c r="F8">
-        <v>-2.369271685683655</v>
+        <v>-2.404176185166884</v>
       </c>
       <c r="G8">
-        <v>-1.758151175748339</v>
+        <v>-1.791717934965661</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -808,22 +799,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-1.517407842719834</v>
+        <v>-1.502153732784689</v>
       </c>
       <c r="C9">
-        <v>0.1948145830136316</v>
+        <v>0.1952934153606218</v>
       </c>
       <c r="D9">
-        <v>-7.788984886278551</v>
+        <v>-7.691778701349794</v>
       </c>
       <c r="E9">
-        <v>6.754968546344121E-15</v>
+        <v>1.451034414172276E-14</v>
       </c>
       <c r="F9">
-        <v>-1.899237409089741</v>
+        <v>-1.88492179330933</v>
       </c>
       <c r="G9">
-        <v>-1.135578276349928</v>
+        <v>-1.119385672260049</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -831,22 +822,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-2.428322069224043</v>
+        <v>-2.444593109041952</v>
       </c>
       <c r="C10">
-        <v>0.183407484949029</v>
+        <v>0.1836774301944739</v>
       </c>
       <c r="D10">
-        <v>-13.24003799462656</v>
+        <v>-13.30916436741121</v>
       </c>
       <c r="E10">
-        <v>5.152275694529226E-40</v>
+        <v>2.047590089062268E-40</v>
       </c>
       <c r="F10">
-        <v>-2.787794134219212</v>
+        <v>-2.804594256995991</v>
       </c>
       <c r="G10">
-        <v>-2.068850004228874</v>
+        <v>-2.084591961087913</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -854,22 +845,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.5394793546975691</v>
+        <v>-0.5322447808683487</v>
       </c>
       <c r="C11">
-        <v>0.1585318785128675</v>
+        <v>0.1589544089661734</v>
       </c>
       <c r="D11">
-        <v>-3.402970807879385</v>
+        <v>-3.348411562346874</v>
       </c>
       <c r="E11">
-        <v>0.0006665740206985475</v>
+        <v>0.0008127621594640563</v>
       </c>
       <c r="F11">
-        <v>-0.8501961269842686</v>
+        <v>-0.8437896976258992</v>
       </c>
       <c r="G11">
-        <v>-0.2287625824108697</v>
+        <v>-0.2206998641107982</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -877,22 +868,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>1.918012133450397</v>
+        <v>1.917613227547128</v>
       </c>
       <c r="C12">
-        <v>0.3235657295311973</v>
+        <v>0.3244886931074839</v>
       </c>
       <c r="D12">
-        <v>5.927735722288436</v>
+        <v>5.909645754318893</v>
       </c>
       <c r="E12">
-        <v>3.071402739743455E-09</v>
+        <v>3.428442073984384E-09</v>
       </c>
       <c r="F12">
-        <v>1.283834956937822</v>
+        <v>1.28162707566599</v>
       </c>
       <c r="G12">
-        <v>2.552189309962972</v>
+        <v>2.553599379428268</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -900,22 +891,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>8.070361814844691</v>
+        <v>7.860204372248173</v>
       </c>
       <c r="C13">
-        <v>1.668441233972576</v>
+        <v>1.67288227315268</v>
       </c>
       <c r="D13">
-        <v>4.83706686847404</v>
+        <v>4.698599834783946</v>
       </c>
       <c r="E13">
-        <v>1.317691090379808E-06</v>
+        <v>2.619511338912791E-06</v>
       </c>
       <c r="F13">
-        <v>4.800277085936877</v>
+        <v>4.581415366493424</v>
       </c>
       <c r="G13">
-        <v>11.34044654375251</v>
+        <v>11.13899337800292</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -923,22 +914,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>12.80254234545242</v>
+        <v>13.00612432157917</v>
       </c>
       <c r="C14">
-        <v>1.90113921694651</v>
+        <v>1.90501112731822</v>
       </c>
       <c r="D14">
-        <v>6.734142471699181</v>
+        <v>6.82732196944621</v>
       </c>
       <c r="E14">
-        <v>1.648995412792212E-11</v>
+        <v>8.65143860147645E-12</v>
       </c>
       <c r="F14">
-        <v>9.076377950640579</v>
+        <v>9.272371121887414</v>
       </c>
       <c r="G14">
-        <v>16.52870674026426</v>
+        <v>16.73987752127093</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -946,22 +937,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>-5.196497918698936</v>
+        <v>-5.197928877536573</v>
       </c>
       <c r="C15">
-        <v>2.472794197037262</v>
+        <v>2.472941691920522</v>
       </c>
       <c r="D15">
-        <v>-2.101468017405183</v>
+        <v>-2.101921324922055</v>
       </c>
       <c r="E15">
-        <v>0.03559990265333277</v>
+        <v>0.03556016817941328</v>
       </c>
       <c r="F15">
-        <v>-10.04308548607161</v>
+        <v>-10.04480552956834</v>
       </c>
       <c r="G15">
-        <v>-0.3499103513262609</v>
+        <v>-0.3510522255048034</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -969,22 +960,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>1.085214864400597</v>
+        <v>1.114716217080668</v>
       </c>
       <c r="C16">
-        <v>0.4180795262011784</v>
+        <v>0.418287861841345</v>
       </c>
       <c r="D16">
-        <v>2.595713964425024</v>
+        <v>2.66494995138892</v>
       </c>
       <c r="E16">
-        <v>0.009439461036566083</v>
+        <v>0.007699978139981198</v>
       </c>
       <c r="F16">
-        <v>0.2657940503727171</v>
+        <v>0.2948870727013656</v>
       </c>
       <c r="G16">
-        <v>1.904635678428476</v>
+        <v>1.93454536145997</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -992,22 +983,22 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>0.2030669524230423</v>
+        <v>0.2075767628626677</v>
       </c>
       <c r="C17">
-        <v>0.03048404904012159</v>
+        <v>0.03063755764212868</v>
       </c>
       <c r="D17">
-        <v>6.661416669280897</v>
+        <v>6.775238590730086</v>
       </c>
       <c r="E17">
-        <v>2.71200554865431E-11</v>
+        <v>1.242011207490779E-11</v>
       </c>
       <c r="F17">
-        <v>0.1433193142014512</v>
+        <v>0.1475282533098256</v>
       </c>
       <c r="G17">
-        <v>0.2628145906446334</v>
+        <v>0.2676252724155098</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1015,22 +1006,22 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>21174.08155305724</v>
+        <v>19899.29448014326</v>
       </c>
       <c r="C18">
-        <v>52750.46239742191</v>
+        <v>52832.60097043079</v>
       </c>
       <c r="D18">
-        <v>0.4014008710204613</v>
+        <v>0.3766480187352586</v>
       </c>
       <c r="E18">
-        <v>0.6881250082113559</v>
+        <v>0.706435197537731</v>
       </c>
       <c r="F18">
-        <v>-82214.92491372408</v>
+        <v>-83650.70063147701</v>
       </c>
       <c r="G18">
-        <v>124563.0880198386</v>
+        <v>123449.2895917635</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1038,22 +1029,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>0.7899152726343152</v>
+        <v>0.8440311319599452</v>
       </c>
       <c r="C19">
-        <v>0.5928390108101821</v>
+        <v>0.5942637906953034</v>
       </c>
       <c r="D19">
-        <v>1.332427958063701</v>
+        <v>1.420297088894492</v>
       </c>
       <c r="E19">
-        <v>0.1827196000674772</v>
+        <v>0.1555212083226689</v>
       </c>
       <c r="F19">
-        <v>-0.3720278371839935</v>
+        <v>-0.3207044951190985</v>
       </c>
       <c r="G19">
-        <v>1.951858382452624</v>
+        <v>2.008766759038989</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1061,22 +1052,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>1.918050567296463</v>
+        <v>1.922661384972793</v>
       </c>
       <c r="C20">
-        <v>0.5875839411552412</v>
+        <v>0.5892782554249349</v>
       </c>
       <c r="D20">
-        <v>3.264300524492566</v>
+        <v>3.262739405828476</v>
       </c>
       <c r="E20">
-        <v>0.001097347029063702</v>
+        <v>0.001103409310970294</v>
       </c>
       <c r="F20">
-        <v>0.7664072047380879</v>
+        <v>0.7676972274673262</v>
       </c>
       <c r="G20">
-        <v>3.069693929854838</v>
+        <v>3.077625542478261</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1084,22 +1075,22 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>0.1077645897973398</v>
+        <v>0.09255225616626106</v>
       </c>
       <c r="C21">
-        <v>0.5837838227488116</v>
+        <v>0.5870981101184634</v>
       </c>
       <c r="D21">
-        <v>0.1845967387207103</v>
+        <v>0.1576435940963702</v>
       </c>
       <c r="E21">
-        <v>0.8535453441069552</v>
+        <v>0.8747376499297355</v>
       </c>
       <c r="F21">
-        <v>-1.036430677547446</v>
+        <v>-1.058138895057458</v>
       </c>
       <c r="G21">
-        <v>1.251959857142125</v>
+        <v>1.24324340738998</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1107,22 +1098,22 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.8968473430104549</v>
+        <v>-0.8925113087790102</v>
       </c>
       <c r="C22">
-        <v>0.567130697132368</v>
+        <v>0.5683068972267512</v>
       </c>
       <c r="D22">
-        <v>-1.581376828207786</v>
+        <v>-1.570474180648389</v>
       </c>
       <c r="E22">
-        <v>0.1137919024060524</v>
+        <v>0.1163048365506964</v>
       </c>
       <c r="F22">
-        <v>-2.008403083916989</v>
+        <v>-2.006372359509148</v>
       </c>
       <c r="G22">
-        <v>0.2147083978960795</v>
+        <v>0.2213497419511281</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1130,22 +1121,22 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>-3.511059519775868</v>
+        <v>-3.55677212757437</v>
       </c>
       <c r="C23">
-        <v>0.5799460327749626</v>
+        <v>0.5812241067641503</v>
       </c>
       <c r="D23">
-        <v>-6.054114212965519</v>
+        <v>-6.119450460126288</v>
       </c>
       <c r="E23">
-        <v>1.411924113657283E-09</v>
+        <v>9.389861612144744E-10</v>
       </c>
       <c r="F23">
-        <v>-4.647732856991681</v>
+        <v>-4.695950443778568</v>
       </c>
       <c r="G23">
-        <v>-2.374386182560055</v>
+        <v>-2.417593811370172</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1153,22 +1144,22 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>1.460362039296829</v>
+        <v>1.502404686901409</v>
       </c>
       <c r="C24">
-        <v>0.5752136505932157</v>
+        <v>0.5751968474202811</v>
       </c>
       <c r="D24">
-        <v>2.538816729732967</v>
+        <v>2.611983521188602</v>
       </c>
       <c r="E24">
-        <v>0.01112280723119364</v>
+        <v>0.009001859302519269</v>
       </c>
       <c r="F24">
-        <v>0.3329640007183199</v>
+        <v>0.375039581936677</v>
       </c>
       <c r="G24">
-        <v>2.587760077875338</v>
+        <v>2.62976979186614</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1176,22 +1167,22 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>3.109523348259944</v>
+        <v>3.076141171679729</v>
       </c>
       <c r="C25">
-        <v>0.5990589334189502</v>
+        <v>0.5998972702628185</v>
       </c>
       <c r="D25">
-        <v>5.190680206558755</v>
+        <v>5.127779911937346</v>
       </c>
       <c r="E25">
-        <v>2.09527223083203E-07</v>
+        <v>2.93178890517735E-07</v>
       </c>
       <c r="F25">
-        <v>1.935389414141823</v>
+        <v>1.900364127540714</v>
       </c>
       <c r="G25">
-        <v>4.283657282378065</v>
+        <v>4.251918215818745</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1199,22 +1190,22 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>0.692864082669133</v>
+        <v>0.6806364485880088</v>
       </c>
       <c r="C26">
-        <v>0.546091186303856</v>
+        <v>0.5473002407910624</v>
       </c>
       <c r="D26">
-        <v>1.268769941808967</v>
+        <v>1.243625341008846</v>
       </c>
       <c r="E26">
-        <v>0.2045231286275792</v>
+        <v>0.213637485152165</v>
       </c>
       <c r="F26">
-        <v>-0.3774549747611775</v>
+        <v>-0.392052312092573</v>
       </c>
       <c r="G26">
-        <v>1.763183140099444</v>
+        <v>1.75332520926859</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1222,22 +1213,22 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>4.728501709772859</v>
+        <v>4.737845005299883</v>
       </c>
       <c r="C27">
-        <v>0.5646631551562317</v>
+        <v>0.5664469078180051</v>
       </c>
       <c r="D27">
-        <v>8.374022045877194</v>
+        <v>8.364146648006974</v>
       </c>
       <c r="E27">
-        <v>5.568433509779846E-17</v>
+        <v>6.055156891777581E-17</v>
       </c>
       <c r="F27">
-        <v>3.621782262269892</v>
+        <v>3.627629466822513</v>
       </c>
       <c r="G27">
-        <v>5.835221157275825</v>
+        <v>5.848060543777253</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1245,22 +1236,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>-3.059369595590722</v>
+        <v>-3.085620520677335</v>
       </c>
       <c r="C28">
-        <v>0.5540934983943071</v>
+        <v>0.5544825373634649</v>
       </c>
       <c r="D28">
-        <v>-5.521395945731881</v>
+        <v>-5.564865099898902</v>
       </c>
       <c r="E28">
-        <v>3.363169573187182E-08</v>
+        <v>2.62355287788577E-08</v>
       </c>
       <c r="F28">
-        <v>-4.145372896511367</v>
+        <v>-4.17238632396611</v>
       </c>
       <c r="G28">
-        <v>-1.973366294670078</v>
+        <v>-1.998854717388559</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1268,22 +1259,22 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>-3.30272527970786</v>
+        <v>-3.31283302904204</v>
       </c>
       <c r="C29">
-        <v>0.5215139195441737</v>
+        <v>0.5222974371402377</v>
       </c>
       <c r="D29">
-        <v>-6.332957100348517</v>
+        <v>-6.342809275842836</v>
       </c>
       <c r="E29">
-        <v>2.405064519298917E-10</v>
+        <v>2.256126740697748E-10</v>
       </c>
       <c r="F29">
-        <v>-4.324873779450759</v>
+        <v>-4.336517195054478</v>
       </c>
       <c r="G29">
-        <v>-2.28057677996496</v>
+        <v>-2.289148863029601</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1291,22 +1282,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>0.7367961814386259</v>
+        <v>0.760879199036244</v>
       </c>
       <c r="C30">
-        <v>0.6267573385179444</v>
+        <v>0.6286292629740015</v>
       </c>
       <c r="D30">
-        <v>1.175568495425812</v>
+        <v>1.210378268801197</v>
       </c>
       <c r="E30">
-        <v>0.2397673510862193</v>
+        <v>0.2261337766827318</v>
       </c>
       <c r="F30">
-        <v>-0.4916256291027239</v>
+        <v>-0.4712115160207573</v>
       </c>
       <c r="G30">
-        <v>1.965217991979976</v>
+        <v>1.992969914093245</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1314,22 +1305,22 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>-1.143350108161591</v>
+        <v>-1.16279578791792</v>
       </c>
       <c r="C31">
-        <v>0.5385205657831762</v>
+        <v>0.5391868858440532</v>
       </c>
       <c r="D31">
-        <v>-2.12313174427945</v>
+        <v>-2.156572829284706</v>
       </c>
       <c r="E31">
-        <v>0.03374281360149443</v>
+        <v>0.03103896348468381</v>
       </c>
       <c r="F31">
-        <v>-2.198831022030749</v>
+        <v>-2.219582665108573</v>
       </c>
       <c r="G31">
-        <v>-0.08786919429243278</v>
+        <v>-0.1060089107272659</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1337,22 +1328,22 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>3.849166871894484</v>
+        <v>3.825268620299707</v>
       </c>
       <c r="C32">
-        <v>0.6372781543960582</v>
+        <v>0.6374389337500823</v>
       </c>
       <c r="D32">
-        <v>6.040010700731299</v>
+        <v>6.000996201778071</v>
       </c>
       <c r="E32">
-        <v>1.541040074401263E-09</v>
+        <v>1.961105788389076E-09</v>
       </c>
       <c r="F32">
-        <v>2.600124641144054</v>
+        <v>2.575911267805933</v>
       </c>
       <c r="G32">
-        <v>5.098209102644915</v>
+        <v>5.074625972793482</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1360,22 +1351,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>-5.631043732971782</v>
+        <v>-5.65343673541425</v>
       </c>
       <c r="C33">
-        <v>0.6680156125687037</v>
+        <v>0.6686557835285339</v>
       </c>
       <c r="D33">
-        <v>-8.429509171677696</v>
+        <v>-8.45492834232398</v>
       </c>
       <c r="E33">
-        <v>3.471180712594269E-17</v>
+        <v>2.792587957662805E-17</v>
       </c>
       <c r="F33">
-        <v>-6.940330274716903</v>
+        <v>-6.963977989184587</v>
       </c>
       <c r="G33">
-        <v>-4.321757191226661</v>
+        <v>-4.342895481643913</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1383,22 +1374,22 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>0.2188425794060662</v>
+        <v>0.2313228997367904</v>
       </c>
       <c r="C34">
-        <v>0.6473187362190249</v>
+        <v>0.6488592071339657</v>
       </c>
       <c r="D34">
-        <v>0.338075459833468</v>
+        <v>0.3565070776425474</v>
       </c>
       <c r="E34">
-        <v>0.7353063230978056</v>
+        <v>0.7214608526461068</v>
       </c>
       <c r="F34">
-        <v>-1.049878830101206</v>
+        <v>-1.040417777282997</v>
       </c>
       <c r="G34">
-        <v>1.487563988913339</v>
+        <v>1.503063576756578</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1406,22 +1397,22 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>-2.50549312303581</v>
+        <v>-2.498060966160446</v>
       </c>
       <c r="C35">
-        <v>0.6120935175361989</v>
+        <v>0.6131787786951656</v>
       </c>
       <c r="D35">
-        <v>-4.093317526251429</v>
+        <v>-4.073952088616437</v>
       </c>
       <c r="E35">
-        <v>4.25244750863294E-05</v>
+        <v>4.622199445227125E-05</v>
       </c>
       <c r="F35">
-        <v>-3.705174372577195</v>
+        <v>-3.699869288487227</v>
       </c>
       <c r="G35">
-        <v>-1.305811873494424</v>
+        <v>-1.296252643833665</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1429,22 +1420,22 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>13.62171962139136</v>
+        <v>13.70313261397204</v>
       </c>
       <c r="C36">
-        <v>0.6651802514912724</v>
+        <v>0.6667537999784647</v>
       </c>
       <c r="D36">
-        <v>20.47823817807689</v>
+        <v>20.55201277355244</v>
       </c>
       <c r="E36">
-        <v>3.366149609415735E-93</v>
+        <v>7.383740330503431E-94</v>
       </c>
       <c r="F36">
-        <v>12.31799028524117</v>
+        <v>12.39631917945902</v>
       </c>
       <c r="G36">
-        <v>14.92544895754155</v>
+        <v>15.00994604848505</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1452,22 +1443,22 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>-2.955366038911612</v>
+        <v>-3.027505844185382</v>
       </c>
       <c r="C37">
-        <v>0.7762538195095205</v>
+        <v>0.7778296483152115</v>
       </c>
       <c r="D37">
-        <v>-3.807216099469853</v>
+        <v>-3.892247937248209</v>
       </c>
       <c r="E37">
-        <v>0.0001405399318226291</v>
+        <v>9.931966718694546E-05</v>
       </c>
       <c r="F37">
-        <v>-4.476795568011928</v>
+        <v>-4.552023940990653</v>
       </c>
       <c r="G37">
-        <v>-1.433936509811296</v>
+        <v>-1.502987747380111</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1475,22 +1466,22 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>5.65217819079037</v>
+        <v>5.644146198502295</v>
       </c>
       <c r="C38">
-        <v>0.4267449866907799</v>
+        <v>0.4274729728747516</v>
       </c>
       <c r="D38">
-        <v>13.24486137405042</v>
+        <v>13.20351591012986</v>
       </c>
       <c r="E38">
-        <v>4.831731752908844E-40</v>
+        <v>8.373373828629284E-40</v>
       </c>
       <c r="F38">
-        <v>4.815773386293417</v>
+        <v>4.806314567303514</v>
       </c>
       <c r="G38">
-        <v>6.488582995287324</v>
+        <v>6.481977829701075</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1498,22 +1489,22 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>-6.361377098582678</v>
+        <v>-6.394456398565534</v>
       </c>
       <c r="C39">
-        <v>0.5430907377593266</v>
+        <v>0.5437964232719357</v>
       </c>
       <c r="D39">
-        <v>-11.71328593234406</v>
+        <v>-11.7589158826958</v>
       </c>
       <c r="E39">
-        <v>1.089728747495579E-31</v>
+        <v>6.354496717658117E-32</v>
       </c>
       <c r="F39">
-        <v>-7.425815384928246</v>
+        <v>-7.460277803100227</v>
       </c>
       <c r="G39">
-        <v>-5.29693881223711</v>
+        <v>-5.328634994030842</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1521,22 +1512,22 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>3.529540277070008</v>
+        <v>3.531551231359779</v>
       </c>
       <c r="C40">
-        <v>0.6145534083273775</v>
+        <v>0.6159056858898752</v>
       </c>
       <c r="D40">
-        <v>5.743260437976114</v>
+        <v>5.733915617709081</v>
       </c>
       <c r="E40">
-        <v>9.287071947612118E-09</v>
+        <v>9.813816966688574E-09</v>
       </c>
       <c r="F40">
-        <v>2.32503773017201</v>
+        <v>2.324398269142184</v>
       </c>
       <c r="G40">
-        <v>4.734042823968005</v>
+        <v>4.738704193577373</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1544,22 +1535,22 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>-3.007814390589298</v>
+        <v>-3.002077635247842</v>
       </c>
       <c r="C41">
-        <v>0.6642889026596179</v>
+        <v>0.6658469330098193</v>
       </c>
       <c r="D41">
-        <v>-4.527870898560689</v>
+        <v>-4.508660303769199</v>
       </c>
       <c r="E41">
-        <v>5.958096278322724E-06</v>
+        <v>6.523826677834991E-06</v>
       </c>
       <c r="F41">
-        <v>-4.309796715131784</v>
+        <v>-4.307113643163541</v>
       </c>
       <c r="G41">
-        <v>-1.705832066046814</v>
+        <v>-1.697041627332142</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1567,22 +1558,22 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>-3.791345846756348</v>
+        <v>-3.83515166405225</v>
       </c>
       <c r="C42">
-        <v>0.6678866911593464</v>
+        <v>0.6678498362903003</v>
       </c>
       <c r="D42">
-        <v>-5.676630328080303</v>
+        <v>-5.742535905010225</v>
       </c>
       <c r="E42">
-        <v>1.373739009664633E-08</v>
+        <v>9.326909399142458E-09</v>
       </c>
       <c r="F42">
-        <v>-5.100379707182293</v>
+        <v>-5.14411329026221</v>
       </c>
       <c r="G42">
-        <v>-2.482311986330403</v>
+        <v>-2.52619003784229</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1590,22 +1581,22 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>0.09038842209133691</v>
+        <v>0.2040256546317507</v>
       </c>
       <c r="C43">
-        <v>0.638366056515935</v>
+        <v>0.6385228427280106</v>
       </c>
       <c r="D43">
-        <v>0.1415934026703386</v>
+        <v>0.3195275736104852</v>
       </c>
       <c r="E43">
-        <v>0.8874011783341887</v>
+        <v>0.7493264856576358</v>
       </c>
       <c r="F43">
-        <v>-1.160786057632756</v>
+        <v>-1.047456120421283</v>
       </c>
       <c r="G43">
-        <v>1.34156290181543</v>
+        <v>1.455507429684785</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1613,22 +1604,22 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>-6.233370501583703</v>
+        <v>-6.262666579004621</v>
       </c>
       <c r="C44">
-        <v>0.5120994694757093</v>
+        <v>0.5132935054542743</v>
       </c>
       <c r="D44">
-        <v>-12.17218699321339</v>
+        <v>-12.2009464613468</v>
       </c>
       <c r="E44">
-        <v>4.372089399499803E-34</v>
+        <v>3.072319055139158E-34</v>
       </c>
       <c r="F44">
-        <v>-7.237067018258163</v>
+        <v>-7.268703363193313</v>
       </c>
       <c r="G44">
-        <v>-5.229673984909244</v>
+        <v>-5.25662979481593</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1636,22 +1627,22 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>2.629698352914605</v>
+        <v>2.639537942864632</v>
       </c>
       <c r="C45">
-        <v>0.7081076848888417</v>
+        <v>0.7087755325719159</v>
       </c>
       <c r="D45">
-        <v>3.713698366834436</v>
+        <v>3.724081633132294</v>
       </c>
       <c r="E45">
-        <v>0.0002042522249444557</v>
+        <v>0.0001960274934990927</v>
       </c>
       <c r="F45">
-        <v>1.241832793356437</v>
+        <v>1.250363425900481</v>
       </c>
       <c r="G45">
-        <v>4.017563912472772</v>
+        <v>4.028712459828784</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1659,22 +1650,22 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>1.13120829591715</v>
+        <v>1.166561984961072</v>
       </c>
       <c r="C46">
-        <v>0.6563726200485487</v>
+        <v>0.658415919475854</v>
       </c>
       <c r="D46">
-        <v>1.723423953658335</v>
+        <v>1.77177062469835</v>
       </c>
       <c r="E46">
-        <v>0.08481188626916458</v>
+        <v>0.07643264065837056</v>
       </c>
       <c r="F46">
-        <v>-0.1552583998161985</v>
+        <v>-0.123909504059426</v>
       </c>
       <c r="G46">
-        <v>2.417674991650498</v>
+        <v>2.45703347398157</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1682,22 +1673,22 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>1.050667813765888</v>
+        <v>0.9997974929704407</v>
       </c>
       <c r="C47">
-        <v>0.3836807783419516</v>
+        <v>0.3846008636905459</v>
       </c>
       <c r="D47">
-        <v>2.73839053993341</v>
+        <v>2.599571627002088</v>
       </c>
       <c r="E47">
-        <v>0.006174070942928711</v>
+        <v>0.009334019684545853</v>
       </c>
       <c r="F47">
-        <v>0.298667306655367</v>
+        <v>0.2459936517139721</v>
       </c>
       <c r="G47">
-        <v>1.802668320876409</v>
+        <v>1.753601334226909</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1705,22 +1696,22 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>1.491772217544488</v>
+        <v>1.443433785641628</v>
       </c>
       <c r="C48">
-        <v>0.3397520785904684</v>
+        <v>0.3403217993630218</v>
       </c>
       <c r="D48">
-        <v>4.390767007911808</v>
+        <v>4.241379154504044</v>
       </c>
       <c r="E48">
-        <v>1.12951520558955E-05</v>
+        <v>2.221504903493338E-05</v>
       </c>
       <c r="F48">
-        <v>0.8258703798345483</v>
+        <v>0.7764153157362395</v>
       </c>
       <c r="G48">
-        <v>2.157674055254428</v>
+        <v>2.110452255547017</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1728,22 +1719,22 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>-8.185326572156795</v>
+        <v>-8.092920562963025</v>
       </c>
       <c r="C49">
-        <v>0.8348702601594631</v>
+        <v>0.8365190927473396</v>
       </c>
       <c r="D49">
-        <v>-9.804309678719864</v>
+        <v>-9.674519844351471</v>
       </c>
       <c r="E49">
-        <v>1.078821185675042E-22</v>
+        <v>3.869035229002219E-22</v>
       </c>
       <c r="F49">
-        <v>-9.821642213832927</v>
+        <v>-9.732467857127931</v>
       </c>
       <c r="G49">
-        <v>-6.549010930480662</v>
+        <v>-6.453373268798118</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1751,22 +1742,22 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>-1028.139984060974</v>
+        <v>-964.8886483369661</v>
       </c>
       <c r="C50">
-        <v>2613.671803188528</v>
+        <v>2617.746060224531</v>
       </c>
       <c r="D50">
-        <v>-0.393369964356926</v>
+        <v>-0.3685952060048961</v>
       </c>
       <c r="E50">
-        <v>0.6940462502483332</v>
+        <v>0.7124294694109508</v>
       </c>
       <c r="F50">
-        <v>-6150.842585718349</v>
+        <v>-6095.576647048665</v>
       </c>
       <c r="G50">
-        <v>4094.562617596402</v>
+        <v>4165.799350374733</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1774,22 +1765,22 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>0.2825371641823585</v>
+        <v>0.2816810971672411</v>
       </c>
       <c r="C51">
-        <v>0.04457429063010145</v>
+        <v>0.0446638254069913</v>
       </c>
       <c r="D51">
-        <v>6.338567819889397</v>
+        <v>6.306694390829074</v>
       </c>
       <c r="E51">
-        <v>2.319107541385082E-10</v>
+        <v>2.850578976071013E-10</v>
       </c>
       <c r="F51">
-        <v>0.1951731599109384</v>
+        <v>0.1941416079577531</v>
       </c>
       <c r="G51">
-        <v>0.3699011684537785</v>
+        <v>0.3692205863767291</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1797,22 +1788,22 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>0.2956173426324105</v>
+        <v>0.2947518455522092</v>
       </c>
       <c r="C52">
-        <v>0.04560000528811798</v>
+        <v>0.0457255895313404</v>
       </c>
       <c r="D52">
-        <v>6.482835709438825</v>
+        <v>6.446102687209441</v>
       </c>
       <c r="E52">
-        <v>9.001450122491732E-11</v>
+        <v>1.147629211369192E-10</v>
       </c>
       <c r="F52">
-        <v>0.2062429745728632</v>
+        <v>0.2051313368989203</v>
       </c>
       <c r="G52">
-        <v>0.3849917106919577</v>
+        <v>0.3843723542054981</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1820,22 +1811,22 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>-115.3543513307782</v>
+        <v>-108.2975620856114</v>
       </c>
       <c r="C53">
-        <v>291.5978161858708</v>
+        <v>292.0524427670717</v>
       </c>
       <c r="D53">
-        <v>-0.3955940165794958</v>
+        <v>-0.3708154640294682</v>
       </c>
       <c r="E53">
-        <v>0.6924045518570485</v>
+        <v>0.7107749826126546</v>
       </c>
       <c r="F53">
-        <v>-686.8755690256158</v>
+        <v>-680.7098315060173</v>
       </c>
       <c r="G53">
-        <v>456.1668663640595</v>
+        <v>464.1147073347945</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1843,22 +1834,22 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>-4.050384075928659</v>
+        <v>-4.002128774396161</v>
       </c>
       <c r="C54">
-        <v>1.051221162686647</v>
+        <v>1.052297075375021</v>
       </c>
       <c r="D54">
-        <v>-3.853027526174353</v>
+        <v>-3.803230920289188</v>
       </c>
       <c r="E54">
-        <v>0.0001166662690794194</v>
+        <v>0.0001428211101991679</v>
       </c>
       <c r="F54">
-        <v>-6.110739694580808</v>
+        <v>-6.064593143168032</v>
       </c>
       <c r="G54">
-        <v>-1.99002845727651</v>
+        <v>-1.93966440562429</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1866,22 +1857,22 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>-2566.993000999035</v>
+        <v>-2408.679207932828</v>
       </c>
       <c r="C55">
-        <v>6540.908240901745</v>
+        <v>6551.102367604462</v>
       </c>
       <c r="D55">
-        <v>-0.392452073390521</v>
+        <v>-0.3676754037372199</v>
       </c>
       <c r="E55">
-        <v>0.6947242166243944</v>
+        <v>0.713115282781445</v>
       </c>
       <c r="F55">
-        <v>-15386.93757934769</v>
+        <v>-15248.60390747265</v>
       </c>
       <c r="G55">
-        <v>10252.95157734962</v>
+        <v>10431.245491607</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1889,22 +1880,22 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>6104.607043767901</v>
+        <v>5730.845248561694</v>
       </c>
       <c r="C56">
-        <v>15443.68422065832</v>
+        <v>15467.75344409819</v>
       </c>
       <c r="D56">
-        <v>0.3952817835786906</v>
+        <v>0.3705027539567055</v>
       </c>
       <c r="E56">
-        <v>0.6926349416863216</v>
+        <v>0.7110079249706708</v>
       </c>
       <c r="F56">
-        <v>-24164.45781733194</v>
+        <v>-24585.39442361614</v>
       </c>
       <c r="G56">
-        <v>36373.67190486774</v>
+        <v>36047.08492073952</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1912,22 +1903,22 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>-1.286686218443717</v>
+        <v>-1.655761829884742</v>
       </c>
       <c r="C57">
-        <v>1.842683669452416</v>
+        <v>1.843137578373567</v>
       </c>
       <c r="D57">
-        <v>-0.6982675538803018</v>
+        <v>-0.8983387074912934</v>
       </c>
       <c r="E57">
-        <v>0.4850098864327754</v>
+        <v>0.3690050024106765</v>
       </c>
       <c r="F57">
-        <v>-4.898279845470562</v>
+        <v>-5.268245102049304</v>
       </c>
       <c r="G57">
-        <v>2.324907408583127</v>
+        <v>1.956721442279819</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1935,22 +1926,22 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>14.75478086749459</v>
+        <v>14.89725505780361</v>
       </c>
       <c r="C58">
-        <v>1.892289856487659</v>
+        <v>1.89432314258001</v>
       </c>
       <c r="D58">
-        <v>7.797315414923496</v>
+        <v>7.86415724062475</v>
       </c>
       <c r="E58">
-        <v>6.323803894281266E-15</v>
+        <v>3.715905550829873E-15</v>
       </c>
       <c r="F58">
-        <v>11.04596090046831</v>
+        <v>11.18444992326606</v>
       </c>
       <c r="G58">
-        <v>18.46360083452087</v>
+        <v>18.61006019234117</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1958,22 +1949,22 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>9.946206112429778</v>
+        <v>10.02006844035264</v>
       </c>
       <c r="C59">
-        <v>1.838197865404152</v>
+        <v>1.838377301043892</v>
       </c>
       <c r="D59">
-        <v>5.410846296594394</v>
+        <v>5.450496171086813</v>
       </c>
       <c r="E59">
-        <v>6.27275950083572E-08</v>
+        <v>5.022948429754562E-08</v>
       </c>
       <c r="F59">
-        <v>6.343404499779233</v>
+        <v>6.416915140310664</v>
       </c>
       <c r="G59">
-        <v>13.54900772508032</v>
+        <v>13.62322174039462</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1981,22 +1972,22 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>4.734607328824397E-09</v>
+        <v>-2.53457326203719E-09</v>
       </c>
       <c r="C60">
-        <v>1.181338356886645E-08</v>
+        <v>6.740396154087722E-09</v>
       </c>
       <c r="D60">
-        <v>0.4007833404565145</v>
+        <v>-0.3760273438082856</v>
       </c>
       <c r="E60">
-        <v>0.6885796454207558</v>
+        <v>0.7068965678893546</v>
       </c>
       <c r="F60">
-        <v>-1.841919900171109E-08</v>
+        <v>-1.574550696558142E-08</v>
       </c>
       <c r="G60">
-        <v>2.788841365935989E-08</v>
+        <v>1.067636044150704E-08</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2004,22 +1995,22 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>-1.376465785297925E-09</v>
+        <v>2.46863610880881E-10</v>
       </c>
       <c r="C61">
-        <v>3.434435689441438E-09</v>
+        <v>6.565047427072103E-10</v>
       </c>
       <c r="D61">
-        <v>-0.4007836831912806</v>
+        <v>0.376027155360518</v>
       </c>
       <c r="E61">
-        <v>0.6885793930619754</v>
+        <v>0.7068967079858273</v>
       </c>
       <c r="F61">
-        <v>-8.107836043822134E-09</v>
+        <v>-1.039862040504986E-09</v>
       </c>
       <c r="G61">
-        <v>5.354904473226284E-09</v>
+        <v>1.533589262266748E-09</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2027,22 +2018,22 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>-8.459321652994206E-10</v>
+        <v>-2.889760942543116E-10</v>
       </c>
       <c r="C62">
-        <v>2.110694487541725E-09</v>
+        <v>7.685016811177344E-10</v>
       </c>
       <c r="D62">
-        <v>-0.4007838037634038</v>
+        <v>-0.3760253248034736</v>
       </c>
       <c r="E62">
-        <v>0.6885793042836134</v>
+        <v>0.7068980688652118</v>
       </c>
       <c r="F62">
-        <v>-4.982817343248426E-09</v>
+        <v>-1.795211711303556E-09</v>
       </c>
       <c r="G62">
-        <v>3.290953012649585E-09</v>
+        <v>1.217259522794933E-09</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2050,22 +2041,22 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>-9.278284007327381E-10</v>
+        <v>1.671150275595765E-10</v>
       </c>
       <c r="C63">
-        <v>2.315042071978474E-09</v>
+        <v>4.444254248715591E-10</v>
       </c>
       <c r="D63">
-        <v>-0.4007825222544662</v>
+        <v>0.3760249036334352</v>
       </c>
       <c r="E63">
-        <v>0.6885802478706371</v>
+        <v>0.7068983819731081</v>
       </c>
       <c r="F63">
-        <v>-5.46522748450553E-09</v>
+        <v>-7.039427990025909E-10</v>
       </c>
       <c r="G63">
-        <v>3.609570683040054E-09</v>
+        <v>1.038172854121744E-09</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2073,22 +2064,22 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>-1.099357300755721E-09</v>
+        <v>1.216461844283839E-10</v>
       </c>
       <c r="C64">
-        <v>2.743011222376157E-09</v>
+        <v>3.234985736531935E-10</v>
       </c>
       <c r="D64">
-        <v>-0.4007848352160197</v>
+        <v>0.3760331399754321</v>
       </c>
       <c r="E64">
-        <v>0.6885785448157513</v>
+        <v>0.7068922588881499</v>
       </c>
       <c r="F64">
-        <v>-6.475560505802177E-09</v>
+        <v>-5.123993689819532E-10</v>
       </c>
       <c r="G64">
-        <v>4.276845904290736E-09</v>
+        <v>7.556917378387211E-10</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2096,22 +2087,22 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>10.04988735425346</v>
+        <v>10.22022851176218</v>
       </c>
       <c r="C65">
-        <v>1.982727257236</v>
+        <v>1.984314314737222</v>
       </c>
       <c r="D65">
-        <v>5.068719016988448</v>
+        <v>5.15050888654987</v>
       </c>
       <c r="E65">
-        <v>4.005019510598468E-07</v>
+        <v>2.597806221819537E-07</v>
       </c>
       <c r="F65">
-        <v>6.163813338905014</v>
+        <v>6.331043920869945</v>
       </c>
       <c r="G65">
-        <v>13.9359613696019</v>
+        <v>14.10941310265441</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2119,22 +2110,16 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>1.914841178973023E-10</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>4.777643101116892E-10</v>
-      </c>
-      <c r="D66">
-        <v>0.4007920094586768</v>
-      </c>
-      <c r="E66">
-        <v>0.6885732623648776</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>-7.449167230202341E-10</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>1.127884958814839E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2142,22 +2127,16 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>2.465749132664584E-12</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>6.152296918206869E-12</v>
-      </c>
-      <c r="D67">
-        <v>0.4007851320321589</v>
-      </c>
-      <c r="E67">
-        <v>0.6885783262674099</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>-9.592531249217646E-12</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>1.452402951454681E-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2165,22 +2144,22 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>22.83777709497971</v>
+        <v>22.81984506110837</v>
       </c>
       <c r="C68">
-        <v>2.086459859364438</v>
+        <v>2.090855733848047</v>
       </c>
       <c r="D68">
-        <v>10.94570642827338</v>
+        <v>10.91411745520593</v>
       </c>
       <c r="E68">
-        <v>6.967246600385658E-28</v>
+        <v>9.868308587919431E-28</v>
       </c>
       <c r="F68">
-        <v>18.74839091543691</v>
+        <v>18.72184312589714</v>
       </c>
       <c r="G68">
-        <v>26.92716327452252</v>
+        <v>26.91784699631961</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2188,22 +2167,22 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>18.99136274317186</v>
+        <v>19.10641597934637</v>
       </c>
       <c r="C69">
-        <v>1.143549211555236</v>
+        <v>1.146573349257596</v>
       </c>
       <c r="D69">
-        <v>16.60738562999266</v>
+        <v>16.66392820984173</v>
       </c>
       <c r="E69">
-        <v>6.162082032721041E-62</v>
+        <v>2.397477162372235E-62</v>
       </c>
       <c r="F69">
-        <v>16.75004747397442</v>
+        <v>16.85917350916802</v>
       </c>
       <c r="G69">
-        <v>21.23267801236929</v>
+        <v>21.35365844952473</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2211,16 +2190,22 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>-3.174801173379069</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>4.950549045409542</v>
+      </c>
+      <c r="D70">
+        <v>-0.6413028422217011</v>
+      </c>
+      <c r="E70">
+        <v>0.5213259429687971</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>-12.87769900608092</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>6.528096659322778</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2228,22 +2213,22 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>-3.501660478786903</v>
+        <v>-0.3759733027653844</v>
       </c>
       <c r="C71">
-        <v>4.976446229556613</v>
+        <v>4.340832966481149</v>
       </c>
       <c r="D71">
-        <v>-0.7036468028107059</v>
+        <v>-0.08661316979219388</v>
       </c>
       <c r="E71">
-        <v>0.4816527568717136</v>
+        <v>0.9309789972626961</v>
       </c>
       <c r="F71">
-        <v>-13.25531585971801</v>
+        <v>-8.883849579972601</v>
       </c>
       <c r="G71">
-        <v>6.251994902144205</v>
+        <v>8.131902974441832</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2251,22 +2236,22 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.3702724498710985</v>
+        <v>-4.293145447800965</v>
       </c>
       <c r="C72">
-        <v>4.326323507932032</v>
+        <v>1.102866171090962</v>
       </c>
       <c r="D72">
-        <v>-0.08558593669480059</v>
+        <v>-3.892716596388264</v>
       </c>
       <c r="E72">
-        <v>0.9317955783273445</v>
+        <v>9.912792902890688E-05</v>
       </c>
       <c r="F72">
-        <v>-8.849710710886868</v>
+        <v>-6.45472342290684</v>
       </c>
       <c r="G72">
-        <v>8.10916581114467</v>
+        <v>-2.131567472695091</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2274,91 +2259,22 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>-17.93051190537168</v>
+        <v>-2.378282207643744</v>
       </c>
       <c r="C73">
-        <v>3.244990009529308</v>
+        <v>1.453073336501211</v>
       </c>
       <c r="D73">
-        <v>-5.525598492666097</v>
+        <v>-1.636725516807225</v>
       </c>
       <c r="E73">
-        <v>3.283643009856884E-08</v>
+        <v>0.1016878348232862</v>
       </c>
       <c r="F73">
-        <v>-24.29057545424141</v>
+        <v>-5.226253614081569</v>
       </c>
       <c r="G73">
-        <v>-11.57044835650196</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74">
-        <v>-4.448037441702524</v>
-      </c>
-      <c r="C74">
-        <v>1.106355685426951</v>
-      </c>
-      <c r="D74">
-        <v>-4.020440713861379</v>
-      </c>
-      <c r="E74">
-        <v>5.8089367241222E-05</v>
-      </c>
-      <c r="F74">
-        <v>-6.616454739230472</v>
-      </c>
-      <c r="G74">
-        <v>-2.279620144174575</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75">
-        <v>-2.720851431698716</v>
-      </c>
-      <c r="C75">
-        <v>1.457558289992635</v>
-      </c>
-      <c r="D75">
-        <v>-1.866718779193705</v>
-      </c>
-      <c r="E75">
-        <v>0.06194086986787095</v>
-      </c>
-      <c r="F75">
-        <v>-5.577613185452069</v>
-      </c>
-      <c r="G75">
-        <v>0.1359103220546367</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76">
-        <v>-16.17257844691144</v>
-      </c>
-      <c r="C76">
-        <v>5.482788505299598</v>
-      </c>
-      <c r="D76">
-        <v>-2.949699488003088</v>
-      </c>
-      <c r="E76">
-        <v>0.003180831515710088</v>
-      </c>
-      <c r="F76">
-        <v>-26.91864645214885</v>
-      </c>
-      <c r="G76">
-        <v>-5.426510441674029</v>
+        <v>0.469689198794081</v>
       </c>
     </row>
   </sheetData>
@@ -2368,7 +2284,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2399,22 +2315,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>3.002779139319613</v>
+        <v>2.78962909348736</v>
       </c>
       <c r="C2">
-        <v>2.3495807115142</v>
+        <v>2.356103536186016</v>
       </c>
       <c r="D2">
-        <v>1.278006379863604</v>
+        <v>1.184001063893449</v>
       </c>
       <c r="E2">
-        <v>0.201247176764903</v>
+        <v>0.2364126416760396</v>
       </c>
       <c r="F2">
-        <v>-1.602314434018214</v>
+        <v>-1.828248981284695</v>
       </c>
       <c r="G2">
-        <v>7.60787271265744</v>
+        <v>7.407507168259414</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2422,22 +2338,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>7.789301262379931</v>
+        <v>7.906591669581925</v>
       </c>
       <c r="C3">
-        <v>1.823385911691417</v>
+        <v>1.828699390478158</v>
       </c>
       <c r="D3">
-        <v>4.271888475410226</v>
+        <v>4.323614756340327</v>
       </c>
       <c r="E3">
-        <v>1.93824511473934E-05</v>
+        <v>1.534932374038731E-05</v>
       </c>
       <c r="F3">
-        <v>4.215530545547022</v>
+        <v>4.322406725694387</v>
       </c>
       <c r="G3">
-        <v>11.36307197921284</v>
+        <v>11.49077661346946</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2445,22 +2361,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05324325512860642</v>
+        <v>0.05351697048653199</v>
       </c>
       <c r="C4">
-        <v>0.03502470600570072</v>
+        <v>0.03509730952016386</v>
       </c>
       <c r="D4">
-        <v>1.520162799366264</v>
+        <v>1.524816893892844</v>
       </c>
       <c r="E4">
-        <v>0.1284700644536383</v>
+        <v>0.1273047749631805</v>
       </c>
       <c r="F4">
-        <v>-0.01540390721167073</v>
+        <v>-0.01527249212724394</v>
       </c>
       <c r="G4">
-        <v>0.1218904174688836</v>
+        <v>0.1223064331003079</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2468,22 +2384,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-22.72591537855226</v>
+        <v>-23.11164502683179</v>
       </c>
       <c r="C5">
-        <v>2.878017166211835</v>
+        <v>2.88770764455596</v>
       </c>
       <c r="D5">
-        <v>-7.896379370267985</v>
+        <v>-8.003457368824346</v>
       </c>
       <c r="E5">
-        <v>2.871218766016313E-15</v>
+        <v>1.209735764756822E-15</v>
       </c>
       <c r="F5">
-        <v>-28.36672537121548</v>
+        <v>-28.77144800804247</v>
       </c>
       <c r="G5">
-        <v>-17.08510538588904</v>
+        <v>-17.45184204562112</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2491,22 +2407,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-13.40940442287366</v>
+        <v>-13.73176932835195</v>
       </c>
       <c r="C6">
-        <v>2.574009851834162</v>
+        <v>2.582124279111452</v>
       </c>
       <c r="D6">
-        <v>-5.209538888640432</v>
+        <v>-5.318012552469883</v>
       </c>
       <c r="E6">
-        <v>1.893105268786493E-07</v>
+        <v>1.049068334129018E-07</v>
       </c>
       <c r="F6">
-        <v>-18.4543710283199</v>
+        <v>-18.79263991901685</v>
       </c>
       <c r="G6">
-        <v>-8.364437817427422</v>
+        <v>-8.670898737687054</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2514,22 +2430,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-4.144752373843475</v>
+        <v>-4.686176868818539</v>
       </c>
       <c r="C7">
-        <v>1.488877587307096</v>
+        <v>1.482413406223733</v>
       </c>
       <c r="D7">
-        <v>-2.783810038634544</v>
+        <v>-3.161180848165697</v>
       </c>
       <c r="E7">
-        <v>0.005372448894669563</v>
+        <v>0.001571309069827459</v>
       </c>
       <c r="F7">
-        <v>-7.062898822354274</v>
+        <v>-7.591653755216401</v>
       </c>
       <c r="G7">
-        <v>-1.226605925332676</v>
+        <v>-1.780699982420678</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2537,22 +2453,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-2.924530547677338</v>
+        <v>-2.965429186362076</v>
       </c>
       <c r="C8">
-        <v>0.19363739428163</v>
+        <v>0.1943376730556801</v>
       </c>
       <c r="D8">
-        <v>-15.10312901352021</v>
+        <v>-15.259157628755</v>
       </c>
       <c r="E8">
-        <v>1.544278070880168E-51</v>
+        <v>1.430835150096181E-52</v>
       </c>
       <c r="F8">
-        <v>-3.304052866529515</v>
+        <v>-3.346324026390529</v>
       </c>
       <c r="G8">
-        <v>-2.545008228825161</v>
+        <v>-2.584534346333623</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2560,22 +2476,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-1.188829861481237</v>
+        <v>-1.166287083038287</v>
       </c>
       <c r="C9">
-        <v>0.2487467043960611</v>
+        <v>0.2493793444226579</v>
       </c>
       <c r="D9">
-        <v>-4.779278842578553</v>
+        <v>-4.676758958278511</v>
       </c>
       <c r="E9">
-        <v>1.759250659017293E-06</v>
+        <v>2.914444945032012E-06</v>
       </c>
       <c r="F9">
-        <v>-1.676364443370548</v>
+        <v>-1.655061616594907</v>
       </c>
       <c r="G9">
-        <v>-0.7012952795919257</v>
+        <v>-0.6775125494816684</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2583,22 +2499,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-3.234577024261007</v>
+        <v>-3.252722111478124</v>
       </c>
       <c r="C10">
-        <v>0.2298012431649688</v>
+        <v>0.2298938990152523</v>
       </c>
       <c r="D10">
-        <v>-14.07554188877465</v>
+        <v>-14.1487970120613</v>
       </c>
       <c r="E10">
-        <v>5.369174454363226E-45</v>
+        <v>1.899793866109313E-45</v>
       </c>
       <c r="F10">
-        <v>-3.684979184466877</v>
+        <v>-3.703305873813507</v>
       </c>
       <c r="G10">
-        <v>-2.784174864055137</v>
+        <v>-2.802138349142742</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2606,22 +2522,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.1958201887104469</v>
+        <v>-0.187200258797524</v>
       </c>
       <c r="C11">
-        <v>0.1976681535321245</v>
+        <v>0.1982691514927944</v>
       </c>
       <c r="D11">
-        <v>-0.9906511757779067</v>
+        <v>-0.9441723908538913</v>
       </c>
       <c r="E11">
-        <v>0.321855939460899</v>
+        <v>0.3450815613978655</v>
       </c>
       <c r="F11">
-        <v>-0.5832426505239448</v>
+        <v>-0.5758006549687169</v>
       </c>
       <c r="G11">
-        <v>0.1916022731030509</v>
+        <v>0.2014001373736688</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2629,22 +2545,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>2.053130306172871</v>
+        <v>2.052155971191967</v>
       </c>
       <c r="C12">
-        <v>0.4087074652012367</v>
+        <v>0.4101296492048067</v>
       </c>
       <c r="D12">
-        <v>5.023471507088728</v>
+        <v>5.003676215974282</v>
       </c>
       <c r="E12">
-        <v>5.07457562242084E-07</v>
+        <v>5.624720130992062E-07</v>
       </c>
       <c r="F12">
-        <v>1.252078394165789</v>
+        <v>1.2483166297585</v>
       </c>
       <c r="G12">
-        <v>2.854182218179952</v>
+        <v>2.855995312625435</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2652,22 +2568,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>0.9841034859309463</v>
+        <v>0.7306688815992857</v>
       </c>
       <c r="C13">
-        <v>2.041756216481426</v>
+        <v>2.046337669743764</v>
       </c>
       <c r="D13">
-        <v>0.4819887300878943</v>
+        <v>0.3570617363901519</v>
       </c>
       <c r="E13">
-        <v>0.6298139522269159</v>
+        <v>0.7210455887820957</v>
       </c>
       <c r="F13">
-        <v>-3.017665163583414</v>
+        <v>-3.280079251306112</v>
       </c>
       <c r="G13">
-        <v>4.985872135445307</v>
+        <v>4.741417014504683</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2675,22 +2591,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>6.17718619299389</v>
+        <v>6.436856180997277</v>
       </c>
       <c r="C14">
-        <v>2.2974080000838</v>
+        <v>2.30055574630819</v>
       </c>
       <c r="D14">
-        <v>2.688763246566814</v>
+        <v>2.797957055084104</v>
       </c>
       <c r="E14">
-        <v>0.007171726364446449</v>
+        <v>0.005142694979158798</v>
       </c>
       <c r="F14">
-        <v>1.674349255035448</v>
+        <v>1.927849773806559</v>
       </c>
       <c r="G14">
-        <v>10.68002313095233</v>
+        <v>10.945862588188</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2698,22 +2614,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>-8.393179145582748</v>
+        <v>-8.386925062419927</v>
       </c>
       <c r="C15">
-        <v>3.092783877075246</v>
+        <v>3.094104515946524</v>
       </c>
       <c r="D15">
-        <v>-2.713794264059578</v>
+        <v>-2.710614660621529</v>
       </c>
       <c r="E15">
-        <v>0.006651746232486338</v>
+        <v>0.00671586240061511</v>
       </c>
       <c r="F15">
-        <v>-14.45492415661639</v>
+        <v>-14.45125847807785</v>
       </c>
       <c r="G15">
-        <v>-2.33143413454911</v>
+        <v>-2.322591646762002</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2721,22 +2637,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>0.9332515131219035</v>
+        <v>0.9661317475713085</v>
       </c>
       <c r="C16">
-        <v>0.531508636271611</v>
+        <v>0.5322088808638354</v>
       </c>
       <c r="D16">
-        <v>1.755853902334325</v>
+        <v>1.815324362876409</v>
       </c>
       <c r="E16">
-        <v>0.07911335782417378</v>
+        <v>0.0694740771218091</v>
       </c>
       <c r="F16">
-        <v>-0.1084862714424537</v>
+        <v>-0.07697849117417732</v>
       </c>
       <c r="G16">
-        <v>1.974989297686261</v>
+        <v>2.009241986316794</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2744,22 +2660,22 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>0.2764729058762828</v>
+        <v>0.2821483088798452</v>
       </c>
       <c r="C17">
-        <v>0.03858431076324793</v>
+        <v>0.03875794789206241</v>
       </c>
       <c r="D17">
-        <v>7.165422950605792</v>
+        <v>7.279753553144874</v>
       </c>
       <c r="E17">
-        <v>7.754676196913198E-13</v>
+        <v>3.344305512361134E-13</v>
       </c>
       <c r="F17">
-        <v>0.2008490464120157</v>
+        <v>0.2061841268967228</v>
       </c>
       <c r="G17">
-        <v>0.3520967653405499</v>
+        <v>0.3581124908629676</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2767,22 +2683,22 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>47359.34103208169</v>
+        <v>44910.95437871548</v>
       </c>
       <c r="C18">
-        <v>66014.36792261261</v>
+        <v>66090.82564795214</v>
       </c>
       <c r="D18">
-        <v>0.7174095961594322</v>
+        <v>0.6795338678010157</v>
       </c>
       <c r="E18">
-        <v>0.4731214002058771</v>
+        <v>0.4967996559744635</v>
       </c>
       <c r="F18">
-        <v>-82026.44255841525</v>
+        <v>-84624.68359978679</v>
       </c>
       <c r="G18">
-        <v>176745.1246225786</v>
+        <v>174446.5923572177</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2790,22 +2706,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>0.5170627573742499</v>
+        <v>0.5881204103916562</v>
       </c>
       <c r="C19">
-        <v>0.7580094626622526</v>
+        <v>0.759420668620727</v>
       </c>
       <c r="D19">
-        <v>0.6821323253119312</v>
+        <v>0.77443297857538</v>
       </c>
       <c r="E19">
-        <v>0.4951552821668359</v>
+        <v>0.4386747877084574</v>
       </c>
       <c r="F19">
-        <v>-0.9686084893843239</v>
+        <v>-0.9003167492202959</v>
       </c>
       <c r="G19">
-        <v>2.002734004132824</v>
+        <v>2.076557570003608</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2813,22 +2729,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>1.350627972818227</v>
+        <v>1.356694406244104</v>
       </c>
       <c r="C20">
-        <v>0.7448923931880237</v>
+        <v>0.747143465897498</v>
       </c>
       <c r="D20">
-        <v>1.813185347534224</v>
+        <v>1.815841894052289</v>
       </c>
       <c r="E20">
-        <v>0.06980323898858314</v>
+        <v>0.06939462875064543</v>
       </c>
       <c r="F20">
-        <v>-0.1093342901881489</v>
+        <v>-0.1076798781994217</v>
       </c>
       <c r="G20">
-        <v>2.810590235824602</v>
+        <v>2.821068690687631</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2836,22 +2752,22 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.4221368269481697</v>
+        <v>-0.438524175423515</v>
       </c>
       <c r="C21">
-        <v>0.7365832639361761</v>
+        <v>0.7409025979545758</v>
       </c>
       <c r="D21">
-        <v>-0.5731013011242504</v>
+        <v>-0.5918783071272218</v>
       </c>
       <c r="E21">
-        <v>0.566576106318331</v>
+        <v>0.5539320810660465</v>
       </c>
       <c r="F21">
-        <v>-1.865813495878036</v>
+        <v>-1.890666583466643</v>
       </c>
       <c r="G21">
-        <v>1.021539841981697</v>
+        <v>1.013618232619613</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2859,22 +2775,22 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>-3.741217839367478</v>
+        <v>-3.731133732821957</v>
       </c>
       <c r="C22">
-        <v>0.7171862103055524</v>
+        <v>0.7178835469737503</v>
       </c>
       <c r="D22">
-        <v>-5.216522272191425</v>
+        <v>-5.197408059497409</v>
       </c>
       <c r="E22">
-        <v>1.823136630386598E-07</v>
+        <v>2.020864330101553E-07</v>
       </c>
       <c r="F22">
-        <v>-5.146876981775129</v>
+        <v>-5.138159629984376</v>
       </c>
       <c r="G22">
-        <v>-2.335558696959826</v>
+        <v>-2.324107835659538</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2882,22 +2798,22 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>-3.880286549756682</v>
+        <v>-3.939129367896673</v>
       </c>
       <c r="C23">
-        <v>0.7279738807684365</v>
+        <v>0.7287579105130139</v>
       </c>
       <c r="D23">
-        <v>-5.330255181217106</v>
+        <v>-5.405264644226911</v>
       </c>
       <c r="E23">
-        <v>9.807486192191654E-08</v>
+        <v>6.471277332719244E-08</v>
       </c>
       <c r="F23">
-        <v>-5.307089137748673</v>
+        <v>-5.367468625950844</v>
       </c>
       <c r="G23">
-        <v>-2.453483961764691</v>
+        <v>-2.510790109842502</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2905,22 +2821,22 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>2.349322135095108</v>
+        <v>2.402331054284347</v>
       </c>
       <c r="C24">
-        <v>0.7120459847389837</v>
+        <v>0.7128604828092829</v>
       </c>
       <c r="D24">
-        <v>3.299396647754856</v>
+        <v>3.369987693548529</v>
       </c>
       <c r="E24">
-        <v>0.0009689289870316103</v>
+        <v>0.0007517154076557572</v>
       </c>
       <c r="F24">
-        <v>0.9537376496703434</v>
+        <v>1.005150181976318</v>
       </c>
       <c r="G24">
-        <v>3.744906620519873</v>
+        <v>3.799511926592375</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2928,22 +2844,22 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>5.877436824202579</v>
+        <v>5.827214763870314</v>
       </c>
       <c r="C25">
-        <v>0.7371074607281342</v>
+        <v>0.7370071212801174</v>
       </c>
       <c r="D25">
-        <v>7.973649891423825</v>
+        <v>7.906592210057548</v>
       </c>
       <c r="E25">
-        <v>1.540555654772835E-15</v>
+        <v>2.645303749121048E-15</v>
       </c>
       <c r="F25">
-        <v>4.432732748439664</v>
+        <v>4.38270734981174</v>
       </c>
       <c r="G25">
-        <v>7.322140899965493</v>
+        <v>7.271722177928888</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2951,22 +2867,22 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.2299217111968295</v>
+        <v>-0.2345797058268166</v>
       </c>
       <c r="C26">
-        <v>0.7149678227404466</v>
+        <v>0.7159751864020654</v>
       </c>
       <c r="D26">
-        <v>-0.3215832991134449</v>
+        <v>-0.3276366419982121</v>
       </c>
       <c r="E26">
-        <v>0.7477683976648075</v>
+        <v>0.7431864135033486</v>
       </c>
       <c r="F26">
-        <v>-1.631232893873122</v>
+        <v>-1.637865284999217</v>
       </c>
       <c r="G26">
-        <v>1.171389471479463</v>
+        <v>1.168705873345583</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2974,22 +2890,22 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>7.705788111020013</v>
+        <v>7.711142038589589</v>
       </c>
       <c r="C27">
-        <v>0.6790206248690331</v>
+        <v>0.6808934561682289</v>
       </c>
       <c r="D27">
-        <v>11.34838593821252</v>
+        <v>11.32503473008028</v>
       </c>
       <c r="E27">
-        <v>7.554433728580428E-30</v>
+        <v>9.863977021283102E-30</v>
       </c>
       <c r="F27">
-        <v>6.374932141516825</v>
+        <v>6.376615387190858</v>
       </c>
       <c r="G27">
-        <v>9.0366440805232</v>
+        <v>9.04566868998832</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2997,22 +2913,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>-4.559636756005637</v>
+        <v>-4.578076072815301</v>
       </c>
       <c r="C28">
-        <v>0.7120807972046723</v>
+        <v>0.7136139626873476</v>
       </c>
       <c r="D28">
-        <v>-6.403257571198156</v>
+        <v>-6.415339822633308</v>
       </c>
       <c r="E28">
-        <v>1.52096278929687E-10</v>
+        <v>1.405090804171701E-10</v>
       </c>
       <c r="F28">
-        <v>-5.955289472609365</v>
+        <v>-5.976733738547412</v>
       </c>
       <c r="G28">
-        <v>-3.163984039401909</v>
+        <v>-3.179418407083189</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3020,22 +2936,22 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>-2.444724152976221</v>
+        <v>-2.459985633333869</v>
       </c>
       <c r="C29">
-        <v>0.6483866411979688</v>
+        <v>0.6495433255793933</v>
       </c>
       <c r="D29">
-        <v>-3.770472735926996</v>
+        <v>-3.787254116019988</v>
       </c>
       <c r="E29">
-        <v>0.0001629386034602899</v>
+        <v>0.0001523212976690651</v>
       </c>
       <c r="F29">
-        <v>-3.715538617781134</v>
+        <v>-3.733067157867854</v>
       </c>
       <c r="G29">
-        <v>-1.173909688171308</v>
+        <v>-1.186904108799883</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3043,22 +2959,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>2.268803361711534</v>
+        <v>2.296020494884162</v>
       </c>
       <c r="C30">
-        <v>0.779297315227336</v>
+        <v>0.7810460010827982</v>
       </c>
       <c r="D30">
-        <v>2.911345025036664</v>
+        <v>2.939673837009714</v>
       </c>
       <c r="E30">
-        <v>0.003598763830703562</v>
+        <v>0.003285579067993121</v>
       </c>
       <c r="F30">
-        <v>0.7414086906171977</v>
+        <v>0.7651984624928458</v>
       </c>
       <c r="G30">
-        <v>3.79619803280587</v>
+        <v>3.826842527275479</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3066,22 +2982,22 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.3897428875766105</v>
+        <v>-0.4220534082329161</v>
       </c>
       <c r="C31">
-        <v>0.6693710190780042</v>
+        <v>0.6704438815196612</v>
       </c>
       <c r="D31">
-        <v>-0.5822524078103123</v>
+        <v>-0.6295134012950779</v>
       </c>
       <c r="E31">
-        <v>0.5603966773351221</v>
+        <v>0.5290129979882163</v>
       </c>
       <c r="F31">
-        <v>-1.701685977264372</v>
+        <v>-1.736099269666691</v>
       </c>
       <c r="G31">
-        <v>0.9222002021111513</v>
+        <v>0.891992453200859</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3089,22 +3005,22 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>6.125732123882257</v>
+        <v>6.085363858836335</v>
       </c>
       <c r="C32">
-        <v>0.815253768881399</v>
+        <v>0.815091643512161</v>
       </c>
       <c r="D32">
-        <v>7.513896111498275</v>
+        <v>7.465864614456131</v>
       </c>
       <c r="E32">
-        <v>5.739313567696944E-14</v>
+        <v>8.27544001554862E-14</v>
       </c>
       <c r="F32">
-        <v>4.527864098614174</v>
+        <v>4.487813593452938</v>
       </c>
       <c r="G32">
-        <v>7.723600149150339</v>
+        <v>7.682914124219731</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3112,22 +3028,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>-5.049375523085489</v>
+        <v>-5.076480247169671</v>
       </c>
       <c r="C33">
-        <v>0.8358585747067566</v>
+        <v>0.836256396515825</v>
       </c>
       <c r="D33">
-        <v>-6.040944815164403</v>
+        <v>-6.07048301013935</v>
       </c>
       <c r="E33">
-        <v>1.532143790294038E-09</v>
+        <v>1.27526108350443E-09</v>
       </c>
       <c r="F33">
-        <v>-6.687628225679714</v>
+        <v>-6.715512666181934</v>
       </c>
       <c r="G33">
-        <v>-3.411122820491264</v>
+        <v>-3.437447828157407</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3135,22 +3051,22 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>0.1480687058359622</v>
+        <v>0.1653091571519658</v>
       </c>
       <c r="C34">
-        <v>0.8203040201855348</v>
+        <v>0.8208281627219329</v>
       </c>
       <c r="D34">
-        <v>0.1805046692352822</v>
+        <v>0.2013931352011452</v>
       </c>
       <c r="E34">
-        <v>0.8567563890830144</v>
+        <v>0.8403911825649472</v>
       </c>
       <c r="F34">
-        <v>-1.459697630101104</v>
+        <v>-1.443484479279206</v>
       </c>
       <c r="G34">
-        <v>1.755835041773028</v>
+        <v>1.774102793583137</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3158,22 +3074,22 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>-3.584925610766301</v>
+        <v>-3.584688045141557</v>
       </c>
       <c r="C35">
-        <v>0.7901990914994917</v>
+        <v>0.7917708348910818</v>
       </c>
       <c r="D35">
-        <v>-4.536737196145722</v>
+        <v>-4.527431280838574</v>
       </c>
       <c r="E35">
-        <v>5.713122660008726E-06</v>
+        <v>5.970500754930714E-06</v>
       </c>
       <c r="F35">
-        <v>-5.133687370721576</v>
+        <v>-5.136530365537287</v>
       </c>
       <c r="G35">
-        <v>-2.036163850811027</v>
+        <v>-2.032845724745827</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3181,22 +3097,22 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>11.38756741081313</v>
+        <v>11.50253317678963</v>
       </c>
       <c r="C36">
-        <v>0.8195861516543149</v>
+        <v>0.8208344189979129</v>
       </c>
       <c r="D36">
-        <v>13.89428968245449</v>
+        <v>14.01321985356328</v>
       </c>
       <c r="E36">
-        <v>6.860068064393011E-44</v>
+        <v>1.294024446924799E-44</v>
       </c>
       <c r="F36">
-        <v>9.78120807134289</v>
+        <v>9.893727278282864</v>
       </c>
       <c r="G36">
-        <v>12.99392675028337</v>
+        <v>13.1113390752964</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3204,22 +3120,22 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>-7.001366445018151</v>
+        <v>-7.102200504699003</v>
       </c>
       <c r="C37">
-        <v>0.95402233092128</v>
+        <v>0.9558519530367082</v>
       </c>
       <c r="D37">
-        <v>-7.338786753824802</v>
+        <v>-7.430230677601862</v>
       </c>
       <c r="E37">
-        <v>2.155387047881396E-13</v>
+        <v>1.08408452962854E-13</v>
       </c>
       <c r="F37">
-        <v>-8.871215854070813</v>
+        <v>-8.975635907203223</v>
       </c>
       <c r="G37">
-        <v>-5.131517035965489</v>
+        <v>-5.228765102194784</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3227,22 +3143,22 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>5.28175407836121</v>
+        <v>5.270782777515644</v>
       </c>
       <c r="C38">
-        <v>0.5183116554805658</v>
+        <v>0.5195924973912888</v>
       </c>
       <c r="D38">
-        <v>10.19030543209394</v>
+        <v>10.14407021652274</v>
       </c>
       <c r="E38">
-        <v>2.190748353558384E-24</v>
+        <v>3.521154128540952E-24</v>
       </c>
       <c r="F38">
-        <v>4.265881900851969</v>
+        <v>4.252400195991496</v>
       </c>
       <c r="G38">
-        <v>6.297626255870451</v>
+        <v>6.289165359039791</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3250,22 +3166,22 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>-2.647051570328969</v>
+        <v>-2.691771445139944</v>
       </c>
       <c r="C39">
-        <v>0.6778991096635295</v>
+        <v>0.6789824256895973</v>
       </c>
       <c r="D39">
-        <v>-3.904786910905982</v>
+        <v>-3.964419907343096</v>
       </c>
       <c r="E39">
-        <v>9.430844631520015E-05</v>
+        <v>7.35746437048073E-05</v>
       </c>
       <c r="F39">
-        <v>-3.975709410421255</v>
+        <v>-4.022552545627198</v>
       </c>
       <c r="G39">
-        <v>-1.318393730236683</v>
+        <v>-1.360990344652689</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3273,22 +3189,22 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>3.951570571088482</v>
+        <v>3.950391167302163</v>
       </c>
       <c r="C40">
-        <v>0.7644278480596168</v>
+        <v>0.7660174226749085</v>
       </c>
       <c r="D40">
-        <v>5.169317916817054</v>
+        <v>5.157051328555325</v>
       </c>
       <c r="E40">
-        <v>2.349499211959978E-07</v>
+        <v>2.50869050815818E-07</v>
       </c>
       <c r="F40">
-        <v>2.453319520112176</v>
+        <v>2.449024607329146</v>
       </c>
       <c r="G40">
-        <v>5.449821622064787</v>
+        <v>5.451757727275179</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3296,22 +3212,22 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>-1.043011431688184</v>
+        <v>-1.025592239237828</v>
       </c>
       <c r="C41">
-        <v>0.8233141324378366</v>
+        <v>0.8268211791224247</v>
       </c>
       <c r="D41">
-        <v>-1.266845048073963</v>
+        <v>-1.24040392908945</v>
       </c>
       <c r="E41">
-        <v>0.2052107008409164</v>
+        <v>0.214826028467898</v>
       </c>
       <c r="F41">
-        <v>-2.656677479229184</v>
+        <v>-2.646131971972721</v>
       </c>
       <c r="G41">
-        <v>0.5706546158528158</v>
+        <v>0.5949474934970653</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3319,22 +3235,22 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>-5.510963306838565</v>
+        <v>-5.569802799634155</v>
       </c>
       <c r="C42">
-        <v>0.8479201109273959</v>
+        <v>0.8475622228488163</v>
       </c>
       <c r="D42">
-        <v>-6.499389784269956</v>
+        <v>-6.571556222636963</v>
       </c>
       <c r="E42">
-        <v>8.06464597288172E-11</v>
+        <v>4.979207808034812E-11</v>
       </c>
       <c r="F42">
-        <v>-7.172856186023468</v>
+        <v>-7.230994231074547</v>
       </c>
       <c r="G42">
-        <v>-3.849070427653661</v>
+        <v>-3.908611368193764</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3342,22 +3258,22 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>1.978909612694845</v>
+        <v>2.125125481625119</v>
       </c>
       <c r="C43">
-        <v>0.796068582105284</v>
+        <v>0.7964626709170874</v>
       </c>
       <c r="D43">
-        <v>2.485853175440511</v>
+        <v>2.668204749857444</v>
       </c>
       <c r="E43">
-        <v>0.01292412752131455</v>
+        <v>0.007625776993633721</v>
       </c>
       <c r="F43">
-        <v>0.4186438625446218</v>
+        <v>0.5640873315970505</v>
       </c>
       <c r="G43">
-        <v>3.539175362845069</v>
+        <v>3.686163631653188</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3365,22 +3281,22 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>-9.77115912450015</v>
+        <v>-9.812646612111335</v>
       </c>
       <c r="C44">
-        <v>0.642324941462934</v>
+        <v>0.6445957274528661</v>
       </c>
       <c r="D44">
-        <v>-15.21217454555905</v>
+        <v>-15.22294702586103</v>
       </c>
       <c r="E44">
-        <v>2.936253960924736E-52</v>
+        <v>2.490545642492939E-52</v>
       </c>
       <c r="F44">
-        <v>-11.0300928761393</v>
+        <v>-11.07603102250735</v>
       </c>
       <c r="G44">
-        <v>-8.512225372861</v>
+        <v>-8.549262201715321</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3388,22 +3304,22 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>2.44509749519801</v>
+        <v>2.457722353312925</v>
       </c>
       <c r="C45">
-        <v>0.8850077897635713</v>
+        <v>0.8853194300841953</v>
       </c>
       <c r="D45">
-        <v>2.762797710346951</v>
+        <v>2.776085410301219</v>
       </c>
       <c r="E45">
-        <v>0.005730827201877248</v>
+        <v>0.005501775326578849</v>
       </c>
       <c r="F45">
-        <v>0.7105141012240146</v>
+        <v>0.7225281555343759</v>
       </c>
       <c r="G45">
-        <v>4.179680889172006</v>
+        <v>4.192916551091474</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3411,22 +3327,22 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>3.982134647710822</v>
+        <v>4.026651787813309</v>
       </c>
       <c r="C46">
-        <v>0.8305573998860946</v>
+        <v>0.8327066686217723</v>
       </c>
       <c r="D46">
-        <v>4.79453274181525</v>
+        <v>4.835618519157403</v>
       </c>
       <c r="E46">
-        <v>1.630544330994681E-06</v>
+        <v>1.3273226035272E-06</v>
       </c>
       <c r="F46">
-        <v>2.354272056840845</v>
+        <v>2.394576707628306</v>
       </c>
       <c r="G46">
-        <v>5.609997238580799</v>
+        <v>5.658726867998312</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3434,22 +3350,22 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>1.065507973541811</v>
+        <v>1.001100481671847</v>
       </c>
       <c r="C47">
-        <v>0.4886556506289237</v>
+        <v>0.4895950832825723</v>
       </c>
       <c r="D47">
-        <v>2.180488391304695</v>
+        <v>2.044751910006532</v>
       </c>
       <c r="E47">
-        <v>0.02922127841262028</v>
+        <v>0.04087932305254789</v>
       </c>
       <c r="F47">
-        <v>0.1077604974671332</v>
+        <v>0.04151175143011687</v>
       </c>
       <c r="G47">
-        <v>2.023255449616489</v>
+        <v>1.960689211913577</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3457,22 +3373,22 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>1.407705726821209</v>
+        <v>1.342636683933931</v>
       </c>
       <c r="C48">
-        <v>0.4335407293120287</v>
+        <v>0.4340032006469769</v>
       </c>
       <c r="D48">
-        <v>3.246997644385223</v>
+        <v>3.093610097650056</v>
       </c>
       <c r="E48">
-        <v>0.001166293550706784</v>
+        <v>0.001977371691190799</v>
       </c>
       <c r="F48">
-        <v>0.557981511538404</v>
+        <v>0.4920060414907457</v>
       </c>
       <c r="G48">
-        <v>2.257429942104014</v>
+        <v>2.193267326377117</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3480,22 +3396,22 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>-9.807699537833637</v>
+        <v>-9.688675886013661</v>
       </c>
       <c r="C49">
-        <v>1.033271511284498</v>
+        <v>1.035314978365397</v>
       </c>
       <c r="D49">
-        <v>-9.491890012182104</v>
+        <v>-9.358191553753612</v>
       </c>
       <c r="E49">
-        <v>2.268826891715077E-21</v>
+        <v>8.111308808071632E-21</v>
       </c>
       <c r="F49">
-        <v>-11.83287448620253</v>
+        <v>-11.7178559562647</v>
       </c>
       <c r="G49">
-        <v>-7.782524589464748</v>
+        <v>-7.659495815762617</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3503,22 +3419,22 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>-2323.0045753829</v>
+        <v>-2201.576516629908</v>
       </c>
       <c r="C50">
-        <v>3270.876225231906</v>
+        <v>3274.66809761279</v>
       </c>
       <c r="D50">
-        <v>-0.7102086460695095</v>
+        <v>-0.6723052385781757</v>
       </c>
       <c r="E50">
-        <v>0.4775747600444727</v>
+        <v>0.501389395462804</v>
       </c>
       <c r="F50">
-        <v>-8733.804174725756</v>
+        <v>-8619.808049273272</v>
       </c>
       <c r="G50">
-        <v>4087.795023959957</v>
+        <v>4216.655016013456</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3526,22 +3442,22 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>0.3443727817861736</v>
+        <v>0.3437275271601711</v>
       </c>
       <c r="C51">
-        <v>0.05407910862272337</v>
+        <v>0.05411710751604223</v>
       </c>
       <c r="D51">
-        <v>6.367944859976344</v>
+        <v>6.351550238679665</v>
       </c>
       <c r="E51">
-        <v>1.91577759577145E-10</v>
+        <v>2.131557768498753E-10</v>
       </c>
       <c r="F51">
-        <v>0.2383796765696063</v>
+        <v>0.2376599454812464</v>
       </c>
       <c r="G51">
-        <v>0.4503658870027409</v>
+        <v>0.4497951088390957</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3549,22 +3465,22 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>0.3076623492432756</v>
+        <v>0.3072031026571893</v>
       </c>
       <c r="C52">
-        <v>0.05456879558273728</v>
+        <v>0.0546717904606179</v>
       </c>
       <c r="D52">
-        <v>5.638063768088807</v>
+        <v>5.619042289798045</v>
       </c>
       <c r="E52">
-        <v>1.719728299646163E-08</v>
+        <v>1.920188564880349E-08</v>
       </c>
       <c r="F52">
-        <v>0.2007094752213822</v>
+        <v>0.2000483623840577</v>
       </c>
       <c r="G52">
-        <v>0.4146152232651691</v>
+        <v>0.4143578429303209</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3572,22 +3488,22 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>-259.9632787782571</v>
+        <v>-246.4170423245384</v>
       </c>
       <c r="C53">
-        <v>364.9202303909271</v>
+        <v>365.3435158855104</v>
       </c>
       <c r="D53">
-        <v>-0.7123838503000145</v>
+        <v>-0.6744804043593851</v>
       </c>
       <c r="E53">
-        <v>0.4762271132815672</v>
+        <v>0.5000059397946299</v>
       </c>
       <c r="F53">
-        <v>-975.1937875745332</v>
+        <v>-962.4771754453759</v>
       </c>
       <c r="G53">
-        <v>455.2672300180191</v>
+        <v>469.643090796299</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3595,22 +3511,22 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>-6.020662006778988</v>
+        <v>-5.938807103606635</v>
       </c>
       <c r="C54">
-        <v>1.300441149730758</v>
+        <v>1.302101010015879</v>
       </c>
       <c r="D54">
-        <v>-4.629707394314229</v>
+        <v>-4.56094193762603</v>
       </c>
       <c r="E54">
-        <v>3.661828074697121E-06</v>
+        <v>5.092466221665826E-06</v>
       </c>
       <c r="F54">
-        <v>-8.569479824265134</v>
+        <v>-8.490878187470987</v>
       </c>
       <c r="G54">
-        <v>-3.471844189292842</v>
+        <v>-3.386736019742283</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3618,22 +3534,22 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>-5807.460104319005</v>
+        <v>-5503.580603579881</v>
       </c>
       <c r="C55">
-        <v>8185.624446825566</v>
+        <v>8195.115948516681</v>
       </c>
       <c r="D55">
-        <v>-0.7094706264677428</v>
+        <v>-0.6715683631756341</v>
       </c>
       <c r="E55">
-        <v>0.4780324732807688</v>
+        <v>0.5018585245267941</v>
       </c>
       <c r="F55">
-        <v>-21850.98921106772</v>
+        <v>-21565.71271180238</v>
       </c>
       <c r="G55">
-        <v>10236.06900242971</v>
+        <v>10558.55150464262</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3641,22 +3557,22 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>13762.96928933727</v>
+        <v>13045.47438813426</v>
       </c>
       <c r="C56">
-        <v>19326.9730170478</v>
+        <v>19349.37936695096</v>
       </c>
       <c r="D56">
-        <v>0.7121119938025126</v>
+        <v>0.6742063474354185</v>
       </c>
       <c r="E56">
-        <v>0.4763954278128412</v>
+        <v>0.500180134729566</v>
       </c>
       <c r="F56">
-        <v>-24117.20175425385</v>
+        <v>-24878.61229429206</v>
       </c>
       <c r="G56">
-        <v>51643.14033292839</v>
+        <v>50969.56107056057</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3664,22 +3580,22 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>2.985648147322398</v>
+        <v>2.622705300784227</v>
       </c>
       <c r="C57">
-        <v>2.354390941300449</v>
+        <v>2.356676262858557</v>
       </c>
       <c r="D57">
-        <v>1.268119110954986</v>
+        <v>1.112883149085139</v>
       </c>
       <c r="E57">
-        <v>0.2047554177198649</v>
+        <v>0.2657586180967345</v>
       </c>
       <c r="F57">
-        <v>-1.628873303153838</v>
+        <v>-1.996295297638994</v>
       </c>
       <c r="G57">
-        <v>7.600169597798635</v>
+        <v>7.241705899207448</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3687,22 +3603,22 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>17.76089721251038</v>
+        <v>17.95576249089272</v>
       </c>
       <c r="C58">
-        <v>2.392880488923252</v>
+        <v>2.39501158889585</v>
       </c>
       <c r="D58">
-        <v>7.422392089670314</v>
+        <v>7.497150566678759</v>
       </c>
       <c r="E58">
-        <v>1.150236971767355E-13</v>
+        <v>6.522004820288696E-14</v>
       </c>
       <c r="F58">
-        <v>13.07093763491221</v>
+        <v>13.2616260341008</v>
       </c>
       <c r="G58">
-        <v>22.45085679010855</v>
+        <v>22.64989894768463</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3710,22 +3626,22 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>9.784708757416173</v>
+        <v>9.89416457442951</v>
       </c>
       <c r="C59">
-        <v>2.351343670411742</v>
+        <v>2.355788069949707</v>
       </c>
       <c r="D59">
-        <v>4.161326513236911</v>
+        <v>4.199938313908151</v>
       </c>
       <c r="E59">
-        <v>3.164043178327014E-05</v>
+        <v>2.669877090888453E-05</v>
       </c>
       <c r="F59">
-        <v>5.17615984813294</v>
+        <v>5.276904802118959</v>
       </c>
       <c r="G59">
-        <v>14.39325766669941</v>
+        <v>14.51142434674006</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3733,22 +3649,22 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>1.059810108771121E-08</v>
+        <v>-5.725189512055344E-09</v>
       </c>
       <c r="C60">
-        <v>1.478381722155215E-08</v>
+        <v>8.431885051228527E-09</v>
       </c>
       <c r="D60">
-        <v>0.7168717611214159</v>
+        <v>-0.678992832239949</v>
       </c>
       <c r="E60">
-        <v>0.473453227673292</v>
+        <v>0.4971424035689805</v>
       </c>
       <c r="F60">
-        <v>-1.837764822055402E-08</v>
+        <v>-2.225138053424492E-08</v>
       </c>
       <c r="G60">
-        <v>3.957385039597644E-08</v>
+        <v>1.080100151013424E-08</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3756,22 +3672,22 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>-3.081126448049873E-09</v>
+        <v>5.576244464609637E-10</v>
       </c>
       <c r="C61">
-        <v>4.298012442152906E-09</v>
+        <v>8.212532885724784E-10</v>
       </c>
       <c r="D61">
-        <v>-0.7168723891610035</v>
+        <v>0.6789920408480064</v>
       </c>
       <c r="E61">
-        <v>0.4734528401177925</v>
+        <v>0.4971429050103201</v>
       </c>
       <c r="F61">
-        <v>-1.150507603977461E-08</v>
+        <v>-1.052002421326174E-09</v>
       </c>
       <c r="G61">
-        <v>5.342823143674865E-09</v>
+        <v>2.167251314248101E-09</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3779,22 +3695,22 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>-1.893563857293163E-09</v>
+        <v>-6.527533171095308E-10</v>
       </c>
       <c r="C62">
-        <v>2.641421180145076E-09</v>
+        <v>9.61355635071026E-10</v>
       </c>
       <c r="D62">
-        <v>-0.7168731255456814</v>
+        <v>-0.6789925531162093</v>
       </c>
       <c r="E62">
-        <v>0.4734523857040934</v>
+        <v>0.4971425804271845</v>
       </c>
       <c r="F62">
-        <v>-7.070654238378799E-09</v>
+        <v>-2.536975738183373E-09</v>
       </c>
       <c r="G62">
-        <v>3.283526523792472E-09</v>
+        <v>1.231469103964312E-09</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3802,22 +3718,22 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>-2.07688657266174E-09</v>
+        <v>3.774857183747365E-10</v>
       </c>
       <c r="C63">
-        <v>2.897151256588981E-09</v>
+        <v>5.55953084986918E-10</v>
       </c>
       <c r="D63">
-        <v>-0.7168719851744999</v>
+        <v>0.678988440874681</v>
       </c>
       <c r="E63">
-        <v>0.4734530894128717</v>
+        <v>0.4971451860268945</v>
       </c>
       <c r="F63">
-        <v>-7.755198693341105E-09</v>
+        <v>-7.121623052935586E-10</v>
       </c>
       <c r="G63">
-        <v>3.601425548017625E-09</v>
+        <v>1.467133742043032E-09</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3825,22 +3741,22 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>-2.460833545225726E-09</v>
+        <v>2.747749374698987E-10</v>
       </c>
       <c r="C64">
-        <v>3.432731744891103E-09</v>
+        <v>4.046798886033087E-10</v>
       </c>
       <c r="D64">
-        <v>-0.7168732450148945</v>
+        <v>0.6789933110297197</v>
       </c>
       <c r="E64">
-        <v>0.4734523119811711</v>
+        <v>0.4971421001985928</v>
       </c>
       <c r="F64">
-        <v>-9.188864133799624E-09</v>
+        <v>-5.183830694602674E-10</v>
       </c>
       <c r="G64">
-        <v>4.267197043348173E-09</v>
+        <v>1.067932944400065E-09</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3848,22 +3764,22 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1350455721293052</v>
+        <v>0.3848344066262848</v>
       </c>
       <c r="C65">
-        <v>2.445725154472651</v>
+        <v>2.446343749086942</v>
       </c>
       <c r="D65">
-        <v>0.05521698621054738</v>
+        <v>0.1573100292098844</v>
       </c>
       <c r="E65">
-        <v>0.9559655965410427</v>
+        <v>0.8750005165032322</v>
       </c>
       <c r="F65">
-        <v>-4.658487646720751</v>
+        <v>-4.409911235388812</v>
       </c>
       <c r="G65">
-        <v>4.928578790979362</v>
+        <v>5.17958004864138</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3871,22 +3787,16 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>4.286203113213429E-10</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>5.978964711367834E-10</v>
-      </c>
-      <c r="D66">
-        <v>0.7168804835164941</v>
-      </c>
-      <c r="E66">
-        <v>0.4734478452062605</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>-7.432352385903445E-10</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>1.60047586123303E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3894,22 +3804,16 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>5.519408478489247E-12</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>7.699270418133543E-12</v>
-      </c>
-      <c r="D67">
-        <v>0.7168742203793463</v>
-      </c>
-      <c r="E67">
-        <v>0.4734517100964879</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>-9.570884248287139E-12</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>2.060970120526563E-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3917,22 +3821,22 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>24.07145718506729</v>
+        <v>24.03536228061641</v>
       </c>
       <c r="C68">
-        <v>2.528891707890041</v>
+        <v>2.533780072672923</v>
       </c>
       <c r="D68">
-        <v>9.518579664746142</v>
+        <v>9.4859702070595</v>
       </c>
       <c r="E68">
-        <v>1.755620884988452E-21</v>
+        <v>2.401386421661791E-21</v>
       </c>
       <c r="F68">
-        <v>19.11492051680082</v>
+        <v>19.0692445934322</v>
       </c>
       <c r="G68">
-        <v>29.02799385333375</v>
+        <v>29.00147996780062</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3940,22 +3844,22 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>2.21985543799066</v>
+        <v>2.386080129334111</v>
       </c>
       <c r="C69">
-        <v>1.417802213973606</v>
+        <v>1.419974146466202</v>
       </c>
       <c r="D69">
-        <v>1.565701771454551</v>
+        <v>1.680368713241854</v>
       </c>
       <c r="E69">
-        <v>0.117418451384396</v>
+        <v>0.09288559942146964</v>
       </c>
       <c r="F69">
-        <v>-0.5589858385987592</v>
+        <v>-0.3970180567176476</v>
       </c>
       <c r="G69">
-        <v>4.998696714580078</v>
+        <v>5.16917831538587</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3963,16 +3867,22 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>-8.683080798512826</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>6.020830497126518</v>
+      </c>
+      <c r="D70">
+        <v>-1.442173268730433</v>
+      </c>
+      <c r="E70">
+        <v>0.149253499616563</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>-20.48369172990119</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>3.117530132875538</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3980,22 +3890,22 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>-9.01757504044576</v>
+        <v>-0.8326082287681356</v>
       </c>
       <c r="C71">
-        <v>6.037866093322393</v>
+        <v>5.738740839871959</v>
       </c>
       <c r="D71">
-        <v>-1.493503648651432</v>
+        <v>-0.1450855252049877</v>
       </c>
       <c r="E71">
-        <v>0.1353053998910691</v>
+        <v>0.8846433465758577</v>
       </c>
       <c r="F71">
-        <v>-20.8515751268332</v>
+        <v>-12.08033359152632</v>
       </c>
       <c r="G71">
-        <v>2.816425045941687</v>
+        <v>10.41511713399005</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -4003,22 +3913,22 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.6253367052457151</v>
+        <v>-3.92459926305149</v>
       </c>
       <c r="C72">
-        <v>5.741712945723335</v>
+        <v>1.379958167031449</v>
       </c>
       <c r="D72">
-        <v>-0.1089111753159816</v>
+        <v>-2.843998721710562</v>
       </c>
       <c r="E72">
-        <v>0.9132729427546391</v>
+        <v>0.004455122664847596</v>
       </c>
       <c r="F72">
-        <v>-11.87888728843083</v>
+        <v>-6.629267570605037</v>
       </c>
       <c r="G72">
-        <v>10.6282138779394</v>
+        <v>-1.219930955497942</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -4026,91 +3936,22 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>-20.11141469903775</v>
+        <v>-1.373177779681418</v>
       </c>
       <c r="C73">
-        <v>4.19096284929891</v>
+        <v>1.791774325766442</v>
       </c>
       <c r="D73">
-        <v>-4.798757570089678</v>
+        <v>-0.7663787564843207</v>
       </c>
       <c r="E73">
-        <v>1.596528983773998E-06</v>
+        <v>0.4434509692453958</v>
       </c>
       <c r="F73">
-        <v>-28.32555094420898</v>
+        <v>-4.884990926607181</v>
       </c>
       <c r="G73">
-        <v>-11.89727845386652</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74">
-        <v>-4.239506378454971</v>
-      </c>
-      <c r="C74">
-        <v>1.384879087180359</v>
-      </c>
-      <c r="D74">
-        <v>-3.061282690813599</v>
-      </c>
-      <c r="E74">
-        <v>0.002203909068452867</v>
-      </c>
-      <c r="F74">
-        <v>-6.95381951227118</v>
-      </c>
-      <c r="G74">
-        <v>-1.525193244638761</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75">
-        <v>-1.933959716997146</v>
-      </c>
-      <c r="C75">
-        <v>1.799214289896478</v>
-      </c>
-      <c r="D75">
-        <v>-1.074891261067308</v>
-      </c>
-      <c r="E75">
-        <v>0.28242341496197</v>
-      </c>
-      <c r="F75">
-        <v>-5.460354925664051</v>
-      </c>
-      <c r="G75">
-        <v>1.59243549166976</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76">
-        <v>-26.06426497176703</v>
-      </c>
-      <c r="C76">
-        <v>6.559278132066894</v>
-      </c>
-      <c r="D76">
-        <v>-3.973648387365139</v>
-      </c>
-      <c r="E76">
-        <v>7.078002799973251E-05</v>
-      </c>
-      <c r="F76">
-        <v>-38.92021387519931</v>
-      </c>
-      <c r="G76">
-        <v>-13.20831606833476</v>
+        <v>2.138635367244346</v>
       </c>
     </row>
   </sheetData>
@@ -4120,7 +3961,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4151,22 +3992,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>4.770232703338841</v>
+        <v>4.570937692463762</v>
       </c>
       <c r="C2">
-        <v>2.276254964161135</v>
+        <v>2.281521232669062</v>
       </c>
       <c r="D2">
-        <v>2.095649555275899</v>
+        <v>2.003460510037157</v>
       </c>
       <c r="E2">
-        <v>0.03611328979668411</v>
+        <v>0.04512788219484808</v>
       </c>
       <c r="F2">
-        <v>0.3088549539525038</v>
+        <v>0.09923824646897117</v>
       </c>
       <c r="G2">
-        <v>9.231610452725178</v>
+        <v>9.042637138458552</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4174,22 +4015,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>6.282376175594437</v>
+        <v>6.392561884714958</v>
       </c>
       <c r="C3">
-        <v>1.77574166316463</v>
+        <v>1.780506244610603</v>
       </c>
       <c r="D3">
-        <v>3.537888593771196</v>
+        <v>3.590305793121782</v>
       </c>
       <c r="E3">
-        <v>0.0004033401984627876</v>
+        <v>0.0003302902451493644</v>
       </c>
       <c r="F3">
-        <v>2.801986469944506</v>
+        <v>2.902833771029512</v>
       </c>
       <c r="G3">
-        <v>9.762765881244368</v>
+        <v>9.882289998400404</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4197,22 +4038,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05525561847763001</v>
+        <v>0.0554773553403634</v>
       </c>
       <c r="C4">
-        <v>0.0335449384387486</v>
+        <v>0.03357390984315249</v>
       </c>
       <c r="D4">
-        <v>1.647211801521832</v>
+        <v>1.652394838716653</v>
       </c>
       <c r="E4">
-        <v>0.09951451892484357</v>
+        <v>0.09845408700930353</v>
       </c>
       <c r="F4">
-        <v>-0.0104912527259305</v>
+        <v>-0.0103262987724103</v>
       </c>
       <c r="G4">
-        <v>0.1210024896811905</v>
+        <v>0.1212810094531371</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4220,22 +4061,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-22.39975449509953</v>
+        <v>-22.76753401370907</v>
       </c>
       <c r="C5">
-        <v>2.718974812822268</v>
+        <v>2.721608420281213</v>
       </c>
       <c r="D5">
-        <v>-8.23830893521548</v>
+        <v>-8.365470155091815</v>
       </c>
       <c r="E5">
-        <v>1.74661709833045E-16</v>
+        <v>5.98756854653171E-17</v>
       </c>
       <c r="F5">
-        <v>-27.72884720310271</v>
+        <v>-28.1017884974812</v>
       </c>
       <c r="G5">
-        <v>-17.07066178709635</v>
+        <v>-17.43327952993694</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4243,22 +4084,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-8.995483142811015</v>
+        <v>-9.310606325280578</v>
       </c>
       <c r="C6">
-        <v>2.355882823373035</v>
+        <v>2.361447038506401</v>
       </c>
       <c r="D6">
-        <v>-3.818306688925951</v>
+        <v>-3.942754664178059</v>
       </c>
       <c r="E6">
-        <v>0.0001343708159633861</v>
+        <v>8.055104432652386E-05</v>
       </c>
       <c r="F6">
-        <v>-13.6129286284187</v>
+        <v>-13.93895747215189</v>
       </c>
       <c r="G6">
-        <v>-4.378037657203329</v>
+        <v>-4.682255178409261</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4266,22 +4107,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-4.50330305299534</v>
+        <v>-4.968588238847413</v>
       </c>
       <c r="C7">
-        <v>1.395428140615729</v>
+        <v>1.390458653030632</v>
       </c>
       <c r="D7">
-        <v>-3.227183773869051</v>
+        <v>-3.573344829792615</v>
       </c>
       <c r="E7">
-        <v>0.001250151397467992</v>
+        <v>0.0003524501343354</v>
       </c>
       <c r="F7">
-        <v>-7.238291951615862</v>
+        <v>-7.693837120779527</v>
       </c>
       <c r="G7">
-        <v>-1.768314154374818</v>
+        <v>-2.243339356915298</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4289,22 +4130,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-2.644186766920299</v>
+        <v>-2.684326078682507</v>
       </c>
       <c r="C8">
-        <v>0.1872869120702001</v>
+        <v>0.1878755189802821</v>
       </c>
       <c r="D8">
-        <v>-14.11837451796518</v>
+        <v>-14.28779062462221</v>
       </c>
       <c r="E8">
-        <v>2.926642275664666E-45</v>
+        <v>2.60751354244863E-46</v>
       </c>
       <c r="F8">
-        <v>-3.011262369353611</v>
+        <v>-3.052555329460631</v>
       </c>
       <c r="G8">
-        <v>-2.277111164486987</v>
+        <v>-2.316096827904383</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4312,22 +4153,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-1.62670553613796</v>
+        <v>-1.606711085177171</v>
       </c>
       <c r="C9">
-        <v>0.2339719070280572</v>
+        <v>0.2345022420043623</v>
       </c>
       <c r="D9">
-        <v>-6.952567753969242</v>
+        <v>-6.851580912165789</v>
       </c>
       <c r="E9">
-        <v>3.586964619711215E-12</v>
+        <v>7.303826752964763E-12</v>
       </c>
       <c r="F9">
-        <v>-2.085282047307106</v>
+        <v>-2.066327033799617</v>
       </c>
       <c r="G9">
-        <v>-1.168129024968814</v>
+        <v>-1.147095136554726</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4335,22 +4176,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-3.085545245907317</v>
+        <v>-3.103990758086613</v>
       </c>
       <c r="C10">
-        <v>0.2151653417818178</v>
+        <v>0.2155659213978796</v>
       </c>
       <c r="D10">
-        <v>-14.34034505908542</v>
+        <v>-14.39926467949189</v>
       </c>
       <c r="E10">
-        <v>1.22445130348424E-46</v>
+        <v>5.22969528881326E-47</v>
       </c>
       <c r="F10">
-        <v>-3.507261566520931</v>
+        <v>-3.526492200320649</v>
       </c>
       <c r="G10">
-        <v>-2.663828925293703</v>
+        <v>-2.681489315852576</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4358,22 +4199,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.3076803965753545</v>
+        <v>-0.2992093370836086</v>
       </c>
       <c r="C11">
-        <v>0.1897281491569505</v>
+        <v>0.1904710527434536</v>
       </c>
       <c r="D11">
-        <v>-1.621690813632664</v>
+        <v>-1.570891391494619</v>
       </c>
       <c r="E11">
-        <v>0.1048695667491352</v>
+        <v>0.1162078785239183</v>
       </c>
       <c r="F11">
-        <v>-0.6795407357764209</v>
+        <v>-0.6725257405582066</v>
       </c>
       <c r="G11">
-        <v>0.06417994262571192</v>
+        <v>0.07410706639098935</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4381,22 +4222,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>1.814303424828642</v>
+        <v>1.813592602396192</v>
       </c>
       <c r="C12">
-        <v>0.3886074470677824</v>
+        <v>0.3896025998035725</v>
       </c>
       <c r="D12">
-        <v>4.668730459280633</v>
+        <v>4.654980750412236</v>
       </c>
       <c r="E12">
-        <v>3.030666832769771E-06</v>
+        <v>3.240109770259609E-06</v>
       </c>
       <c r="F12">
-        <v>1.052646824451733</v>
+        <v>1.049985538498018</v>
       </c>
       <c r="G12">
-        <v>2.575960025205551</v>
+        <v>2.577199666294366</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4404,22 +4245,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>1.845965377557992</v>
+        <v>1.598407420089698</v>
       </c>
       <c r="C13">
-        <v>2.00541160834466</v>
+        <v>2.011792445791479</v>
       </c>
       <c r="D13">
-        <v>0.9204920176370769</v>
+        <v>0.7945190486391618</v>
       </c>
       <c r="E13">
-        <v>0.3573157024855901</v>
+        <v>0.4268933240817537</v>
       </c>
       <c r="F13">
-        <v>-2.084569148976087</v>
+        <v>-2.344633318031349</v>
       </c>
       <c r="G13">
-        <v>5.77649990409207</v>
+        <v>5.541448158210745</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4427,22 +4268,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>8.832012467615289</v>
+        <v>9.078743076159364</v>
       </c>
       <c r="C14">
-        <v>2.277319885394405</v>
+        <v>2.283427106501752</v>
       </c>
       <c r="D14">
-        <v>3.878248516714502</v>
+        <v>3.975928572586732</v>
       </c>
       <c r="E14">
-        <v>0.0001052112109899451</v>
+        <v>7.010516658504346E-05</v>
       </c>
       <c r="F14">
-        <v>4.368547510965373</v>
+        <v>4.603308186093424</v>
       </c>
       <c r="G14">
-        <v>13.29547742426521</v>
+        <v>13.55417796622531</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4450,22 +4291,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>-7.21299494369164</v>
+        <v>-7.210783173564784</v>
       </c>
       <c r="C15">
-        <v>2.99343712234905</v>
+        <v>3.004175919907484</v>
       </c>
       <c r="D15">
-        <v>-2.40960295769679</v>
+        <v>-2.400253302671718</v>
       </c>
       <c r="E15">
-        <v>0.01596988939848395</v>
+        <v>0.01638373010842364</v>
       </c>
       <c r="F15">
-        <v>-13.080023893481</v>
+        <v>-13.09885977980594</v>
       </c>
       <c r="G15">
-        <v>-1.345965993902283</v>
+        <v>-1.32270656732363</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4473,22 +4314,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>0.8535694443387998</v>
+        <v>0.8870041012733884</v>
       </c>
       <c r="C16">
-        <v>0.5024799498419997</v>
+        <v>0.5032939567964728</v>
       </c>
       <c r="D16">
-        <v>1.698713440421248</v>
+        <v>1.762397678921633</v>
       </c>
       <c r="E16">
-        <v>0.08937318977074402</v>
+        <v>0.07800213053614236</v>
       </c>
       <c r="F16">
-        <v>-0.1312731603050125</v>
+        <v>-0.09943392768435633</v>
       </c>
       <c r="G16">
-        <v>1.838412048982612</v>
+        <v>1.873442130231133</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4496,22 +4337,22 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>0.2598617296441326</v>
+        <v>0.2652898296481914</v>
       </c>
       <c r="C17">
-        <v>0.03672132982266828</v>
+        <v>0.03695739557134396</v>
       </c>
       <c r="D17">
-        <v>7.07658820906095</v>
+        <v>7.178260955539084</v>
       </c>
       <c r="E17">
-        <v>1.477467238663309E-12</v>
+        <v>7.060370333112029E-13</v>
       </c>
       <c r="F17">
-        <v>0.1878892457272862</v>
+        <v>0.1928546653659571</v>
       </c>
       <c r="G17">
-        <v>0.3318342135609791</v>
+        <v>0.3377249939304256</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4519,22 +4360,22 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>10568.9586510621</v>
+        <v>8622.319704072812</v>
       </c>
       <c r="C18">
-        <v>62791.77074021095</v>
+        <v>62930.34443372572</v>
       </c>
       <c r="D18">
-        <v>0.1683175761166087</v>
+        <v>0.1370137058943527</v>
       </c>
       <c r="E18">
-        <v>0.8663334473813141</v>
+        <v>0.8910199615464102</v>
       </c>
       <c r="F18">
-        <v>-112500.6505252473</v>
+        <v>-114718.8889207303</v>
       </c>
       <c r="G18">
-        <v>133638.5678273715</v>
+        <v>131963.5283288759</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4542,22 +4383,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>1.02332687370975</v>
+        <v>1.089905165863733</v>
       </c>
       <c r="C19">
-        <v>0.7079795594635857</v>
+        <v>0.7100664245112961</v>
       </c>
       <c r="D19">
-        <v>1.445418670681811</v>
+        <v>1.534934096642947</v>
       </c>
       <c r="E19">
-        <v>0.1483403221750881</v>
+        <v>0.1248000171047906</v>
       </c>
       <c r="F19">
-        <v>-0.3642875646294115</v>
+        <v>-0.301799452809536</v>
       </c>
       <c r="G19">
-        <v>2.410941312048911</v>
+        <v>2.481609784537003</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4565,22 +4406,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>0.8227036221082642</v>
+        <v>0.8283821967722229</v>
       </c>
       <c r="C20">
-        <v>0.6939354437647672</v>
+        <v>0.6960076680427139</v>
       </c>
       <c r="D20">
-        <v>1.185562186656584</v>
+        <v>1.190191193010513</v>
       </c>
       <c r="E20">
-        <v>0.2357952426714018</v>
+        <v>0.2339712539030925</v>
       </c>
       <c r="F20">
-        <v>-0.5373848552664997</v>
+        <v>-0.5357677655552058</v>
       </c>
       <c r="G20">
-        <v>2.182792099483028</v>
+        <v>2.192532159099652</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4588,22 +4429,22 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>0.5984476395274339</v>
+        <v>0.5814841793812526</v>
       </c>
       <c r="C21">
-        <v>0.7048194000538158</v>
+        <v>0.7076249754629599</v>
       </c>
       <c r="D21">
-        <v>0.8490794088269136</v>
+        <v>0.821740610555499</v>
       </c>
       <c r="E21">
-        <v>0.3958371073406908</v>
+        <v>0.4112245408838665</v>
       </c>
       <c r="F21">
-        <v>-0.7829730001831734</v>
+        <v>-0.8054352870871881</v>
       </c>
       <c r="G21">
-        <v>1.979868279238041</v>
+        <v>1.968403645849693</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4611,22 +4452,22 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>-2.797406698101292</v>
+        <v>-2.789927684393816</v>
       </c>
       <c r="C22">
-        <v>0.6820546258155503</v>
+        <v>0.6840671516507357</v>
       </c>
       <c r="D22">
-        <v>-4.101440840983023</v>
+        <v>-4.078441243175304</v>
       </c>
       <c r="E22">
-        <v>4.10585484799071E-05</v>
+        <v>4.533865719051711E-05</v>
       </c>
       <c r="F22">
-        <v>-4.134209200188714</v>
+        <v>-4.130674664636158</v>
       </c>
       <c r="G22">
-        <v>-1.46060419601387</v>
+        <v>-1.449180704151474</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4634,22 +4475,22 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>-3.062125825545951</v>
+        <v>-3.117788941764747</v>
       </c>
       <c r="C23">
-        <v>0.6897101683629814</v>
+        <v>0.6908171986546284</v>
       </c>
       <c r="D23">
-        <v>-4.439728404778879</v>
+        <v>-4.513189520811965</v>
       </c>
       <c r="E23">
-        <v>9.007247564739601E-06</v>
+        <v>6.38599088807866E-06</v>
       </c>
       <c r="F23">
-        <v>-4.413932915308452</v>
+        <v>-4.47176577102867</v>
       </c>
       <c r="G23">
-        <v>-1.710318735783451</v>
+        <v>-1.763812112500823</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4657,22 +4498,22 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>1.29237260927257</v>
+        <v>1.343024864910335</v>
       </c>
       <c r="C24">
-        <v>0.6748015560887555</v>
+        <v>0.6752472139188386</v>
       </c>
       <c r="D24">
-        <v>1.915189136141509</v>
+        <v>1.98893803221491</v>
       </c>
       <c r="E24">
-        <v>0.05546838745121883</v>
+        <v>0.04670804321755324</v>
       </c>
       <c r="F24">
-        <v>-0.03021413737297629</v>
+        <v>0.01956464496839816</v>
       </c>
       <c r="G24">
-        <v>2.614959355918115</v>
+        <v>2.666485084852273</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4680,22 +4521,22 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>5.735817782756501</v>
+        <v>5.691627462648253</v>
       </c>
       <c r="C25">
-        <v>0.7058687994102311</v>
+        <v>0.7067657070907639</v>
       </c>
       <c r="D25">
-        <v>8.125897882933632</v>
+        <v>8.053061156683039</v>
       </c>
       <c r="E25">
-        <v>4.44062779415318E-16</v>
+        <v>8.074852992244954E-16</v>
       </c>
       <c r="F25">
-        <v>4.35234035810192</v>
+        <v>4.306392131242371</v>
       </c>
       <c r="G25">
-        <v>7.119295207411082</v>
+        <v>7.076862794054136</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4703,22 +4544,22 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>1.161160747788857</v>
+        <v>1.151683957536157</v>
       </c>
       <c r="C26">
-        <v>0.6692161324995042</v>
+        <v>0.6713606210064669</v>
       </c>
       <c r="D26">
-        <v>1.735105732511189</v>
+        <v>1.715447587333341</v>
       </c>
       <c r="E26">
-        <v>0.08272207913694514</v>
+        <v>0.08626319701298077</v>
       </c>
       <c r="F26">
-        <v>-0.1504787697833556</v>
+        <v>-0.1641586802749626</v>
       </c>
       <c r="G26">
-        <v>2.47280026536107</v>
+        <v>2.467526595347277</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4726,22 +4567,22 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>6.625222749506845</v>
+        <v>6.633340638612617</v>
       </c>
       <c r="C27">
-        <v>0.6687807754217876</v>
+        <v>0.6702476057459036</v>
       </c>
       <c r="D27">
-        <v>9.906419252749064</v>
+        <v>9.896850927547172</v>
       </c>
       <c r="E27">
-        <v>3.903873265509841E-23</v>
+        <v>4.295890341780208E-23</v>
       </c>
       <c r="F27">
-        <v>5.314436516127371</v>
+        <v>5.319679470626445</v>
       </c>
       <c r="G27">
-        <v>7.936008982886319</v>
+        <v>7.94700180659879</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4749,22 +4590,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>-4.051112073519022</v>
+        <v>-4.075579193228443</v>
       </c>
       <c r="C28">
-        <v>0.6700993521090768</v>
+        <v>0.6714577993728214</v>
       </c>
       <c r="D28">
-        <v>-6.045539457348399</v>
+        <v>-6.069747342327782</v>
       </c>
       <c r="E28">
-        <v>1.489109000567806E-09</v>
+        <v>1.281116397130692E-09</v>
       </c>
       <c r="F28">
-        <v>-5.364482669716437</v>
+        <v>-5.391612297137694</v>
       </c>
       <c r="G28">
-        <v>-2.737741477321607</v>
+        <v>-2.759546089319192</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4772,22 +4613,22 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>-3.589366235081173</v>
+        <v>-3.60277333559207</v>
       </c>
       <c r="C29">
-        <v>0.62017842353568</v>
+        <v>0.6212759749628552</v>
       </c>
       <c r="D29">
-        <v>-5.787634814216768</v>
+        <v>-5.798990272893575</v>
       </c>
       <c r="E29">
-        <v>7.138439133656461E-09</v>
+        <v>6.671540169700274E-09</v>
       </c>
       <c r="F29">
-        <v>-4.804893609199934</v>
+        <v>-4.820451870979275</v>
       </c>
       <c r="G29">
-        <v>-2.373838860962413</v>
+        <v>-2.385094800204866</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4795,22 +4636,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>1.496214477722737</v>
+        <v>1.523691944739937</v>
       </c>
       <c r="C30">
-        <v>0.7512474803458259</v>
+        <v>0.7533792413172036</v>
       </c>
       <c r="D30">
-        <v>1.991639928075335</v>
+        <v>2.022476677318482</v>
       </c>
       <c r="E30">
-        <v>0.04641057915725492</v>
+        <v>0.04312713065628778</v>
       </c>
       <c r="F30">
-        <v>0.02379647276845653</v>
+        <v>0.04709576505810742</v>
       </c>
       <c r="G30">
-        <v>2.968632482677018</v>
+        <v>3.000288124421766</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4818,22 +4659,22 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>-1.020488209089474</v>
+        <v>-1.047722071706146</v>
       </c>
       <c r="C31">
-        <v>0.6552123006022664</v>
+        <v>0.6563866625740157</v>
       </c>
       <c r="D31">
-        <v>-1.557492446572582</v>
+        <v>-1.596196466877483</v>
       </c>
       <c r="E31">
-        <v>0.1193536125454905</v>
+        <v>0.110444936191542</v>
       </c>
       <c r="F31">
-        <v>-2.304680720497548</v>
+        <v>-2.334216290283662</v>
       </c>
       <c r="G31">
-        <v>0.2637043023185996</v>
+        <v>0.2387721468713693</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4841,22 +4682,22 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>6.512590877724815</v>
+        <v>6.478799063162928</v>
       </c>
       <c r="C32">
-        <v>0.7625226772171552</v>
+        <v>0.7623981375041625</v>
       </c>
       <c r="D32">
-        <v>8.540848780383387</v>
+        <v>8.497920895206221</v>
       </c>
       <c r="E32">
-        <v>1.332394851761485E-17</v>
+        <v>1.930165684291319E-17</v>
       </c>
       <c r="F32">
-        <v>5.01807389298413</v>
+        <v>4.984526171774354</v>
       </c>
       <c r="G32">
-        <v>8.007107862465499</v>
+        <v>7.973071954551502</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4864,22 +4705,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>-4.749758134131582</v>
+        <v>-4.776185322656741</v>
       </c>
       <c r="C33">
-        <v>0.7917085223290344</v>
+        <v>0.7925712585426111</v>
       </c>
       <c r="D33">
-        <v>-5.999377296279224</v>
+        <v>-6.02619041654279</v>
       </c>
       <c r="E33">
-        <v>1.980756392824797E-09</v>
+        <v>1.678693949628583E-09</v>
       </c>
       <c r="F33">
-        <v>-6.301478324149915</v>
+        <v>-6.329596444581843</v>
       </c>
       <c r="G33">
-        <v>-3.19803794411325</v>
+        <v>-3.22277420073164</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4887,22 +4728,22 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>0.4392996753147828</v>
+        <v>0.4550707137385102</v>
       </c>
       <c r="C34">
-        <v>0.7702286094558486</v>
+        <v>0.7712036953470278</v>
       </c>
       <c r="D34">
-        <v>0.5703497246423233</v>
+        <v>0.590078492211758</v>
       </c>
       <c r="E34">
-        <v>0.568440521479746</v>
+        <v>0.5551380274745906</v>
       </c>
       <c r="F34">
-        <v>-1.070320659081047</v>
+        <v>-1.056460753885864</v>
       </c>
       <c r="G34">
-        <v>1.948920009710613</v>
+        <v>1.966602181362885</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4910,22 +4751,22 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>-3.299492832183757</v>
+        <v>-3.29499944818081</v>
       </c>
       <c r="C35">
-        <v>0.7373937832988139</v>
+        <v>0.7383512889465156</v>
       </c>
       <c r="D35">
-        <v>-4.474533020095594</v>
+        <v>-4.462644675384988</v>
       </c>
       <c r="E35">
-        <v>7.657849215820948E-06</v>
+        <v>8.095423394492209E-06</v>
       </c>
       <c r="F35">
-        <v>-4.744758089873166</v>
+        <v>-4.742141382454708</v>
       </c>
       <c r="G35">
-        <v>-1.854227574494349</v>
+        <v>-1.847857513906913</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4933,22 +4774,22 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>12.05064050498393</v>
+        <v>12.15474137185439</v>
       </c>
       <c r="C36">
-        <v>0.7849770660725418</v>
+        <v>0.7865742606990047</v>
       </c>
       <c r="D36">
-        <v>15.35158290072935</v>
+        <v>15.45275758331177</v>
       </c>
       <c r="E36">
-        <v>3.456484746062677E-53</v>
+        <v>7.228365059642007E-54</v>
       </c>
       <c r="F36">
-        <v>10.51211372679183</v>
+        <v>10.61308414971812</v>
       </c>
       <c r="G36">
-        <v>13.58916728317603</v>
+        <v>13.69639859399066</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4956,22 +4797,22 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>-4.314824169195981</v>
+        <v>-4.406561266835251</v>
       </c>
       <c r="C37">
-        <v>0.9096123145527477</v>
+        <v>0.910773204671955</v>
       </c>
       <c r="D37">
-        <v>-4.743585921346679</v>
+        <v>-4.838264064238055</v>
       </c>
       <c r="E37">
-        <v>2.099678251985806E-06</v>
+        <v>1.309780527658181E-06</v>
       </c>
       <c r="F37">
-        <v>-6.097631545613486</v>
+        <v>-6.19164394607641</v>
       </c>
       <c r="G37">
-        <v>-2.532016792778477</v>
+        <v>-2.621478587594091</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4979,22 +4820,22 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>5.648631548606078</v>
+        <v>5.638542391949839</v>
       </c>
       <c r="C38">
-        <v>0.4988974944888236</v>
+        <v>0.500029897426206</v>
       </c>
       <c r="D38">
-        <v>11.32222873637346</v>
+        <v>11.27641051259734</v>
       </c>
       <c r="E38">
-        <v>1.018491346183927E-29</v>
+        <v>1.716060072183299E-29</v>
       </c>
       <c r="F38">
-        <v>4.670810427430713</v>
+        <v>4.658501801801218</v>
       </c>
       <c r="G38">
-        <v>6.626452669781442</v>
+        <v>6.61858298209846</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -5002,22 +4843,22 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>-4.866765941568853</v>
+        <v>-4.908090541740265</v>
       </c>
       <c r="C39">
-        <v>0.6501596745257596</v>
+        <v>0.6506586911864813</v>
       </c>
       <c r="D39">
-        <v>-7.485493383019758</v>
+        <v>-7.543264399942652</v>
       </c>
       <c r="E39">
-        <v>7.127884954775967E-14</v>
+        <v>4.583505307100787E-14</v>
       </c>
       <c r="F39">
-        <v>-6.141055487839625</v>
+        <v>-6.183358142693737</v>
       </c>
       <c r="G39">
-        <v>-3.592476395298081</v>
+        <v>-3.632822940786792</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5025,22 +4866,22 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>3.592712753183929</v>
+        <v>3.593321119957888</v>
       </c>
       <c r="C40">
-        <v>0.723817898952252</v>
+        <v>0.7257644153981033</v>
       </c>
       <c r="D40">
-        <v>4.963558870794005</v>
+        <v>4.951084737306726</v>
       </c>
       <c r="E40">
-        <v>6.921304878946379E-07</v>
+        <v>7.38009579515295E-07</v>
       </c>
       <c r="F40">
-        <v>2.174055739872063</v>
+        <v>2.170849004516838</v>
       </c>
       <c r="G40">
-        <v>5.011369766495795</v>
+        <v>5.015793235398937</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -5048,22 +4889,22 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>-1.415479222780553</v>
+        <v>-1.403592675774373</v>
       </c>
       <c r="C41">
-        <v>0.7845722470345736</v>
+        <v>0.787207635271346</v>
       </c>
       <c r="D41">
-        <v>-1.804141337054173</v>
+        <v>-1.783001857306126</v>
       </c>
       <c r="E41">
-        <v>0.07120915289467213</v>
+        <v>0.07458600098751553</v>
       </c>
       <c r="F41">
-        <v>-2.953212570237979</v>
+        <v>-2.946491289261154</v>
       </c>
       <c r="G41">
-        <v>0.1222541246768738</v>
+        <v>0.1393059377124077</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -5071,22 +4912,22 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>-4.275596582264884</v>
+        <v>-4.330135022538374</v>
       </c>
       <c r="C42">
-        <v>0.7987788973899824</v>
+        <v>0.798844383688065</v>
       </c>
       <c r="D42">
-        <v>-5.352665920739063</v>
+        <v>-5.420498799211959</v>
       </c>
       <c r="E42">
-        <v>8.666777137336852E-08</v>
+        <v>5.943297173655047E-08</v>
       </c>
       <c r="F42">
-        <v>-5.841174452759865</v>
+        <v>-5.895841243819078</v>
       </c>
       <c r="G42">
-        <v>-2.710018711769902</v>
+        <v>-2.764428801257671</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5094,22 +4935,22 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>0.7906278182083528</v>
+        <v>0.9289708786772539</v>
       </c>
       <c r="C43">
-        <v>0.7647912721772907</v>
+        <v>0.7644588181930561</v>
       </c>
       <c r="D43">
-        <v>1.033782480228243</v>
+        <v>1.215200683894331</v>
       </c>
       <c r="E43">
-        <v>0.3012378637975676</v>
+        <v>0.2242895596666638</v>
       </c>
       <c r="F43">
-        <v>-0.7083355309497068</v>
+        <v>-0.569340872645189</v>
       </c>
       <c r="G43">
-        <v>2.289591167366412</v>
+        <v>2.427282629999697</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5117,22 +4958,22 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>-8.044162579610036</v>
+        <v>-8.081680219953455</v>
       </c>
       <c r="C44">
-        <v>0.6121818922165716</v>
+        <v>0.6139686355390095</v>
       </c>
       <c r="D44">
-        <v>-13.14015112482983</v>
+        <v>-13.1630180308127</v>
       </c>
       <c r="E44">
-        <v>1.938392291755485E-39</v>
+        <v>1.432474966535469E-39</v>
       </c>
       <c r="F44">
-        <v>-9.244017040342097</v>
+        <v>-9.285036633247111</v>
       </c>
       <c r="G44">
-        <v>-6.844308118877975</v>
+        <v>-6.878323806659798</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -5140,22 +4981,22 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>2.354764826710348</v>
+        <v>2.366726230227</v>
       </c>
       <c r="C45">
-        <v>0.834065079326695</v>
+        <v>0.8350088749957235</v>
       </c>
       <c r="D45">
-        <v>2.823238719706678</v>
+        <v>2.834372545129081</v>
       </c>
       <c r="E45">
-        <v>0.004754115848974671</v>
+        <v>0.004591576966574877</v>
       </c>
       <c r="F45">
-        <v>0.7200273104674821</v>
+        <v>0.7301389084640735</v>
       </c>
       <c r="G45">
-        <v>3.989502342953213</v>
+        <v>4.003313551989926</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5163,22 +5004,22 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>4.357482306741145</v>
+        <v>4.400047446995969</v>
       </c>
       <c r="C46">
-        <v>0.780862822260502</v>
+        <v>0.7833941896128173</v>
       </c>
       <c r="D46">
-        <v>5.580342900852635</v>
+        <v>5.616645496401546</v>
       </c>
       <c r="E46">
-        <v>2.400448775572464E-08</v>
+        <v>1.947003083000376E-08</v>
       </c>
       <c r="F46">
-        <v>2.82701929824426</v>
+        <v>2.864623049656905</v>
       </c>
       <c r="G46">
-        <v>5.887945315238031</v>
+        <v>5.935471844335033</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5186,22 +5027,22 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>0.714045801888479</v>
+        <v>0.652627068805834</v>
       </c>
       <c r="C47">
-        <v>0.4629791980110337</v>
+        <v>0.4640118788909892</v>
       </c>
       <c r="D47">
-        <v>1.54228484769085</v>
+        <v>1.40648784760779</v>
       </c>
       <c r="E47">
-        <v>0.1230043893890114</v>
+        <v>0.1595793106864142</v>
       </c>
       <c r="F47">
-        <v>-0.1933767518043853</v>
+        <v>-0.2568195022192662</v>
       </c>
       <c r="G47">
-        <v>1.621468355581343</v>
+        <v>1.562073639830934</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5209,22 +5050,22 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>1.695133900806981</v>
+        <v>1.634883277388372</v>
       </c>
       <c r="C48">
-        <v>0.4142093719422551</v>
+        <v>0.415256841092905</v>
       </c>
       <c r="D48">
-        <v>4.092456655093017</v>
+        <v>3.937041164898235</v>
       </c>
       <c r="E48">
-        <v>4.26827046472327E-05</v>
+        <v>8.249246024308432E-05</v>
       </c>
       <c r="F48">
-        <v>0.8832984497412052</v>
+        <v>0.820994824512406</v>
       </c>
       <c r="G48">
-        <v>2.506969351872756</v>
+        <v>2.448771730264338</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5232,22 +5073,22 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>-8.87725505550423</v>
+        <v>-8.764697657442799</v>
       </c>
       <c r="C49">
-        <v>0.9903703441662501</v>
+        <v>0.9932523037443179</v>
       </c>
       <c r="D49">
-        <v>-8.963571160824294</v>
+        <v>-8.824240955094728</v>
       </c>
       <c r="E49">
-        <v>3.143295861953025E-19</v>
+        <v>1.102047141000792E-18</v>
       </c>
       <c r="F49">
-        <v>-10.81834526142662</v>
+        <v>-10.7114364003431</v>
       </c>
       <c r="G49">
-        <v>-6.936164849581842</v>
+        <v>-6.817958914542498</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -5255,22 +5096,22 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>-502.193940450783</v>
+        <v>-405.6335734563572</v>
       </c>
       <c r="C50">
-        <v>3111.171403971509</v>
+        <v>3118.042178474583</v>
       </c>
       <c r="D50">
-        <v>-0.1614163526348039</v>
+        <v>-0.1300923945983317</v>
       </c>
       <c r="E50">
-        <v>0.8717654880166469</v>
+        <v>0.896493327217864</v>
       </c>
       <c r="F50">
-        <v>-6599.977841965856</v>
+        <v>-6516.883945543352</v>
       </c>
       <c r="G50">
-        <v>5595.58996106429</v>
+        <v>5705.616798630637</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -5278,22 +5119,22 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>0.3339542396767667</v>
+        <v>0.3331348875862108</v>
       </c>
       <c r="C51">
-        <v>0.05156613585135354</v>
+        <v>0.0516218966301344</v>
       </c>
       <c r="D51">
-        <v>6.476231623006146</v>
+        <v>6.453363966323983</v>
       </c>
       <c r="E51">
-        <v>9.404165275553658E-11</v>
+        <v>1.093942002598402E-10</v>
       </c>
       <c r="F51">
-        <v>0.2328864705862141</v>
+        <v>0.2319578293774978</v>
       </c>
       <c r="G51">
-        <v>0.4350220087673193</v>
+        <v>0.4343119457949238</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -5301,22 +5142,22 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>0.2885521635108939</v>
+        <v>0.2878181059000146</v>
       </c>
       <c r="C52">
-        <v>0.05291671601888883</v>
+        <v>0.05307220994782615</v>
       </c>
       <c r="D52">
-        <v>5.452949185431198</v>
+        <v>5.423141530811714</v>
       </c>
       <c r="E52">
-        <v>4.954122942892141E-08</v>
+        <v>5.85605884502577E-08</v>
       </c>
       <c r="F52">
-        <v>0.184837305933738</v>
+        <v>0.1837984858223269</v>
       </c>
       <c r="G52">
-        <v>0.3922670210880497</v>
+        <v>0.3918377259777022</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -5324,22 +5165,22 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>-56.77334494794422</v>
+        <v>-46.00092912274954</v>
       </c>
       <c r="C53">
-        <v>347.1027251865019</v>
+        <v>347.8694466773571</v>
       </c>
       <c r="D53">
-        <v>-0.1635635240761631</v>
+        <v>-0.1322361867709946</v>
       </c>
       <c r="E53">
-        <v>0.8700747614838915</v>
+        <v>0.8947974795282266</v>
       </c>
       <c r="F53">
-        <v>-737.0821852491919</v>
+        <v>-727.8125159322461</v>
       </c>
       <c r="G53">
-        <v>623.5354953533034</v>
+        <v>635.810657686747</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -5347,22 +5188,22 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>-7.339606403472056</v>
+        <v>-7.271206326848694</v>
       </c>
       <c r="C54">
-        <v>1.22635784084531</v>
+        <v>1.228128864288696</v>
       </c>
       <c r="D54">
-        <v>-5.984881540295755</v>
+        <v>-5.92055649718811</v>
       </c>
       <c r="E54">
-        <v>2.165474054120494E-09</v>
+        <v>3.208540448265439E-09</v>
       </c>
       <c r="F54">
-        <v>-9.743223603687166</v>
+        <v>-9.678294669228618</v>
       </c>
       <c r="G54">
-        <v>-4.935989203256945</v>
+        <v>-4.86411798446877</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -5370,22 +5211,22 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>-1247.800717467566</v>
+        <v>-1006.139480245491</v>
       </c>
       <c r="C55">
-        <v>7785.94149364688</v>
+        <v>7803.136834126033</v>
       </c>
       <c r="D55">
-        <v>-0.1602633051488684</v>
+        <v>-0.1289403866205789</v>
       </c>
       <c r="E55">
-        <v>0.8726736634533927</v>
+        <v>0.8974048194861105</v>
       </c>
       <c r="F55">
-        <v>-16507.96563075145</v>
+        <v>-16300.00664157041</v>
       </c>
       <c r="G55">
-        <v>14012.36419581631</v>
+        <v>14287.72768107943</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -5393,22 +5234,22 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>3000.784360743608</v>
+        <v>2430.214943833118</v>
       </c>
       <c r="C56">
-        <v>18383.30808039846</v>
+        <v>18423.90392025288</v>
       </c>
       <c r="D56">
-        <v>0.1632341876456528</v>
+        <v>0.131905537195168</v>
       </c>
       <c r="E56">
-        <v>0.8703340493413597</v>
+        <v>0.8950590088530044</v>
       </c>
       <c r="F56">
-        <v>-33029.83739354153</v>
+        <v>-33679.97319448883</v>
       </c>
       <c r="G56">
-        <v>39031.40611502875</v>
+        <v>38540.40308215507</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -5416,22 +5257,22 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>-2.501893296632271</v>
+        <v>-2.896535207084685</v>
       </c>
       <c r="C57">
-        <v>2.216047471967399</v>
+        <v>2.21805585082092</v>
       </c>
       <c r="D57">
-        <v>-1.128989034883399</v>
+        <v>-1.305889211947776</v>
       </c>
       <c r="E57">
-        <v>0.2589024593111779</v>
+        <v>0.1915902357811403</v>
       </c>
       <c r="F57">
-        <v>-6.845266529719408</v>
+        <v>-7.243844790392036</v>
       </c>
       <c r="G57">
-        <v>1.841479936454866</v>
+        <v>1.450774376222665</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -5439,22 +5280,22 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>18.50858349335576</v>
+        <v>18.68767175247548</v>
       </c>
       <c r="C58">
-        <v>2.279733932857446</v>
+        <v>2.28279146792877</v>
       </c>
       <c r="D58">
-        <v>8.118747204046254</v>
+        <v>8.186324513220315</v>
       </c>
       <c r="E58">
-        <v>4.710204805518119E-16</v>
+        <v>2.693249074408558E-16</v>
       </c>
       <c r="F58">
-        <v>14.04038709062132</v>
+        <v>14.21348269111977</v>
       </c>
       <c r="G58">
-        <v>22.97677989609021</v>
+        <v>23.16186081383119</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -5462,22 +5303,22 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>9.782460052917243</v>
+        <v>9.879422642589375</v>
       </c>
       <c r="C59">
-        <v>2.241014002436881</v>
+        <v>2.243634736421578</v>
       </c>
       <c r="D59">
-        <v>4.365193632114652</v>
+        <v>4.403311502631788</v>
       </c>
       <c r="E59">
-        <v>1.270101999584612E-05</v>
+        <v>1.066109166111312E-05</v>
       </c>
       <c r="F59">
-        <v>5.390153319290999</v>
+        <v>5.481979364740066</v>
       </c>
       <c r="G59">
-        <v>14.17476678654349</v>
+        <v>14.27686592043868</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -5485,22 +5326,22 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>2.359558088492669E-09</v>
+        <v>-1.095821455186693E-09</v>
       </c>
       <c r="C60">
-        <v>1.406210779316649E-08</v>
+        <v>8.028662439563515E-09</v>
       </c>
       <c r="D60">
-        <v>0.1677954772640345</v>
+        <v>-0.1364886696178334</v>
       </c>
       <c r="E60">
-        <v>0.8667441806739955</v>
+        <v>0.8914349810645323</v>
       </c>
       <c r="F60">
-        <v>-2.520166673283366E-08</v>
+        <v>-1.683171068076067E-08</v>
       </c>
       <c r="G60">
-        <v>2.9920782909819E-08</v>
+        <v>1.464006777038728E-08</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -5508,22 +5349,22 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>-6.859829076123081E-10</v>
+        <v>1.067310639314247E-10</v>
       </c>
       <c r="C61">
-        <v>4.088194090152512E-09</v>
+        <v>7.819799985552603E-10</v>
       </c>
       <c r="D61">
-        <v>-0.1677960714401202</v>
+        <v>0.1364882274848649</v>
       </c>
       <c r="E61">
-        <v>0.866743713217329</v>
+        <v>0.8914353305649544</v>
       </c>
       <c r="F61">
-        <v>-8.698696086120726E-09</v>
+        <v>-1.425921569867569E-09</v>
       </c>
       <c r="G61">
-        <v>7.32673027089611E-09</v>
+        <v>1.639383697730418E-09</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -5531,22 +5372,22 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>-4.215843135415788E-10</v>
+        <v>-1.249383416007296E-10</v>
       </c>
       <c r="C62">
-        <v>2.512473519805448E-09</v>
+        <v>9.153824861322996E-10</v>
       </c>
       <c r="D62">
-        <v>-0.1677965201297819</v>
+        <v>-0.1364875814137789</v>
       </c>
       <c r="E62">
-        <v>0.8667433602193537</v>
+        <v>0.8914358412758722</v>
       </c>
       <c r="F62">
-        <v>-5.345941924470839E-09</v>
+        <v>-1.919055046498772E-09</v>
       </c>
       <c r="G62">
-        <v>4.502773297387681E-09</v>
+        <v>1.669178363297313E-09</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -5554,22 +5395,22 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>-4.623962640831759E-10</v>
+        <v>7.225107680795022E-11</v>
       </c>
       <c r="C63">
-        <v>2.755719473877333E-09</v>
+        <v>5.293667604971983E-10</v>
       </c>
       <c r="D63">
-        <v>-0.1677951142946268</v>
+        <v>0.1364858585758005</v>
       </c>
       <c r="E63">
-        <v>0.8667444662332549</v>
+        <v>0.8914372031574457</v>
       </c>
       <c r="F63">
-        <v>-5.863507184378416E-09</v>
+        <v>-9.652887083791989E-10</v>
       </c>
       <c r="G63">
-        <v>4.938714656212064E-09</v>
+        <v>1.109790861995099E-09</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -5577,22 +5418,22 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>-5.478832907617593E-10</v>
+        <v>5.259446402233772E-11</v>
       </c>
       <c r="C64">
-        <v>3.265154241655784E-09</v>
+        <v>3.853276272214729E-10</v>
       </c>
       <c r="D64">
-        <v>-0.1677970626232724</v>
+        <v>0.1364928448073832</v>
       </c>
       <c r="E64">
-        <v>0.866742933423053</v>
+        <v>0.89143168063196</v>
       </c>
       <c r="F64">
-        <v>-6.947468008375288E-09</v>
+        <v>-7.026338075800249E-10</v>
       </c>
       <c r="G64">
-        <v>5.85170142685177E-09</v>
+        <v>8.078227356247003E-10</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -5600,22 +5441,22 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>-5.373794902327315</v>
+        <v>-5.151468376414031</v>
       </c>
       <c r="C65">
-        <v>2.344385957783475</v>
+        <v>2.347427985815542</v>
       </c>
       <c r="D65">
-        <v>-2.292197188985055</v>
+        <v>-2.194516043747477</v>
       </c>
       <c r="E65">
-        <v>0.02189426709403721</v>
+        <v>0.02819833183797594</v>
       </c>
       <c r="F65">
-        <v>-9.968706945444366</v>
+        <v>-9.752342684913895</v>
       </c>
       <c r="G65">
-        <v>-0.778882859210265</v>
+        <v>-0.5505940679141679</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -5623,22 +5464,16 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>9.543186657234367E-11</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>5.687086272194484E-10</v>
-      </c>
-      <c r="D66">
-        <v>0.1678044995359623</v>
-      </c>
-      <c r="E66">
-        <v>0.8667370825792072</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>-1.019216560474991E-09</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>1.210080293619678E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -5646,22 +5481,16 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>1.228850000096173E-12</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>7.32341087357808E-12</v>
-      </c>
-      <c r="D67">
-        <v>0.1677974950893039</v>
-      </c>
-      <c r="E67">
-        <v>0.8667425931887633</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>-1.312477155610588E-11</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>1.558247155629822E-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -5669,22 +5498,22 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>23.50455777816777</v>
+        <v>23.4763670767113</v>
       </c>
       <c r="C68">
-        <v>2.426053106953939</v>
+        <v>2.431157165938115</v>
       </c>
       <c r="D68">
-        <v>9.688393758073664</v>
+        <v>9.656458005113148</v>
       </c>
       <c r="E68">
-        <v>3.37799219701277E-22</v>
+        <v>4.6154638122437E-22</v>
       </c>
       <c r="F68">
-        <v>18.74958106395654</v>
+        <v>18.71138659071612</v>
       </c>
       <c r="G68">
-        <v>28.25953449237899</v>
+        <v>28.24134756270647</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -5692,22 +5521,22 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>20.64855134087331</v>
+        <v>20.7975009401343</v>
       </c>
       <c r="C69">
-        <v>1.365855042184612</v>
+        <v>1.367875044857442</v>
       </c>
       <c r="D69">
-        <v>15.11767405994055</v>
+        <v>15.20424034221766</v>
       </c>
       <c r="E69">
-        <v>1.238400600877712E-51</v>
+        <v>3.314533550222835E-52</v>
       </c>
       <c r="F69">
-        <v>17.97152465008903</v>
+        <v>18.1165151168626</v>
       </c>
       <c r="G69">
-        <v>23.32557803165758</v>
+        <v>23.478486763406</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -5715,16 +5544,22 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>-3.025101908236352</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>6.259460481682114</v>
+      </c>
+      <c r="D70">
+        <v>-0.4832847682462582</v>
+      </c>
+      <c r="E70">
+        <v>0.6288935536633404</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>-15.29341901498503</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>9.243215198512328</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -5732,22 +5567,22 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>-3.380984833965613</v>
+        <v>-1.987729632128293</v>
       </c>
       <c r="C71">
-        <v>6.281164385883738</v>
+        <v>5.027816979691887</v>
       </c>
       <c r="D71">
-        <v>-0.5382735789504289</v>
+        <v>-0.3953464575494759</v>
       </c>
       <c r="E71">
-        <v>0.5903881891037082</v>
+        <v>0.6925872178572428</v>
       </c>
       <c r="F71">
-        <v>-15.69184081127339</v>
+        <v>-11.84206983318334</v>
       </c>
       <c r="G71">
-        <v>8.92987114334216</v>
+        <v>7.866610568926758</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -5755,22 +5590,22 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>-1.883138081878363</v>
+        <v>-4.1630603360223</v>
       </c>
       <c r="C72">
-        <v>5.010043750186664</v>
+        <v>1.328400766291057</v>
       </c>
       <c r="D72">
-        <v>-0.3758725823119211</v>
+        <v>-3.133888839620075</v>
       </c>
       <c r="E72">
-        <v>0.7070116245441975</v>
+        <v>0.001725061923744989</v>
       </c>
       <c r="F72">
-        <v>-11.70264339321421</v>
+        <v>-6.76667799498818</v>
       </c>
       <c r="G72">
-        <v>7.936367229457487</v>
+        <v>-1.559442677056419</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -5778,91 +5613,22 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>-20.38327751048721</v>
+        <v>-0.975716224184727</v>
       </c>
       <c r="C73">
-        <v>4.068939076237606</v>
+        <v>1.7113877623266</v>
       </c>
       <c r="D73">
-        <v>-5.009482110342841</v>
+        <v>-0.5701315889148693</v>
       </c>
       <c r="E73">
-        <v>5.457669939961373E-07</v>
+        <v>0.5685884514391901</v>
       </c>
       <c r="F73">
-        <v>-28.3582515552006</v>
+        <v>-4.329974601927457</v>
       </c>
       <c r="G73">
-        <v>-12.40830346577383</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74">
-        <v>-4.408092238932085</v>
-      </c>
-      <c r="C74">
-        <v>1.33305638202491</v>
-      </c>
-      <c r="D74">
-        <v>-3.306756037007377</v>
-      </c>
-      <c r="E74">
-        <v>0.0009438305248598433</v>
-      </c>
-      <c r="F74">
-        <v>-7.020834737062176</v>
-      </c>
-      <c r="G74">
-        <v>-1.795349740801993</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75">
-        <v>-1.451373514695195</v>
-      </c>
-      <c r="C75">
-        <v>1.716543752821102</v>
-      </c>
-      <c r="D75">
-        <v>-0.8455208393668351</v>
-      </c>
-      <c r="E75">
-        <v>0.3978201024345183</v>
-      </c>
-      <c r="F75">
-        <v>-4.815737448111779</v>
-      </c>
-      <c r="G75">
-        <v>1.912990418721389</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76">
-        <v>-22.25534202918023</v>
-      </c>
-      <c r="C76">
-        <v>6.353931100117003</v>
-      </c>
-      <c r="D76">
-        <v>-3.502609908497499</v>
-      </c>
-      <c r="E76">
-        <v>0.0004607236613860544</v>
-      </c>
-      <c r="F76">
-        <v>-34.70881814565852</v>
-      </c>
-      <c r="G76">
-        <v>-9.80186591270194</v>
+        <v>2.378542153558003</v>
       </c>
     </row>
   </sheetData>

--- a/Presentacion 1/resultados_regresion_pisa.xlsx
+++ b/Presentacion 1/resultados_regresion_pisa.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESTEFANO\Documents\GitHub\Big-Data-y-Machine-Learning\Presentacion 1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Resultados_Lengua" sheetId="2" r:id="rId2"/>
     <sheet name="Resultados_Ciencias" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="79">
   <si>
     <t>coef</t>
   </si>
@@ -36,6 +41,9 @@
     <t>0.975]</t>
   </si>
   <si>
+    <t>const</t>
+  </si>
+  <si>
     <t>AGE</t>
   </si>
   <si>
@@ -84,9 +92,6 @@
     <t>BSMJ</t>
   </si>
   <si>
-    <t>SISCO</t>
-  </si>
-  <si>
     <t>RELATST</t>
   </si>
   <si>
@@ -250,13 +255,16 @@
   </si>
   <si>
     <t>TARDYSD_2</t>
+  </si>
+  <si>
+    <t>variable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,11 +327,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -365,7 +381,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,9 +413,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,6 +448,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -606,14 +624,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,1479 +656,1479 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>3.050267506355212</v>
+        <v>19899.294491998851</v>
       </c>
       <c r="C2">
-        <v>1.897069903815753</v>
+        <v>52832.600970490646</v>
       </c>
       <c r="D2">
-        <v>1.607883557806661</v>
+        <v>0.376648018959231</v>
       </c>
       <c r="E2">
-        <v>0.1078606835429109</v>
+        <v>0.70643519737126348</v>
       </c>
       <c r="F2">
-        <v>-0.6679211812785275</v>
+        <v>-83650.700619738738</v>
       </c>
       <c r="G2">
-        <v>6.768456193988952</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>123449.2896037364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>7.226434426686164</v>
+        <v>3.0502675063169669</v>
       </c>
       <c r="C3">
-        <v>1.469167305556593</v>
+        <v>1.897069903814669</v>
       </c>
       <c r="D3">
-        <v>4.918728043671265</v>
+        <v>1.60788355778742</v>
       </c>
       <c r="E3">
-        <v>8.710839380967567E-07</v>
+        <v>0.1078606835471258</v>
       </c>
       <c r="F3">
-        <v>4.346919420531489</v>
+        <v>-0.66792118131464795</v>
       </c>
       <c r="G3">
-        <v>10.10594943284084</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>6.7684561939485821</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.03467945241019496</v>
+        <v>7.2264344266714424</v>
       </c>
       <c r="C4">
-        <v>0.02754802087785743</v>
+        <v>1.469167305555751</v>
       </c>
       <c r="D4">
-        <v>1.258872735865742</v>
+        <v>4.9187280436640624</v>
       </c>
       <c r="E4">
-        <v>0.208076302974059</v>
+        <v>8.7108393812880585E-7</v>
       </c>
       <c r="F4">
-        <v>-0.01931367635576308</v>
+        <v>4.3469194205184163</v>
       </c>
       <c r="G4">
-        <v>0.08867258117615301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>10.10594943282447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-20.56989503443501</v>
+        <v>3.4679452410095957E-2</v>
       </c>
       <c r="C5">
-        <v>2.212786790386501</v>
+        <v>2.7548020877836671E-2</v>
       </c>
       <c r="D5">
-        <v>-9.295922735891843</v>
+        <v>1.258872735863096</v>
       </c>
       <c r="E5">
-        <v>1.45934805106445E-20</v>
+        <v>0.2080763029750147</v>
       </c>
       <c r="F5">
-        <v>-24.90687744905853</v>
+        <v>-1.9313676355821409E-2</v>
       </c>
       <c r="G5">
-        <v>-16.23291261981148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>8.8672581176013315E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-8.589632468189267</v>
+        <v>-20.569895034474069</v>
       </c>
       <c r="C6">
-        <v>1.986441063179101</v>
+        <v>2.212786790384468</v>
       </c>
       <c r="D6">
-        <v>-4.324131547322334</v>
+        <v>-9.295922735918035</v>
       </c>
       <c r="E6">
-        <v>1.531339048828029E-05</v>
+        <v>1.4593480507050929E-20</v>
       </c>
       <c r="F6">
-        <v>-12.48298540943176</v>
+        <v>-24.90687744909361</v>
       </c>
       <c r="G6">
-        <v>-4.696279526946775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-16.232912619854531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-2.853823463614104</v>
+        <v>-8.5896324680933258</v>
       </c>
       <c r="C7">
-        <v>1.162017944025515</v>
+        <v>1.986441063171257</v>
       </c>
       <c r="D7">
-        <v>-2.455920305092502</v>
+        <v>-4.3241315472911106</v>
       </c>
       <c r="E7">
-        <v>0.01405243172476438</v>
+        <v>1.5313390490448838E-5</v>
       </c>
       <c r="F7">
-        <v>-5.131336783293393</v>
+        <v>-12.48298540932044</v>
       </c>
       <c r="G7">
-        <v>-0.5763101439348146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-4.6962795268662081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-2.097947060066272</v>
+        <v>-2.853823463553776</v>
       </c>
       <c r="C8">
-        <v>0.1562422205285951</v>
+        <v>1.162017944028229</v>
       </c>
       <c r="D8">
-        <v>-13.42752972255864</v>
+        <v>-2.4559203050348479</v>
       </c>
       <c r="E8">
-        <v>4.170941137751178E-41</v>
+        <v>1.405243172701879E-2</v>
       </c>
       <c r="F8">
-        <v>-2.404176185166884</v>
+        <v>-5.1313367832383854</v>
       </c>
       <c r="G8">
-        <v>-1.791717934965661</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.57631014386916624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-1.502153732784689</v>
+        <v>-2.0979470600630301</v>
       </c>
       <c r="C9">
-        <v>0.1952934153606218</v>
+        <v>0.15624222052896369</v>
       </c>
       <c r="D9">
-        <v>-7.691778701349794</v>
+        <v>-13.427529722506209</v>
       </c>
       <c r="E9">
-        <v>1.451034414172276E-14</v>
+        <v>4.1709411407035938E-41</v>
       </c>
       <c r="F9">
-        <v>-1.88492179330933</v>
+        <v>-2.404176185164363</v>
       </c>
       <c r="G9">
-        <v>-1.119385672260049</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-1.791717934961697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-2.444593109041952</v>
+        <v>-1.502153732786478</v>
       </c>
       <c r="C10">
-        <v>0.1836774301944739</v>
+        <v>0.19529341536097569</v>
       </c>
       <c r="D10">
-        <v>-13.30916436741121</v>
+        <v>-7.6917787013450116</v>
       </c>
       <c r="E10">
-        <v>2.047590089062268E-40</v>
+        <v>1.4510344142265199E-14</v>
       </c>
       <c r="F10">
-        <v>-2.804594256995991</v>
+        <v>-1.884921793311811</v>
       </c>
       <c r="G10">
-        <v>-2.084591961087913</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-1.1193856722611439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.5322447808683487</v>
+        <v>-2.4445931090386321</v>
       </c>
       <c r="C11">
-        <v>0.1589544089661734</v>
+        <v>0.18367743019427049</v>
       </c>
       <c r="D11">
-        <v>-3.348411562346874</v>
+        <v>-13.30916436740787</v>
       </c>
       <c r="E11">
-        <v>0.0008127621594640563</v>
+        <v>2.047590089153678E-40</v>
       </c>
       <c r="F11">
-        <v>-0.8437896976258992</v>
+        <v>-2.8045942569922722</v>
       </c>
       <c r="G11">
-        <v>-0.2206998641107982</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-2.0845919610849921</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12">
-        <v>1.917613227547128</v>
+        <v>-0.53224478087063953</v>
       </c>
       <c r="C12">
-        <v>0.3244886931074839</v>
+        <v>0.1589544089664803</v>
       </c>
       <c r="D12">
-        <v>5.909645754318893</v>
+        <v>-3.348411562354821</v>
       </c>
       <c r="E12">
-        <v>3.428442073984384E-09</v>
+        <v>8.1276215944074866E-4</v>
       </c>
       <c r="F12">
-        <v>1.28162707566599</v>
+        <v>-0.84378969762879164</v>
       </c>
       <c r="G12">
-        <v>2.553599379428268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.2206998641124874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B13">
-        <v>7.860204372248173</v>
+        <v>1.9176132275517239</v>
       </c>
       <c r="C13">
-        <v>1.67288227315268</v>
+        <v>0.32448869310875661</v>
       </c>
       <c r="D13">
-        <v>4.698599834783946</v>
+        <v>5.909645754309877</v>
       </c>
       <c r="E13">
-        <v>2.619511338912791E-06</v>
+        <v>3.4284420741720311E-9</v>
       </c>
       <c r="F13">
-        <v>4.581415366493424</v>
+        <v>1.281627075668091</v>
       </c>
       <c r="G13">
-        <v>11.13899337800292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>2.553599379435358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>13.00612432157917</v>
+        <v>7.8602043722250698</v>
       </c>
       <c r="C14">
-        <v>1.90501112731822</v>
+        <v>1.672882273151876</v>
       </c>
       <c r="D14">
-        <v>6.82732196944621</v>
+        <v>4.6985998347723941</v>
       </c>
       <c r="E14">
-        <v>8.65143860147645E-12</v>
+        <v>2.6195113390609299E-6</v>
       </c>
       <c r="F14">
-        <v>9.272371121887414</v>
+        <v>4.5814153664718962</v>
       </c>
       <c r="G14">
-        <v>16.73987752127093</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>11.13899337797824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15">
-        <v>-5.197928877536573</v>
+        <v>13.006124321638961</v>
       </c>
       <c r="C15">
-        <v>2.472941691920522</v>
+        <v>1.90501112731709</v>
       </c>
       <c r="D15">
-        <v>-2.101921324922055</v>
+        <v>6.8273219694816429</v>
       </c>
       <c r="E15">
-        <v>0.03556016817941328</v>
+        <v>8.6514385993403515E-12</v>
       </c>
       <c r="F15">
-        <v>-10.04480552956834</v>
+        <v>9.2723711219494138</v>
       </c>
       <c r="G15">
-        <v>-0.3510522255048034</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>16.739877521328498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16">
-        <v>1.114716217080668</v>
+        <v>-5.1979288776161274</v>
       </c>
       <c r="C16">
-        <v>0.418287861841345</v>
+        <v>2.4729416919181331</v>
       </c>
       <c r="D16">
-        <v>2.66494995138892</v>
+        <v>-2.1019213249562561</v>
       </c>
       <c r="E16">
-        <v>0.007699978139981198</v>
+        <v>3.5560168176416863E-2</v>
       </c>
       <c r="F16">
-        <v>0.2948870727013656</v>
+        <v>-10.044805529643209</v>
       </c>
       <c r="G16">
-        <v>1.93454536145997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.35105222558904092</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B17">
-        <v>0.2075767628626677</v>
+        <v>1.1147162170760989</v>
       </c>
       <c r="C17">
-        <v>0.03063755764212868</v>
+        <v>0.41828786184271222</v>
       </c>
       <c r="D17">
-        <v>6.775238590730086</v>
+        <v>2.6649499513692869</v>
       </c>
       <c r="E17">
-        <v>1.242011207490779E-11</v>
+        <v>7.6999781404307301E-3</v>
       </c>
       <c r="F17">
-        <v>0.1475282533098256</v>
+        <v>0.29488707269411712</v>
       </c>
       <c r="G17">
-        <v>0.2676252724155098</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>1.934545361458081</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B18">
-        <v>19899.29448014326</v>
+        <v>0.2075767628653318</v>
       </c>
       <c r="C18">
-        <v>52832.60097043079</v>
+        <v>3.0637557642292881E-2</v>
       </c>
       <c r="D18">
-        <v>0.3766480187352586</v>
+        <v>6.7752385907807282</v>
       </c>
       <c r="E18">
-        <v>0.706435197537731</v>
+        <v>1.24201120705571E-11</v>
       </c>
       <c r="F18">
-        <v>-83650.70063147701</v>
+        <v>0.14752825331216779</v>
       </c>
       <c r="G18">
-        <v>123449.2895917635</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.26762527241849571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B19">
-        <v>0.8440311319599452</v>
+        <v>0.84403113195979707</v>
       </c>
       <c r="C19">
-        <v>0.5942637906953034</v>
+        <v>0.59426379069734248</v>
       </c>
       <c r="D19">
-        <v>1.420297088894492</v>
+        <v>1.4202970888893689</v>
       </c>
       <c r="E19">
-        <v>0.1555212083226689</v>
+        <v>0.15552120832415961</v>
       </c>
       <c r="F19">
-        <v>-0.3207044951190985</v>
+        <v>-0.32070449512324289</v>
       </c>
       <c r="G19">
-        <v>2.008766759038989</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>2.0087667590428371</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B20">
-        <v>1.922661384972793</v>
+        <v>1.922661384972858</v>
       </c>
       <c r="C20">
-        <v>0.5892782554249349</v>
+        <v>0.58927825542650569</v>
       </c>
       <c r="D20">
-        <v>3.262739405828476</v>
+        <v>3.26273940581989</v>
       </c>
       <c r="E20">
-        <v>0.001103409310970294</v>
+        <v>1.1034093110037231E-3</v>
       </c>
       <c r="F20">
-        <v>0.7676972274673262</v>
+        <v>0.76769722746431257</v>
       </c>
       <c r="G20">
-        <v>3.077625542478261</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>3.0776255424814041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B21">
-        <v>0.09255225616626106</v>
+        <v>9.2552256170316038E-2</v>
       </c>
       <c r="C21">
-        <v>0.5870981101184634</v>
+        <v>0.58709811011974578</v>
       </c>
       <c r="D21">
-        <v>0.1576435940963702</v>
+        <v>0.1576435941029326</v>
       </c>
       <c r="E21">
-        <v>0.8747376499297355</v>
+        <v>0.87473764992456404</v>
       </c>
       <c r="F21">
-        <v>-1.058138895057458</v>
+        <v>-1.0581388950559161</v>
       </c>
       <c r="G21">
-        <v>1.24324340738998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>1.2432434073965479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.8925113087790102</v>
+        <v>-0.89251130877438989</v>
       </c>
       <c r="C22">
-        <v>0.5683068972267512</v>
+        <v>0.56830689722741179</v>
       </c>
       <c r="D22">
-        <v>-1.570474180648389</v>
+        <v>-1.570474180638433</v>
       </c>
       <c r="E22">
-        <v>0.1163048365506964</v>
+        <v>0.1163048365530107</v>
       </c>
       <c r="F22">
-        <v>-2.006372359509148</v>
+        <v>-2.0063723595058232</v>
       </c>
       <c r="G22">
-        <v>0.2213497419511281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.22134974195704321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B23">
-        <v>-3.55677212757437</v>
+        <v>-3.5567721275764819</v>
       </c>
       <c r="C23">
-        <v>0.5812241067641503</v>
+        <v>0.5812241067646704</v>
       </c>
       <c r="D23">
-        <v>-6.119450460126288</v>
+        <v>-6.1194504601244457</v>
       </c>
       <c r="E23">
-        <v>9.389861612144744E-10</v>
+        <v>9.3898616122532532E-10</v>
       </c>
       <c r="F23">
-        <v>-4.695950443778568</v>
+        <v>-4.6959504437816992</v>
       </c>
       <c r="G23">
-        <v>-2.417593811370172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-2.4175938113712649</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B24">
-        <v>1.502404686901409</v>
+        <v>1.50240468689588</v>
       </c>
       <c r="C24">
-        <v>0.5751968474202811</v>
+        <v>0.57519684742058963</v>
       </c>
       <c r="D24">
-        <v>2.611983521188602</v>
+        <v>2.611983521177589</v>
       </c>
       <c r="E24">
-        <v>0.009001859302519269</v>
+        <v>9.0018593028092422E-3</v>
       </c>
       <c r="F24">
-        <v>0.375039581936677</v>
+        <v>0.37503958193054338</v>
       </c>
       <c r="G24">
-        <v>2.62976979186614</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>2.6297697918612162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B25">
-        <v>3.076141171679729</v>
+        <v>3.076141171673723</v>
       </c>
       <c r="C25">
-        <v>0.5998972702628185</v>
+        <v>0.59989727026296435</v>
       </c>
       <c r="D25">
-        <v>5.127779911937346</v>
+        <v>5.1277799119260861</v>
       </c>
       <c r="E25">
-        <v>2.93178890517735E-07</v>
+        <v>2.931788905352644E-7</v>
       </c>
       <c r="F25">
-        <v>1.900364127540714</v>
+        <v>1.9003641275344221</v>
       </c>
       <c r="G25">
-        <v>4.251918215818745</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>4.2519182158130242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B26">
-        <v>0.6806364485880088</v>
+        <v>0.6806364485870029</v>
       </c>
       <c r="C26">
-        <v>0.5473002407910624</v>
+        <v>0.54730024079145878</v>
       </c>
       <c r="D26">
-        <v>1.243625341008846</v>
+        <v>1.243625341006108</v>
       </c>
       <c r="E26">
-        <v>0.213637485152165</v>
+        <v>0.2136374851531733</v>
       </c>
       <c r="F26">
-        <v>-0.392052312092573</v>
+        <v>-0.39205231209435581</v>
       </c>
       <c r="G26">
-        <v>1.75332520926859</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>1.753325209268362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B27">
-        <v>4.737845005299883</v>
+        <v>4.73784500529763</v>
       </c>
       <c r="C27">
-        <v>0.5664469078180051</v>
+        <v>0.5664469078169414</v>
       </c>
       <c r="D27">
-        <v>8.364146648006974</v>
+        <v>8.3641466480187034</v>
       </c>
       <c r="E27">
-        <v>6.055156891777581E-17</v>
+        <v>6.0551568911752767E-17</v>
       </c>
       <c r="F27">
-        <v>3.627629466822513</v>
+        <v>3.627629466822345</v>
       </c>
       <c r="G27">
-        <v>5.848060543777253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>5.848060543772915</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B28">
-        <v>-3.085620520677335</v>
+        <v>-3.0856205206724572</v>
       </c>
       <c r="C28">
-        <v>0.5544825373634649</v>
+        <v>0.5544825373650788</v>
       </c>
       <c r="D28">
-        <v>-5.564865099898902</v>
+        <v>-5.5648650998739084</v>
       </c>
       <c r="E28">
-        <v>2.62355287788577E-08</v>
+        <v>2.6235528782618089E-8</v>
       </c>
       <c r="F28">
-        <v>-4.17238632396611</v>
+        <v>-4.1723863239643961</v>
       </c>
       <c r="G28">
-        <v>-1.998854717388559</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-1.998854717380518</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B29">
-        <v>-3.31283302904204</v>
+        <v>-3.3128330290418608</v>
       </c>
       <c r="C29">
-        <v>0.5222974371402377</v>
+        <v>0.52229743714184751</v>
       </c>
       <c r="D29">
-        <v>-6.342809275842836</v>
+        <v>-6.3428092758229431</v>
       </c>
       <c r="E29">
-        <v>2.256126740697748E-10</v>
+        <v>2.256126740989167E-10</v>
       </c>
       <c r="F29">
-        <v>-4.336517195054478</v>
+        <v>-4.3365171950574544</v>
       </c>
       <c r="G29">
-        <v>-2.289148863029601</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-2.2891488630262669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B30">
-        <v>0.760879199036244</v>
+        <v>0.76087919903013934</v>
       </c>
       <c r="C30">
-        <v>0.6286292629740015</v>
+        <v>0.62862926297480504</v>
       </c>
       <c r="D30">
-        <v>1.210378268801197</v>
+        <v>1.210378268789938</v>
       </c>
       <c r="E30">
-        <v>0.2261337766827318</v>
+        <v>0.22613377668704979</v>
       </c>
       <c r="F30">
-        <v>-0.4712115160207573</v>
+        <v>-0.47121151602843692</v>
       </c>
       <c r="G30">
-        <v>1.992969914093245</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>1.992969914088716</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B31">
-        <v>-1.16279578791792</v>
+        <v>-1.162795787913351</v>
       </c>
       <c r="C31">
-        <v>0.5391868858440532</v>
+        <v>0.53918688584525409</v>
       </c>
       <c r="D31">
-        <v>-2.156572829284706</v>
+        <v>-2.1565728292714299</v>
       </c>
       <c r="E31">
-        <v>0.03103896348468381</v>
+        <v>3.1038963485719131E-2</v>
       </c>
       <c r="F31">
-        <v>-2.219582665108573</v>
+        <v>-2.2195826651063588</v>
       </c>
       <c r="G31">
-        <v>-0.1060089107272659</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.1060089107203437</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B32">
-        <v>3.825268620299707</v>
+        <v>3.8252686202931478</v>
       </c>
       <c r="C32">
-        <v>0.6374389337500823</v>
+        <v>0.63743893375285454</v>
       </c>
       <c r="D32">
-        <v>6.000996201778071</v>
+        <v>6.0009962017416818</v>
       </c>
       <c r="E32">
-        <v>1.961105788389076E-09</v>
+        <v>1.9611057888286408E-9</v>
       </c>
       <c r="F32">
-        <v>2.575911267805933</v>
+        <v>2.57591126779394</v>
       </c>
       <c r="G32">
-        <v>5.074625972793482</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>5.0746259727923562</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B33">
-        <v>-5.65343673541425</v>
+        <v>-5.6534367354171877</v>
       </c>
       <c r="C33">
-        <v>0.6686557835285339</v>
+        <v>0.66865578353027777</v>
       </c>
       <c r="D33">
-        <v>-8.45492834232398</v>
+        <v>-8.4549283423063244</v>
       </c>
       <c r="E33">
-        <v>2.792587957662805E-17</v>
+        <v>2.7925879580853538E-17</v>
       </c>
       <c r="F33">
-        <v>-6.963977989184587</v>
+        <v>-6.9639779891909424</v>
       </c>
       <c r="G33">
-        <v>-4.342895481643913</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-4.3428954816434331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B34">
-        <v>0.2313228997367904</v>
+        <v>0.2313228997297658</v>
       </c>
       <c r="C34">
-        <v>0.6488592071339657</v>
+        <v>0.64885920713570933</v>
       </c>
       <c r="D34">
-        <v>0.3565070776425474</v>
+        <v>0.35650707763076328</v>
       </c>
       <c r="E34">
-        <v>0.7214608526461068</v>
+        <v>0.72146085265493032</v>
       </c>
       <c r="F34">
-        <v>-1.040417777282997</v>
+        <v>-1.0404177772934391</v>
       </c>
       <c r="G34">
-        <v>1.503063576756578</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>1.503063576752971</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B35">
-        <v>-2.498060966160446</v>
+        <v>-2.4980609661599971</v>
       </c>
       <c r="C35">
-        <v>0.6131787786951656</v>
+        <v>0.6131787786974604</v>
       </c>
       <c r="D35">
-        <v>-4.073952088616437</v>
+        <v>-4.0739520886004588</v>
       </c>
       <c r="E35">
-        <v>4.622199445227125E-05</v>
+        <v>4.6221994455444089E-5</v>
       </c>
       <c r="F35">
-        <v>-3.699869288487227</v>
+        <v>-3.6998692884912758</v>
       </c>
       <c r="G35">
-        <v>-1.296252643833665</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-1.296252643828719</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B36">
-        <v>13.70313261397204</v>
+        <v>13.70313261396999</v>
       </c>
       <c r="C36">
-        <v>0.6667537999784647</v>
+        <v>0.6667537999781955</v>
       </c>
       <c r="D36">
-        <v>20.55201277355244</v>
+        <v>20.552012773557671</v>
       </c>
       <c r="E36">
-        <v>7.383740330503431E-94</v>
+        <v>7.383740329708718E-94</v>
       </c>
       <c r="F36">
-        <v>12.39631917945902</v>
+        <v>12.3963191794575</v>
       </c>
       <c r="G36">
-        <v>15.00994604848505</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>15.009946048482471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B37">
-        <v>-3.027505844185382</v>
+        <v>-3.0275058441837541</v>
       </c>
       <c r="C37">
-        <v>0.7778296483152115</v>
+        <v>0.7778296483166246</v>
       </c>
       <c r="D37">
-        <v>-3.892247937248209</v>
+        <v>-3.8922479372390448</v>
       </c>
       <c r="E37">
-        <v>9.931966718694546E-05</v>
+        <v>9.9319667190698403E-5</v>
       </c>
       <c r="F37">
-        <v>-4.552023940990653</v>
+        <v>-4.552023940991794</v>
       </c>
       <c r="G37">
-        <v>-1.502987747380111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>-1.5029877473757129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B38">
-        <v>5.644146198502295</v>
+        <v>5.6441461985057106</v>
       </c>
       <c r="C38">
-        <v>0.4274729728747516</v>
+        <v>0.42747297287651098</v>
       </c>
       <c r="D38">
-        <v>13.20351591012986</v>
+        <v>13.20351591008351</v>
       </c>
       <c r="E38">
-        <v>8.373373828629284E-40</v>
+        <v>8.3733738337831354E-40</v>
       </c>
       <c r="F38">
-        <v>4.806314567303514</v>
+        <v>4.8063145673034819</v>
       </c>
       <c r="G38">
-        <v>6.481977829701075</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>6.4819778297079393</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B39">
-        <v>-6.394456398565534</v>
+        <v>-6.3944563985619443</v>
       </c>
       <c r="C39">
-        <v>0.5437964232719357</v>
+        <v>0.54379642327271482</v>
       </c>
       <c r="D39">
-        <v>-11.7589158826958</v>
+        <v>-11.758915882672349</v>
       </c>
       <c r="E39">
-        <v>6.354496717658117E-32</v>
+        <v>6.3544967194229381E-32</v>
       </c>
       <c r="F39">
-        <v>-7.460277803100227</v>
+        <v>-7.4602778030981636</v>
       </c>
       <c r="G39">
-        <v>-5.328634994030842</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-5.328634994025724</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B40">
-        <v>3.531551231359779</v>
+        <v>3.5315512313682671</v>
       </c>
       <c r="C40">
-        <v>0.6159056858898752</v>
+        <v>0.61590568589111361</v>
       </c>
       <c r="D40">
-        <v>5.733915617709081</v>
+        <v>5.7339156177113333</v>
       </c>
       <c r="E40">
-        <v>9.813816966688574E-09</v>
+        <v>9.8138169665582234E-9</v>
       </c>
       <c r="F40">
-        <v>2.324398269142184</v>
+        <v>2.324398269148245</v>
       </c>
       <c r="G40">
-        <v>4.738704193577373</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>4.7387041935882888</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B41">
-        <v>-3.002077635247842</v>
+        <v>-3.0020776352442411</v>
       </c>
       <c r="C41">
-        <v>0.6658469330098193</v>
+        <v>0.66584693301115661</v>
       </c>
       <c r="D41">
-        <v>-4.508660303769199</v>
+        <v>-4.5086603037547368</v>
       </c>
       <c r="E41">
-        <v>6.523826677834991E-06</v>
+        <v>6.5238266782796197E-6</v>
       </c>
       <c r="F41">
-        <v>-4.307113643163541</v>
+        <v>-4.3071136431625634</v>
       </c>
       <c r="G41">
-        <v>-1.697041627332142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-1.6970416273259199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B42">
-        <v>-3.83515166405225</v>
+        <v>-3.8351516640508598</v>
       </c>
       <c r="C42">
-        <v>0.6678498362903003</v>
+        <v>0.66784983629216366</v>
       </c>
       <c r="D42">
-        <v>-5.742535905010225</v>
+        <v>-5.7425359049921214</v>
       </c>
       <c r="E42">
-        <v>9.326909399142458E-09</v>
+        <v>9.3269094001400208E-9</v>
       </c>
       <c r="F42">
-        <v>-5.14411329026221</v>
+        <v>-5.1441132902644719</v>
       </c>
       <c r="G42">
-        <v>-2.52619003784229</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-2.5261900378372482</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B43">
-        <v>0.2040256546317507</v>
+        <v>0.20402565463385189</v>
       </c>
       <c r="C43">
-        <v>0.6385228427280106</v>
+        <v>0.63852284272915372</v>
       </c>
       <c r="D43">
-        <v>0.3195275736104852</v>
+        <v>0.31952757361320389</v>
       </c>
       <c r="E43">
-        <v>0.7493264856576358</v>
+        <v>0.74932648565557458</v>
       </c>
       <c r="F43">
-        <v>-1.047456120421283</v>
+        <v>-1.047456120421423</v>
       </c>
       <c r="G43">
-        <v>1.455507429684785</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>1.4555074296891259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B44">
-        <v>-6.262666579004621</v>
+        <v>-6.2626665790014204</v>
       </c>
       <c r="C44">
-        <v>0.5132935054542743</v>
+        <v>0.51329350545556496</v>
       </c>
       <c r="D44">
-        <v>-12.2009464613468</v>
+        <v>-12.200946461309879</v>
       </c>
       <c r="E44">
-        <v>3.072319055139158E-34</v>
+        <v>3.0723190565321451E-34</v>
       </c>
       <c r="F44">
-        <v>-7.268703363193313</v>
+        <v>-7.2687033631926408</v>
       </c>
       <c r="G44">
-        <v>-5.25662979481593</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-5.2566297948101983</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B45">
-        <v>2.639537942864632</v>
+        <v>2.6395379428645551</v>
       </c>
       <c r="C45">
-        <v>0.7087755325719159</v>
+        <v>0.70877553257284998</v>
       </c>
       <c r="D45">
-        <v>3.724081633132294</v>
+        <v>3.7240816331272781</v>
       </c>
       <c r="E45">
-        <v>0.0001960274934990927</v>
+        <v>1.9602749350299019E-4</v>
       </c>
       <c r="F45">
-        <v>1.250363425900481</v>
+        <v>1.250363425898573</v>
       </c>
       <c r="G45">
-        <v>4.028712459828784</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>4.0287124598305368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B46">
-        <v>1.166561984961072</v>
+        <v>1.166561984965258</v>
       </c>
       <c r="C46">
-        <v>0.658415919475854</v>
+        <v>0.65841591947675082</v>
       </c>
       <c r="D46">
-        <v>1.77177062469835</v>
+        <v>1.771770624702294</v>
       </c>
       <c r="E46">
-        <v>0.07643264065837056</v>
+        <v>7.6432640657715462E-2</v>
       </c>
       <c r="F46">
-        <v>-0.123909504059426</v>
+        <v>-0.12390950405699749</v>
       </c>
       <c r="G46">
-        <v>2.45703347398157</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>2.4570334739875141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B47">
-        <v>0.9997974929704407</v>
+        <v>0.99979749297053055</v>
       </c>
       <c r="C47">
-        <v>0.3846008636905459</v>
+        <v>0.38460086369067831</v>
       </c>
       <c r="D47">
-        <v>2.599571627002088</v>
+        <v>2.5995716270014269</v>
       </c>
       <c r="E47">
-        <v>0.009334019684545853</v>
+        <v>9.3340196845638265E-3</v>
       </c>
       <c r="F47">
-        <v>0.2459936517139721</v>
+        <v>0.24599365171380261</v>
       </c>
       <c r="G47">
-        <v>1.753601334226909</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>1.7536013342272589</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B48">
-        <v>1.443433785641628</v>
+        <v>1.4434337856464541</v>
       </c>
       <c r="C48">
-        <v>0.3403217993630218</v>
+        <v>0.3403217993632755</v>
       </c>
       <c r="D48">
-        <v>4.241379154504044</v>
+        <v>4.2413791545150632</v>
       </c>
       <c r="E48">
-        <v>2.221504903493338E-05</v>
+        <v>2.2215049033842579E-5</v>
       </c>
       <c r="F48">
-        <v>0.7764153157362395</v>
+        <v>0.77641531574056799</v>
       </c>
       <c r="G48">
-        <v>2.110452255547017</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>2.1104522555523411</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B49">
-        <v>-8.092920562963025</v>
+        <v>-8.0929205629749514</v>
       </c>
       <c r="C49">
-        <v>0.8365190927473396</v>
+        <v>0.83651909274710678</v>
       </c>
       <c r="D49">
-        <v>-9.674519844351471</v>
+        <v>-9.6745198443684206</v>
       </c>
       <c r="E49">
-        <v>3.869035229002219E-22</v>
+        <v>3.86903522836111E-22</v>
       </c>
       <c r="F49">
-        <v>-9.732467857127931</v>
+        <v>-9.732467857139401</v>
       </c>
       <c r="G49">
-        <v>-6.453373268798118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-6.453373268810501</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B50">
-        <v>-964.8886483369661</v>
+        <v>-964.88864892430138</v>
       </c>
       <c r="C50">
-        <v>2617.746060224531</v>
+        <v>2617.7460602274082</v>
       </c>
       <c r="D50">
-        <v>-0.3685952060048961</v>
+        <v>-0.36859520622885772</v>
       </c>
       <c r="E50">
-        <v>0.7124294694109508</v>
+        <v>0.7124294692439912</v>
       </c>
       <c r="F50">
-        <v>-6095.576647048665</v>
+        <v>-6095.5766476416402</v>
       </c>
       <c r="G50">
-        <v>4165.799350374733</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>4165.7993497930374</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B51">
-        <v>0.2816810971672411</v>
+        <v>0.28168109716700568</v>
       </c>
       <c r="C51">
-        <v>0.0446638254069913</v>
+        <v>4.4663825407000923E-2</v>
       </c>
       <c r="D51">
-        <v>6.306694390829074</v>
+        <v>6.3066943908224449</v>
       </c>
       <c r="E51">
-        <v>2.850578976071013E-10</v>
+        <v>2.8505789761930518E-10</v>
       </c>
       <c r="F51">
-        <v>0.1941416079577531</v>
+        <v>0.19414160795749891</v>
       </c>
       <c r="G51">
-        <v>0.3692205863767291</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.36922058637651262</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B52">
-        <v>0.2947518455522092</v>
+        <v>0.29475184555122158</v>
       </c>
       <c r="C52">
-        <v>0.0457255895313404</v>
+        <v>4.5725589531390692E-2</v>
       </c>
       <c r="D52">
-        <v>6.446102687209441</v>
+        <v>6.4461026871807512</v>
       </c>
       <c r="E52">
-        <v>1.147629211369192E-10</v>
+        <v>1.147629211586322E-10</v>
       </c>
       <c r="F52">
-        <v>0.2051313368989203</v>
+        <v>0.20513133689783411</v>
       </c>
       <c r="G52">
-        <v>0.3843723542054981</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.38437235420460908</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B53">
-        <v>-108.2975620856114</v>
+        <v>-108.29756215113299</v>
       </c>
       <c r="C53">
-        <v>292.0524427670717</v>
+        <v>292.05244276739433</v>
       </c>
       <c r="D53">
-        <v>-0.3708154640294682</v>
+        <v>-0.37081546425340728</v>
       </c>
       <c r="E53">
-        <v>0.7107749826126546</v>
+        <v>0.7107749824458488</v>
       </c>
       <c r="F53">
-        <v>-680.7098315060173</v>
+        <v>-680.70983157217108</v>
       </c>
       <c r="G53">
-        <v>464.1147073347945</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>464.11470726990513</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B54">
-        <v>-4.002128774396161</v>
+        <v>-4.0021287743849996</v>
       </c>
       <c r="C54">
-        <v>1.052297075375021</v>
+        <v>1.0522970753761449</v>
       </c>
       <c r="D54">
-        <v>-3.803230920289188</v>
+        <v>-3.803230920274518</v>
       </c>
       <c r="E54">
-        <v>0.0001428211101991679</v>
+        <v>1.4282111020762889E-4</v>
       </c>
       <c r="F54">
-        <v>-6.064593143168032</v>
+        <v>-6.064593143159076</v>
       </c>
       <c r="G54">
-        <v>-1.93966440562429</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-1.9396644056109249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B55">
-        <v>-2408.679207932828</v>
+        <v>-2408.6792094029638</v>
       </c>
       <c r="C55">
-        <v>6551.102367604462</v>
+        <v>6551.1023676117347</v>
       </c>
       <c r="D55">
-        <v>-0.3676754037372199</v>
+        <v>-0.36767540396122228</v>
       </c>
       <c r="E55">
-        <v>0.713115282781445</v>
+        <v>0.71311528261439849</v>
       </c>
       <c r="F55">
-        <v>-15248.60390747265</v>
+        <v>-15248.60390895704</v>
       </c>
       <c r="G55">
-        <v>10431.245491607</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>10431.24549015111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B56">
-        <v>5730.845248561694</v>
+        <v>5730.8452520319297</v>
       </c>
       <c r="C56">
-        <v>15467.75344409819</v>
+        <v>15467.753444115329</v>
       </c>
       <c r="D56">
-        <v>0.3705027539567055</v>
+        <v>0.37050275418064771</v>
       </c>
       <c r="E56">
-        <v>0.7110079249706708</v>
+        <v>0.71100792480384323</v>
       </c>
       <c r="F56">
-        <v>-24585.39442361614</v>
+        <v>-24585.394420179509</v>
       </c>
       <c r="G56">
-        <v>36047.08492073952</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>36047.084924243361</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B57">
-        <v>-1.655761829884742</v>
+        <v>-1.655761829887302</v>
       </c>
       <c r="C57">
-        <v>1.843137578373567</v>
+        <v>1.8431375783734869</v>
       </c>
       <c r="D57">
-        <v>-0.8983387074912934</v>
+        <v>-0.89833870749272093</v>
       </c>
       <c r="E57">
-        <v>0.3690050024106765</v>
+        <v>0.36900500240991557</v>
       </c>
       <c r="F57">
-        <v>-5.268245102049304</v>
+        <v>-5.2682451020517078</v>
       </c>
       <c r="G57">
-        <v>1.956721442279819</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>1.956721442277104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B58">
-        <v>14.89725505780361</v>
+        <v>14.897255057810931</v>
       </c>
       <c r="C58">
-        <v>1.89432314258001</v>
+        <v>1.8943231425803959</v>
       </c>
       <c r="D58">
-        <v>7.86415724062475</v>
+        <v>7.8641572406270068</v>
       </c>
       <c r="E58">
-        <v>3.715905550829873E-15</v>
+        <v>3.7159055507628704E-15</v>
       </c>
       <c r="F58">
-        <v>11.18444992326606</v>
+        <v>11.18444992327262</v>
       </c>
       <c r="G58">
-        <v>18.61006019234117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>18.610060192349241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B59">
-        <v>10.02006844035264</v>
+        <v>10.02006844035497</v>
       </c>
       <c r="C59">
-        <v>1.838377301043892</v>
+        <v>1.838377301043467</v>
       </c>
       <c r="D59">
-        <v>5.450496171086813</v>
+        <v>5.4504961710893411</v>
       </c>
       <c r="E59">
-        <v>5.022948429754562E-08</v>
+        <v>5.0229484296831263E-8</v>
       </c>
       <c r="F59">
-        <v>6.416915140310664</v>
+        <v>6.4169151403138294</v>
       </c>
       <c r="G59">
-        <v>13.62322174039462</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>13.62322174039612</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B60">
-        <v>-2.53457326203719E-09</v>
+        <v>-4.9299729833170593E-13</v>
       </c>
       <c r="C60">
-        <v>6.740396154087722E-09</v>
+        <v>6.3844485108653034E-14</v>
       </c>
       <c r="D60">
-        <v>-0.3760273438082856</v>
+        <v>-7.721846256457451</v>
       </c>
       <c r="E60">
-        <v>0.7068965678893546</v>
+        <v>1.1465664234153269E-14</v>
       </c>
       <c r="F60">
-        <v>-1.574550696558142E-08</v>
+        <v>-6.1813018975616967E-13</v>
       </c>
       <c r="G60">
-        <v>1.067636044150704E-08</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-3.6786440690724218E-13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B61">
-        <v>2.46863610880881E-10</v>
+        <v>-8.2672268381923234E-13</v>
       </c>
       <c r="C61">
-        <v>6.565047427072103E-10</v>
+        <v>1.081712341076664E-13</v>
       </c>
       <c r="D61">
-        <v>0.376027155360518</v>
+        <v>-7.6427221214502197</v>
       </c>
       <c r="E61">
-        <v>0.7068967079858273</v>
+        <v>2.1267666355991161E-14</v>
       </c>
       <c r="F61">
-        <v>-1.039862040504986E-09</v>
+        <v>-1.038734406833509E-12</v>
       </c>
       <c r="G61">
-        <v>1.533589262266748E-09</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-6.1471096080495553E-13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B62">
-        <v>-2.889760942543116E-10</v>
+        <v>4.6363952038173553E-14</v>
       </c>
       <c r="C62">
-        <v>7.685016811177344E-10</v>
+        <v>5.787606900858963E-15</v>
       </c>
       <c r="D62">
-        <v>-0.3760253248034736</v>
+        <v>8.010902058896308</v>
       </c>
       <c r="E62">
-        <v>0.7068980688652118</v>
+        <v>1.138701075366372E-15</v>
       </c>
       <c r="F62">
-        <v>-1.795211711303556E-09</v>
+        <v>3.5020450955814499E-14</v>
       </c>
       <c r="G62">
-        <v>1.217259522794933E-09</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>5.7707453120532594E-14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B63">
-        <v>1.671150275595765E-10</v>
+        <v>-8.7254798821909389E-15</v>
       </c>
       <c r="C63">
-        <v>4.444254248715591E-10</v>
+        <v>1.108071004648316E-15</v>
       </c>
       <c r="D63">
-        <v>0.3760249036334352</v>
+        <v>-7.8744772181456577</v>
       </c>
       <c r="E63">
-        <v>0.7068983819731081</v>
+        <v>3.4217054519062439E-15</v>
       </c>
       <c r="F63">
-        <v>-7.039427990025909E-10</v>
+        <v>-1.0897259143614749E-14</v>
       </c>
       <c r="G63">
-        <v>1.038172854121744E-09</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-6.5537006207671237E-15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B64">
-        <v>1.216461844283839E-10</v>
+        <v>1.8718301531528761E-14</v>
       </c>
       <c r="C64">
-        <v>3.234985736531935E-10</v>
+        <v>2.2584637373099419E-15</v>
       </c>
       <c r="D64">
-        <v>0.3760331399754321</v>
+        <v>8.2880682219074018</v>
       </c>
       <c r="E64">
-        <v>0.7068922588881499</v>
+        <v>1.1510255687624839E-16</v>
       </c>
       <c r="F64">
-        <v>-5.123993689819532E-10</v>
+        <v>1.429179394601154E-14</v>
       </c>
       <c r="G64">
-        <v>7.556917378387211E-10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>2.3144809117045979E-14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B65">
-        <v>10.22022851176218</v>
+        <v>10.22022851176458</v>
       </c>
       <c r="C65">
-        <v>1.984314314737222</v>
+        <v>1.9843143147368401</v>
       </c>
       <c r="D65">
-        <v>5.15050888654987</v>
+        <v>5.1505088865520703</v>
       </c>
       <c r="E65">
-        <v>2.597806221819537E-07</v>
+        <v>2.5978062217890659E-7</v>
       </c>
       <c r="F65">
-        <v>6.331043920869945</v>
+        <v>6.3310439208730944</v>
       </c>
       <c r="G65">
-        <v>14.10941310265441</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>14.10941310265606</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
@@ -2122,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
@@ -2139,142 +2162,142 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B68">
-        <v>22.81984506110837</v>
+        <v>22.81984506110809</v>
       </c>
       <c r="C68">
-        <v>2.090855733848047</v>
+        <v>2.090855733847989</v>
       </c>
       <c r="D68">
-        <v>10.91411745520593</v>
+        <v>10.9141174552061</v>
       </c>
       <c r="E68">
-        <v>9.868308587919431E-28</v>
+        <v>9.8683085879008395E-28</v>
       </c>
       <c r="F68">
-        <v>18.72184312589714</v>
+        <v>18.721843125896971</v>
       </c>
       <c r="G68">
-        <v>26.91784699631961</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>26.917846996319209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B69">
-        <v>19.10641597934637</v>
+        <v>19.106415979354409</v>
       </c>
       <c r="C69">
-        <v>1.146573349257596</v>
+        <v>1.146573349257672</v>
       </c>
       <c r="D69">
-        <v>16.66392820984173</v>
+        <v>16.66392820984764</v>
       </c>
       <c r="E69">
-        <v>2.397477162372235E-62</v>
+        <v>2.3974771621353531E-62</v>
       </c>
       <c r="F69">
-        <v>16.85917350916802</v>
+        <v>16.859173509175911</v>
       </c>
       <c r="G69">
-        <v>21.35365844952473</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>21.353658449532912</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B70">
-        <v>-3.174801173379069</v>
+        <v>-3.1748011733464701</v>
       </c>
       <c r="C70">
-        <v>4.950549045409542</v>
+        <v>4.9505490454085983</v>
       </c>
       <c r="D70">
-        <v>-0.6413028422217011</v>
+        <v>-0.64130284221523859</v>
       </c>
       <c r="E70">
-        <v>0.5213259429687971</v>
+        <v>0.52132594297299506</v>
       </c>
       <c r="F70">
-        <v>-12.87769900608092</v>
+        <v>-12.87769900604647</v>
       </c>
       <c r="G70">
-        <v>6.528096659322778</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>6.5280966593535279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.3759733027653844</v>
+        <v>-0.37597330277639779</v>
       </c>
       <c r="C71">
-        <v>4.340832966481149</v>
+        <v>4.34083296648231</v>
       </c>
       <c r="D71">
-        <v>-0.08661316979219388</v>
+        <v>-8.6613169794707887E-2</v>
       </c>
       <c r="E71">
-        <v>0.9309789972626961</v>
+        <v>0.93097899726069766</v>
       </c>
       <c r="F71">
-        <v>-8.883849579972601</v>
+        <v>-8.8838495799858883</v>
       </c>
       <c r="G71">
-        <v>8.131902974441832</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>8.1319029744330926</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B72">
-        <v>-4.293145447800965</v>
+        <v>-4.2931454477981941</v>
       </c>
       <c r="C72">
-        <v>1.102866171090962</v>
+        <v>1.1028661710911329</v>
       </c>
       <c r="D72">
-        <v>-3.892716596388264</v>
+        <v>-3.8927165963851471</v>
       </c>
       <c r="E72">
-        <v>9.912792902890688E-05</v>
+        <v>9.9127929030180925E-5</v>
       </c>
       <c r="F72">
-        <v>-6.45472342290684</v>
+        <v>-6.4547234229044044</v>
       </c>
       <c r="G72">
-        <v>-2.131567472695091</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-2.1315674726919842</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B73">
-        <v>-2.378282207643744</v>
+        <v>-2.3782822076379522</v>
       </c>
       <c r="C73">
-        <v>1.453073336501211</v>
+        <v>1.4530733365008679</v>
       </c>
       <c r="D73">
-        <v>-1.636725516807225</v>
+        <v>-1.6367255168036261</v>
       </c>
       <c r="E73">
-        <v>0.1016878348232862</v>
+        <v>0.10168783482403861</v>
       </c>
       <c r="F73">
-        <v>-5.226253614081569</v>
+        <v>-5.2262536140751026</v>
       </c>
       <c r="G73">
-        <v>0.469689198794081</v>
+        <v>0.46968919879919963</v>
       </c>
     </row>
   </sheetData>
@@ -2283,14 +2306,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2310,1479 +2333,1479 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>2.78962909348736</v>
+        <v>44910.954392170417</v>
       </c>
       <c r="C2">
-        <v>2.356103536186016</v>
+        <v>66090.825648032711</v>
       </c>
       <c r="D2">
-        <v>1.184001063893449</v>
+        <v>0.67953386800376969</v>
       </c>
       <c r="E2">
-        <v>0.2364126416760396</v>
+        <v>0.4967996558460418</v>
       </c>
       <c r="F2">
-        <v>-1.828248981284695</v>
+        <v>-84624.683586489773</v>
       </c>
       <c r="G2">
-        <v>7.407507168259414</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>174446.59237083059</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>7.906591669581925</v>
+        <v>2.7896290933968122</v>
       </c>
       <c r="C3">
-        <v>1.828699390478158</v>
+        <v>2.3561035361818381</v>
       </c>
       <c r="D3">
-        <v>4.323614756340327</v>
+        <v>1.184001063857117</v>
       </c>
       <c r="E3">
-        <v>1.534932374038731E-05</v>
+        <v>0.23641264169042181</v>
       </c>
       <c r="F3">
-        <v>4.322406725694387</v>
+        <v>-1.828248981367055</v>
       </c>
       <c r="G3">
-        <v>11.49077661346946</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>7.4075071681606781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05351697048653199</v>
+        <v>7.9065916695502336</v>
       </c>
       <c r="C4">
-        <v>0.03509730952016386</v>
+        <v>1.8286993904790529</v>
       </c>
       <c r="D4">
-        <v>1.524816893892844</v>
+        <v>4.3236147563208807</v>
       </c>
       <c r="E4">
-        <v>0.1273047749631805</v>
+        <v>1.5349323741741001E-5</v>
       </c>
       <c r="F4">
-        <v>-0.01527249212724394</v>
+        <v>4.3224067256609402</v>
       </c>
       <c r="G4">
-        <v>0.1223064331003079</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>11.490776613439531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-23.11164502683179</v>
+        <v>5.3516970486264227E-2</v>
       </c>
       <c r="C5">
-        <v>2.88770764455596</v>
+        <v>3.5097309520180989E-2</v>
       </c>
       <c r="D5">
-        <v>-8.003457368824346</v>
+        <v>1.5248168938844699</v>
       </c>
       <c r="E5">
-        <v>1.209735764756822E-15</v>
+        <v>0.12730477496526971</v>
       </c>
       <c r="F5">
-        <v>-28.77144800804247</v>
+        <v>-1.527249212754527E-2</v>
       </c>
       <c r="G5">
-        <v>-17.45184204562112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.12230643310007371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-13.73176932835195</v>
+        <v>-23.111645026925199</v>
       </c>
       <c r="C6">
-        <v>2.582124279111452</v>
+        <v>2.8877076445566252</v>
       </c>
       <c r="D6">
-        <v>-5.318012552469883</v>
+        <v>-8.0034573688548498</v>
       </c>
       <c r="E6">
-        <v>1.049068334129018E-07</v>
+        <v>1.2097357644570049E-15</v>
       </c>
       <c r="F6">
-        <v>-18.79263991901685</v>
+        <v>-28.771448008137181</v>
       </c>
       <c r="G6">
-        <v>-8.670898737687054</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-17.451842045713221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-4.686176868818539</v>
+        <v>-13.73176932813082</v>
       </c>
       <c r="C7">
-        <v>1.482413406223733</v>
+        <v>2.582124279101468</v>
       </c>
       <c r="D7">
-        <v>-3.161180848165697</v>
+        <v>-5.318012552404805</v>
       </c>
       <c r="E7">
-        <v>0.001571309069827459</v>
+        <v>1.049068334504139E-7</v>
       </c>
       <c r="F7">
-        <v>-7.591653755216401</v>
+        <v>-18.79263991877615</v>
       </c>
       <c r="G7">
-        <v>-1.780699982420678</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-8.6708987374854871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-2.965429186362076</v>
+        <v>-4.6861768686860383</v>
       </c>
       <c r="C8">
-        <v>0.1943376730556801</v>
+        <v>1.4824134062255321</v>
       </c>
       <c r="D8">
-        <v>-15.259157628755</v>
+        <v>-3.1611808480724788</v>
       </c>
       <c r="E8">
-        <v>1.430835150096181E-52</v>
+        <v>1.571309070330348E-3</v>
       </c>
       <c r="F8">
-        <v>-3.346324026390529</v>
+        <v>-7.5916537550874246</v>
       </c>
       <c r="G8">
-        <v>-2.584534346333623</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-1.7806999822846521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-1.166287083038287</v>
+        <v>-2.9654291863549251</v>
       </c>
       <c r="C9">
-        <v>0.2493793444226579</v>
+        <v>0.19433767305554109</v>
       </c>
       <c r="D9">
-        <v>-4.676758958278511</v>
+        <v>-15.25915762872912</v>
       </c>
       <c r="E9">
-        <v>2.914444945032012E-06</v>
+        <v>1.430835150663632E-52</v>
       </c>
       <c r="F9">
-        <v>-1.655061616594907</v>
+        <v>-3.346324026383106</v>
       </c>
       <c r="G9">
-        <v>-0.6775125494816684</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-2.5845343463267452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-3.252722111478124</v>
+        <v>-1.1662870830429679</v>
       </c>
       <c r="C10">
-        <v>0.2298938990152523</v>
+        <v>0.24937934442149931</v>
       </c>
       <c r="D10">
-        <v>-14.1487970120613</v>
+        <v>-4.6767589583190077</v>
       </c>
       <c r="E10">
-        <v>1.899793866109313E-45</v>
+        <v>2.9144449444567062E-6</v>
       </c>
       <c r="F10">
-        <v>-3.703305873813507</v>
+        <v>-1.655061616597316</v>
       </c>
       <c r="G10">
-        <v>-2.802138349142742</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.67751254948861983</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.187200258797524</v>
+        <v>-3.252722111470296</v>
       </c>
       <c r="C11">
-        <v>0.1982691514927944</v>
+        <v>0.22989389901559221</v>
       </c>
       <c r="D11">
-        <v>-0.9441723908538913</v>
+        <v>-14.14879701200633</v>
       </c>
       <c r="E11">
-        <v>0.3450815613978655</v>
+        <v>1.8997938675942869E-45</v>
       </c>
       <c r="F11">
-        <v>-0.5758006549687169</v>
+        <v>-3.703305873806344</v>
       </c>
       <c r="G11">
-        <v>0.2014001373736688</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-2.8021383491342471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12">
-        <v>2.052155971191967</v>
+        <v>-0.18720025880265029</v>
       </c>
       <c r="C12">
-        <v>0.4101296492048067</v>
+        <v>0.19826915149237179</v>
       </c>
       <c r="D12">
-        <v>5.003676215974282</v>
+        <v>-0.94417239088175875</v>
       </c>
       <c r="E12">
-        <v>5.624720130992062E-07</v>
+        <v>0.34508156138362728</v>
       </c>
       <c r="F12">
-        <v>1.2483166297585</v>
+        <v>-0.57580065497301502</v>
       </c>
       <c r="G12">
-        <v>2.855995312625435</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.20140013736771439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B13">
-        <v>0.7306688815992857</v>
+        <v>2.0521559712016169</v>
       </c>
       <c r="C13">
-        <v>2.046337669743764</v>
+        <v>0.41012964920276962</v>
       </c>
       <c r="D13">
-        <v>0.3570617363901519</v>
+        <v>5.003676216022666</v>
       </c>
       <c r="E13">
-        <v>0.7210455887820957</v>
+        <v>5.6247201295796231E-7</v>
       </c>
       <c r="F13">
-        <v>-3.280079251306112</v>
+        <v>1.248316629772142</v>
       </c>
       <c r="G13">
-        <v>4.741417014504683</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>2.8559953126310922</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>6.436856180997277</v>
+        <v>0.73066888154742315</v>
       </c>
       <c r="C14">
-        <v>2.30055574630819</v>
+        <v>2.046337669745335</v>
       </c>
       <c r="D14">
-        <v>2.797957055084104</v>
+        <v>0.35706173636453381</v>
       </c>
       <c r="E14">
-        <v>0.005142694979158798</v>
+        <v>0.72104558880127367</v>
       </c>
       <c r="F14">
-        <v>1.927849773806559</v>
+        <v>-3.280079251361053</v>
       </c>
       <c r="G14">
-        <v>10.945862588188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>4.7414170144558989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15">
-        <v>-8.386925062419927</v>
+        <v>6.4368561811308833</v>
       </c>
       <c r="C15">
-        <v>3.094104515946524</v>
+        <v>2.3005557463097852</v>
       </c>
       <c r="D15">
-        <v>-2.710614660621529</v>
+        <v>2.7979570551402402</v>
       </c>
       <c r="E15">
-        <v>0.00671586240061511</v>
+        <v>5.1426949782650217E-3</v>
       </c>
       <c r="F15">
-        <v>-14.45125847807785</v>
+        <v>1.927849773937039</v>
       </c>
       <c r="G15">
-        <v>-2.322591646762002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>10.945862588324729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16">
-        <v>0.9661317475713085</v>
+        <v>-8.3869250625961911</v>
       </c>
       <c r="C16">
-        <v>0.5322088808638354</v>
+        <v>3.0941045159440899</v>
       </c>
       <c r="D16">
-        <v>1.815324362876409</v>
+        <v>-2.710614660680629</v>
       </c>
       <c r="E16">
-        <v>0.0694740771218091</v>
+        <v>6.7158623994182246E-3</v>
       </c>
       <c r="F16">
-        <v>-0.07697849117417732</v>
+        <v>-14.451258478249351</v>
       </c>
       <c r="G16">
-        <v>2.009241986316794</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-2.322591646943037</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B17">
-        <v>0.2821483088798452</v>
+        <v>0.96613174756152564</v>
       </c>
       <c r="C17">
-        <v>0.03875794789206241</v>
+        <v>0.53220888086203855</v>
       </c>
       <c r="D17">
-        <v>7.279753553144874</v>
+        <v>1.815324362864156</v>
       </c>
       <c r="E17">
-        <v>3.344305512361134E-13</v>
+        <v>6.9474077123690942E-2</v>
       </c>
       <c r="F17">
-        <v>0.2061841268967228</v>
+        <v>-7.6978491180438313E-2</v>
       </c>
       <c r="G17">
-        <v>0.3581124908629676</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>2.0092419863034898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B18">
-        <v>44910.95437871548</v>
+        <v>0.28214830888576092</v>
       </c>
       <c r="C18">
-        <v>66090.82564795214</v>
+        <v>3.8757947892217169E-2</v>
       </c>
       <c r="D18">
-        <v>0.6795338678010157</v>
+        <v>7.2797535532684394</v>
       </c>
       <c r="E18">
-        <v>0.4967996559744635</v>
+        <v>3.3443055092980799E-13</v>
       </c>
       <c r="F18">
-        <v>-84624.68359978679</v>
+        <v>0.2061841269023352</v>
       </c>
       <c r="G18">
-        <v>174446.5923572177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.35811249086918667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B19">
-        <v>0.5881204103916562</v>
+        <v>0.58812041039086294</v>
       </c>
       <c r="C19">
-        <v>0.759420668620727</v>
+        <v>0.75942066861627533</v>
       </c>
       <c r="D19">
-        <v>0.77443297857538</v>
+        <v>0.77443297857887505</v>
       </c>
       <c r="E19">
-        <v>0.4386747877084574</v>
+        <v>0.43867478770639118</v>
       </c>
       <c r="F19">
-        <v>-0.9003167492202959</v>
+        <v>-0.90031674921236393</v>
       </c>
       <c r="G19">
-        <v>2.076557570003608</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>2.0765575699940899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B20">
-        <v>1.356694406244104</v>
+        <v>1.3566944062441439</v>
       </c>
       <c r="C20">
-        <v>0.747143465897498</v>
+        <v>0.7471434658932774</v>
       </c>
       <c r="D20">
-        <v>1.815841894052289</v>
+        <v>1.8158418940626</v>
       </c>
       <c r="E20">
-        <v>0.06939462875064543</v>
+        <v>6.9394628749063283E-2</v>
       </c>
       <c r="F20">
-        <v>-0.1076798781994217</v>
+        <v>-0.1076798781911097</v>
       </c>
       <c r="G20">
-        <v>2.821068690687631</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>2.821068690679398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.438524175423515</v>
+        <v>-0.43852417541426369</v>
       </c>
       <c r="C21">
-        <v>0.7409025979545758</v>
+        <v>0.74090259795123703</v>
       </c>
       <c r="D21">
-        <v>-0.5918783071272218</v>
+        <v>-0.59187830711740252</v>
       </c>
       <c r="E21">
-        <v>0.5539320810660465</v>
+        <v>0.55393208107262226</v>
       </c>
       <c r="F21">
-        <v>-1.890666583466643</v>
+        <v>-1.890666583450848</v>
       </c>
       <c r="G21">
-        <v>1.013618232619613</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>1.01361823262232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B22">
-        <v>-3.731133732821957</v>
+        <v>-3.731133732811573</v>
       </c>
       <c r="C22">
-        <v>0.7178835469737503</v>
+        <v>0.71788354697165713</v>
       </c>
       <c r="D22">
-        <v>-5.197408059497409</v>
+        <v>-5.1974080594980991</v>
       </c>
       <c r="E22">
-        <v>2.020864330101553E-07</v>
+        <v>2.0208643300940491E-7</v>
       </c>
       <c r="F22">
-        <v>-5.138159629984376</v>
+        <v>-5.1381596299698904</v>
       </c>
       <c r="G22">
-        <v>-2.324107835659538</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-2.324107835653257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B23">
-        <v>-3.939129367896673</v>
+        <v>-3.9391293679007719</v>
       </c>
       <c r="C23">
-        <v>0.7287579105130139</v>
+        <v>0.72875791051056171</v>
       </c>
       <c r="D23">
-        <v>-5.405264644226911</v>
+        <v>-5.4052646442507237</v>
       </c>
       <c r="E23">
-        <v>6.471277332719244E-08</v>
+        <v>6.4712773318594558E-8</v>
       </c>
       <c r="F23">
-        <v>-5.367468625950844</v>
+        <v>-5.3674686259501367</v>
       </c>
       <c r="G23">
-        <v>-2.510790109842502</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-2.5107901098514072</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B24">
-        <v>2.402331054284347</v>
+        <v>2.4023310542726919</v>
       </c>
       <c r="C24">
-        <v>0.7128604828092829</v>
+        <v>0.71286048280698133</v>
       </c>
       <c r="D24">
-        <v>3.369987693548529</v>
+        <v>3.3699876935430622</v>
       </c>
       <c r="E24">
-        <v>0.0007517154076557572</v>
+        <v>7.5171540767067285E-4</v>
       </c>
       <c r="F24">
-        <v>1.005150181976318</v>
+        <v>1.005150181969175</v>
       </c>
       <c r="G24">
-        <v>3.799511926592375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>3.7995119265762098</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B25">
-        <v>5.827214763870314</v>
+        <v>5.8272147638553742</v>
       </c>
       <c r="C25">
-        <v>0.7370071212801174</v>
+        <v>0.7370071212771746</v>
       </c>
       <c r="D25">
-        <v>7.906592210057548</v>
+        <v>7.9065922100688466</v>
       </c>
       <c r="E25">
-        <v>2.645303749121048E-15</v>
+        <v>2.6453037488810658E-15</v>
       </c>
       <c r="F25">
-        <v>4.38270734981174</v>
+        <v>4.3827073498025682</v>
       </c>
       <c r="G25">
-        <v>7.271722177928888</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>7.2717221779081802</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.2345797058268166</v>
+        <v>-0.23457970582897361</v>
       </c>
       <c r="C26">
-        <v>0.7159751864020654</v>
+        <v>0.71597518639982838</v>
       </c>
       <c r="D26">
-        <v>-0.3276366419982121</v>
+        <v>-0.32763664200224829</v>
       </c>
       <c r="E26">
-        <v>0.7431864135033486</v>
+        <v>0.74318641350029635</v>
       </c>
       <c r="F26">
-        <v>-1.637865284999217</v>
+        <v>-1.637865284996989</v>
       </c>
       <c r="G26">
-        <v>1.168705873345583</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>1.1687058733390421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B27">
-        <v>7.711142038589589</v>
+        <v>7.7111420385842582</v>
       </c>
       <c r="C27">
-        <v>0.6808934561682289</v>
+        <v>0.68089345616892161</v>
       </c>
       <c r="D27">
-        <v>11.32503473008028</v>
+        <v>11.32503473006093</v>
       </c>
       <c r="E27">
-        <v>9.863977021283102E-30</v>
+        <v>9.8639770234614904E-30</v>
       </c>
       <c r="F27">
-        <v>6.376615387190858</v>
+        <v>6.3766153871841702</v>
       </c>
       <c r="G27">
-        <v>9.04566868998832</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>9.0456686899843461</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B28">
-        <v>-4.578076072815301</v>
+        <v>-4.5780760728044214</v>
       </c>
       <c r="C28">
-        <v>0.7136139626873476</v>
+        <v>0.7136139626822412</v>
       </c>
       <c r="D28">
-        <v>-6.415339822633308</v>
+        <v>-6.4153398226639693</v>
       </c>
       <c r="E28">
-        <v>1.405090804171701E-10</v>
+        <v>1.4050908038888979E-10</v>
       </c>
       <c r="F28">
-        <v>-5.976733738547412</v>
+        <v>-5.9767337385265247</v>
       </c>
       <c r="G28">
-        <v>-3.179418407083189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-3.179418407082319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B29">
-        <v>-2.459985633333869</v>
+        <v>-2.459985633333523</v>
       </c>
       <c r="C29">
-        <v>0.6495433255793933</v>
+        <v>0.64954332557561945</v>
       </c>
       <c r="D29">
-        <v>-3.787254116019988</v>
+        <v>-3.7872541160414608</v>
       </c>
       <c r="E29">
-        <v>0.0001523212976690651</v>
+        <v>1.5232129765590629E-4</v>
       </c>
       <c r="F29">
-        <v>-3.733067157867854</v>
+        <v>-3.7330671578601118</v>
       </c>
       <c r="G29">
-        <v>-1.186904108799883</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-1.186904108806935</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B30">
-        <v>2.296020494884162</v>
+        <v>2.2960204948707048</v>
       </c>
       <c r="C30">
-        <v>0.7810460010827982</v>
+        <v>0.78104600108074473</v>
       </c>
       <c r="D30">
-        <v>2.939673837009714</v>
+        <v>2.9396738370002118</v>
       </c>
       <c r="E30">
-        <v>0.003285579067993121</v>
+        <v>3.285579068093865E-3</v>
       </c>
       <c r="F30">
-        <v>0.7651984624928458</v>
+        <v>0.76519846248341294</v>
       </c>
       <c r="G30">
-        <v>3.826842527275479</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>3.826842527257996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.4220534082329161</v>
+        <v>-0.42205340822308729</v>
       </c>
       <c r="C31">
-        <v>0.6704438815196612</v>
+        <v>0.67044388151677603</v>
       </c>
       <c r="D31">
-        <v>-0.6295134012950779</v>
+        <v>-0.62951340128312683</v>
       </c>
       <c r="E31">
-        <v>0.5290129979882163</v>
+        <v>0.52901299799603785</v>
       </c>
       <c r="F31">
-        <v>-1.736099269666691</v>
+        <v>-1.7360992696512081</v>
       </c>
       <c r="G31">
-        <v>0.891992453200859</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.89199245320503295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B32">
-        <v>6.085363858836335</v>
+        <v>6.0853638588207453</v>
       </c>
       <c r="C32">
-        <v>0.815091643512161</v>
+        <v>0.81509164350626551</v>
       </c>
       <c r="D32">
-        <v>7.465864614456131</v>
+        <v>7.4658646144910046</v>
       </c>
       <c r="E32">
-        <v>8.27544001554862E-14</v>
+        <v>8.2754400133566095E-14</v>
       </c>
       <c r="F32">
-        <v>4.487813593452938</v>
+        <v>4.4878135934489034</v>
       </c>
       <c r="G32">
-        <v>7.682914124219731</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>7.6829141241925871</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B33">
-        <v>-5.076480247169671</v>
+        <v>-5.0764802471777273</v>
       </c>
       <c r="C33">
-        <v>0.836256396515825</v>
+        <v>0.83625639651215966</v>
       </c>
       <c r="D33">
-        <v>-6.07048301013935</v>
+        <v>-6.0704830101755904</v>
       </c>
       <c r="E33">
-        <v>1.27526108350443E-09</v>
+        <v>1.2752610832166321E-9</v>
       </c>
       <c r="F33">
-        <v>-6.715512666181934</v>
+        <v>-6.7155126661828071</v>
       </c>
       <c r="G33">
-        <v>-3.437447828157407</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-3.437447828172647</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B34">
-        <v>0.1653091571519658</v>
+        <v>0.16530915713761821</v>
       </c>
       <c r="C34">
-        <v>0.8208281627219329</v>
+        <v>0.82082816271742831</v>
       </c>
       <c r="D34">
-        <v>0.2013931352011452</v>
+        <v>0.20139313518477089</v>
       </c>
       <c r="E34">
-        <v>0.8403911825649472</v>
+        <v>0.84039118257774958</v>
       </c>
       <c r="F34">
-        <v>-1.443484479279206</v>
+        <v>-1.443484479284725</v>
       </c>
       <c r="G34">
-        <v>1.774102793583137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>1.7741027935599609</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B35">
-        <v>-3.584688045141557</v>
+        <v>-3.5846880451408918</v>
       </c>
       <c r="C35">
-        <v>0.7917708348910818</v>
+        <v>0.79177083488544386</v>
       </c>
       <c r="D35">
-        <v>-4.527431280838574</v>
+        <v>-4.5274312808699717</v>
       </c>
       <c r="E35">
-        <v>5.970500754930714E-06</v>
+        <v>5.9705007540438846E-6</v>
       </c>
       <c r="F35">
-        <v>-5.136530365537287</v>
+        <v>-5.1365303655255712</v>
       </c>
       <c r="G35">
-        <v>-2.032845724745827</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-2.0328457247562119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B36">
-        <v>11.50253317678963</v>
+        <v>11.502533176784331</v>
       </c>
       <c r="C36">
-        <v>0.8208344189979129</v>
+        <v>0.82083441899601661</v>
       </c>
       <c r="D36">
-        <v>14.01321985356328</v>
+        <v>14.013219853589201</v>
       </c>
       <c r="E36">
-        <v>1.294024446924799E-44</v>
+        <v>1.294024446452494E-44</v>
       </c>
       <c r="F36">
-        <v>9.893727278282864</v>
+        <v>9.8937272782812791</v>
       </c>
       <c r="G36">
-        <v>13.1113390752964</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>13.11133907528739</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B37">
-        <v>-7.102200504699003</v>
+        <v>-7.102200504694629</v>
       </c>
       <c r="C37">
-        <v>0.9558519530367082</v>
+        <v>0.95585195303285853</v>
       </c>
       <c r="D37">
-        <v>-7.430230677601862</v>
+        <v>-7.4302306776272102</v>
       </c>
       <c r="E37">
-        <v>1.08408452962854E-13</v>
+        <v>1.084084529420792E-13</v>
       </c>
       <c r="F37">
-        <v>-8.975635907203223</v>
+        <v>-8.9756359071913039</v>
       </c>
       <c r="G37">
-        <v>-5.228765102194784</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>-5.2287651021979551</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B38">
-        <v>5.270782777515644</v>
+        <v>5.2707827775261586</v>
       </c>
       <c r="C38">
-        <v>0.5195924973912888</v>
+        <v>0.51959249738768176</v>
       </c>
       <c r="D38">
-        <v>10.14407021652274</v>
+        <v>10.1440702166134</v>
       </c>
       <c r="E38">
-        <v>3.521154128540952E-24</v>
+        <v>3.5211541252719417E-24</v>
       </c>
       <c r="F38">
-        <v>4.252400195991496</v>
+        <v>4.2524001960090807</v>
       </c>
       <c r="G38">
-        <v>6.289165359039791</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>6.2891653590432366</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B39">
-        <v>-2.691771445139944</v>
+        <v>-2.691771445130938</v>
       </c>
       <c r="C39">
-        <v>0.6789824256895973</v>
+        <v>0.67898242568863076</v>
       </c>
       <c r="D39">
-        <v>-3.964419907343096</v>
+        <v>-3.964419907335476</v>
       </c>
       <c r="E39">
-        <v>7.35746437048073E-05</v>
+        <v>7.3574643707157304E-5</v>
       </c>
       <c r="F39">
-        <v>-4.022552545627198</v>
+        <v>-4.022552545616298</v>
       </c>
       <c r="G39">
-        <v>-1.360990344652689</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-1.360990344645578</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B40">
-        <v>3.950391167302163</v>
+        <v>3.950391167320296</v>
       </c>
       <c r="C40">
-        <v>0.7660174226749085</v>
+        <v>0.76601742267043682</v>
       </c>
       <c r="D40">
-        <v>5.157051328555325</v>
+        <v>5.1570513286091026</v>
       </c>
       <c r="E40">
-        <v>2.50869050815818E-07</v>
+        <v>2.5086905074379489E-7</v>
       </c>
       <c r="F40">
-        <v>2.449024607329146</v>
+        <v>2.4490246073560442</v>
       </c>
       <c r="G40">
-        <v>5.451757727275179</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>5.4517577272845488</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B41">
-        <v>-1.025592239237828</v>
+        <v>-1.025592239230422</v>
       </c>
       <c r="C41">
-        <v>0.8268211791224247</v>
+        <v>0.82682117911893849</v>
       </c>
       <c r="D41">
-        <v>-1.24040392908945</v>
+        <v>-1.2404039290857229</v>
       </c>
       <c r="E41">
-        <v>0.214826028467898</v>
+        <v>0.2148260284692759</v>
       </c>
       <c r="F41">
-        <v>-2.646131971972721</v>
+        <v>-2.6461319719584822</v>
       </c>
       <c r="G41">
-        <v>0.5949474934970653</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.59494749349763887</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B42">
-        <v>-5.569802799634155</v>
+        <v>-5.5698027996280466</v>
       </c>
       <c r="C42">
-        <v>0.8475622228488163</v>
+        <v>0.84756222284454685</v>
       </c>
       <c r="D42">
-        <v>-6.571556222636963</v>
+        <v>-6.5715562226628599</v>
       </c>
       <c r="E42">
-        <v>4.979207808034812E-11</v>
+        <v>4.9792078071686568E-11</v>
       </c>
       <c r="F42">
-        <v>-7.230994231074547</v>
+        <v>-7.2309942310600714</v>
       </c>
       <c r="G42">
-        <v>-3.908611368193764</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-3.9086113681960239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B43">
-        <v>2.125125481625119</v>
+        <v>2.1251254816306879</v>
       </c>
       <c r="C43">
-        <v>0.7964626709170874</v>
+        <v>0.79646267091571266</v>
       </c>
       <c r="D43">
-        <v>2.668204749857444</v>
+        <v>2.6682047498690422</v>
       </c>
       <c r="E43">
-        <v>0.007625776993633721</v>
+        <v>7.6257769933704561E-3</v>
       </c>
       <c r="F43">
-        <v>0.5640873315970505</v>
+        <v>0.56408733160531432</v>
       </c>
       <c r="G43">
-        <v>3.686163631653188</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>3.6861636316560622</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B44">
-        <v>-9.812646612111335</v>
+        <v>-9.8126466121064801</v>
       </c>
       <c r="C44">
-        <v>0.6445957274528661</v>
+        <v>0.64459572744974769</v>
       </c>
       <c r="D44">
-        <v>-15.22294702586103</v>
+        <v>-15.222947025927141</v>
       </c>
       <c r="E44">
-        <v>2.490545642492939E-52</v>
+        <v>2.490545639975697E-52</v>
       </c>
       <c r="F44">
-        <v>-11.07603102250735</v>
+        <v>-11.07603102249638</v>
       </c>
       <c r="G44">
-        <v>-8.549262201715321</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-8.5492622017165782</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B45">
-        <v>2.457722353312925</v>
+        <v>2.4577223533126609</v>
       </c>
       <c r="C45">
-        <v>0.8853194300841953</v>
+        <v>0.88531943008076919</v>
       </c>
       <c r="D45">
-        <v>2.776085410301219</v>
+        <v>2.7760854103116639</v>
       </c>
       <c r="E45">
-        <v>0.005501775326578849</v>
+        <v>5.5017753264021002E-3</v>
       </c>
       <c r="F45">
-        <v>0.7225281555343759</v>
+        <v>0.72252815554082672</v>
       </c>
       <c r="G45">
-        <v>4.192916551091474</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>4.1929165510844948</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B46">
-        <v>4.026651787813309</v>
+        <v>4.0266517878227823</v>
       </c>
       <c r="C46">
-        <v>0.8327066686217723</v>
+        <v>0.8327066686210971</v>
       </c>
       <c r="D46">
-        <v>4.835618519157403</v>
+        <v>4.8356185191727006</v>
       </c>
       <c r="E46">
-        <v>1.3273226035272E-06</v>
+        <v>1.3273226034251101E-6</v>
       </c>
       <c r="F46">
-        <v>2.394576707628306</v>
+        <v>2.3945767076391031</v>
       </c>
       <c r="G46">
-        <v>5.658726867998312</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>5.658726868006462</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B47">
-        <v>1.001100481671847</v>
+        <v>1.001100481671918</v>
       </c>
       <c r="C47">
-        <v>0.4895950832825723</v>
+        <v>0.489595083281955</v>
       </c>
       <c r="D47">
-        <v>2.044751910006532</v>
+        <v>2.044751910009257</v>
       </c>
       <c r="E47">
-        <v>0.04087932305254789</v>
+        <v>4.0879323052279162E-2</v>
       </c>
       <c r="F47">
-        <v>0.04151175143011687</v>
+        <v>4.1511751431398292E-2</v>
       </c>
       <c r="G47">
-        <v>1.960689211913577</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>1.9606892119124391</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B48">
-        <v>1.342636683933931</v>
+        <v>1.3426366839444701</v>
       </c>
       <c r="C48">
-        <v>0.4340032006469769</v>
+        <v>0.43400320064576442</v>
       </c>
       <c r="D48">
-        <v>3.093610097650056</v>
+        <v>3.0936100976829821</v>
       </c>
       <c r="E48">
-        <v>0.001977371691190799</v>
+        <v>1.9773716909713729E-3</v>
       </c>
       <c r="F48">
-        <v>0.4920060414907457</v>
+        <v>0.4920060415036609</v>
       </c>
       <c r="G48">
-        <v>2.193267326377117</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>2.1932673263852789</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B49">
-        <v>-9.688675886013661</v>
+        <v>-9.6886758860381867</v>
       </c>
       <c r="C49">
-        <v>1.035314978365397</v>
+        <v>1.035314978364027</v>
       </c>
       <c r="D49">
-        <v>-9.358191553753612</v>
+        <v>-9.3581915537896876</v>
       </c>
       <c r="E49">
-        <v>8.111308808071632E-21</v>
+        <v>8.1113088053025433E-21</v>
       </c>
       <c r="F49">
-        <v>-11.7178559562647</v>
+        <v>-11.71785595628654</v>
       </c>
       <c r="G49">
-        <v>-7.659495815762617</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-7.6594958157898301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B50">
-        <v>-2201.576516629908</v>
+        <v>-2201.576517296663</v>
       </c>
       <c r="C50">
-        <v>3274.66809761279</v>
+        <v>3274.6680976166931</v>
       </c>
       <c r="D50">
-        <v>-0.6723052385781757</v>
+        <v>-0.67230523878098436</v>
       </c>
       <c r="E50">
-        <v>0.501389395462804</v>
+        <v>0.50138939533371851</v>
       </c>
       <c r="F50">
-        <v>-8619.808049273272</v>
+        <v>-8619.8080499476746</v>
       </c>
       <c r="G50">
-        <v>4216.655016013456</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>4216.6550153543503</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B51">
-        <v>0.3437275271601711</v>
+        <v>0.3437275271595373</v>
       </c>
       <c r="C51">
-        <v>0.05411710751604223</v>
+        <v>5.4117107516044982E-2</v>
       </c>
       <c r="D51">
-        <v>6.351550238679665</v>
+        <v>6.3515502386676301</v>
       </c>
       <c r="E51">
-        <v>2.131557768498753E-10</v>
+        <v>2.1315577686655421E-10</v>
       </c>
       <c r="F51">
-        <v>0.2376599454812464</v>
+        <v>0.23765994548060729</v>
       </c>
       <c r="G51">
-        <v>0.4497951088390957</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.44979510883846741</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B52">
-        <v>0.3072031026571893</v>
+        <v>0.30720310265499268</v>
       </c>
       <c r="C52">
-        <v>0.0546717904606179</v>
+        <v>5.4671790460554121E-2</v>
       </c>
       <c r="D52">
-        <v>5.619042289798045</v>
+        <v>5.6190422897644217</v>
       </c>
       <c r="E52">
-        <v>1.920188564880349E-08</v>
+        <v>1.920188565253994E-8</v>
       </c>
       <c r="F52">
-        <v>0.2000483623840577</v>
+        <v>0.20004836238198609</v>
       </c>
       <c r="G52">
-        <v>0.4143578429303209</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.41435784292799932</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B53">
-        <v>-246.4170423245384</v>
+        <v>-246.41704239892559</v>
       </c>
       <c r="C53">
-        <v>365.3435158855104</v>
+        <v>365.34351588594751</v>
       </c>
       <c r="D53">
-        <v>-0.6744804043593851</v>
+        <v>-0.67448040456218672</v>
       </c>
       <c r="E53">
-        <v>0.5000059397946299</v>
+        <v>0.5000059396657377</v>
       </c>
       <c r="F53">
-        <v>-962.4771754453759</v>
+        <v>-962.47717552061977</v>
       </c>
       <c r="G53">
-        <v>469.643090796299</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>469.64309072276859</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B54">
-        <v>-5.938807103606635</v>
+        <v>-5.938807103580749</v>
       </c>
       <c r="C54">
-        <v>1.302101010015879</v>
+        <v>1.302101010010716</v>
       </c>
       <c r="D54">
-        <v>-4.56094193762603</v>
+        <v>-4.5609419376242366</v>
       </c>
       <c r="E54">
-        <v>5.092466221665826E-06</v>
+        <v>5.0924662217092996E-6</v>
       </c>
       <c r="F54">
-        <v>-8.490878187470987</v>
+        <v>-8.4908781874349799</v>
       </c>
       <c r="G54">
-        <v>-3.386736019742283</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-3.3867360197265182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B55">
-        <v>-5503.580603579881</v>
+        <v>-5503.5806052486296</v>
       </c>
       <c r="C55">
-        <v>8195.115948516681</v>
+        <v>8195.1159485265161</v>
       </c>
       <c r="D55">
-        <v>-0.6715683631756341</v>
+        <v>-0.67156836337845527</v>
       </c>
       <c r="E55">
-        <v>0.5018585245267941</v>
+        <v>0.50185852439763678</v>
       </c>
       <c r="F55">
-        <v>-21565.71271180238</v>
+        <v>-21565.7127134904</v>
       </c>
       <c r="G55">
-        <v>10558.55150464262</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>10558.551502993139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B56">
-        <v>13045.47438813426</v>
+        <v>13045.474392073669</v>
       </c>
       <c r="C56">
-        <v>19349.37936695096</v>
+        <v>19349.379366974059</v>
       </c>
       <c r="D56">
-        <v>0.6742063474354185</v>
+        <v>0.67420634763820708</v>
       </c>
       <c r="E56">
-        <v>0.500180134729566</v>
+        <v>0.50018013460065835</v>
       </c>
       <c r="F56">
-        <v>-24878.61229429206</v>
+        <v>-24878.61229039793</v>
       </c>
       <c r="G56">
-        <v>50969.56107056057</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>50969.561074545258</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B57">
-        <v>2.622705300784227</v>
+        <v>2.6227053007750269</v>
       </c>
       <c r="C57">
-        <v>2.356676262858557</v>
+        <v>2.3566762628585169</v>
       </c>
       <c r="D57">
-        <v>1.112883149085139</v>
+        <v>1.1128831490812541</v>
       </c>
       <c r="E57">
-        <v>0.2657586180967345</v>
+        <v>0.26575861809840318</v>
       </c>
       <c r="F57">
-        <v>-1.996295297638994</v>
+        <v>-1.996295297648115</v>
       </c>
       <c r="G57">
-        <v>7.241705899207448</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>7.2417058991981689</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B58">
-        <v>17.95576249089272</v>
+        <v>17.955762490903378</v>
       </c>
       <c r="C58">
-        <v>2.39501158889585</v>
+        <v>2.395011588895624</v>
       </c>
       <c r="D58">
-        <v>7.497150566678759</v>
+        <v>7.4971505666839207</v>
       </c>
       <c r="E58">
-        <v>6.522004820288696E-14</v>
+        <v>6.5220048200319996E-14</v>
       </c>
       <c r="F58">
-        <v>13.2616260341008</v>
+        <v>13.261626034111909</v>
       </c>
       <c r="G58">
-        <v>22.64989894768463</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>22.649898947694851</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B59">
-        <v>9.89416457442951</v>
+        <v>9.8941645744343401</v>
       </c>
       <c r="C59">
-        <v>2.355788069949707</v>
+        <v>2.3557880699515681</v>
       </c>
       <c r="D59">
-        <v>4.199938313908151</v>
+        <v>4.1999383139068831</v>
       </c>
       <c r="E59">
-        <v>2.669877090888453E-05</v>
+        <v>2.6698770909034099E-5</v>
       </c>
       <c r="F59">
-        <v>5.276904802118959</v>
+        <v>5.276904802120141</v>
       </c>
       <c r="G59">
-        <v>14.51142434674006</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>14.511424346748541</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B60">
-        <v>-5.725189512055344E-09</v>
+        <v>-5.4908029336529002E-13</v>
       </c>
       <c r="C60">
-        <v>8.431885051228527E-09</v>
+        <v>7.7143332549157195E-14</v>
       </c>
       <c r="D60">
-        <v>-0.678992832239949</v>
+        <v>-7.1176636427445708</v>
       </c>
       <c r="E60">
-        <v>0.4971424035689805</v>
+        <v>1.097718539139118E-12</v>
       </c>
       <c r="F60">
-        <v>-2.225138053424492E-08</v>
+        <v>-7.002784468090346E-13</v>
       </c>
       <c r="G60">
-        <v>1.080100151013424E-08</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-3.9788213992154538E-13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B61">
-        <v>5.576244464609637E-10</v>
+        <v>-9.201376905002031E-13</v>
       </c>
       <c r="C61">
-        <v>8.212532885724784E-10</v>
+        <v>1.3071543087729971E-13</v>
       </c>
       <c r="D61">
-        <v>0.6789920408480064</v>
+        <v>-7.0392430665964776</v>
       </c>
       <c r="E61">
-        <v>0.4971429050103201</v>
+        <v>1.9328693824477618E-12</v>
       </c>
       <c r="F61">
-        <v>-1.052002421326174E-09</v>
+        <v>-1.176335227243345E-12</v>
       </c>
       <c r="G61">
-        <v>2.167251314248101E-09</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-6.6394015375706079E-13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B62">
-        <v>-6.527533171095308E-10</v>
+        <v>5.1162321507579081E-14</v>
       </c>
       <c r="C62">
-        <v>9.61355635071026E-10</v>
+        <v>6.9895185469186283E-15</v>
       </c>
       <c r="D62">
-        <v>-0.6789925531162093</v>
+        <v>7.319863473305225</v>
       </c>
       <c r="E62">
-        <v>0.4971425804271845</v>
+        <v>2.4822336442317261E-13</v>
       </c>
       <c r="F62">
-        <v>-2.536975738183373E-09</v>
+        <v>3.7463116886343842E-14</v>
       </c>
       <c r="G62">
-        <v>1.231469103964312E-09</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>6.4861526128814325E-14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B63">
-        <v>3.774857183747365E-10</v>
+        <v>-9.1193414121969683E-15</v>
       </c>
       <c r="C63">
-        <v>5.55953084986918E-10</v>
+        <v>1.338513113194198E-15</v>
       </c>
       <c r="D63">
-        <v>0.678988440874681</v>
+        <v>-6.8130385293236104</v>
       </c>
       <c r="E63">
-        <v>0.4971451860268945</v>
+        <v>9.5558534451941108E-12</v>
       </c>
       <c r="F63">
-        <v>-7.121623052935586E-10</v>
+        <v>-1.174277890689218E-14</v>
       </c>
       <c r="G63">
-        <v>1.467133742043032E-09</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-6.4959039175017546E-15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B64">
-        <v>2.747749374698987E-10</v>
+        <v>2.108541072645064E-14</v>
       </c>
       <c r="C64">
-        <v>4.046798886033087E-10</v>
+        <v>2.726309207154716E-15</v>
       </c>
       <c r="D64">
-        <v>0.6789933110297197</v>
+        <v>7.7340496342512122</v>
       </c>
       <c r="E64">
-        <v>0.4971421001985928</v>
+        <v>1.0417838630244189E-14</v>
       </c>
       <c r="F64">
-        <v>-5.183830694602674E-10</v>
+        <v>1.5741942869707449E-14</v>
       </c>
       <c r="G64">
-        <v>1.067932944400065E-09</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>2.642887858319384E-14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B65">
-        <v>0.3848344066262848</v>
+        <v>0.38483440662398549</v>
       </c>
       <c r="C65">
-        <v>2.446343749086942</v>
+        <v>2.446343749081906</v>
       </c>
       <c r="D65">
-        <v>0.1573100292098844</v>
+        <v>0.15731002920926829</v>
       </c>
       <c r="E65">
-        <v>0.8750005165032322</v>
+        <v>0.87500051650371757</v>
       </c>
       <c r="F65">
-        <v>-4.409911235388812</v>
+        <v>-4.40991123538124</v>
       </c>
       <c r="G65">
-        <v>5.17958004864138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>5.1795800486292114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
@@ -3799,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
@@ -3816,142 +3839,142 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B68">
-        <v>24.03536228061641</v>
+        <v>24.035362280610709</v>
       </c>
       <c r="C68">
-        <v>2.533780072672923</v>
+        <v>2.5337800726714041</v>
       </c>
       <c r="D68">
-        <v>9.4859702070595</v>
+        <v>9.485970207062941</v>
       </c>
       <c r="E68">
-        <v>2.401386421661791E-21</v>
+        <v>2.401386421582535E-21</v>
       </c>
       <c r="F68">
-        <v>19.0692445934322</v>
+        <v>19.069244593429481</v>
       </c>
       <c r="G68">
-        <v>29.00147996780062</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>29.001479967791941</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B69">
-        <v>2.386080129334111</v>
+        <v>2.3860801293522962</v>
       </c>
       <c r="C69">
-        <v>1.419974146466202</v>
+        <v>1.419974146464221</v>
       </c>
       <c r="D69">
-        <v>1.680368713241854</v>
+        <v>1.680368713257004</v>
       </c>
       <c r="E69">
-        <v>0.09288559942146964</v>
+        <v>9.2885599418523881E-2</v>
       </c>
       <c r="F69">
-        <v>-0.3970180567176476</v>
+        <v>-0.39701805669558171</v>
       </c>
       <c r="G69">
-        <v>5.16917831538587</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>5.1691783154001731</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B70">
-        <v>-8.683080798512826</v>
+        <v>-8.6830807984535525</v>
       </c>
       <c r="C70">
-        <v>6.020830497126518</v>
+        <v>6.0208304971267701</v>
       </c>
       <c r="D70">
-        <v>-1.442173268730433</v>
+        <v>-1.442173268720528</v>
       </c>
       <c r="E70">
-        <v>0.149253499616563</v>
+        <v>0.14925349961935661</v>
       </c>
       <c r="F70">
-        <v>-20.48369172990119</v>
+        <v>-20.483691729842409</v>
       </c>
       <c r="G70">
-        <v>3.117530132875538</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>3.1175301329353058</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.8326082287681356</v>
+        <v>-0.83260822878895802</v>
       </c>
       <c r="C71">
-        <v>5.738740839871959</v>
+        <v>5.7387408398759048</v>
       </c>
       <c r="D71">
-        <v>-0.1450855252049877</v>
+        <v>-0.14508552520851639</v>
       </c>
       <c r="E71">
-        <v>0.8846433465758577</v>
+        <v>0.88464334657307175</v>
       </c>
       <c r="F71">
-        <v>-12.08033359152632</v>
+        <v>-12.08033359155487</v>
       </c>
       <c r="G71">
-        <v>10.41511713399005</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>10.41511713397696</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B72">
-        <v>-3.92459926305149</v>
+        <v>-3.924599263048282</v>
       </c>
       <c r="C72">
-        <v>1.379958167031449</v>
+        <v>1.379958167031051</v>
       </c>
       <c r="D72">
-        <v>-2.843998721710562</v>
+        <v>-2.843998721709057</v>
       </c>
       <c r="E72">
-        <v>0.004455122664847596</v>
+        <v>4.455122664868633E-3</v>
       </c>
       <c r="F72">
-        <v>-6.629267570605037</v>
+        <v>-6.6292675706010504</v>
       </c>
       <c r="G72">
-        <v>-1.219930955497942</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-1.219930955495514</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B73">
-        <v>-1.373177779681418</v>
+        <v>-1.373177779668507</v>
       </c>
       <c r="C73">
-        <v>1.791774325766442</v>
+        <v>1.791774325766609</v>
       </c>
       <c r="D73">
-        <v>-0.7663787564843207</v>
+        <v>-0.76637875647704368</v>
       </c>
       <c r="E73">
-        <v>0.4434509692453958</v>
+        <v>0.44345096924972449</v>
       </c>
       <c r="F73">
-        <v>-4.884990926607181</v>
+        <v>-4.8849909265945994</v>
       </c>
       <c r="G73">
-        <v>2.138635367244346</v>
+        <v>2.1386353672575851</v>
       </c>
     </row>
   </sheetData>
@@ -3960,14 +3983,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3987,1479 +4010,1479 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>4.570937692463762</v>
+        <v>8622.3197147361789</v>
       </c>
       <c r="C2">
-        <v>2.281521232669062</v>
+        <v>62930.344433699727</v>
       </c>
       <c r="D2">
-        <v>2.003460510037157</v>
+        <v>0.13701370606385641</v>
       </c>
       <c r="E2">
-        <v>0.04512788219484808</v>
+        <v>0.89101996141242934</v>
       </c>
       <c r="F2">
-        <v>0.09923824646897117</v>
+        <v>-114718.8889100159</v>
       </c>
       <c r="G2">
-        <v>9.042637138458552</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>131963.52833948829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>6.392561884714958</v>
+        <v>4.5709376924489291</v>
       </c>
       <c r="C3">
-        <v>1.780506244610603</v>
+        <v>2.2815212326695531</v>
       </c>
       <c r="D3">
-        <v>3.590305793121782</v>
+        <v>2.0034605100302252</v>
       </c>
       <c r="E3">
-        <v>0.0003302902451493644</v>
+        <v>4.5127882195591447E-2</v>
       </c>
       <c r="F3">
-        <v>2.902833771029512</v>
+        <v>9.9238246453176693E-2</v>
       </c>
       <c r="G3">
-        <v>9.882289998400404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>9.0426371384446824</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0554773553403634</v>
+        <v>6.3925618847078587</v>
       </c>
       <c r="C4">
-        <v>0.03357390984315249</v>
+        <v>1.7805062446115569</v>
       </c>
       <c r="D4">
-        <v>1.652394838716653</v>
+        <v>3.5903057931158719</v>
       </c>
       <c r="E4">
-        <v>0.09845408700930353</v>
+        <v>3.302902451568543E-4</v>
       </c>
       <c r="F4">
-        <v>-0.0103262987724103</v>
+        <v>2.9028337710205432</v>
       </c>
       <c r="G4">
-        <v>0.1212810094531371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>9.8822899983951746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-22.76753401370907</v>
+        <v>5.5477355340341199E-2</v>
       </c>
       <c r="C5">
-        <v>2.721608420281213</v>
+        <v>3.3573909843140071E-2</v>
       </c>
       <c r="D5">
-        <v>-8.365470155091815</v>
+        <v>1.652394838716603</v>
       </c>
       <c r="E5">
-        <v>5.98756854653171E-17</v>
+        <v>9.8454087009313712E-2</v>
       </c>
       <c r="F5">
-        <v>-28.1017884974812</v>
+        <v>-1.0326298772408159E-2</v>
       </c>
       <c r="G5">
-        <v>-17.43327952993694</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.1212810094530906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-9.310606325280578</v>
+        <v>-22.76753401372374</v>
       </c>
       <c r="C6">
-        <v>2.361447038506401</v>
+        <v>2.721608420279606</v>
       </c>
       <c r="D6">
-        <v>-3.942754664178059</v>
+        <v>-8.3654701551021446</v>
       </c>
       <c r="E6">
-        <v>8.055104432652386E-05</v>
+        <v>5.9875685460070914E-17</v>
       </c>
       <c r="F6">
-        <v>-13.93895747215189</v>
+        <v>-28.101788497492709</v>
       </c>
       <c r="G6">
-        <v>-4.682255178409261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-17.43327952995476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-4.968588238847413</v>
+        <v>-9.3106063252407925</v>
       </c>
       <c r="C7">
-        <v>1.390458653030632</v>
+        <v>2.3614470385027828</v>
       </c>
       <c r="D7">
-        <v>-3.573344829792615</v>
+        <v>-3.9427546641672522</v>
       </c>
       <c r="E7">
-        <v>0.0003524501343354</v>
+        <v>8.0551044330154682E-5</v>
       </c>
       <c r="F7">
-        <v>-7.693837120779527</v>
+        <v>-13.93895747210502</v>
       </c>
       <c r="G7">
-        <v>-2.243339356915298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-4.6822551783765674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-2.684326078682507</v>
+        <v>-4.9685882388198204</v>
       </c>
       <c r="C8">
-        <v>0.1878755189802821</v>
+        <v>1.390458653035362</v>
       </c>
       <c r="D8">
-        <v>-14.28779062462221</v>
+        <v>-3.573344829760615</v>
       </c>
       <c r="E8">
-        <v>2.60751354244863E-46</v>
+        <v>3.5245013437849008E-4</v>
       </c>
       <c r="F8">
-        <v>-3.052555329460631</v>
+        <v>-7.6938371207612049</v>
       </c>
       <c r="G8">
-        <v>-2.316096827904383</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-2.2433393568784359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-1.606711085177171</v>
+        <v>-2.684326078681035</v>
       </c>
       <c r="C9">
-        <v>0.2345022420043623</v>
+        <v>0.1878755189803018</v>
       </c>
       <c r="D9">
-        <v>-6.851580912165789</v>
+        <v>-14.28779062461288</v>
       </c>
       <c r="E9">
-        <v>7.303826752964763E-12</v>
+        <v>2.6075135427981149E-46</v>
       </c>
       <c r="F9">
-        <v>-2.066327033799617</v>
+        <v>-3.0525553294591981</v>
       </c>
       <c r="G9">
-        <v>-1.147095136554726</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-2.316096827902872</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-3.103990758086613</v>
+        <v>-1.6067110851776889</v>
       </c>
       <c r="C10">
-        <v>0.2155659213978796</v>
+        <v>0.23450224200417791</v>
       </c>
       <c r="D10">
-        <v>-14.39926467949189</v>
+        <v>-6.8515809121733824</v>
       </c>
       <c r="E10">
-        <v>5.22969528881326E-47</v>
+        <v>7.3038267525769961E-12</v>
       </c>
       <c r="F10">
-        <v>-3.526492200320649</v>
+        <v>-2.066327033799773</v>
       </c>
       <c r="G10">
-        <v>-2.681489315852576</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-1.1470951365556039</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.2992093370836086</v>
+        <v>-3.1039907580853061</v>
       </c>
       <c r="C11">
-        <v>0.1904710527434536</v>
+        <v>0.21556592139807421</v>
       </c>
       <c r="D11">
-        <v>-1.570891391494619</v>
+        <v>-14.399264679472831</v>
       </c>
       <c r="E11">
-        <v>0.1162078785239183</v>
+        <v>5.229695290255132E-47</v>
       </c>
       <c r="F11">
-        <v>-0.6725257405582066</v>
+        <v>-3.5264922003197241</v>
       </c>
       <c r="G11">
-        <v>0.07410706639098935</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-2.681489315850889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12">
-        <v>1.813592602396192</v>
+        <v>-0.2992093370846105</v>
       </c>
       <c r="C12">
-        <v>0.3896025998035725</v>
+        <v>0.1904710527434785</v>
       </c>
       <c r="D12">
-        <v>4.654980750412236</v>
+        <v>-1.5708913914996729</v>
       </c>
       <c r="E12">
-        <v>3.240109770259609E-06</v>
+        <v>0.1162078785227442</v>
       </c>
       <c r="F12">
-        <v>1.049985538498018</v>
+        <v>-0.6725257405592574</v>
       </c>
       <c r="G12">
-        <v>2.577199666294366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>7.4107066390036391E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B13">
-        <v>1.598407420089698</v>
+        <v>1.8135926023984761</v>
       </c>
       <c r="C13">
-        <v>2.011792445791479</v>
+        <v>0.38960259980357392</v>
       </c>
       <c r="D13">
-        <v>0.7945190486391618</v>
+        <v>4.6549807504180807</v>
       </c>
       <c r="E13">
-        <v>0.4268933240817537</v>
+        <v>3.240109770167686E-6</v>
       </c>
       <c r="F13">
-        <v>-2.344633318031349</v>
+        <v>1.049985538500299</v>
       </c>
       <c r="G13">
-        <v>5.541448158210745</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>2.5771996662966519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>9.078743076159364</v>
+        <v>1.598407420079631</v>
       </c>
       <c r="C14">
-        <v>2.283427106501752</v>
+        <v>2.0117924457919441</v>
       </c>
       <c r="D14">
-        <v>3.975928572586732</v>
+        <v>0.79451904863397438</v>
       </c>
       <c r="E14">
-        <v>7.010516658504346E-05</v>
+        <v>0.42689332408477237</v>
       </c>
       <c r="F14">
-        <v>4.603308186093424</v>
+        <v>-2.3446333180423271</v>
       </c>
       <c r="G14">
-        <v>13.55417796622531</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>5.5414481582015904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15">
-        <v>-7.210783173564784</v>
+        <v>9.0787430761857415</v>
       </c>
       <c r="C15">
-        <v>3.004175919907484</v>
+        <v>2.2834271065028702</v>
       </c>
       <c r="D15">
-        <v>-2.400253302671718</v>
+        <v>3.975928572596338</v>
       </c>
       <c r="E15">
-        <v>0.01638373010842364</v>
+        <v>7.0105166582213268E-5</v>
       </c>
       <c r="F15">
-        <v>-13.09885977980594</v>
+        <v>4.6033081861176104</v>
       </c>
       <c r="G15">
-        <v>-1.32270656732363</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>13.554177966253871</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16">
-        <v>0.8870041012733884</v>
+        <v>-7.2107831736005803</v>
       </c>
       <c r="C16">
-        <v>0.5032939567964728</v>
+        <v>3.004175919905415</v>
       </c>
       <c r="D16">
-        <v>1.762397678921633</v>
+        <v>-2.4002533026852868</v>
       </c>
       <c r="E16">
-        <v>0.07800213053614236</v>
+        <v>1.6383730107816269E-2</v>
       </c>
       <c r="F16">
-        <v>-0.09943392768435633</v>
+        <v>-13.09885977983768</v>
       </c>
       <c r="G16">
-        <v>1.873442130231133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-1.3227065673634819</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B17">
-        <v>0.2652898296481914</v>
+        <v>0.8870041012712081</v>
       </c>
       <c r="C17">
-        <v>0.03695739557134396</v>
+        <v>0.5032939567962752</v>
       </c>
       <c r="D17">
-        <v>7.178260955539084</v>
+        <v>1.7623976789179929</v>
       </c>
       <c r="E17">
-        <v>7.060370333112029E-13</v>
+        <v>7.8002130536756975E-2</v>
       </c>
       <c r="F17">
-        <v>0.1928546653659571</v>
+        <v>-9.9433927686149226E-2</v>
       </c>
       <c r="G17">
-        <v>0.3377249939304256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>1.873442130228566</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B18">
-        <v>8622.319704072812</v>
+        <v>0.2652898296493823</v>
       </c>
       <c r="C18">
-        <v>62930.34443372572</v>
+        <v>3.695739557135512E-2</v>
       </c>
       <c r="D18">
-        <v>0.1370137058943527</v>
+        <v>7.1782609555691401</v>
       </c>
       <c r="E18">
-        <v>0.8910199615464102</v>
+        <v>7.0603703315602233E-13</v>
       </c>
       <c r="F18">
-        <v>-114718.8889207303</v>
+        <v>0.1928546653671262</v>
       </c>
       <c r="G18">
-        <v>131963.5283288759</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.33772499393163852</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B19">
-        <v>1.089905165863733</v>
+        <v>1.0899051658638841</v>
       </c>
       <c r="C19">
-        <v>0.7100664245112961</v>
+        <v>0.71006642451059598</v>
       </c>
       <c r="D19">
-        <v>1.534934096642947</v>
+        <v>1.5349340966446721</v>
       </c>
       <c r="E19">
-        <v>0.1248000171047906</v>
+        <v>0.12480001710436681</v>
       </c>
       <c r="F19">
-        <v>-0.301799452809536</v>
+        <v>-0.30179945280801301</v>
       </c>
       <c r="G19">
-        <v>2.481609784537003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>2.481609784535781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B20">
-        <v>0.8283821967722229</v>
+        <v>0.82838219677231484</v>
       </c>
       <c r="C20">
-        <v>0.6960076680427139</v>
+        <v>0.69600766804225589</v>
       </c>
       <c r="D20">
-        <v>1.190191193010513</v>
+        <v>1.190191193011428</v>
       </c>
       <c r="E20">
-        <v>0.2339712539030925</v>
+        <v>0.2339712539027331</v>
       </c>
       <c r="F20">
-        <v>-0.5357677655552058</v>
+        <v>-0.53576776555421635</v>
       </c>
       <c r="G20">
-        <v>2.192532159099652</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>2.192532159098846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B21">
-        <v>0.5814841793812526</v>
+        <v>0.58148417938299035</v>
       </c>
       <c r="C21">
-        <v>0.7076249754629599</v>
+        <v>0.70762497546243486</v>
       </c>
       <c r="D21">
-        <v>0.821740610555499</v>
+        <v>0.8217406105585644</v>
       </c>
       <c r="E21">
-        <v>0.4112245408838665</v>
+        <v>0.41122454088212151</v>
       </c>
       <c r="F21">
-        <v>-0.8054352870871881</v>
+        <v>-0.80543528708442147</v>
       </c>
       <c r="G21">
-        <v>1.968403645849693</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>1.968403645850402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B22">
-        <v>-2.789927684393816</v>
+        <v>-2.7899276843917429</v>
       </c>
       <c r="C22">
-        <v>0.6840671516507357</v>
+        <v>0.68406715165006415</v>
       </c>
       <c r="D22">
-        <v>-4.078441243175304</v>
+        <v>-4.078441243176278</v>
       </c>
       <c r="E22">
-        <v>4.533865719051711E-05</v>
+        <v>4.5338657190327059E-5</v>
       </c>
       <c r="F22">
-        <v>-4.130674664636158</v>
+        <v>-4.1306746646327683</v>
       </c>
       <c r="G22">
-        <v>-1.449180704151474</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-1.4491807041507181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B23">
-        <v>-3.117788941764747</v>
+        <v>-3.1177889417659439</v>
       </c>
       <c r="C23">
-        <v>0.6908171986546284</v>
+        <v>0.6908171986543381</v>
       </c>
       <c r="D23">
-        <v>-4.513189520811965</v>
+        <v>-4.5131895208155957</v>
       </c>
       <c r="E23">
-        <v>6.38599088807866E-06</v>
+        <v>6.3859908879692996E-6</v>
       </c>
       <c r="F23">
-        <v>-4.47176577102867</v>
+        <v>-4.4717657710292986</v>
       </c>
       <c r="G23">
-        <v>-1.763812112500823</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-1.7638121125025901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B24">
-        <v>1.343024864910335</v>
+        <v>1.3430248649076031</v>
       </c>
       <c r="C24">
-        <v>0.6752472139188386</v>
+        <v>0.67524721391829012</v>
       </c>
       <c r="D24">
-        <v>1.98893803221491</v>
+        <v>1.988938032212479</v>
       </c>
       <c r="E24">
-        <v>0.04670804321755324</v>
+        <v>4.6708043217821661E-2</v>
       </c>
       <c r="F24">
-        <v>0.01956464496839816</v>
+        <v>1.95646449667406E-2</v>
       </c>
       <c r="G24">
-        <v>2.666485084852273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>2.6664850848484649</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B25">
-        <v>5.691627462648253</v>
+        <v>5.6916274626461894</v>
       </c>
       <c r="C25">
-        <v>0.7067657070907639</v>
+        <v>0.70676570709014563</v>
       </c>
       <c r="D25">
-        <v>8.053061156683039</v>
+        <v>8.0530611566871642</v>
       </c>
       <c r="E25">
-        <v>8.074852992244954E-16</v>
+        <v>8.0748529919727052E-16</v>
       </c>
       <c r="F25">
-        <v>4.306392131242371</v>
+        <v>4.3063921312415188</v>
       </c>
       <c r="G25">
-        <v>7.076862794054136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>7.0768627940508599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B26">
-        <v>1.151683957536157</v>
+        <v>1.1516839575357041</v>
       </c>
       <c r="C26">
-        <v>0.6713606210064669</v>
+        <v>0.67136062100634686</v>
       </c>
       <c r="D26">
-        <v>1.715447587333341</v>
+        <v>1.7154475873329731</v>
       </c>
       <c r="E26">
-        <v>0.08626319701298077</v>
+        <v>8.6263197013048243E-2</v>
       </c>
       <c r="F26">
-        <v>-0.1641586802749626</v>
+        <v>-0.16415868027518041</v>
       </c>
       <c r="G26">
-        <v>2.467526595347277</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>2.4675265953465888</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B27">
-        <v>6.633340638612617</v>
+        <v>6.6333406386117524</v>
       </c>
       <c r="C27">
-        <v>0.6702476057459036</v>
+        <v>0.67024760574579401</v>
       </c>
       <c r="D27">
-        <v>9.896850927547172</v>
+        <v>9.896850927547499</v>
       </c>
       <c r="E27">
-        <v>4.295890341780208E-23</v>
+        <v>4.2958903417661812E-23</v>
       </c>
       <c r="F27">
-        <v>5.319679470626445</v>
+        <v>5.319679470625795</v>
       </c>
       <c r="G27">
-        <v>7.94700180659879</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>7.9470018065977097</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B28">
-        <v>-4.075579193228443</v>
+        <v>-4.0755791932262753</v>
       </c>
       <c r="C28">
-        <v>0.6714577993728214</v>
+        <v>0.67145779937216443</v>
       </c>
       <c r="D28">
-        <v>-6.069747342327782</v>
+        <v>-6.0697473423304924</v>
       </c>
       <c r="E28">
-        <v>1.281116397130692E-09</v>
+        <v>1.2811163971090779E-9</v>
       </c>
       <c r="F28">
-        <v>-5.391612297137694</v>
+        <v>-5.3916122971342393</v>
       </c>
       <c r="G28">
-        <v>-2.759546089319192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-2.7595460893183121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B29">
-        <v>-3.60277333559207</v>
+        <v>-3.60277333559192</v>
       </c>
       <c r="C29">
-        <v>0.6212759749628552</v>
+        <v>0.62127597496235198</v>
       </c>
       <c r="D29">
-        <v>-5.798990272893575</v>
+        <v>-5.7989902728980303</v>
       </c>
       <c r="E29">
-        <v>6.671540169700274E-09</v>
+        <v>6.6715401695230291E-9</v>
       </c>
       <c r="F29">
-        <v>-4.820451870979275</v>
+        <v>-4.8204518709781379</v>
       </c>
       <c r="G29">
-        <v>-2.385094800204866</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-2.3850948002057009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B30">
-        <v>1.523691944739937</v>
+        <v>1.5236919447371799</v>
       </c>
       <c r="C30">
-        <v>0.7533792413172036</v>
+        <v>0.7533792413168231</v>
       </c>
       <c r="D30">
-        <v>2.022476677318482</v>
+        <v>2.022476677315844</v>
       </c>
       <c r="E30">
-        <v>0.04312713065628778</v>
+        <v>4.3127130656560042E-2</v>
       </c>
       <c r="F30">
-        <v>0.04709576505810742</v>
+        <v>4.7095765056096139E-2</v>
       </c>
       <c r="G30">
-        <v>3.000288124421766</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>3.000288124418264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B31">
-        <v>-1.047722071706146</v>
+        <v>-1.0477220717039619</v>
       </c>
       <c r="C31">
-        <v>0.6563866625740157</v>
+        <v>0.65638666257356015</v>
       </c>
       <c r="D31">
-        <v>-1.596196466877483</v>
+        <v>-1.596196466875262</v>
       </c>
       <c r="E31">
-        <v>0.110444936191542</v>
+        <v>0.1104449361920375</v>
       </c>
       <c r="F31">
-        <v>-2.334216290283662</v>
+        <v>-2.334216290280585</v>
       </c>
       <c r="G31">
-        <v>0.2387721468713693</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.2387721468726611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B32">
-        <v>6.478799063162928</v>
+        <v>6.4787990631603893</v>
       </c>
       <c r="C32">
-        <v>0.7623981375041625</v>
+        <v>0.76239813750302943</v>
       </c>
       <c r="D32">
-        <v>8.497920895206221</v>
+        <v>8.4979208952155201</v>
       </c>
       <c r="E32">
-        <v>1.930165684291319E-17</v>
+        <v>1.9301656841367409E-17</v>
       </c>
       <c r="F32">
-        <v>4.984526171774354</v>
+        <v>4.9845261717740357</v>
       </c>
       <c r="G32">
-        <v>7.973071954551502</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>7.973071954546743</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B33">
-        <v>-4.776185322656741</v>
+        <v>-4.776185322657394</v>
       </c>
       <c r="C33">
-        <v>0.7925712585426111</v>
+        <v>0.79257125854208099</v>
       </c>
       <c r="D33">
-        <v>-6.02619041654279</v>
+        <v>-6.026190416547645</v>
       </c>
       <c r="E33">
-        <v>1.678693949628583E-09</v>
+        <v>1.6786939495781839E-9</v>
       </c>
       <c r="F33">
-        <v>-6.329596444581843</v>
+        <v>-6.3295964445814574</v>
       </c>
       <c r="G33">
-        <v>-3.22277420073164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-3.222774200733332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B34">
-        <v>0.4550707137385102</v>
+        <v>0.45507071373480379</v>
       </c>
       <c r="C34">
-        <v>0.7712036953470278</v>
+        <v>0.77120369534637179</v>
       </c>
       <c r="D34">
-        <v>0.590078492211758</v>
+        <v>0.59007849220745401</v>
       </c>
       <c r="E34">
-        <v>0.5551380274745906</v>
+        <v>0.55513802747747598</v>
       </c>
       <c r="F34">
-        <v>-1.056460753885864</v>
+        <v>-1.0564607538882851</v>
       </c>
       <c r="G34">
-        <v>1.966602181362885</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>1.9666021813578931</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B35">
-        <v>-3.29499944818081</v>
+        <v>-3.2949994481804472</v>
       </c>
       <c r="C35">
-        <v>0.7383512889465156</v>
+        <v>0.73835128894590896</v>
       </c>
       <c r="D35">
-        <v>-4.462644675384988</v>
+        <v>-4.4626446753881623</v>
       </c>
       <c r="E35">
-        <v>8.095423394492209E-06</v>
+        <v>8.0954233943722214E-6</v>
       </c>
       <c r="F35">
-        <v>-4.742141382454708</v>
+        <v>-4.7421413824531564</v>
       </c>
       <c r="G35">
-        <v>-1.847857513906913</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-1.8478575139077389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B36">
-        <v>12.15474137185439</v>
+        <v>12.15474137185382</v>
       </c>
       <c r="C36">
-        <v>0.7865742606990047</v>
+        <v>0.78657426069876113</v>
       </c>
       <c r="D36">
-        <v>15.45275758331177</v>
+        <v>15.452757583315829</v>
       </c>
       <c r="E36">
-        <v>7.228365059642007E-54</v>
+        <v>7.2283650591869185E-54</v>
       </c>
       <c r="F36">
-        <v>10.61308414971812</v>
+        <v>10.613084149718031</v>
       </c>
       <c r="G36">
-        <v>13.69639859399066</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>13.69639859398961</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B37">
-        <v>-4.406561266835251</v>
+        <v>-4.4065612668348981</v>
       </c>
       <c r="C37">
-        <v>0.910773204671955</v>
+        <v>0.91077320467146639</v>
       </c>
       <c r="D37">
-        <v>-4.838264064238055</v>
+        <v>-4.8382640642402626</v>
       </c>
       <c r="E37">
-        <v>1.309780527658181E-06</v>
+        <v>1.3097805276436289E-6</v>
       </c>
       <c r="F37">
-        <v>-6.19164394607641</v>
+        <v>-6.1916439460751</v>
       </c>
       <c r="G37">
-        <v>-2.621478587594091</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>-2.6214785875946971</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B38">
-        <v>5.638542391949839</v>
+        <v>5.6385423919501383</v>
       </c>
       <c r="C38">
-        <v>0.500029897426206</v>
+        <v>0.50002989742549286</v>
       </c>
       <c r="D38">
-        <v>11.27641051259734</v>
+        <v>11.276410512614021</v>
       </c>
       <c r="E38">
-        <v>1.716060072183299E-29</v>
+        <v>1.716060071858029E-29</v>
       </c>
       <c r="F38">
-        <v>4.658501801801218</v>
+        <v>4.658501801802915</v>
       </c>
       <c r="G38">
-        <v>6.61858298209846</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>6.6185829820973616</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B39">
-        <v>-4.908090541740265</v>
+        <v>-4.9080905417390941</v>
       </c>
       <c r="C39">
-        <v>0.6506586911864813</v>
+        <v>0.6506586911863651</v>
       </c>
       <c r="D39">
-        <v>-7.543264399942652</v>
+        <v>-7.5432643999422009</v>
       </c>
       <c r="E39">
-        <v>4.583505307100787E-14</v>
+        <v>4.5835053071166832E-14</v>
       </c>
       <c r="F39">
-        <v>-6.183358142693737</v>
+        <v>-6.183358142692339</v>
       </c>
       <c r="G39">
-        <v>-3.632822940786792</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-3.6328229407858492</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B40">
-        <v>3.593321119957888</v>
+        <v>3.5933211199619581</v>
       </c>
       <c r="C40">
-        <v>0.7257644153981033</v>
+        <v>0.72576441539719627</v>
       </c>
       <c r="D40">
-        <v>4.951084737306726</v>
+        <v>4.9510847373185216</v>
       </c>
       <c r="E40">
-        <v>7.38009579515295E-07</v>
+        <v>7.3800957947055664E-7</v>
       </c>
       <c r="F40">
-        <v>2.170849004516838</v>
+        <v>2.1708490045226871</v>
       </c>
       <c r="G40">
-        <v>5.015793235398937</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>5.0157932354012296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B41">
-        <v>-1.403592675774373</v>
+        <v>-1.403592675772493</v>
       </c>
       <c r="C41">
-        <v>0.787207635271346</v>
+        <v>0.78720763527090942</v>
       </c>
       <c r="D41">
-        <v>-1.783001857306126</v>
+        <v>-1.783001857304727</v>
       </c>
       <c r="E41">
-        <v>0.07458600098751553</v>
+        <v>7.4586000987743289E-2</v>
       </c>
       <c r="F41">
-        <v>-2.946491289261154</v>
+        <v>-2.946491289258419</v>
       </c>
       <c r="G41">
-        <v>0.1393059377124077</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.139305937713432</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B42">
-        <v>-4.330135022538374</v>
+        <v>-4.3301350225390323</v>
       </c>
       <c r="C42">
-        <v>0.798844383688065</v>
+        <v>0.79884438368717248</v>
       </c>
       <c r="D42">
-        <v>-5.420498799211959</v>
+        <v>-5.4204987992188398</v>
       </c>
       <c r="E42">
-        <v>5.943297173655047E-08</v>
+        <v>5.9432971734262727E-8</v>
       </c>
       <c r="F42">
-        <v>-5.895841243819078</v>
+        <v>-5.895841243817987</v>
       </c>
       <c r="G42">
-        <v>-2.764428801257671</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-2.764428801260078</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B43">
-        <v>0.9289708786772539</v>
+        <v>0.92897087867783046</v>
       </c>
       <c r="C43">
-        <v>0.7644588181930561</v>
+        <v>0.76445881819281203</v>
       </c>
       <c r="D43">
-        <v>1.215200683894331</v>
+        <v>1.215200683895473</v>
       </c>
       <c r="E43">
-        <v>0.2242895596666638</v>
+        <v>0.22428955966622829</v>
       </c>
       <c r="F43">
-        <v>-0.569340872645189</v>
+        <v>-0.56934087264413413</v>
       </c>
       <c r="G43">
-        <v>2.427282629999697</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>2.4272826299997949</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B44">
-        <v>-8.081680219953455</v>
+        <v>-8.0816802199510853</v>
       </c>
       <c r="C44">
-        <v>0.6139686355390095</v>
+        <v>0.61396863553871284</v>
       </c>
       <c r="D44">
-        <v>-13.1630180308127</v>
+        <v>-13.1630180308152</v>
       </c>
       <c r="E44">
-        <v>1.432474966535469E-39</v>
+        <v>1.432474966488012E-39</v>
       </c>
       <c r="F44">
-        <v>-9.285036633247111</v>
+        <v>-9.285036633244161</v>
       </c>
       <c r="G44">
-        <v>-6.878323806659798</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-6.8783238066580097</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B45">
-        <v>2.366726230227</v>
+        <v>2.3667262302270111</v>
       </c>
       <c r="C45">
-        <v>0.8350088749957235</v>
+        <v>0.83500887499537957</v>
       </c>
       <c r="D45">
-        <v>2.834372545129081</v>
+        <v>2.8343725451302619</v>
       </c>
       <c r="E45">
-        <v>0.004591576966574877</v>
+        <v>4.5915769665578997E-3</v>
       </c>
       <c r="F45">
-        <v>0.7301389084640735</v>
+        <v>0.73013890846475915</v>
       </c>
       <c r="G45">
-        <v>4.003313551989926</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>4.0033135519892644</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B46">
-        <v>4.400047446995969</v>
+        <v>4.40004744699774</v>
       </c>
       <c r="C46">
-        <v>0.7833941896128173</v>
+        <v>0.78339418961286145</v>
       </c>
       <c r="D46">
-        <v>5.616645496401546</v>
+        <v>5.61664549640349</v>
       </c>
       <c r="E46">
-        <v>1.947003083000376E-08</v>
+        <v>1.947003082978475E-8</v>
       </c>
       <c r="F46">
-        <v>2.864623049656905</v>
+        <v>2.8646230496585892</v>
       </c>
       <c r="G46">
-        <v>5.935471844335033</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>5.9354718443368908</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B47">
-        <v>0.652627068805834</v>
+        <v>0.65262706880594767</v>
       </c>
       <c r="C47">
-        <v>0.4640118788909892</v>
+        <v>0.46401187889087542</v>
       </c>
       <c r="D47">
-        <v>1.40648784760779</v>
+        <v>1.40648784760838</v>
       </c>
       <c r="E47">
-        <v>0.1595793106864142</v>
+        <v>0.15957931068623901</v>
       </c>
       <c r="F47">
-        <v>-0.2568195022192662</v>
+        <v>-0.25681950221892941</v>
       </c>
       <c r="G47">
-        <v>1.562073639830934</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>1.562073639830825</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B48">
-        <v>1.634883277388372</v>
+        <v>1.634883277390597</v>
       </c>
       <c r="C48">
-        <v>0.415256841092905</v>
+        <v>0.41525684109267791</v>
       </c>
       <c r="D48">
-        <v>3.937041164898235</v>
+        <v>3.9370411649057462</v>
       </c>
       <c r="E48">
-        <v>8.249246024308432E-05</v>
+        <v>8.2492460240503608E-5</v>
       </c>
       <c r="F48">
-        <v>0.820994824512406</v>
+        <v>0.82099482451507566</v>
       </c>
       <c r="G48">
-        <v>2.448771730264338</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>2.4487717302661181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B49">
-        <v>-8.764697657442799</v>
+        <v>-8.7646976574489841</v>
       </c>
       <c r="C49">
-        <v>0.9932523037443179</v>
+        <v>0.99325230374419782</v>
       </c>
       <c r="D49">
-        <v>-8.824240955094728</v>
+        <v>-8.824240955102022</v>
       </c>
       <c r="E49">
-        <v>1.102047141000792E-18</v>
+        <v>1.1020471409289661E-18</v>
       </c>
       <c r="F49">
-        <v>-10.7114364003431</v>
+        <v>-10.711436400349051</v>
       </c>
       <c r="G49">
-        <v>-6.817958914542498</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-6.8179589145489183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B50">
-        <v>-405.6335734563572</v>
+        <v>-405.63357398473909</v>
       </c>
       <c r="C50">
-        <v>3118.042178474583</v>
+        <v>3118.0421784731921</v>
       </c>
       <c r="D50">
-        <v>-0.1300923945983317</v>
+        <v>-0.13009239476784931</v>
       </c>
       <c r="E50">
-        <v>0.896493327217864</v>
+        <v>0.89649332708374829</v>
       </c>
       <c r="F50">
-        <v>-6516.883945543352</v>
+        <v>-6516.883946069006</v>
       </c>
       <c r="G50">
-        <v>5705.616798630637</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>5705.6167980995278</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B51">
-        <v>0.3331348875862108</v>
+        <v>0.33313488758615301</v>
       </c>
       <c r="C51">
-        <v>0.0516218966301344</v>
+        <v>5.16218966301287E-2</v>
       </c>
       <c r="D51">
-        <v>6.453363966323983</v>
+        <v>6.4533639663235753</v>
       </c>
       <c r="E51">
-        <v>1.093942002598402E-10</v>
+        <v>1.093942002601348E-10</v>
       </c>
       <c r="F51">
-        <v>0.2319578293774978</v>
+        <v>0.2319578293774511</v>
       </c>
       <c r="G51">
-        <v>0.4343119457949238</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.43431194579485483</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B52">
-        <v>0.2878181059000146</v>
+        <v>0.28781810589957108</v>
       </c>
       <c r="C52">
-        <v>0.05307220994782615</v>
+        <v>5.3072209947816709E-2</v>
       </c>
       <c r="D52">
-        <v>5.423141530811714</v>
+        <v>5.4231415308043234</v>
       </c>
       <c r="E52">
-        <v>5.85605884502577E-08</v>
+        <v>5.8560588452680041E-8</v>
       </c>
       <c r="F52">
-        <v>0.1837984858223269</v>
+        <v>0.183798485821902</v>
       </c>
       <c r="G52">
-        <v>0.3918377259777022</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.39183772597724031</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B53">
-        <v>-46.00092912274954</v>
+        <v>-46.000929181689571</v>
       </c>
       <c r="C53">
-        <v>347.8694466773571</v>
+        <v>347.86944667720422</v>
       </c>
       <c r="D53">
-        <v>-0.1322361867709946</v>
+        <v>-0.1322361869404842</v>
       </c>
       <c r="E53">
-        <v>0.8947974795282266</v>
+        <v>0.89479747939417065</v>
       </c>
       <c r="F53">
-        <v>-727.8125159322461</v>
+        <v>-727.81251599088648</v>
       </c>
       <c r="G53">
-        <v>635.810657686747</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>635.81065762750734</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B54">
-        <v>-7.271206326848694</v>
+        <v>-7.2712063268441316</v>
       </c>
       <c r="C54">
-        <v>1.228128864288696</v>
+        <v>1.2281288642877219</v>
       </c>
       <c r="D54">
-        <v>-5.92055649718811</v>
+        <v>-5.9205564971890894</v>
       </c>
       <c r="E54">
-        <v>3.208540448265439E-09</v>
+        <v>3.2085404482463311E-9</v>
       </c>
       <c r="F54">
-        <v>-9.678294669228618</v>
+        <v>-9.6782946692221472</v>
       </c>
       <c r="G54">
-        <v>-4.86411798446877</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-4.8641179844661169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B55">
-        <v>-1006.139480245491</v>
+        <v>-1006.1394815678721</v>
       </c>
       <c r="C55">
-        <v>7803.136834126033</v>
+        <v>7803.1368341226371</v>
       </c>
       <c r="D55">
-        <v>-0.1289403866205789</v>
+        <v>-0.12894038679010289</v>
       </c>
       <c r="E55">
-        <v>0.8974048194861105</v>
+        <v>0.89740481935196958</v>
       </c>
       <c r="F55">
-        <v>-16300.00664157041</v>
+        <v>-16300.006642886139</v>
       </c>
       <c r="G55">
-        <v>14287.72768107943</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>14287.727679750389</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B56">
-        <v>2430.214943833118</v>
+        <v>2430.21494695513</v>
       </c>
       <c r="C56">
-        <v>18423.90392025288</v>
+        <v>18423.903920244731</v>
       </c>
       <c r="D56">
-        <v>0.131905537195168</v>
+        <v>0.1319055373646808</v>
       </c>
       <c r="E56">
-        <v>0.8950590088530044</v>
+        <v>0.89505900871892441</v>
       </c>
       <c r="F56">
-        <v>-33679.97319448883</v>
+        <v>-33679.973191350851</v>
       </c>
       <c r="G56">
-        <v>38540.40308215507</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>38540.40308526111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B57">
-        <v>-2.896535207084685</v>
+        <v>-2.8965352070843569</v>
       </c>
       <c r="C57">
-        <v>2.21805585082092</v>
+        <v>2.2180558508208832</v>
       </c>
       <c r="D57">
-        <v>-1.305889211947776</v>
+        <v>-1.30588921194765</v>
       </c>
       <c r="E57">
-        <v>0.1915902357811403</v>
+        <v>0.19159023578118309</v>
       </c>
       <c r="F57">
-        <v>-7.243844790392036</v>
+        <v>-7.2438447903916341</v>
       </c>
       <c r="G57">
-        <v>1.450774376222665</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>1.4507743762229199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B58">
-        <v>18.68767175247548</v>
+        <v>18.687671752480998</v>
       </c>
       <c r="C58">
-        <v>2.28279146792877</v>
+        <v>2.2827914679287482</v>
       </c>
       <c r="D58">
-        <v>8.186324513220315</v>
+        <v>8.1863245132228144</v>
       </c>
       <c r="E58">
-        <v>2.693249074408558E-16</v>
+        <v>2.6932490743526441E-16</v>
       </c>
       <c r="F58">
-        <v>14.21348269111977</v>
+        <v>14.21348269112533</v>
       </c>
       <c r="G58">
-        <v>23.16186081383119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>23.161860813836672</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B59">
-        <v>9.879422642589375</v>
+        <v>9.8794226425905496</v>
       </c>
       <c r="C59">
-        <v>2.243634736421578</v>
+        <v>2.243634736421694</v>
       </c>
       <c r="D59">
-        <v>4.403311502631788</v>
+        <v>4.4033115026320839</v>
       </c>
       <c r="E59">
-        <v>1.066109166111312E-05</v>
+        <v>1.0661091661098581E-5</v>
       </c>
       <c r="F59">
-        <v>5.481979364740066</v>
+        <v>5.4819793647410124</v>
       </c>
       <c r="G59">
-        <v>14.27686592043868</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>14.276865920440089</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B60">
-        <v>-1.095821455186693E-09</v>
+        <v>-6.1750591395318137E-13</v>
       </c>
       <c r="C60">
-        <v>8.028662439563515E-09</v>
+        <v>7.5785639220840355E-14</v>
       </c>
       <c r="D60">
-        <v>-0.1364886696178334</v>
+        <v>-8.1480597155585244</v>
       </c>
       <c r="E60">
-        <v>0.8914349810645323</v>
+        <v>3.698097395900344E-16</v>
       </c>
       <c r="F60">
-        <v>-1.683171068076067E-08</v>
+        <v>-7.660430373713746E-13</v>
       </c>
       <c r="G60">
-        <v>1.464006777038728E-08</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-4.6896879053498815E-13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B61">
-        <v>1.067310639314247E-10</v>
+        <v>-1.036767106451659E-12</v>
       </c>
       <c r="C61">
-        <v>7.819799985552603E-10</v>
+        <v>1.285171491563448E-13</v>
       </c>
       <c r="D61">
-        <v>0.1364882274848649</v>
+        <v>-8.0671498960065051</v>
       </c>
       <c r="E61">
-        <v>0.8914353305649544</v>
+        <v>7.195818267770725E-16</v>
       </c>
       <c r="F61">
-        <v>-1.425921569867569E-09</v>
+        <v>-1.2886560901938571E-12</v>
       </c>
       <c r="G61">
-        <v>1.639383697730418E-09</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-7.8487812270946147E-13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B62">
-        <v>-1.249383416007296E-10</v>
+        <v>5.7882217040568681E-14</v>
       </c>
       <c r="C62">
-        <v>9.153824861322996E-10</v>
+        <v>6.8869374975435718E-15</v>
       </c>
       <c r="D62">
-        <v>-0.1364875814137789</v>
+        <v>8.4046380646280099</v>
       </c>
       <c r="E62">
-        <v>0.8914358412758722</v>
+        <v>4.291831260018489E-17</v>
       </c>
       <c r="F62">
-        <v>-1.919055046498772E-09</v>
+        <v>4.438406758160487E-14</v>
       </c>
       <c r="G62">
-        <v>1.669178363297313E-09</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>7.1380366499532491E-14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B63">
-        <v>7.225107680795022E-11</v>
+        <v>-1.1009497412416089E-14</v>
       </c>
       <c r="C63">
-        <v>5.293667604971983E-10</v>
+        <v>1.288457895806105E-15</v>
       </c>
       <c r="D63">
-        <v>0.1364858585758005</v>
+        <v>-8.5447087159399615</v>
       </c>
       <c r="E63">
-        <v>0.8914372031574457</v>
+        <v>1.288608768625913E-17</v>
       </c>
       <c r="F63">
-        <v>-9.652887083791989E-10</v>
+        <v>-1.353482848379232E-14</v>
       </c>
       <c r="G63">
-        <v>1.109790861995099E-09</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-8.4841663410398637E-15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B64">
-        <v>5.259446402233772E-11</v>
+        <v>2.3856477565198589E-14</v>
       </c>
       <c r="C64">
-        <v>3.853276272214729E-10</v>
+        <v>2.6625034751875741E-15</v>
       </c>
       <c r="D64">
-        <v>0.1364928448073832</v>
+        <v>8.9601676720883514</v>
       </c>
       <c r="E64">
-        <v>0.89143168063196</v>
+        <v>3.2418506858720988E-19</v>
       </c>
       <c r="F64">
-        <v>-7.026338075800249E-10</v>
+        <v>1.8638066645118209E-14</v>
       </c>
       <c r="G64">
-        <v>8.078227356247003E-10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>2.9074888485278969E-14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B65">
-        <v>-5.151468376414031</v>
+        <v>-5.1514683764097633</v>
       </c>
       <c r="C65">
-        <v>2.347427985815542</v>
+        <v>2.3474279858150209</v>
       </c>
       <c r="D65">
-        <v>-2.194516043747477</v>
+        <v>-2.194516043746146</v>
       </c>
       <c r="E65">
-        <v>0.02819833183797594</v>
+        <v>2.8198331838071512E-2</v>
       </c>
       <c r="F65">
-        <v>-9.752342684913895</v>
+        <v>-9.752342684908605</v>
       </c>
       <c r="G65">
-        <v>-0.5505940679141679</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.55059406791092158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
@@ -5476,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
@@ -5493,142 +5516,142 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B68">
-        <v>23.4763670767113</v>
+        <v>23.476367076713188</v>
       </c>
       <c r="C68">
-        <v>2.431157165938115</v>
+        <v>2.431157165937857</v>
       </c>
       <c r="D68">
-        <v>9.656458005113148</v>
+        <v>9.6564580051149473</v>
       </c>
       <c r="E68">
-        <v>4.6154638122437E-22</v>
+        <v>4.6154638121626403E-22</v>
       </c>
       <c r="F68">
-        <v>18.71138659071612</v>
+        <v>18.711386590718519</v>
       </c>
       <c r="G68">
-        <v>28.24134756270647</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>28.241347562707858</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B69">
-        <v>20.7975009401343</v>
+        <v>20.797500940137841</v>
       </c>
       <c r="C69">
-        <v>1.367875044857442</v>
+        <v>1.367875044857195</v>
       </c>
       <c r="D69">
-        <v>15.20424034221766</v>
+        <v>15.204240342222979</v>
       </c>
       <c r="E69">
-        <v>3.314533550222835E-52</v>
+        <v>3.3145335499535311E-52</v>
       </c>
       <c r="F69">
-        <v>18.1165151168626</v>
+        <v>18.116515116866619</v>
       </c>
       <c r="G69">
-        <v>23.478486763406</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>23.478486763409052</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B70">
-        <v>-3.025101908236352</v>
+        <v>-3.0251019082164672</v>
       </c>
       <c r="C70">
-        <v>6.259460481682114</v>
+        <v>6.2594604816812431</v>
       </c>
       <c r="D70">
-        <v>-0.4832847682462582</v>
+        <v>-0.48328476824314859</v>
       </c>
       <c r="E70">
-        <v>0.6288935536633404</v>
+        <v>0.628893553665548</v>
       </c>
       <c r="F70">
-        <v>-15.29341901498503</v>
+        <v>-15.29341901496344</v>
       </c>
       <c r="G70">
-        <v>9.243215198512328</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>9.2432151985305087</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B71">
-        <v>-1.987729632128293</v>
+        <v>-1.9877296321348079</v>
       </c>
       <c r="C71">
-        <v>5.027816979691887</v>
+        <v>5.0278169796917043</v>
       </c>
       <c r="D71">
-        <v>-0.3953464575494759</v>
+        <v>-0.39534645755078618</v>
       </c>
       <c r="E71">
-        <v>0.6925872178572428</v>
+        <v>0.69258721785627597</v>
       </c>
       <c r="F71">
-        <v>-11.84206983318334</v>
+        <v>-11.8420698331895</v>
       </c>
       <c r="G71">
-        <v>7.866610568926758</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>7.8666105689198851</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B72">
-        <v>-4.1630603360223</v>
+        <v>-4.1630603360198473</v>
       </c>
       <c r="C72">
-        <v>1.328400766291057</v>
+        <v>1.3284007662910171</v>
       </c>
       <c r="D72">
-        <v>-3.133888839620075</v>
+        <v>-3.133888839618324</v>
       </c>
       <c r="E72">
-        <v>0.001725061923744989</v>
+        <v>1.725061923755286E-3</v>
       </c>
       <c r="F72">
-        <v>-6.76667799498818</v>
+        <v>-6.7666779949856499</v>
       </c>
       <c r="G72">
-        <v>-1.559442677056419</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-1.559442677054045</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.975716224184727</v>
+        <v>-0.97571622418212467</v>
       </c>
       <c r="C73">
-        <v>1.7113877623266</v>
+        <v>1.711387762326593</v>
       </c>
       <c r="D73">
-        <v>-0.5701315889148693</v>
+        <v>-0.57013158891335081</v>
       </c>
       <c r="E73">
-        <v>0.5685884514391901</v>
+        <v>0.56858845144021997</v>
       </c>
       <c r="F73">
-        <v>-4.329974601927457</v>
+        <v>-4.3299746019248424</v>
       </c>
       <c r="G73">
-        <v>2.378542153558003</v>
+        <v>2.3785421535605922</v>
       </c>
     </row>
   </sheetData>

--- a/Presentacion 1/resultados_regresion_pisa.xlsx
+++ b/Presentacion 1/resultados_regresion_pisa.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESTEFANO\Documents\GitHub\Big-Data-y-Machine-Learning\Presentacion 1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Resultados_Lengua" sheetId="2" r:id="rId2"/>
     <sheet name="Resultados_Ciencias" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="78">
   <si>
     <t>coef</t>
   </si>
@@ -179,33 +174,33 @@
     <t>MISCED</t>
   </si>
   <si>
+    <t>ICTRES</t>
+  </si>
+  <si>
+    <t>HOMEPOS</t>
+  </si>
+  <si>
+    <t>ESCS</t>
+  </si>
+  <si>
     <t>FISCED</t>
   </si>
   <si>
+    <t>PAREDINT</t>
+  </si>
+  <si>
+    <t>BMMJ1</t>
+  </si>
+  <si>
+    <t>BFMJ2</t>
+  </si>
+  <si>
+    <t>HISEI</t>
+  </si>
+  <si>
     <t>HISCED</t>
   </si>
   <si>
-    <t>PAREDINT</t>
-  </si>
-  <si>
-    <t>BMMJ1</t>
-  </si>
-  <si>
-    <t>BFMJ2</t>
-  </si>
-  <si>
-    <t>HISEI</t>
-  </si>
-  <si>
-    <t>ICTRES</t>
-  </si>
-  <si>
-    <t>HOMEPOS</t>
-  </si>
-  <si>
-    <t>ESCS</t>
-  </si>
-  <si>
     <t>CNT_BRA</t>
   </si>
   <si>
@@ -255,16 +250,13 @@
   </si>
   <si>
     <t>TARDYSD_2</t>
-  </si>
-  <si>
-    <t>variable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,19 +319,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -381,7 +365,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,10 +397,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,7 +431,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -624,19 +606,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>78</v>
-      </c>
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,1479 +633,1479 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>19899.294491998851</v>
+        <v>19899.29449173898</v>
       </c>
       <c r="C2">
-        <v>52832.600970490646</v>
+        <v>52832.60097050513</v>
       </c>
       <c r="D2">
-        <v>0.376648018959231</v>
+        <v>0.3766480189542091</v>
       </c>
       <c r="E2">
-        <v>0.70643519737126348</v>
+        <v>0.706435197374996</v>
       </c>
       <c r="F2">
-        <v>-83650.700619738738</v>
+        <v>-83650.70062002698</v>
       </c>
       <c r="G2">
-        <v>123449.2896037364</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>123449.2896035049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>3.0502675063169669</v>
+        <v>3.050267506355613</v>
       </c>
       <c r="C3">
-        <v>1.897069903814669</v>
+        <v>1.897069903815169</v>
       </c>
       <c r="D3">
-        <v>1.60788355778742</v>
+        <v>1.607883557807367</v>
       </c>
       <c r="E3">
-        <v>0.1078606835471258</v>
+        <v>0.1078606835427562</v>
       </c>
       <c r="F3">
-        <v>-0.66792118131464795</v>
+        <v>-0.667921181276983</v>
       </c>
       <c r="G3">
-        <v>6.7684561939485821</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.768456193988209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>7.2264344266714424</v>
+        <v>7.226434426674202</v>
       </c>
       <c r="C4">
-        <v>1.469167305555751</v>
+        <v>1.469167305558244</v>
       </c>
       <c r="D4">
-        <v>4.9187280436640624</v>
+        <v>4.918728043657596</v>
       </c>
       <c r="E4">
-        <v>8.7108393812880585E-7</v>
+        <v>8.710839381575769E-07</v>
       </c>
       <c r="F4">
-        <v>4.3469194205184163</v>
+        <v>4.346919420516292</v>
       </c>
       <c r="G4">
-        <v>10.10594943282447</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10.10594943283211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>3.4679452410095957E-2</v>
+        <v>0.03467945240942732</v>
       </c>
       <c r="C5">
-        <v>2.7548020877836671E-2</v>
+        <v>0.02754802087782661</v>
       </c>
       <c r="D5">
-        <v>1.258872735863096</v>
+        <v>1.258872735839285</v>
       </c>
       <c r="E5">
-        <v>0.2080763029750147</v>
+        <v>0.2080763029836169</v>
       </c>
       <c r="F5">
-        <v>-1.9313676355821409E-2</v>
+        <v>-0.01931367635647033</v>
       </c>
       <c r="G5">
-        <v>8.8672581176013315E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.08867258117532496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-20.569895034474069</v>
+        <v>-20.56989503449755</v>
       </c>
       <c r="C6">
-        <v>2.212786790384468</v>
+        <v>2.212786790383825</v>
       </c>
       <c r="D6">
-        <v>-9.295922735918035</v>
+        <v>-9.295922735931345</v>
       </c>
       <c r="E6">
-        <v>1.4593480507050929E-20</v>
+        <v>1.459348050522479E-20</v>
       </c>
       <c r="F6">
-        <v>-24.90687744909361</v>
+        <v>-24.90687744911583</v>
       </c>
       <c r="G6">
-        <v>-16.232912619854531</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-16.23291261987927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-8.5896324680933258</v>
+        <v>-8.589632468104348</v>
       </c>
       <c r="C7">
-        <v>1.986441063171257</v>
+        <v>1.986441063172187</v>
       </c>
       <c r="D7">
-        <v>-4.3241315472911106</v>
+        <v>-4.324131547294635</v>
       </c>
       <c r="E7">
-        <v>1.5313390490448838E-5</v>
+        <v>1.53133904902041E-05</v>
       </c>
       <c r="F7">
-        <v>-12.48298540932044</v>
+        <v>-12.48298540933329</v>
       </c>
       <c r="G7">
-        <v>-4.6962795268662081</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-4.696279526875408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-2.853823463553776</v>
+        <v>-2.853823463560081</v>
       </c>
       <c r="C8">
-        <v>1.162017944028229</v>
+        <v>1.162017944027832</v>
       </c>
       <c r="D8">
-        <v>-2.4559203050348479</v>
+        <v>-2.455920305041114</v>
       </c>
       <c r="E8">
-        <v>1.405243172701879E-2</v>
+        <v>0.01405243172677378</v>
       </c>
       <c r="F8">
-        <v>-5.1313367832383854</v>
+        <v>-5.131336783243912</v>
       </c>
       <c r="G8">
-        <v>-0.57631014386916624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-0.5763101438762503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-2.0979470600630301</v>
+        <v>-2.097947060063674</v>
       </c>
       <c r="C9">
-        <v>0.15624222052896369</v>
+        <v>0.1562422205283867</v>
       </c>
       <c r="D9">
-        <v>-13.427529722506209</v>
+        <v>-13.42752972255992</v>
       </c>
       <c r="E9">
-        <v>4.1709411407035938E-41</v>
+        <v>4.170941137678766E-41</v>
       </c>
       <c r="F9">
-        <v>-2.404176185164363</v>
+        <v>-2.404176185163877</v>
       </c>
       <c r="G9">
-        <v>-1.791717934961697</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1.791717934963472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-1.502153732786478</v>
+        <v>-1.502153732785934</v>
       </c>
       <c r="C10">
-        <v>0.19529341536097569</v>
+        <v>0.1952934153600327</v>
       </c>
       <c r="D10">
-        <v>-7.6917787013450116</v>
+        <v>-7.691778701379368</v>
       </c>
       <c r="E10">
-        <v>1.4510344142265199E-14</v>
+        <v>1.451034413836789E-14</v>
       </c>
       <c r="F10">
-        <v>-1.884921793311811</v>
+        <v>-1.88492179330942</v>
       </c>
       <c r="G10">
-        <v>-1.1193856722611439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1.119385672262448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-2.4445931090386321</v>
+        <v>-2.444593109035213</v>
       </c>
       <c r="C11">
-        <v>0.18367743019427049</v>
+        <v>0.183677430194968</v>
       </c>
       <c r="D11">
-        <v>-13.30916436740787</v>
+        <v>-13.30916436733872</v>
       </c>
       <c r="E11">
-        <v>2.047590089153678E-40</v>
+        <v>2.047590091048704E-40</v>
       </c>
       <c r="F11">
-        <v>-2.8045942569922722</v>
+        <v>-2.80459425699022</v>
       </c>
       <c r="G11">
-        <v>-2.0845919610849921</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-2.084591961080206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.53224478087063953</v>
+        <v>-0.532244780872283</v>
       </c>
       <c r="C12">
-        <v>0.1589544089664803</v>
+        <v>0.1589544089657837</v>
       </c>
       <c r="D12">
-        <v>-3.348411562354821</v>
+        <v>-3.348411562379835</v>
       </c>
       <c r="E12">
-        <v>8.1276215944074866E-4</v>
+        <v>0.0008127621593673817</v>
       </c>
       <c r="F12">
-        <v>-0.84378969762879164</v>
+        <v>-0.8437896976290696</v>
       </c>
       <c r="G12">
-        <v>-0.2206998641124874</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-0.2206998641154964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B13">
-        <v>1.9176132275517239</v>
+        <v>1.917613227551141</v>
       </c>
       <c r="C13">
-        <v>0.32448869310875661</v>
+        <v>0.3244886931059306</v>
       </c>
       <c r="D13">
-        <v>5.909645754309877</v>
+        <v>5.909645754359548</v>
       </c>
       <c r="E13">
-        <v>3.4284420741720311E-9</v>
+        <v>3.428442073138285E-09</v>
       </c>
       <c r="F13">
-        <v>1.281627075668091</v>
+        <v>1.281627075673046</v>
       </c>
       <c r="G13">
-        <v>2.553599379435358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.553599379429235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>7.8602043722250698</v>
+        <v>7.860204372233368</v>
       </c>
       <c r="C14">
-        <v>1.672882273151876</v>
+        <v>1.672882273154196</v>
       </c>
       <c r="D14">
-        <v>4.6985998347723941</v>
+        <v>4.698599834770838</v>
       </c>
       <c r="E14">
-        <v>2.6195113390609299E-6</v>
+        <v>2.619511339080881E-06</v>
       </c>
       <c r="F14">
-        <v>4.5814153664718962</v>
+        <v>4.581415366475648</v>
       </c>
       <c r="G14">
-        <v>11.13899337797824</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11.13899337799109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15">
-        <v>13.006124321638961</v>
+        <v>13.00612432163743</v>
       </c>
       <c r="C15">
-        <v>1.90501112731709</v>
+        <v>1.905011127319159</v>
       </c>
       <c r="D15">
-        <v>6.8273219694816429</v>
+        <v>6.827321969473424</v>
       </c>
       <c r="E15">
-        <v>8.6514385993403515E-12</v>
+        <v>8.651438599835873E-12</v>
       </c>
       <c r="F15">
-        <v>9.2723711219494138</v>
+        <v>9.272371121943829</v>
       </c>
       <c r="G15">
-        <v>16.739877521328498</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16.73987752133103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16">
-        <v>-5.1979288776161274</v>
+        <v>-5.197928877641806</v>
       </c>
       <c r="C16">
-        <v>2.4729416919181331</v>
+        <v>2.472941691917225</v>
       </c>
       <c r="D16">
-        <v>-2.1019213249562561</v>
+        <v>-2.101921324967412</v>
       </c>
       <c r="E16">
-        <v>3.5560168176416863E-2</v>
+        <v>0.03556016817543948</v>
       </c>
       <c r="F16">
-        <v>-10.044805529643209</v>
+        <v>-10.04480552966711</v>
       </c>
       <c r="G16">
-        <v>-0.35105222558904092</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-0.3510522256164998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B17">
-        <v>1.1147162170760989</v>
+        <v>1.114716217077709</v>
       </c>
       <c r="C17">
-        <v>0.41828786184271222</v>
+        <v>0.4182878618396187</v>
       </c>
       <c r="D17">
-        <v>2.6649499513692869</v>
+        <v>2.664949951392844</v>
       </c>
       <c r="E17">
-        <v>7.6999781404307301E-3</v>
+        <v>0.007699978139891348</v>
       </c>
       <c r="F17">
-        <v>0.29488707269411712</v>
+        <v>0.2948870727017898</v>
       </c>
       <c r="G17">
-        <v>1.934545361458081</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.934545361453627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B18">
-        <v>0.2075767628653318</v>
+        <v>0.2075767628636044</v>
       </c>
       <c r="C18">
-        <v>3.0637557642292881E-2</v>
+        <v>0.03063755764214895</v>
       </c>
       <c r="D18">
-        <v>6.7752385907807282</v>
+        <v>6.775238590756176</v>
       </c>
       <c r="E18">
-        <v>1.24201120705571E-11</v>
+        <v>1.242011207266641E-11</v>
       </c>
       <c r="F18">
-        <v>0.14752825331216779</v>
+        <v>0.1475282533107226</v>
       </c>
       <c r="G18">
-        <v>0.26762527241849571</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.2676252724164863</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B19">
-        <v>0.84403113195979707</v>
+        <v>0.8440311319622225</v>
       </c>
       <c r="C19">
-        <v>0.59426379069734248</v>
+        <v>0.5942637906925935</v>
       </c>
       <c r="D19">
-        <v>1.4202970888893689</v>
+        <v>1.420297088904801</v>
       </c>
       <c r="E19">
-        <v>0.15552120832415961</v>
+        <v>0.1555212083196688</v>
       </c>
       <c r="F19">
-        <v>-0.32070449512324289</v>
+        <v>-0.3207044951115097</v>
       </c>
       <c r="G19">
-        <v>2.0087667590428371</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.008766759035955</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B20">
-        <v>1.922661384972858</v>
+        <v>1.922661384972948</v>
       </c>
       <c r="C20">
-        <v>0.58927825542650569</v>
+        <v>0.5892782554228052</v>
       </c>
       <c r="D20">
-        <v>3.26273940581989</v>
+        <v>3.262739405840531</v>
       </c>
       <c r="E20">
-        <v>1.1034093110037231E-3</v>
+        <v>0.001103409310923361</v>
       </c>
       <c r="F20">
-        <v>0.76769722746431257</v>
+        <v>0.7676972274716551</v>
       </c>
       <c r="G20">
-        <v>3.0776255424814041</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.077625542474241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B21">
-        <v>9.2552256170316038E-2</v>
+        <v>0.09255225616716745</v>
       </c>
       <c r="C21">
-        <v>0.58709811011974578</v>
+        <v>0.5870981101169495</v>
       </c>
       <c r="D21">
-        <v>0.1576435941029326</v>
+        <v>0.1576435940983205</v>
       </c>
       <c r="E21">
-        <v>0.87473764992456404</v>
+        <v>0.8747376499281985</v>
       </c>
       <c r="F21">
-        <v>-1.0581388950559161</v>
+        <v>-1.058138895053584</v>
       </c>
       <c r="G21">
-        <v>1.2432434073965479</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.243243407387919</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.89251130877438989</v>
+        <v>-0.8925113087745897</v>
       </c>
       <c r="C22">
-        <v>0.56830689722741179</v>
+        <v>0.5683068972253758</v>
       </c>
       <c r="D22">
-        <v>-1.570474180638433</v>
+        <v>-1.570474180644411</v>
       </c>
       <c r="E22">
-        <v>0.1163048365530107</v>
+        <v>0.116304836551621</v>
       </c>
       <c r="F22">
-        <v>-2.0063723595058232</v>
+        <v>-2.006372359502032</v>
       </c>
       <c r="G22">
-        <v>0.22134974195704321</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.2213497419528527</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B23">
-        <v>-3.5567721275764819</v>
+        <v>-3.556772127575423</v>
       </c>
       <c r="C23">
-        <v>0.5812241067646704</v>
+        <v>0.5812241067629444</v>
       </c>
       <c r="D23">
-        <v>-6.1194504601244457</v>
+        <v>-6.119450460140795</v>
       </c>
       <c r="E23">
-        <v>9.3898616122532532E-10</v>
+        <v>9.389861611289919E-10</v>
       </c>
       <c r="F23">
-        <v>-4.6959504437816992</v>
+        <v>-4.695950443777257</v>
       </c>
       <c r="G23">
-        <v>-2.4175938113712649</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-2.417593811373589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B24">
-        <v>1.50240468689588</v>
+        <v>1.502404686896801</v>
       </c>
       <c r="C24">
-        <v>0.57519684742058963</v>
+        <v>0.5751968474188672</v>
       </c>
       <c r="D24">
-        <v>2.611983521177589</v>
+        <v>2.611983521187011</v>
       </c>
       <c r="E24">
-        <v>9.0018593028092422E-3</v>
+        <v>0.009001859302561133</v>
       </c>
       <c r="F24">
-        <v>0.37503958193054338</v>
+        <v>0.3750395819348402</v>
       </c>
       <c r="G24">
-        <v>2.6297697918612162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.629769791858761</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B25">
-        <v>3.076141171673723</v>
+        <v>3.076141171672902</v>
       </c>
       <c r="C25">
-        <v>0.59989727026296435</v>
+        <v>0.5998972702615566</v>
       </c>
       <c r="D25">
-        <v>5.1277799119260861</v>
+        <v>5.127779911936751</v>
       </c>
       <c r="E25">
-        <v>2.931788905352644E-7</v>
+        <v>2.931788905186597E-07</v>
       </c>
       <c r="F25">
-        <v>1.9003641275344221</v>
+        <v>1.90036412753636</v>
       </c>
       <c r="G25">
-        <v>4.2519182158130242</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.251918215809445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B26">
-        <v>0.6806364485870029</v>
+        <v>0.6806364485867453</v>
       </c>
       <c r="C26">
-        <v>0.54730024079145878</v>
+        <v>0.5473002407902415</v>
       </c>
       <c r="D26">
-        <v>1.243625341006108</v>
+        <v>1.243625341008403</v>
       </c>
       <c r="E26">
-        <v>0.2136374851531733</v>
+        <v>0.2136374851523281</v>
       </c>
       <c r="F26">
-        <v>-0.39205231209435581</v>
+        <v>-0.3920523120922275</v>
       </c>
       <c r="G26">
-        <v>1.753325209268362</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.753325209265718</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B27">
-        <v>4.73784500529763</v>
+        <v>4.737845005298258</v>
       </c>
       <c r="C27">
-        <v>0.5664469078169414</v>
+        <v>0.5664469078188293</v>
       </c>
       <c r="D27">
-        <v>8.3641466480187034</v>
+        <v>8.364146647991936</v>
       </c>
       <c r="E27">
-        <v>6.0551568911752767E-17</v>
+        <v>6.05515689254984E-17</v>
       </c>
       <c r="F27">
-        <v>3.627629466822345</v>
+        <v>3.627629466819273</v>
       </c>
       <c r="G27">
-        <v>5.848060543772915</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.848060543777243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B28">
-        <v>-3.0856205206724572</v>
+        <v>-3.085620520673267</v>
       </c>
       <c r="C28">
-        <v>0.5544825373650788</v>
+        <v>0.5544825373611312</v>
       </c>
       <c r="D28">
-        <v>-5.5648650998739084</v>
+        <v>-5.564865099914988</v>
       </c>
       <c r="E28">
-        <v>2.6235528782618089E-8</v>
+        <v>2.623552877643762E-08</v>
       </c>
       <c r="F28">
-        <v>-4.1723863239643961</v>
+        <v>-4.172386323957469</v>
       </c>
       <c r="G28">
-        <v>-1.998854717380518</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1.998854717389065</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B29">
-        <v>-3.3128330290418608</v>
+        <v>-3.312833029040942</v>
       </c>
       <c r="C29">
-        <v>0.52229743714184751</v>
+        <v>0.5222974371378318</v>
       </c>
       <c r="D29">
-        <v>-6.3428092758229431</v>
+        <v>-6.342809275869949</v>
       </c>
       <c r="E29">
-        <v>2.256126740989167E-10</v>
+        <v>2.256126740300524E-10</v>
       </c>
       <c r="F29">
-        <v>-4.3365171950574544</v>
+        <v>-4.336517195048665</v>
       </c>
       <c r="G29">
-        <v>-2.2891488630262669</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-2.289148863033218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B30">
-        <v>0.76087919903013934</v>
+        <v>0.7608791990298209</v>
       </c>
       <c r="C30">
-        <v>0.62862926297480504</v>
+        <v>0.628629262972049</v>
       </c>
       <c r="D30">
-        <v>1.210378268789938</v>
+        <v>1.210378268794738</v>
       </c>
       <c r="E30">
-        <v>0.22613377668704979</v>
+        <v>0.2261337766852088</v>
       </c>
       <c r="F30">
-        <v>-0.47121151602843692</v>
+        <v>-0.4712115160233536</v>
       </c>
       <c r="G30">
-        <v>1.992969914088716</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.992969914082996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B31">
-        <v>-1.162795787913351</v>
+        <v>-1.162795787914468</v>
       </c>
       <c r="C31">
-        <v>0.53918688584525409</v>
+        <v>0.5391868858424588</v>
       </c>
       <c r="D31">
-        <v>-2.1565728292714299</v>
+        <v>-2.156572829284681</v>
       </c>
       <c r="E31">
-        <v>3.1038963485719131E-2</v>
+        <v>0.03103896348468574</v>
       </c>
       <c r="F31">
-        <v>-2.2195826651063588</v>
+        <v>-2.219582665101997</v>
       </c>
       <c r="G31">
-        <v>-0.1060089107203437</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-0.1060089107269389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B32">
-        <v>3.8252686202931478</v>
+        <v>3.825268620294275</v>
       </c>
       <c r="C32">
-        <v>0.63743893375285454</v>
+        <v>0.6374389337463124</v>
       </c>
       <c r="D32">
-        <v>6.0009962017416818</v>
+        <v>6.000996201805039</v>
       </c>
       <c r="E32">
-        <v>1.9611057888286408E-9</v>
+        <v>1.961105788063332E-09</v>
       </c>
       <c r="F32">
-        <v>2.57591126779394</v>
+        <v>2.575911267807889</v>
       </c>
       <c r="G32">
-        <v>5.0746259727923562</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.074625972780661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B33">
-        <v>-5.6534367354171877</v>
+        <v>-5.653436735416928</v>
       </c>
       <c r="C33">
-        <v>0.66865578353027777</v>
+        <v>0.6686557835263889</v>
       </c>
       <c r="D33">
-        <v>-8.4549283423063244</v>
+        <v>-8.45492834235511</v>
       </c>
       <c r="E33">
-        <v>2.7925879580853538E-17</v>
+        <v>2.792587956917765E-17</v>
       </c>
       <c r="F33">
-        <v>-6.9639779891909424</v>
+        <v>-6.963977989183062</v>
       </c>
       <c r="G33">
-        <v>-4.3428954816434331</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-4.342895481650795</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B34">
-        <v>0.2313228997297658</v>
+        <v>0.2313228997287942</v>
       </c>
       <c r="C34">
-        <v>0.64885920713570933</v>
+        <v>0.648859207131705</v>
       </c>
       <c r="D34">
-        <v>0.35650707763076328</v>
+        <v>0.3565070776314659</v>
       </c>
       <c r="E34">
-        <v>0.72146085265493032</v>
+        <v>0.7214608526544042</v>
       </c>
       <c r="F34">
-        <v>-1.0404177772934391</v>
+        <v>-1.040417777286563</v>
       </c>
       <c r="G34">
-        <v>1.503063576752971</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.503063576744151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B35">
-        <v>-2.4980609661599971</v>
+        <v>-2.498060966159343</v>
       </c>
       <c r="C35">
-        <v>0.6131787786974604</v>
+        <v>0.613178778691985</v>
       </c>
       <c r="D35">
-        <v>-4.0739520886004588</v>
+        <v>-4.073952088635771</v>
       </c>
       <c r="E35">
-        <v>4.6221994455444089E-5</v>
+        <v>4.622199444843191E-05</v>
       </c>
       <c r="F35">
-        <v>-3.6998692884912758</v>
+        <v>-3.69986928847989</v>
       </c>
       <c r="G35">
-        <v>-1.296252643828719</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1.296252643838796</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B36">
-        <v>13.70313261396999</v>
+        <v>13.70313261396953</v>
       </c>
       <c r="C36">
-        <v>0.6667537999781955</v>
+        <v>0.6667537999788142</v>
       </c>
       <c r="D36">
-        <v>20.552012773557671</v>
+        <v>20.5520127735379</v>
       </c>
       <c r="E36">
-        <v>7.383740329708718E-94</v>
+        <v>7.383740332714871E-94</v>
       </c>
       <c r="F36">
-        <v>12.3963191794575</v>
+        <v>12.39631917945583</v>
       </c>
       <c r="G36">
-        <v>15.009946048482471</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15.00994604848323</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B37">
-        <v>-3.0275058441837541</v>
+        <v>-3.027505844185291</v>
       </c>
       <c r="C37">
-        <v>0.7778296483166246</v>
+        <v>0.777829648313363</v>
       </c>
       <c r="D37">
-        <v>-3.8922479372390448</v>
+        <v>-3.892247937257342</v>
       </c>
       <c r="E37">
-        <v>9.9319667190698403E-5</v>
+        <v>9.931966718320583E-05</v>
       </c>
       <c r="F37">
-        <v>-4.552023940991794</v>
+        <v>-4.552023940986938</v>
       </c>
       <c r="G37">
-        <v>-1.5029877473757129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1.502987747383643</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B38">
-        <v>5.6441461985057106</v>
+        <v>5.644146198506284</v>
       </c>
       <c r="C38">
-        <v>0.42747297287651098</v>
+        <v>0.4274729728725531</v>
       </c>
       <c r="D38">
-        <v>13.20351591008351</v>
+        <v>13.2035159102071</v>
       </c>
       <c r="E38">
-        <v>8.3733738337831354E-40</v>
+        <v>8.373373820041445E-40</v>
       </c>
       <c r="F38">
-        <v>4.8063145673034819</v>
+        <v>4.806314567311813</v>
       </c>
       <c r="G38">
-        <v>6.4819778297079393</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.481977829700756</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B39">
-        <v>-6.3944563985619443</v>
+        <v>-6.394456398560134</v>
       </c>
       <c r="C39">
-        <v>0.54379642327271482</v>
+        <v>0.5437964232711364</v>
       </c>
       <c r="D39">
-        <v>-11.758915882672349</v>
+        <v>-11.75891588270316</v>
       </c>
       <c r="E39">
-        <v>6.3544967194229381E-32</v>
+        <v>6.354496717104797E-32</v>
       </c>
       <c r="F39">
-        <v>-7.4602778030981636</v>
+        <v>-7.460277803093261</v>
       </c>
       <c r="G39">
-        <v>-5.328634994025724</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-5.328634994027007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B40">
-        <v>3.5315512313682671</v>
+        <v>3.531551231368065</v>
       </c>
       <c r="C40">
-        <v>0.61590568589111361</v>
+        <v>0.6159056858877474</v>
       </c>
       <c r="D40">
-        <v>5.7339156177113333</v>
+        <v>5.733915617742343</v>
       </c>
       <c r="E40">
-        <v>9.8138169665582234E-9</v>
+        <v>9.813816964762978E-09</v>
       </c>
       <c r="F40">
-        <v>2.324398269148245</v>
+        <v>2.32439826915464</v>
       </c>
       <c r="G40">
-        <v>4.7387041935882888</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.738704193581489</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B41">
-        <v>-3.0020776352442411</v>
+        <v>-3.002077635243228</v>
       </c>
       <c r="C41">
-        <v>0.66584693301115661</v>
+        <v>0.6658469330081467</v>
       </c>
       <c r="D41">
-        <v>-4.5086603037547368</v>
+        <v>-4.508660303773596</v>
       </c>
       <c r="E41">
-        <v>6.5238266782796197E-6</v>
+        <v>6.523826677699799E-06</v>
       </c>
       <c r="F41">
-        <v>-4.3071136431625634</v>
+        <v>-4.30711364315565</v>
       </c>
       <c r="G41">
-        <v>-1.6970416273259199</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1.697041627330806</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B42">
-        <v>-3.8351516640508598</v>
+        <v>-3.835151664051489</v>
       </c>
       <c r="C42">
-        <v>0.66784983629216366</v>
+        <v>0.6678498362873437</v>
       </c>
       <c r="D42">
-        <v>-5.7425359049921214</v>
+        <v>-5.742535905034507</v>
       </c>
       <c r="E42">
-        <v>9.3269094001400208E-9</v>
+        <v>9.326909397804629E-09</v>
       </c>
       <c r="F42">
-        <v>-5.1441132902644719</v>
+        <v>-5.144113290255653</v>
       </c>
       <c r="G42">
-        <v>-2.5261900378372482</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-2.526190037847324</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B43">
-        <v>0.20402565463385189</v>
+        <v>0.2040256546345286</v>
       </c>
       <c r="C43">
-        <v>0.63852284272915372</v>
+        <v>0.638522842726603</v>
       </c>
       <c r="D43">
-        <v>0.31952757361320389</v>
+        <v>0.3195275736155401</v>
       </c>
       <c r="E43">
-        <v>0.74932648565557458</v>
+        <v>0.7493264856538033</v>
       </c>
       <c r="F43">
-        <v>-1.047456120421423</v>
+        <v>-1.047456120415747</v>
       </c>
       <c r="G43">
-        <v>1.4555074296891259</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.455507429684804</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B44">
-        <v>-6.2626665790014204</v>
+        <v>-6.262666579002539</v>
       </c>
       <c r="C44">
-        <v>0.51329350545556496</v>
+        <v>0.5132935054523229</v>
       </c>
       <c r="D44">
-        <v>-12.200946461309879</v>
+        <v>-12.20094646138913</v>
       </c>
       <c r="E44">
-        <v>3.0723190565321451E-34</v>
+        <v>3.072319053541891E-34</v>
       </c>
       <c r="F44">
-        <v>-7.2687033631926408</v>
+        <v>-7.268703363187406</v>
       </c>
       <c r="G44">
-        <v>-5.2566297948101983</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-5.256629794817671</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B45">
-        <v>2.6395379428645551</v>
+        <v>2.639537942865074</v>
       </c>
       <c r="C45">
-        <v>0.70877553257284998</v>
+        <v>0.7087755325706246</v>
       </c>
       <c r="D45">
-        <v>3.7240816331272781</v>
+        <v>3.724081633139702</v>
       </c>
       <c r="E45">
-        <v>1.9602749350299019E-4</v>
+        <v>0.0001960274934933375</v>
       </c>
       <c r="F45">
-        <v>1.250363425898573</v>
+        <v>1.250363425903454</v>
       </c>
       <c r="G45">
-        <v>4.0287124598305368</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.028712459826695</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B46">
-        <v>1.166561984965258</v>
+        <v>1.166561984964936</v>
       </c>
       <c r="C46">
-        <v>0.65841591947675082</v>
+        <v>0.6584159194745861</v>
       </c>
       <c r="D46">
-        <v>1.771770624702294</v>
+        <v>1.771770624707629</v>
       </c>
       <c r="E46">
-        <v>7.6432640657715462E-2</v>
+        <v>0.07643264065682955</v>
       </c>
       <c r="F46">
-        <v>-0.12390950405699749</v>
+        <v>-0.1239095040530775</v>
       </c>
       <c r="G46">
-        <v>2.4570334739875141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.457033473982949</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B47">
-        <v>0.99979749297053055</v>
+        <v>0.9997974929731019</v>
       </c>
       <c r="C47">
-        <v>0.38460086369067831</v>
+        <v>0.3846008636901118</v>
       </c>
       <c r="D47">
-        <v>2.5995716270014269</v>
+        <v>2.599571627011942</v>
       </c>
       <c r="E47">
-        <v>9.3340196845638265E-3</v>
+        <v>0.009334019684277869</v>
       </c>
       <c r="F47">
-        <v>0.24599365171380261</v>
+        <v>0.2459936517174843</v>
       </c>
       <c r="G47">
-        <v>1.7536013342272589</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.75360133422872</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B48">
-        <v>1.4434337856464541</v>
+        <v>-4.002128774383032</v>
       </c>
       <c r="C48">
-        <v>0.3403217993632755</v>
+        <v>1.052297075372426</v>
       </c>
       <c r="D48">
-        <v>4.2413791545150632</v>
+        <v>-3.80323092028609</v>
       </c>
       <c r="E48">
-        <v>2.2215049033842579E-5</v>
+        <v>0.0001428211102009544</v>
       </c>
       <c r="F48">
-        <v>0.77641531574056799</v>
+        <v>-6.064593143149818</v>
       </c>
       <c r="G48">
-        <v>2.1104522555523411</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1.939664405616247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B49">
-        <v>-8.0929205629749514</v>
+        <v>-2408.679209370808</v>
       </c>
       <c r="C49">
-        <v>0.83651909274710678</v>
+        <v>6551.102367613699</v>
       </c>
       <c r="D49">
-        <v>-9.6745198443684206</v>
+        <v>-0.3676754039562035</v>
       </c>
       <c r="E49">
-        <v>3.86903522836111E-22</v>
+        <v>0.7131152826181411</v>
       </c>
       <c r="F49">
-        <v>-9.732467857139401</v>
+        <v>-15248.60390892874</v>
       </c>
       <c r="G49">
-        <v>-6.453373268810501</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10431.24549018712</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B50">
-        <v>-964.88864892430138</v>
+        <v>5730.845251956944</v>
       </c>
       <c r="C50">
-        <v>2617.7460602274082</v>
+        <v>15467.75344411995</v>
       </c>
       <c r="D50">
-        <v>-0.36859520622885772</v>
+        <v>0.3705027541756892</v>
       </c>
       <c r="E50">
-        <v>0.7124294692439912</v>
+        <v>0.7110079248075371</v>
       </c>
       <c r="F50">
-        <v>-6095.5766476416402</v>
+        <v>-24585.39442026353</v>
       </c>
       <c r="G50">
-        <v>4165.7993497930374</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36047.08492417742</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B51">
-        <v>0.28168109716700568</v>
+        <v>1.443433785645229</v>
       </c>
       <c r="C51">
-        <v>4.4663825407000923E-2</v>
+        <v>0.3403217993622408</v>
       </c>
       <c r="D51">
-        <v>6.3066943908224449</v>
+        <v>4.241379154524357</v>
       </c>
       <c r="E51">
-        <v>2.8505789761930518E-10</v>
+        <v>2.221504903292252E-05</v>
       </c>
       <c r="F51">
-        <v>0.19414160795749891</v>
+        <v>0.7764153157413705</v>
       </c>
       <c r="G51">
-        <v>0.36922058637651262</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.110452255549087</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B52">
-        <v>0.29475184555122158</v>
+        <v>-964.8886489116339</v>
       </c>
       <c r="C52">
-        <v>4.5725589531390692E-2</v>
+        <v>2617.746060228202</v>
       </c>
       <c r="D52">
-        <v>6.4461026871807512</v>
+        <v>-0.3685952062239069</v>
       </c>
       <c r="E52">
-        <v>1.147629211586322E-10</v>
+        <v>0.7124294692476819</v>
       </c>
       <c r="F52">
-        <v>0.20513133689783411</v>
+        <v>-6095.57664763053</v>
       </c>
       <c r="G52">
-        <v>0.38437235420460908</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4165.799349807262</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B53">
-        <v>-108.29756215113299</v>
+        <v>0.281681097166257</v>
       </c>
       <c r="C53">
-        <v>292.05244276739433</v>
+        <v>0.04466382540699447</v>
       </c>
       <c r="D53">
-        <v>-0.37081546425340728</v>
+        <v>6.306694390806593</v>
       </c>
       <c r="E53">
-        <v>0.7107749824458488</v>
+        <v>2.850578976484876E-10</v>
       </c>
       <c r="F53">
-        <v>-680.70983157217108</v>
+        <v>0.1941416079567628</v>
       </c>
       <c r="G53">
-        <v>464.11470726990513</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.3692205863757512</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B54">
-        <v>-4.0021287743849996</v>
+        <v>0.2947518455513915</v>
       </c>
       <c r="C54">
-        <v>1.0522970753761449</v>
+        <v>0.04572558953132597</v>
       </c>
       <c r="D54">
-        <v>-3.803230920274518</v>
+        <v>6.446102687193592</v>
       </c>
       <c r="E54">
-        <v>1.4282111020762889E-4</v>
+        <v>1.14762921148914E-10</v>
       </c>
       <c r="F54">
-        <v>-6.064593143159076</v>
+        <v>0.2051313368981308</v>
       </c>
       <c r="G54">
-        <v>-1.9396644056109249</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.3843723542046522</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B55">
-        <v>-2408.6792094029638</v>
+        <v>-108.2975621497108</v>
       </c>
       <c r="C55">
-        <v>6551.1023676117347</v>
+        <v>292.0524427674789</v>
       </c>
       <c r="D55">
-        <v>-0.36767540396122228</v>
+        <v>-0.3708154642484301</v>
       </c>
       <c r="E55">
-        <v>0.71311528261439849</v>
+        <v>0.7107749824495562</v>
       </c>
       <c r="F55">
-        <v>-15248.60390895704</v>
+        <v>-680.7098315709148</v>
       </c>
       <c r="G55">
-        <v>10431.24549015111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>464.1147072714933</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B56">
-        <v>5730.8452520319297</v>
+        <v>-8.092920562974403</v>
       </c>
       <c r="C56">
-        <v>15467.753444115329</v>
+        <v>0.8365190927467735</v>
       </c>
       <c r="D56">
-        <v>0.37050275418064771</v>
+        <v>-9.674519844371618</v>
       </c>
       <c r="E56">
-        <v>0.71100792480384323</v>
+        <v>3.869035228240187E-22</v>
       </c>
       <c r="F56">
-        <v>-24585.394420179509</v>
+        <v>-9.7324678571382</v>
       </c>
       <c r="G56">
-        <v>36047.084924243361</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-6.453373268810605</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B57">
-        <v>-1.655761829887302</v>
+        <v>-1.655761829885458</v>
       </c>
       <c r="C57">
-        <v>1.8431375783734869</v>
+        <v>1.843137578373848</v>
       </c>
       <c r="D57">
-        <v>-0.89833870749272093</v>
+        <v>-0.8983387074915448</v>
       </c>
       <c r="E57">
-        <v>0.36900500240991557</v>
+        <v>0.3690050024105425</v>
       </c>
       <c r="F57">
-        <v>-5.2682451020517078</v>
+        <v>-5.268245102050571</v>
       </c>
       <c r="G57">
-        <v>1.956721442277104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.956721442279655</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B58">
-        <v>14.897255057810931</v>
+        <v>14.89725505780677</v>
       </c>
       <c r="C58">
-        <v>1.8943231425803959</v>
+        <v>1.894323142580167</v>
       </c>
       <c r="D58">
-        <v>7.8641572406270068</v>
+        <v>7.86415724062576</v>
       </c>
       <c r="E58">
-        <v>3.7159055507628704E-15</v>
+        <v>3.71590555079989E-15</v>
       </c>
       <c r="F58">
-        <v>11.18444992327262</v>
+        <v>11.1844499232689</v>
       </c>
       <c r="G58">
-        <v>18.610060192349241</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18.61006019234463</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B59">
-        <v>10.02006844035497</v>
+        <v>10.02006844035336</v>
       </c>
       <c r="C59">
-        <v>1.838377301043467</v>
+        <v>1.838377301044686</v>
       </c>
       <c r="D59">
-        <v>5.4504961710893411</v>
+        <v>5.45049617108485</v>
       </c>
       <c r="E59">
-        <v>5.0229484296831263E-8</v>
+        <v>5.022948429809997E-08</v>
       </c>
       <c r="F59">
-        <v>6.4169151403138294</v>
+        <v>6.416915140309827</v>
       </c>
       <c r="G59">
-        <v>13.62322174039612</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13.62322174039689</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B60">
-        <v>-4.9299729833170593E-13</v>
+        <v>1.138675899299891E-12</v>
       </c>
       <c r="C60">
-        <v>6.3844485108653034E-14</v>
+        <v>1.487478786663709E-13</v>
       </c>
       <c r="D60">
-        <v>-7.721846256457451</v>
+        <v>7.655073198414112</v>
       </c>
       <c r="E60">
-        <v>1.1465664234153269E-14</v>
+        <v>1.932021638700435E-14</v>
       </c>
       <c r="F60">
-        <v>-6.1813018975616967E-13</v>
+        <v>8.471354143370697E-13</v>
       </c>
       <c r="G60">
-        <v>-3.6786440690724218E-13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.430216384262711E-12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B61">
-        <v>-8.2672268381923234E-13</v>
+        <v>4.880042605468956E-13</v>
       </c>
       <c r="C61">
-        <v>1.081712341076664E-13</v>
+        <v>6.366758460020916E-14</v>
       </c>
       <c r="D61">
-        <v>-7.6427221214502197</v>
+        <v>7.664877874843903</v>
       </c>
       <c r="E61">
-        <v>2.1267666355991161E-14</v>
+        <v>1.790014432739207E-14</v>
       </c>
       <c r="F61">
-        <v>-1.038734406833509E-12</v>
+        <v>3.632180877478286E-13</v>
       </c>
       <c r="G61">
-        <v>-6.1471096080495553E-13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.127904333459625E-13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B62">
-        <v>4.6363952038173553E-14</v>
+        <v>-7.134653212740888E-16</v>
       </c>
       <c r="C62">
-        <v>5.787606900858963E-15</v>
+        <v>2.340306269568803E-16</v>
       </c>
       <c r="D62">
-        <v>8.010902058896308</v>
+        <v>-3.048598085435815</v>
       </c>
       <c r="E62">
-        <v>1.138701075366372E-15</v>
+        <v>0.002299118450153867</v>
       </c>
       <c r="F62">
-        <v>3.5020450955814499E-14</v>
+        <v>-1.172156921388903E-15</v>
       </c>
       <c r="G62">
-        <v>5.7707453120532594E-14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-2.547737211592747E-16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B63">
-        <v>-8.7254798821909389E-15</v>
+        <v>1.936746696339724E-14</v>
       </c>
       <c r="C63">
-        <v>1.108071004648316E-15</v>
+        <v>2.401254284346963E-15</v>
       </c>
       <c r="D63">
-        <v>-7.8744772181456577</v>
+        <v>8.06556268931941</v>
       </c>
       <c r="E63">
-        <v>3.4217054519062439E-15</v>
+        <v>7.289931684010516E-16</v>
       </c>
       <c r="F63">
-        <v>-1.0897259143614749E-14</v>
+        <v>1.46610950483547E-14</v>
       </c>
       <c r="G63">
-        <v>-6.5537006207671237E-15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.407383887843979E-14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B64">
-        <v>1.8718301531528761E-14</v>
+        <v>-2.806045934258968E-14</v>
       </c>
       <c r="C64">
-        <v>2.2584637373099419E-15</v>
+        <v>3.607180588813356E-15</v>
       </c>
       <c r="D64">
-        <v>8.2880682219074018</v>
+        <v>-7.779055872503642</v>
       </c>
       <c r="E64">
-        <v>1.1510255687624839E-16</v>
+        <v>7.306778849873732E-15</v>
       </c>
       <c r="F64">
-        <v>1.429179394601154E-14</v>
+        <v>-3.513040338239585E-14</v>
       </c>
       <c r="G64">
-        <v>2.3144809117045979E-14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-2.099051530278352E-14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B65">
-        <v>10.22022851176458</v>
+        <v>10.220228511765</v>
       </c>
       <c r="C65">
-        <v>1.9843143147368401</v>
+        <v>1.984314314736744</v>
       </c>
       <c r="D65">
-        <v>5.1505088865520703</v>
+        <v>5.15050888655253</v>
       </c>
       <c r="E65">
-        <v>2.5978062217890659E-7</v>
+        <v>2.59780622178269E-07</v>
       </c>
       <c r="F65">
-        <v>6.3310439208730944</v>
+        <v>6.3310439208737</v>
       </c>
       <c r="G65">
-        <v>14.10941310265606</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14.10941310265629</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
@@ -2145,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
@@ -2162,142 +2139,142 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B68">
-        <v>22.81984506110809</v>
+        <v>22.81984506110672</v>
       </c>
       <c r="C68">
-        <v>2.090855733847989</v>
+        <v>2.090855733849582</v>
       </c>
       <c r="D68">
-        <v>10.9141174552061</v>
+        <v>10.91411745519713</v>
       </c>
       <c r="E68">
-        <v>9.8683085879008395E-28</v>
+        <v>9.868308588875406E-28</v>
       </c>
       <c r="F68">
-        <v>18.721843125896971</v>
+        <v>18.72184312589247</v>
       </c>
       <c r="G68">
-        <v>26.917846996319209</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26.91784699632096</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B69">
-        <v>19.106415979354409</v>
+        <v>19.10641597935291</v>
       </c>
       <c r="C69">
-        <v>1.146573349257672</v>
+        <v>1.146573349256478</v>
       </c>
       <c r="D69">
-        <v>16.66392820984764</v>
+        <v>16.66392820986368</v>
       </c>
       <c r="E69">
-        <v>2.3974771621353531E-62</v>
+        <v>2.397477161492132E-62</v>
       </c>
       <c r="F69">
-        <v>16.859173509175911</v>
+        <v>16.85917350917675</v>
       </c>
       <c r="G69">
-        <v>21.353658449532912</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21.35365844952907</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B70">
-        <v>-3.1748011733464701</v>
+        <v>-3.174801173345916</v>
       </c>
       <c r="C70">
-        <v>4.9505490454085983</v>
+        <v>4.950549045411932</v>
       </c>
       <c r="D70">
-        <v>-0.64130284221523859</v>
+        <v>-0.6413028422146949</v>
       </c>
       <c r="E70">
-        <v>0.52132594297299506</v>
+        <v>0.5213259429733481</v>
       </c>
       <c r="F70">
-        <v>-12.87769900604647</v>
+        <v>-12.87769900605245</v>
       </c>
       <c r="G70">
-        <v>6.5280966593535279</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.528096659360616</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.37597330277639779</v>
+        <v>-0.3759733027763357</v>
       </c>
       <c r="C71">
-        <v>4.34083296648231</v>
+        <v>4.340832966482094</v>
       </c>
       <c r="D71">
-        <v>-8.6613169794707887E-2</v>
+        <v>-0.08661316979469787</v>
       </c>
       <c r="E71">
-        <v>0.93097899726069766</v>
+        <v>0.9309789972607057</v>
       </c>
       <c r="F71">
-        <v>-8.8838495799858883</v>
+        <v>-8.883849579985403</v>
       </c>
       <c r="G71">
-        <v>8.1319029744330926</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8.131902974432732</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B72">
-        <v>-4.2931454477981941</v>
+        <v>-4.293145447798818</v>
       </c>
       <c r="C72">
-        <v>1.1028661710911329</v>
+        <v>1.10286617109067</v>
       </c>
       <c r="D72">
-        <v>-3.8927165963851471</v>
+        <v>-3.892716596387347</v>
       </c>
       <c r="E72">
-        <v>9.9127929030180925E-5</v>
+        <v>9.91279290292814E-05</v>
       </c>
       <c r="F72">
-        <v>-6.4547234229044044</v>
+        <v>-6.45472342290412</v>
       </c>
       <c r="G72">
-        <v>-2.1315674726919842</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-2.131567472693515</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B73">
-        <v>-2.3782822076379522</v>
+        <v>-2.378282207638351</v>
       </c>
       <c r="C73">
-        <v>1.4530733365008679</v>
+        <v>1.453073336501763</v>
       </c>
       <c r="D73">
-        <v>-1.6367255168036261</v>
+        <v>-1.636725516802893</v>
       </c>
       <c r="E73">
-        <v>0.10168783482403861</v>
+        <v>0.1016878348241918</v>
       </c>
       <c r="F73">
-        <v>-5.2262536140751026</v>
+        <v>-5.226253614077257</v>
       </c>
       <c r="G73">
-        <v>0.46968919879919963</v>
+        <v>0.4696891988005545</v>
       </c>
     </row>
   </sheetData>
@@ -2306,14 +2283,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2333,1479 +2310,1479 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>44910.954392170417</v>
+        <v>44910.95439221087</v>
       </c>
       <c r="C2">
-        <v>66090.825648032711</v>
+        <v>66090.825648015</v>
       </c>
       <c r="D2">
-        <v>0.67953386800376969</v>
+        <v>0.6795338680045638</v>
       </c>
       <c r="E2">
-        <v>0.4967996558460418</v>
+        <v>0.4967996558455388</v>
       </c>
       <c r="F2">
-        <v>-84624.683586489773</v>
+        <v>-84624.68358641461</v>
       </c>
       <c r="G2">
-        <v>174446.59237083059</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>174446.5923708364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>2.7896290933968122</v>
+        <v>2.789629093484546</v>
       </c>
       <c r="C3">
-        <v>2.3561035361818381</v>
+        <v>2.356103536186463</v>
       </c>
       <c r="D3">
-        <v>1.184001063857117</v>
+        <v>1.18400106389203</v>
       </c>
       <c r="E3">
-        <v>0.23641264169042181</v>
+        <v>0.2364126416766015</v>
       </c>
       <c r="F3">
-        <v>-1.828248981367055</v>
+        <v>-1.828248981288386</v>
       </c>
       <c r="G3">
-        <v>7.4075071681606781</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.407507168257478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>7.9065916695502336</v>
+        <v>7.906591669555966</v>
       </c>
       <c r="C4">
-        <v>1.8286993904790529</v>
+        <v>1.828699390479311</v>
       </c>
       <c r="D4">
-        <v>4.3236147563208807</v>
+        <v>4.323614756323405</v>
       </c>
       <c r="E4">
-        <v>1.5349323741741001E-5</v>
+        <v>1.534932374156527E-05</v>
       </c>
       <c r="F4">
-        <v>4.3224067256609402</v>
+        <v>4.322406725666167</v>
       </c>
       <c r="G4">
-        <v>11.490776613439531</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11.49077661344576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>5.3516970486264227E-2</v>
+        <v>0.05351697048477517</v>
       </c>
       <c r="C5">
-        <v>3.5097309520180989E-2</v>
+        <v>0.03509730952012601</v>
       </c>
       <c r="D5">
-        <v>1.5248168938844699</v>
+        <v>1.524816893844432</v>
       </c>
       <c r="E5">
-        <v>0.12730477496526971</v>
+        <v>0.127304774975259</v>
       </c>
       <c r="F5">
-        <v>-1.527249212754527E-2</v>
+        <v>-0.01527249212892658</v>
       </c>
       <c r="G5">
-        <v>0.12230643310007371</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.1223064330984769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-23.111645026925199</v>
+        <v>-23.11164502697823</v>
       </c>
       <c r="C6">
-        <v>2.8877076445566252</v>
+        <v>2.887707644559251</v>
       </c>
       <c r="D6">
-        <v>-8.0034573688548498</v>
+        <v>-8.003457368865934</v>
       </c>
       <c r="E6">
-        <v>1.2097357644570049E-15</v>
+        <v>1.209735764348053E-15</v>
       </c>
       <c r="F6">
-        <v>-28.771448008137181</v>
+        <v>-28.77144800819535</v>
       </c>
       <c r="G6">
-        <v>-17.451842045713221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-17.45184204576111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-13.73176932813082</v>
+        <v>-13.73176932815565</v>
       </c>
       <c r="C7">
-        <v>2.582124279101468</v>
+        <v>2.582124279104101</v>
       </c>
       <c r="D7">
-        <v>-5.318012552404805</v>
+        <v>-5.318012552409002</v>
       </c>
       <c r="E7">
-        <v>1.049068334504139E-7</v>
+        <v>1.04906833447995E-07</v>
       </c>
       <c r="F7">
-        <v>-18.79263991877615</v>
+        <v>-18.79263991880614</v>
       </c>
       <c r="G7">
-        <v>-8.6708987374854871</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-8.670898737505166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-4.6861768686860383</v>
+        <v>-4.686176868700256</v>
       </c>
       <c r="C8">
-        <v>1.4824134062255321</v>
+        <v>1.482413406226195</v>
       </c>
       <c r="D8">
-        <v>-3.1611808480724788</v>
+        <v>-3.161180848080656</v>
       </c>
       <c r="E8">
-        <v>1.571309070330348E-3</v>
+        <v>0.001571309070286235</v>
       </c>
       <c r="F8">
-        <v>-7.5916537550874246</v>
+        <v>-7.591653755102943</v>
       </c>
       <c r="G8">
-        <v>-1.7806999822846521</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1.78069998229757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-2.9654291863549251</v>
+        <v>-2.96542918635638</v>
       </c>
       <c r="C9">
-        <v>0.19433767305554109</v>
+        <v>0.1943376730560945</v>
       </c>
       <c r="D9">
-        <v>-15.25915762872912</v>
+        <v>-15.25915762869315</v>
       </c>
       <c r="E9">
-        <v>1.430835150663632E-52</v>
+        <v>1.430835151452292E-52</v>
       </c>
       <c r="F9">
-        <v>-3.346324026383106</v>
+        <v>-3.346324026385645</v>
       </c>
       <c r="G9">
-        <v>-2.5845343463267452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-2.584534346327115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-1.1662870830429679</v>
+        <v>-1.166287083041692</v>
       </c>
       <c r="C10">
-        <v>0.24937934442149931</v>
+        <v>0.2493793444230413</v>
       </c>
       <c r="D10">
-        <v>-4.6767589583190077</v>
+        <v>-4.676758958284972</v>
       </c>
       <c r="E10">
-        <v>2.9144449444567062E-6</v>
+        <v>2.914444944940228E-06</v>
       </c>
       <c r="F10">
-        <v>-1.655061616597316</v>
+        <v>-1.655061616599062</v>
       </c>
       <c r="G10">
-        <v>-0.67751254948861983</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-0.6775125494843213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-3.252722111470296</v>
+        <v>-3.252722111462607</v>
       </c>
       <c r="C11">
-        <v>0.22989389901559221</v>
+        <v>0.2298938990154916</v>
       </c>
       <c r="D11">
-        <v>-14.14879701200633</v>
+        <v>-14.14879701197908</v>
       </c>
       <c r="E11">
-        <v>1.8997938675942869E-45</v>
+        <v>1.899793868330493E-45</v>
       </c>
       <c r="F11">
-        <v>-3.703305873806344</v>
+        <v>-3.703305873798459</v>
       </c>
       <c r="G11">
-        <v>-2.8021383491342471</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-2.802138349126756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.18720025880265029</v>
+        <v>-0.1872002588063857</v>
       </c>
       <c r="C12">
-        <v>0.19826915149237179</v>
+        <v>0.1982691514933226</v>
       </c>
       <c r="D12">
-        <v>-0.94417239088175875</v>
+        <v>-0.9441723908960714</v>
       </c>
       <c r="E12">
-        <v>0.34508156138362728</v>
+        <v>0.3450815613763144</v>
       </c>
       <c r="F12">
-        <v>-0.57580065497301502</v>
+        <v>-0.5758006549786139</v>
       </c>
       <c r="G12">
-        <v>0.20140013736771439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.2014001373658423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B13">
-        <v>2.0521559712016169</v>
+        <v>2.05215597120031</v>
       </c>
       <c r="C13">
-        <v>0.41012964920276962</v>
+        <v>0.4101296492058278</v>
       </c>
       <c r="D13">
-        <v>5.003676216022666</v>
+        <v>5.003676215982168</v>
       </c>
       <c r="E13">
-        <v>5.6247201295796231E-7</v>
+        <v>5.624720130761883E-07</v>
       </c>
       <c r="F13">
-        <v>1.248316629772142</v>
+        <v>1.248316629764842</v>
       </c>
       <c r="G13">
-        <v>2.8559953126310922</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.855995312635779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>0.73066888154742315</v>
+        <v>0.7306688815661122</v>
       </c>
       <c r="C14">
-        <v>2.046337669745335</v>
+        <v>2.046337669743624</v>
       </c>
       <c r="D14">
-        <v>0.35706173636453381</v>
+        <v>0.3570617363739653</v>
       </c>
       <c r="E14">
-        <v>0.72104558880127367</v>
+        <v>0.7210455887942131</v>
       </c>
       <c r="F14">
-        <v>-3.280079251361053</v>
+        <v>-3.28007925133901</v>
       </c>
       <c r="G14">
-        <v>4.7414170144558989</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.741417014471234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15">
-        <v>6.4368561811308833</v>
+        <v>6.436856181127391</v>
       </c>
       <c r="C15">
-        <v>2.3005557463097852</v>
+        <v>2.300555746309383</v>
       </c>
       <c r="D15">
-        <v>2.7979570551402402</v>
+        <v>2.797957055139211</v>
       </c>
       <c r="E15">
-        <v>5.1426949782650217E-3</v>
+        <v>0.005142694978281406</v>
       </c>
       <c r="F15">
-        <v>1.927849773937039</v>
+        <v>1.927849773934335</v>
       </c>
       <c r="G15">
-        <v>10.945862588324729</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10.94586258832045</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16">
-        <v>-8.3869250625961911</v>
+        <v>-8.386925062655862</v>
       </c>
       <c r="C16">
-        <v>3.0941045159440899</v>
+        <v>3.094104515942271</v>
       </c>
       <c r="D16">
-        <v>-2.710614660680629</v>
+        <v>-2.710614660701508</v>
       </c>
       <c r="E16">
-        <v>6.7158623994182246E-3</v>
+        <v>0.006715862398995372</v>
       </c>
       <c r="F16">
-        <v>-14.451258478249351</v>
+        <v>-14.45125847830545</v>
       </c>
       <c r="G16">
-        <v>-2.322591646943037</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-2.322591647006274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B17">
-        <v>0.96613174756152564</v>
+        <v>0.9661317475652821</v>
       </c>
       <c r="C17">
-        <v>0.53220888086203855</v>
+        <v>0.5322088808651632</v>
       </c>
       <c r="D17">
-        <v>1.815324362864156</v>
+        <v>1.815324362860556</v>
       </c>
       <c r="E17">
-        <v>6.9474077123690942E-2</v>
+        <v>0.0694740771242438</v>
       </c>
       <c r="F17">
-        <v>-7.6978491180438313E-2</v>
+        <v>-0.07697849118280609</v>
       </c>
       <c r="G17">
-        <v>2.0092419863034898</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.00924198631337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B18">
-        <v>0.28214830888576092</v>
+        <v>0.2821483088818503</v>
       </c>
       <c r="C18">
-        <v>3.8757947892217169E-2</v>
+        <v>0.03875794789213629</v>
       </c>
       <c r="D18">
-        <v>7.2797535532684394</v>
+        <v>7.279753553182732</v>
       </c>
       <c r="E18">
-        <v>3.3443055092980799E-13</v>
+        <v>3.344305511422659E-13</v>
       </c>
       <c r="F18">
-        <v>0.2061841269023352</v>
+        <v>0.2061841268985831</v>
       </c>
       <c r="G18">
-        <v>0.35811249086918667</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.3581124908651175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B19">
-        <v>0.58812041039086294</v>
+        <v>0.5881204103963189</v>
       </c>
       <c r="C19">
-        <v>0.75942066861627533</v>
+        <v>0.7594206686227893</v>
       </c>
       <c r="D19">
-        <v>0.77443297857887505</v>
+        <v>0.7744329785794166</v>
       </c>
       <c r="E19">
-        <v>0.43867478770639118</v>
+        <v>0.4386747877060709</v>
       </c>
       <c r="F19">
-        <v>-0.90031674921236393</v>
+        <v>-0.9003167492196753</v>
       </c>
       <c r="G19">
-        <v>2.0765575699940899</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.076557570012313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B20">
-        <v>1.3566944062441439</v>
+        <v>1.356694406244278</v>
       </c>
       <c r="C20">
-        <v>0.7471434658932774</v>
+        <v>0.7471434658994474</v>
       </c>
       <c r="D20">
-        <v>1.8158418940626</v>
+        <v>1.815841894047784</v>
       </c>
       <c r="E20">
-        <v>6.9394628749063283E-2</v>
+        <v>0.06939462875133663</v>
       </c>
       <c r="F20">
-        <v>-0.1076798781911097</v>
+        <v>-0.1076798782030686</v>
       </c>
       <c r="G20">
-        <v>2.821068690679398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.821068690691625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.43852417541426369</v>
+        <v>-0.4385241754214348</v>
       </c>
       <c r="C21">
-        <v>0.74090259795123703</v>
+        <v>0.7409025979559682</v>
       </c>
       <c r="D21">
-        <v>-0.59187830711740252</v>
+        <v>-0.5918783071233019</v>
       </c>
       <c r="E21">
-        <v>0.55393208107262226</v>
+        <v>0.5539320810686716</v>
       </c>
       <c r="F21">
-        <v>-1.890666583450848</v>
+        <v>-1.890666583467292</v>
       </c>
       <c r="G21">
-        <v>1.01361823262232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.013618232624422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B22">
-        <v>-3.731133732811573</v>
+        <v>-3.731133732812193</v>
       </c>
       <c r="C22">
-        <v>0.71788354697165713</v>
+        <v>0.7178835469742724</v>
       </c>
       <c r="D22">
-        <v>-5.1974080594980991</v>
+        <v>-5.197408059480029</v>
       </c>
       <c r="E22">
-        <v>2.0208643300940491E-7</v>
+        <v>2.020864330290426E-07</v>
       </c>
       <c r="F22">
-        <v>-5.1381596299698904</v>
+        <v>-5.138159629975635</v>
       </c>
       <c r="G22">
-        <v>-2.324107835653257</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-2.324107835648752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B23">
-        <v>-3.9391293679007719</v>
+        <v>-3.939129367898441</v>
       </c>
       <c r="C23">
-        <v>0.72875791051056171</v>
+        <v>0.7287579105140046</v>
       </c>
       <c r="D23">
-        <v>-5.4052646442507237</v>
+        <v>-5.405264644221989</v>
       </c>
       <c r="E23">
-        <v>6.4712773318594558E-8</v>
+        <v>6.47127733289693E-08</v>
       </c>
       <c r="F23">
-        <v>-5.3674686259501367</v>
+        <v>-5.367468625954555</v>
       </c>
       <c r="G23">
-        <v>-2.5107901098514072</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-2.510790109842329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B24">
-        <v>2.4023310542726919</v>
+        <v>2.402331054274789</v>
       </c>
       <c r="C24">
-        <v>0.71286048280698133</v>
+        <v>0.7128604828104739</v>
       </c>
       <c r="D24">
-        <v>3.3699876935430622</v>
+        <v>3.369987693529493</v>
       </c>
       <c r="E24">
-        <v>7.5171540767067285E-4</v>
+        <v>0.0007517154077076882</v>
       </c>
       <c r="F24">
-        <v>1.005150181969175</v>
+        <v>1.005150181964426</v>
       </c>
       <c r="G24">
-        <v>3.7995119265762098</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.799511926585152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B25">
-        <v>5.8272147638553742</v>
+        <v>5.827214763853659</v>
       </c>
       <c r="C25">
-        <v>0.7370071212771746</v>
+        <v>0.73700712128068</v>
       </c>
       <c r="D25">
-        <v>7.9065922100688466</v>
+        <v>7.906592210028913</v>
       </c>
       <c r="E25">
-        <v>2.6453037488810658E-15</v>
+        <v>2.645303749729249E-15</v>
       </c>
       <c r="F25">
-        <v>4.3827073498025682</v>
+        <v>4.382707349793982</v>
       </c>
       <c r="G25">
-        <v>7.2717221779081802</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.271722177913336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.23457970582897361</v>
+        <v>-0.2345797058295949</v>
       </c>
       <c r="C26">
-        <v>0.71597518639982838</v>
+        <v>0.7159751864031504</v>
       </c>
       <c r="D26">
-        <v>-0.32763664200224829</v>
+        <v>-0.3276366420015959</v>
       </c>
       <c r="E26">
-        <v>0.74318641350029635</v>
+        <v>0.7431864135007898</v>
       </c>
       <c r="F26">
-        <v>-1.637865284996989</v>
+        <v>-1.637865285004121</v>
       </c>
       <c r="G26">
-        <v>1.1687058733390421</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.168705873344932</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B27">
-        <v>7.7111420385842582</v>
+        <v>7.711142038585685</v>
       </c>
       <c r="C27">
-        <v>0.68089345616892161</v>
+        <v>0.680893456167571</v>
       </c>
       <c r="D27">
-        <v>11.32503473006093</v>
+        <v>11.32503473008549</v>
       </c>
       <c r="E27">
-        <v>9.8639770234614904E-30</v>
+        <v>9.863977020696623E-30</v>
       </c>
       <c r="F27">
-        <v>6.3766153871841702</v>
+        <v>6.376615387188244</v>
       </c>
       <c r="G27">
-        <v>9.0456686899843461</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9.045668689983128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B28">
-        <v>-4.5780760728044214</v>
+        <v>-4.578076072806249</v>
       </c>
       <c r="C28">
-        <v>0.7136139626822412</v>
+        <v>0.713613962689604</v>
       </c>
       <c r="D28">
-        <v>-6.4153398226639693</v>
+        <v>-6.415339822600339</v>
       </c>
       <c r="E28">
-        <v>1.4050908038888979E-10</v>
+        <v>1.405090804475799E-10</v>
       </c>
       <c r="F28">
-        <v>-5.9767337385265247</v>
+        <v>-5.976733738542783</v>
       </c>
       <c r="G28">
-        <v>-3.179418407082319</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-3.179418407069716</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B29">
-        <v>-2.459985633333523</v>
+        <v>-2.45998563333143</v>
       </c>
       <c r="C29">
-        <v>0.64954332557561945</v>
+        <v>0.6495433255809815</v>
       </c>
       <c r="D29">
-        <v>-3.7872541160414608</v>
+        <v>-3.787254116006975</v>
       </c>
       <c r="E29">
-        <v>1.5232129765590629E-4</v>
+        <v>0.00015232129767704</v>
       </c>
       <c r="F29">
-        <v>-3.7330671578601118</v>
+        <v>-3.733067157868529</v>
       </c>
       <c r="G29">
-        <v>-1.186904108806935</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1.186904108794332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B30">
-        <v>2.2960204948707048</v>
+        <v>2.296020494869913</v>
       </c>
       <c r="C30">
-        <v>0.78104600108074473</v>
+        <v>0.7810460010836933</v>
       </c>
       <c r="D30">
-        <v>2.9396738370002118</v>
+        <v>2.939673836988101</v>
       </c>
       <c r="E30">
-        <v>3.285579068093865E-3</v>
+        <v>0.003285579068222277</v>
       </c>
       <c r="F30">
-        <v>0.76519846248341294</v>
+        <v>0.7651984624768426</v>
       </c>
       <c r="G30">
-        <v>3.826842527257996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.826842527262984</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.42205340822308729</v>
+        <v>-0.422053408225644</v>
       </c>
       <c r="C31">
-        <v>0.67044388151677603</v>
+        <v>0.6704438815209638</v>
       </c>
       <c r="D31">
-        <v>-0.62951340128312683</v>
+        <v>-0.629513401283008</v>
       </c>
       <c r="E31">
-        <v>0.52901299799603785</v>
+        <v>0.5290129979961156</v>
       </c>
       <c r="F31">
-        <v>-1.7360992696512081</v>
+        <v>-1.736099269661972</v>
       </c>
       <c r="G31">
-        <v>0.89199245320503295</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.8919924532106842</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B32">
-        <v>6.0853638588207453</v>
+        <v>6.08536385882341</v>
       </c>
       <c r="C32">
-        <v>0.81509164350626551</v>
+        <v>0.8150916435146025</v>
       </c>
       <c r="D32">
-        <v>7.4658646144910046</v>
+        <v>7.465864614417912</v>
       </c>
       <c r="E32">
-        <v>8.2754400133566095E-14</v>
+        <v>8.275440017950923E-14</v>
       </c>
       <c r="F32">
-        <v>4.4878135934489034</v>
+        <v>4.487813593435228</v>
       </c>
       <c r="G32">
-        <v>7.6829141241925871</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.682914124211591</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B33">
-        <v>-5.0764802471777273</v>
+        <v>-5.07648024717709</v>
       </c>
       <c r="C33">
-        <v>0.83625639651215966</v>
+        <v>0.83625639651747</v>
       </c>
       <c r="D33">
-        <v>-6.0704830101755904</v>
+        <v>-6.07048301013628</v>
       </c>
       <c r="E33">
-        <v>1.2752610832166321E-9</v>
+        <v>1.27526108352882E-09</v>
       </c>
       <c r="F33">
-        <v>-6.7155126661828071</v>
+        <v>-6.715512666192577</v>
       </c>
       <c r="G33">
-        <v>-3.437447828172647</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-3.437447828161602</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B34">
-        <v>0.16530915713761821</v>
+        <v>0.1653091571353613</v>
       </c>
       <c r="C34">
-        <v>0.82082816271742831</v>
+        <v>0.8208281627241997</v>
       </c>
       <c r="D34">
-        <v>0.20139313518477089</v>
+        <v>0.20139313518036</v>
       </c>
       <c r="E34">
-        <v>0.84039118257774958</v>
+        <v>0.8403911825811983</v>
       </c>
       <c r="F34">
-        <v>-1.443484479284725</v>
+        <v>-1.443484479300253</v>
       </c>
       <c r="G34">
-        <v>1.7741027935599609</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.774102793570976</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B35">
-        <v>-3.5846880451408918</v>
+        <v>-3.584688045139412</v>
       </c>
       <c r="C35">
-        <v>0.79177083488544386</v>
+        <v>0.7917708348937685</v>
       </c>
       <c r="D35">
-        <v>-4.5274312808699717</v>
+        <v>-4.527431280820501</v>
       </c>
       <c r="E35">
-        <v>5.9705007540438846E-6</v>
+        <v>5.970500755441165E-06</v>
       </c>
       <c r="F35">
-        <v>-5.1365303655255712</v>
+        <v>-5.136530365540408</v>
       </c>
       <c r="G35">
-        <v>-2.0328457247562119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-2.032845724738416</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B36">
-        <v>11.502533176784331</v>
+        <v>11.50253317678331</v>
       </c>
       <c r="C36">
-        <v>0.82083441899601661</v>
+        <v>0.8208344189987987</v>
       </c>
       <c r="D36">
-        <v>14.013219853589201</v>
+        <v>14.01321985354045</v>
       </c>
       <c r="E36">
-        <v>1.294024446452494E-44</v>
+        <v>1.294024447340789E-44</v>
       </c>
       <c r="F36">
-        <v>9.8937272782812791</v>
+        <v>9.893727278274804</v>
       </c>
       <c r="G36">
-        <v>13.11133907528739</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13.11133907529181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B37">
-        <v>-7.102200504694629</v>
+        <v>-7.102200504698246</v>
       </c>
       <c r="C37">
-        <v>0.95585195303285853</v>
+        <v>0.9558519530383744</v>
       </c>
       <c r="D37">
-        <v>-7.4302306776272102</v>
+        <v>-7.430230677588117</v>
       </c>
       <c r="E37">
-        <v>1.084084529420792E-13</v>
+        <v>1.084084529741196E-13</v>
       </c>
       <c r="F37">
-        <v>-8.9756359071913039</v>
+        <v>-8.975635907205731</v>
       </c>
       <c r="G37">
-        <v>-5.2287651021979551</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-5.228765102190761</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B38">
-        <v>5.2707827775261586</v>
+        <v>5.270782777527417</v>
       </c>
       <c r="C38">
-        <v>0.51959249738768176</v>
+        <v>0.5195924973925375</v>
       </c>
       <c r="D38">
-        <v>10.1440702166134</v>
+        <v>10.14407021652102</v>
       </c>
       <c r="E38">
-        <v>3.5211541252719417E-24</v>
+        <v>3.521154128603061E-24</v>
       </c>
       <c r="F38">
-        <v>4.2524001960090807</v>
+        <v>4.252400196000822</v>
       </c>
       <c r="G38">
-        <v>6.2891653590432366</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.289165359054013</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B39">
-        <v>-2.691771445130938</v>
+        <v>-2.69177144512693</v>
       </c>
       <c r="C39">
-        <v>0.67898242568863076</v>
+        <v>0.6789824256903138</v>
       </c>
       <c r="D39">
-        <v>-3.964419907335476</v>
+        <v>-3.964419907319746</v>
       </c>
       <c r="E39">
-        <v>7.3574643707157304E-5</v>
+        <v>7.357464371200823E-05</v>
       </c>
       <c r="F39">
-        <v>-4.022552545616298</v>
+        <v>-4.022552545615588</v>
       </c>
       <c r="G39">
-        <v>-1.360990344645578</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1.360990344638272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B40">
-        <v>3.950391167320296</v>
+        <v>3.950391167319908</v>
       </c>
       <c r="C40">
-        <v>0.76601742267043682</v>
+        <v>0.7660174226764641</v>
       </c>
       <c r="D40">
-        <v>5.1570513286091026</v>
+        <v>5.157051328568018</v>
       </c>
       <c r="E40">
-        <v>2.5086905074379489E-7</v>
+        <v>2.508690507988185E-07</v>
       </c>
       <c r="F40">
-        <v>2.4490246073560442</v>
+        <v>2.449024607343843</v>
       </c>
       <c r="G40">
-        <v>5.4517577272845488</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.451757727295973</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B41">
-        <v>-1.025592239230422</v>
+        <v>-1.02559223922811</v>
       </c>
       <c r="C41">
-        <v>0.82682117911893849</v>
+        <v>0.8268211791239999</v>
       </c>
       <c r="D41">
-        <v>-1.2404039290857229</v>
+        <v>-1.240403929075334</v>
       </c>
       <c r="E41">
-        <v>0.2148260284692759</v>
+        <v>0.2148260284731165</v>
       </c>
       <c r="F41">
-        <v>-2.6461319719584822</v>
+        <v>-2.64613197196609</v>
       </c>
       <c r="G41">
-        <v>0.59494749349763887</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.5949474935098706</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B42">
-        <v>-5.5698027996280466</v>
+        <v>-5.569802799629552</v>
       </c>
       <c r="C42">
-        <v>0.84756222284454685</v>
+        <v>0.8475622228504672</v>
       </c>
       <c r="D42">
-        <v>-6.5715562226628599</v>
+        <v>-6.571556222618732</v>
       </c>
       <c r="E42">
-        <v>4.9792078071686568E-11</v>
+        <v>4.979207808644618E-11</v>
       </c>
       <c r="F42">
-        <v>-7.2309942310600714</v>
+        <v>-7.230994231073179</v>
       </c>
       <c r="G42">
-        <v>-3.9086113681960239</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-3.908611368185925</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B43">
-        <v>2.1251254816306879</v>
+        <v>2.12512548163221</v>
       </c>
       <c r="C43">
-        <v>0.79646267091571266</v>
+        <v>0.7964626709175652</v>
       </c>
       <c r="D43">
-        <v>2.6682047498690422</v>
+        <v>2.668204749864747</v>
       </c>
       <c r="E43">
-        <v>7.6257769933704561E-3</v>
+        <v>0.007625776993467964</v>
       </c>
       <c r="F43">
-        <v>0.56408733160531432</v>
+        <v>0.5640873316032049</v>
       </c>
       <c r="G43">
-        <v>3.6861636316560622</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.686163631661215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B44">
-        <v>-9.8126466121064801</v>
+        <v>-9.812646612108804</v>
       </c>
       <c r="C44">
-        <v>0.64459572744974769</v>
+        <v>0.6445957274540931</v>
       </c>
       <c r="D44">
-        <v>-15.222947025927141</v>
+        <v>-15.22294702582812</v>
       </c>
       <c r="E44">
-        <v>2.490545639975697E-52</v>
+        <v>2.490545643745908E-52</v>
       </c>
       <c r="F44">
-        <v>-11.07603102249638</v>
+        <v>-11.07603102250722</v>
       </c>
       <c r="G44">
-        <v>-8.5492622017165782</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-8.549262201710384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B45">
-        <v>2.4577223533126609</v>
+        <v>2.457722353313879</v>
       </c>
       <c r="C45">
-        <v>0.88531943008076919</v>
+        <v>0.8853194300858236</v>
       </c>
       <c r="D45">
-        <v>2.7760854103116639</v>
+        <v>2.776085410297191</v>
       </c>
       <c r="E45">
-        <v>5.5017753264021002E-3</v>
+        <v>0.00550177532664703</v>
       </c>
       <c r="F45">
-        <v>0.72252815554082672</v>
+        <v>0.7225281555321379</v>
       </c>
       <c r="G45">
-        <v>4.1929165510844948</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.192916551095619</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B46">
-        <v>4.0266517878227823</v>
+        <v>4.026651787822122</v>
       </c>
       <c r="C46">
-        <v>0.8327066686210971</v>
+        <v>0.8327066686220921</v>
       </c>
       <c r="D46">
-        <v>4.8356185191727006</v>
+        <v>4.83561851916613</v>
       </c>
       <c r="E46">
-        <v>1.3273226034251101E-6</v>
+        <v>1.327322603468961E-06</v>
       </c>
       <c r="F46">
-        <v>2.3945767076391031</v>
+        <v>2.394576707636492</v>
       </c>
       <c r="G46">
-        <v>5.658726868006462</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.658726868007752</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B47">
-        <v>1.001100481671918</v>
+        <v>1.001100481677753</v>
       </c>
       <c r="C47">
-        <v>0.489595083281955</v>
+        <v>0.4895950832827543</v>
       </c>
       <c r="D47">
-        <v>2.044751910009257</v>
+        <v>2.044751910017836</v>
       </c>
       <c r="E47">
-        <v>4.0879323052279162E-2</v>
+        <v>0.04087932305143293</v>
       </c>
       <c r="F47">
-        <v>4.1511751431398292E-2</v>
+        <v>0.04151175143566643</v>
       </c>
       <c r="G47">
-        <v>1.9606892119124391</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.96068921191984</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B48">
-        <v>1.3426366839444701</v>
+        <v>-5.938807103576328</v>
       </c>
       <c r="C48">
-        <v>0.43400320064576442</v>
+        <v>1.30210101001857</v>
       </c>
       <c r="D48">
-        <v>3.0936100976829821</v>
+        <v>-4.560941937593328</v>
       </c>
       <c r="E48">
-        <v>1.9773716909713729E-3</v>
+        <v>5.092466222459014E-06</v>
       </c>
       <c r="F48">
-        <v>0.4920060415036609</v>
+        <v>-8.490878187445954</v>
       </c>
       <c r="G48">
-        <v>2.1932673263852789</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-3.386736019706702</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B49">
-        <v>-9.6886758860381867</v>
+        <v>-5503.580605253233</v>
       </c>
       <c r="C49">
-        <v>1.035314978364027</v>
+        <v>8195.115948524466</v>
       </c>
       <c r="D49">
-        <v>-9.3581915537896876</v>
+        <v>-0.671568363379185</v>
       </c>
       <c r="E49">
-        <v>8.1113088053025433E-21</v>
+        <v>0.501858524397172</v>
       </c>
       <c r="F49">
-        <v>-11.71785595628654</v>
+        <v>-21565.71271349099</v>
       </c>
       <c r="G49">
-        <v>-7.6594958157898301</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10558.55150298452</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B50">
-        <v>-2201.576517296663</v>
+        <v>13045.47439208486</v>
       </c>
       <c r="C50">
-        <v>3274.6680976166931</v>
+        <v>19349.37936696927</v>
       </c>
       <c r="D50">
-        <v>-0.67230523878098436</v>
+        <v>0.6742063476389524</v>
       </c>
       <c r="E50">
-        <v>0.50138939533371851</v>
+        <v>0.5001801346001846</v>
       </c>
       <c r="F50">
-        <v>-8619.8080499476746</v>
+        <v>-24878.61229037734</v>
       </c>
       <c r="G50">
-        <v>4216.6550153543503</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50969.56107454705</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B51">
-        <v>0.3437275271595373</v>
+        <v>1.342636683941655</v>
       </c>
       <c r="C51">
-        <v>5.4117107516044982E-2</v>
+        <v>0.4340032006471363</v>
       </c>
       <c r="D51">
-        <v>6.3515502386676301</v>
+        <v>3.093610097666718</v>
       </c>
       <c r="E51">
-        <v>2.1315577686655421E-10</v>
+        <v>0.001977371691079762</v>
       </c>
       <c r="F51">
-        <v>0.23765994548060729</v>
+        <v>0.4920060414981576</v>
       </c>
       <c r="G51">
-        <v>0.44979510883846741</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.193267326385153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B52">
-        <v>0.30720310265499268</v>
+        <v>-2201.576517298508</v>
       </c>
       <c r="C52">
-        <v>5.4671790460554121E-2</v>
+        <v>3274.668097615873</v>
       </c>
       <c r="D52">
-        <v>5.6190422897644217</v>
+        <v>-0.6723052387817163</v>
       </c>
       <c r="E52">
-        <v>1.920188565253994E-8</v>
+        <v>0.5013893953332527</v>
       </c>
       <c r="F52">
-        <v>0.20004836238198609</v>
+        <v>-8619.808049947915</v>
       </c>
       <c r="G52">
-        <v>0.41435784292799932</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4216.655015350897</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B53">
-        <v>-246.41704239892559</v>
+        <v>0.3437275271578325</v>
       </c>
       <c r="C53">
-        <v>365.34351588594751</v>
+        <v>0.05411710751600063</v>
       </c>
       <c r="D53">
-        <v>-0.67448040456218672</v>
+        <v>6.351550238641334</v>
       </c>
       <c r="E53">
-        <v>0.5000059396657377</v>
+        <v>2.131557769030004E-10</v>
       </c>
       <c r="F53">
-        <v>-962.47717552061977</v>
+        <v>0.2376599454789894</v>
       </c>
       <c r="G53">
-        <v>469.64309072276859</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.4497951088366756</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B54">
-        <v>-5.938807103580749</v>
+        <v>0.3072031026553782</v>
       </c>
       <c r="C54">
-        <v>1.302101010010716</v>
+        <v>0.05467179046062406</v>
       </c>
       <c r="D54">
-        <v>-4.5609419376242366</v>
+        <v>5.619042289764285</v>
       </c>
       <c r="E54">
-        <v>5.0924662217092996E-6</v>
+        <v>1.920188565255515E-08</v>
       </c>
       <c r="F54">
-        <v>-8.4908781874349799</v>
+        <v>0.2000483623822346</v>
       </c>
       <c r="G54">
-        <v>-3.3867360197265182</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.4143578429285218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B55">
-        <v>-5503.5806052486296</v>
+        <v>-246.4170423991172</v>
       </c>
       <c r="C55">
-        <v>8195.1159485265161</v>
+        <v>365.3435158858519</v>
       </c>
       <c r="D55">
-        <v>-0.67156836337845527</v>
+        <v>-0.6744804045628878</v>
       </c>
       <c r="E55">
-        <v>0.50185852439763678</v>
+        <v>0.5000059396652923</v>
       </c>
       <c r="F55">
-        <v>-21565.7127134904</v>
+        <v>-962.4771755206241</v>
       </c>
       <c r="G55">
-        <v>10558.551502993139</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>469.6430907223896</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B56">
-        <v>13045.474392073669</v>
+        <v>-9.688675886037032</v>
       </c>
       <c r="C56">
-        <v>19349.379366974059</v>
+        <v>1.035314978365739</v>
       </c>
       <c r="D56">
-        <v>0.67420634763820708</v>
+        <v>-9.358191553773096</v>
       </c>
       <c r="E56">
-        <v>0.50018013460065835</v>
+        <v>8.111308806576037E-21</v>
       </c>
       <c r="F56">
-        <v>-24878.61229039793</v>
+        <v>-11.71785595628874</v>
       </c>
       <c r="G56">
-        <v>50969.561074545258</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-7.659495815785319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B57">
-        <v>2.6227053007750269</v>
+        <v>2.622705300779486</v>
       </c>
       <c r="C57">
-        <v>2.3566762628585169</v>
+        <v>2.356676262858442</v>
       </c>
       <c r="D57">
-        <v>1.1128831490812541</v>
+        <v>1.112883149083181</v>
       </c>
       <c r="E57">
-        <v>0.26575861809840318</v>
+        <v>0.2657586180975754</v>
       </c>
       <c r="F57">
-        <v>-1.996295297648115</v>
+        <v>-1.996295297643511</v>
       </c>
       <c r="G57">
-        <v>7.2417058991981689</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.241705899202482</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B58">
-        <v>17.955762490903378</v>
+        <v>17.95576249089427</v>
       </c>
       <c r="C58">
-        <v>2.395011588895624</v>
+        <v>2.395011588896034</v>
       </c>
       <c r="D58">
-        <v>7.4971505666839207</v>
+        <v>7.49715056667883</v>
       </c>
       <c r="E58">
-        <v>6.5220048200319996E-14</v>
+        <v>6.522004820285209E-14</v>
       </c>
       <c r="F58">
-        <v>13.261626034111909</v>
+        <v>13.26162603410199</v>
       </c>
       <c r="G58">
-        <v>22.649898947694851</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22.64989894768654</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B59">
-        <v>9.8941645744343401</v>
+        <v>9.894164574430803</v>
       </c>
       <c r="C59">
-        <v>2.3557880699515681</v>
+        <v>2.355788069949062</v>
       </c>
       <c r="D59">
-        <v>4.1999383139068831</v>
+        <v>4.199938313909851</v>
       </c>
       <c r="E59">
-        <v>2.6698770909034099E-5</v>
+        <v>2.669877090868419E-05</v>
       </c>
       <c r="F59">
-        <v>5.276904802120141</v>
+        <v>5.276904802121517</v>
       </c>
       <c r="G59">
-        <v>14.511424346748541</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14.51142434674009</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B60">
-        <v>-5.4908029336529002E-13</v>
+        <v>1.267129193083952E-12</v>
       </c>
       <c r="C60">
-        <v>7.7143332549157195E-14</v>
+        <v>1.797403257792011E-13</v>
       </c>
       <c r="D60">
-        <v>-7.1176636427445708</v>
+        <v>7.049776880011528</v>
       </c>
       <c r="E60">
-        <v>1.097718539139118E-12</v>
+        <v>1.792049085074497E-12</v>
       </c>
       <c r="F60">
-        <v>-7.002784468090346E-13</v>
+        <v>9.148446279872214E-13</v>
       </c>
       <c r="G60">
-        <v>-3.9788213992154538E-13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.619413758180682E-12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B61">
-        <v>-9.201376905002031E-13</v>
+        <v>5.438608870948185E-13</v>
       </c>
       <c r="C61">
-        <v>1.3071543087729971E-13</v>
+        <v>7.694094897360543E-14</v>
       </c>
       <c r="D61">
-        <v>-7.0392430665964776</v>
+        <v>7.068549249131172</v>
       </c>
       <c r="E61">
-        <v>1.9328693824477618E-12</v>
+        <v>1.565617886489238E-12</v>
       </c>
       <c r="F61">
-        <v>-1.176335227243345E-12</v>
+        <v>3.930593981702178E-13</v>
       </c>
       <c r="G61">
-        <v>-6.6394015375706079E-13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.946623760194192E-13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B62">
-        <v>5.1162321507579081E-14</v>
+        <v>5.381415271879043E-16</v>
       </c>
       <c r="C62">
-        <v>6.9895185469186283E-15</v>
+        <v>2.841043119846564E-16</v>
       </c>
       <c r="D62">
-        <v>7.319863473305225</v>
+        <v>1.894168812252901</v>
       </c>
       <c r="E62">
-        <v>2.4822336442317261E-13</v>
+        <v>0.05820260635285392</v>
       </c>
       <c r="F62">
-        <v>3.7463116886343842E-14</v>
+        <v>-1.869269215455359E-17</v>
       </c>
       <c r="G62">
-        <v>6.4861526128814325E-14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.094975746530362E-15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B63">
-        <v>-9.1193414121969683E-15</v>
+        <v>2.281155359042269E-14</v>
       </c>
       <c r="C63">
-        <v>1.338513113194198E-15</v>
+        <v>2.903047938414454E-15</v>
       </c>
       <c r="D63">
-        <v>-6.8130385293236104</v>
+        <v>7.857794316301089</v>
       </c>
       <c r="E63">
-        <v>9.5558534451941108E-12</v>
+        <v>3.909565847132458E-15</v>
       </c>
       <c r="F63">
-        <v>-1.174277890689218E-14</v>
+        <v>1.71216841857371E-14</v>
       </c>
       <c r="G63">
-        <v>-6.4959039175017546E-15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.850142299510827E-14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B64">
-        <v>2.108541072645064E-14</v>
+        <v>-3.241045568341214E-14</v>
       </c>
       <c r="C64">
-        <v>2.726309207154716E-15</v>
+        <v>4.357937000914293E-15</v>
       </c>
       <c r="D64">
-        <v>7.7340496342512122</v>
+        <v>-7.437109732566682</v>
       </c>
       <c r="E64">
-        <v>1.0417838630244189E-14</v>
+        <v>1.029120621047665E-13</v>
       </c>
       <c r="F64">
-        <v>1.5741942869707449E-14</v>
+        <v>-4.095185525209865E-14</v>
       </c>
       <c r="G64">
-        <v>2.642887858319384E-14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-2.386905611472563E-14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B65">
-        <v>0.38483440662398549</v>
+        <v>0.3848344066253806</v>
       </c>
       <c r="C65">
-        <v>2.446343749081906</v>
+        <v>2.446343749088577</v>
       </c>
       <c r="D65">
-        <v>0.15731002920926829</v>
+        <v>0.1573100292094096</v>
       </c>
       <c r="E65">
-        <v>0.87500051650371757</v>
+        <v>0.8750005165036063</v>
       </c>
       <c r="F65">
-        <v>-4.40991123538124</v>
+        <v>-4.40991123539292</v>
       </c>
       <c r="G65">
-        <v>5.1795800486292114</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.179580048643682</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
@@ -3822,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
@@ -3839,142 +3816,142 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B68">
-        <v>24.035362280610709</v>
+        <v>24.03536228060791</v>
       </c>
       <c r="C68">
-        <v>2.5337800726714041</v>
+        <v>2.533780072673479</v>
       </c>
       <c r="D68">
-        <v>9.485970207062941</v>
+        <v>9.485970207054065</v>
       </c>
       <c r="E68">
-        <v>2.401386421582535E-21</v>
+        <v>2.401386421786929E-21</v>
       </c>
       <c r="F68">
-        <v>19.069244593429481</v>
+        <v>19.06924459342261</v>
       </c>
       <c r="G68">
-        <v>29.001479967791941</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29.00147996779321</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B69">
-        <v>2.3860801293522962</v>
+        <v>2.38608012934912</v>
       </c>
       <c r="C69">
-        <v>1.419974146464221</v>
+        <v>1.41997414646618</v>
       </c>
       <c r="D69">
-        <v>1.680368713257004</v>
+        <v>1.680368713252449</v>
       </c>
       <c r="E69">
-        <v>9.2885599418523881E-2</v>
+        <v>0.09288559941940945</v>
       </c>
       <c r="F69">
-        <v>-0.39701805669558171</v>
+        <v>-0.3970180567025965</v>
       </c>
       <c r="G69">
-        <v>5.1691783154001731</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.169178315400836</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B70">
-        <v>-8.6830807984535525</v>
+        <v>-8.683080798451053</v>
       </c>
       <c r="C70">
-        <v>6.0208304971267701</v>
+        <v>6.020830497121406</v>
       </c>
       <c r="D70">
-        <v>-1.442173268720528</v>
+        <v>-1.442173268721397</v>
       </c>
       <c r="E70">
-        <v>0.14925349961935661</v>
+        <v>0.1492534996191113</v>
       </c>
       <c r="F70">
-        <v>-20.483691729842409</v>
+        <v>-20.4836917298294</v>
       </c>
       <c r="G70">
-        <v>3.1175301329353058</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.117530132927293</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.83260822878895802</v>
+        <v>-0.8326082287891516</v>
       </c>
       <c r="C71">
-        <v>5.7387408398759048</v>
+        <v>5.738740839872539</v>
       </c>
       <c r="D71">
-        <v>-0.14508552520851639</v>
+        <v>-0.1450855252086352</v>
       </c>
       <c r="E71">
-        <v>0.88464334657307175</v>
+        <v>0.8846433465729779</v>
       </c>
       <c r="F71">
-        <v>-12.08033359155487</v>
+        <v>-12.08033359154847</v>
       </c>
       <c r="G71">
-        <v>10.41511713397696</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10.41511713397017</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B72">
-        <v>-3.924599263048282</v>
+        <v>-3.92459926304947</v>
       </c>
       <c r="C72">
-        <v>1.379958167031051</v>
+        <v>1.379958167031611</v>
       </c>
       <c r="D72">
-        <v>-2.843998721709057</v>
+        <v>-2.843998721708764</v>
       </c>
       <c r="E72">
-        <v>4.455122664868633E-3</v>
+        <v>0.00445512266487273</v>
       </c>
       <c r="F72">
-        <v>-6.6292675706010504</v>
+        <v>-6.629267570603336</v>
       </c>
       <c r="G72">
-        <v>-1.219930955495514</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1.219930955495605</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B73">
-        <v>-1.373177779668507</v>
+        <v>-1.373177779669427</v>
       </c>
       <c r="C73">
-        <v>1.791774325766609</v>
+        <v>1.791774325765904</v>
       </c>
       <c r="D73">
-        <v>-0.76637875647704368</v>
+        <v>-0.7663787564778589</v>
       </c>
       <c r="E73">
-        <v>0.44345096924972449</v>
+        <v>0.4434509692492395</v>
       </c>
       <c r="F73">
-        <v>-4.8849909265945994</v>
+        <v>-4.884990926594137</v>
       </c>
       <c r="G73">
-        <v>2.1386353672575851</v>
+        <v>2.138635367255282</v>
       </c>
     </row>
   </sheetData>
@@ -3983,14 +3960,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4010,1479 +3987,1479 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>8622.3197147361789</v>
+        <v>8622.319715030186</v>
       </c>
       <c r="C2">
-        <v>62930.344433699727</v>
+        <v>62930.34443370998</v>
       </c>
       <c r="D2">
-        <v>0.13701370606385641</v>
+        <v>0.1370137060685061</v>
       </c>
       <c r="E2">
-        <v>0.89101996141242934</v>
+        <v>0.8910199614087541</v>
       </c>
       <c r="F2">
-        <v>-114718.8889100159</v>
+        <v>-114718.888909742</v>
       </c>
       <c r="G2">
-        <v>131963.52833948829</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>131963.5283398024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>4.5709376924489291</v>
+        <v>4.570937692465559</v>
       </c>
       <c r="C3">
-        <v>2.2815212326695531</v>
+        <v>2.281521232669085</v>
       </c>
       <c r="D3">
-        <v>2.0034605100302252</v>
+        <v>2.003460510037924</v>
       </c>
       <c r="E3">
-        <v>4.5127882195591447E-2</v>
+        <v>0.04512788219476579</v>
       </c>
       <c r="F3">
-        <v>9.9238246453176693E-2</v>
+        <v>0.09923824647072266</v>
       </c>
       <c r="G3">
-        <v>9.0426371384446824</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9.042637138460396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>6.3925618847078587</v>
+        <v>6.392561884709077</v>
       </c>
       <c r="C4">
-        <v>1.7805062446115569</v>
+        <v>1.7805062446108</v>
       </c>
       <c r="D4">
-        <v>3.5903057931158719</v>
+        <v>3.590305793118082</v>
       </c>
       <c r="E4">
-        <v>3.302902451568543E-4</v>
+        <v>0.0003302902451540529</v>
       </c>
       <c r="F4">
-        <v>2.9028337710205432</v>
+        <v>2.902833771023245</v>
       </c>
       <c r="G4">
-        <v>9.8822899983951746</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9.88228999839491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>5.5477355340341199E-2</v>
+        <v>0.05547735534004399</v>
       </c>
       <c r="C5">
-        <v>3.3573909843140071E-2</v>
+        <v>0.03357390984310075</v>
       </c>
       <c r="D5">
-        <v>1.652394838716603</v>
+        <v>1.652394838709685</v>
       </c>
       <c r="E5">
-        <v>9.8454087009313712E-2</v>
+        <v>0.09845408701072297</v>
       </c>
       <c r="F5">
-        <v>-1.0326298772408159E-2</v>
+        <v>-0.01032629877262831</v>
       </c>
       <c r="G5">
-        <v>0.1212810094530906</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.1212810094527163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-22.76753401372374</v>
+        <v>-22.76753401373371</v>
       </c>
       <c r="C6">
-        <v>2.721608420279606</v>
+        <v>2.721608420280183</v>
       </c>
       <c r="D6">
-        <v>-8.3654701551021446</v>
+        <v>-8.365470155104036</v>
       </c>
       <c r="E6">
-        <v>5.9875685460070914E-17</v>
+        <v>5.987568545911024E-17</v>
       </c>
       <c r="F6">
-        <v>-28.101788497492709</v>
+        <v>-28.10178849750382</v>
       </c>
       <c r="G6">
-        <v>-17.43327952995476</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-17.4332795299636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-9.3106063252407925</v>
+        <v>-9.310606325245793</v>
       </c>
       <c r="C7">
-        <v>2.3614470385027828</v>
+        <v>2.36144703850421</v>
       </c>
       <c r="D7">
-        <v>-3.9427546641672522</v>
+        <v>-3.942754664166987</v>
       </c>
       <c r="E7">
-        <v>8.0551044330154682E-5</v>
+        <v>8.055104433024375E-05</v>
       </c>
       <c r="F7">
-        <v>-13.93895747210502</v>
+        <v>-13.93895747211281</v>
       </c>
       <c r="G7">
-        <v>-4.6822551783765674</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-4.682255178378771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-4.9685882388198204</v>
+        <v>-4.968588238822342</v>
       </c>
       <c r="C8">
-        <v>1.390458653035362</v>
+        <v>1.390458653035108</v>
       </c>
       <c r="D8">
-        <v>-3.573344829760615</v>
+        <v>-3.573344829763082</v>
       </c>
       <c r="E8">
-        <v>3.5245013437849008E-4</v>
+        <v>0.0003524501343751692</v>
       </c>
       <c r="F8">
-        <v>-7.6938371207612049</v>
+        <v>-7.693837120763229</v>
       </c>
       <c r="G8">
-        <v>-2.2433393568784359</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-2.243339356881455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-2.684326078681035</v>
+        <v>-2.684326078681313</v>
       </c>
       <c r="C9">
-        <v>0.1878755189803018</v>
+        <v>0.1878755189804744</v>
       </c>
       <c r="D9">
-        <v>-14.28779062461288</v>
+        <v>-14.28779062460123</v>
       </c>
       <c r="E9">
-        <v>2.6075135427981149E-46</v>
+        <v>2.607513543234097E-46</v>
       </c>
       <c r="F9">
-        <v>-3.0525553294591981</v>
+        <v>-3.052555329459814</v>
       </c>
       <c r="G9">
-        <v>-2.316096827902872</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-2.316096827902812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-1.6067110851776889</v>
+        <v>-1.606711085177433</v>
       </c>
       <c r="C10">
-        <v>0.23450224200417791</v>
+        <v>0.2345022420045097</v>
       </c>
       <c r="D10">
-        <v>-6.8515809121733824</v>
+        <v>-6.851580912162598</v>
       </c>
       <c r="E10">
-        <v>7.3038267525769961E-12</v>
+        <v>7.303826753127748E-12</v>
       </c>
       <c r="F10">
-        <v>-2.066327033799773</v>
+        <v>-2.066327033800167</v>
       </c>
       <c r="G10">
-        <v>-1.1470951365556039</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1.147095136554698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-3.1039907580853061</v>
+        <v>-3.103990758083822</v>
       </c>
       <c r="C11">
-        <v>0.21556592139807421</v>
+        <v>0.2155659213982881</v>
       </c>
       <c r="D11">
-        <v>-14.399264679472831</v>
+        <v>-14.39926467945166</v>
       </c>
       <c r="E11">
-        <v>5.229695290255132E-47</v>
+        <v>5.229695291856728E-47</v>
       </c>
       <c r="F11">
-        <v>-3.5264922003197241</v>
+        <v>-3.526492200318659</v>
       </c>
       <c r="G11">
-        <v>-2.681489315850889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-2.681489315848986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.2992093370846105</v>
+        <v>-0.2992093370853141</v>
       </c>
       <c r="C12">
-        <v>0.1904710527434785</v>
+        <v>0.1904710527438176</v>
       </c>
       <c r="D12">
-        <v>-1.5708913914996729</v>
+        <v>-1.57089139150057</v>
       </c>
       <c r="E12">
-        <v>0.1162078785227442</v>
+        <v>0.1162078785225358</v>
       </c>
       <c r="F12">
-        <v>-0.6725257405592574</v>
+        <v>-0.6725257405606256</v>
       </c>
       <c r="G12">
-        <v>7.4107066390036391E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.07410706638999753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B13">
-        <v>1.8135926023984761</v>
+        <v>1.813592602398209</v>
       </c>
       <c r="C13">
-        <v>0.38960259980357392</v>
+        <v>0.3896025998044123</v>
       </c>
       <c r="D13">
-        <v>4.6549807504180807</v>
+        <v>4.65498075040738</v>
       </c>
       <c r="E13">
-        <v>3.240109770167686E-6</v>
+        <v>3.240109770335971E-06</v>
       </c>
       <c r="F13">
-        <v>1.049985538500299</v>
+        <v>1.049985538498389</v>
       </c>
       <c r="G13">
-        <v>2.5771996662966519</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.577199666298029</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>1.598407420079631</v>
+        <v>1.598407420083172</v>
       </c>
       <c r="C14">
-        <v>2.0117924457919441</v>
+        <v>2.011792445791349</v>
       </c>
       <c r="D14">
-        <v>0.79451904863397438</v>
+        <v>0.7945190486359691</v>
       </c>
       <c r="E14">
-        <v>0.42689332408477237</v>
+        <v>0.4268933240836115</v>
       </c>
       <c r="F14">
-        <v>-2.3446333180423271</v>
+        <v>-2.344633318037621</v>
       </c>
       <c r="G14">
-        <v>5.5414481582015904</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.541448158203965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15">
-        <v>9.0787430761857415</v>
+        <v>9.078743076185216</v>
       </c>
       <c r="C15">
-        <v>2.2834271065028702</v>
+        <v>2.283427106502402</v>
       </c>
       <c r="D15">
-        <v>3.975928572596338</v>
+        <v>3.975928572596922</v>
       </c>
       <c r="E15">
-        <v>7.0105166582213268E-5</v>
+        <v>7.010516658204123E-05</v>
       </c>
       <c r="F15">
-        <v>4.6033081861176104</v>
+        <v>4.603308186118001</v>
       </c>
       <c r="G15">
-        <v>13.554177966253871</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13.55417796625243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16">
-        <v>-7.2107831736005803</v>
+        <v>-7.21078317361146</v>
       </c>
       <c r="C16">
-        <v>3.004175919905415</v>
+        <v>3.004175919905417</v>
       </c>
       <c r="D16">
-        <v>-2.4002533026852868</v>
+        <v>-2.400253302688906</v>
       </c>
       <c r="E16">
-        <v>1.6383730107816269E-2</v>
+        <v>0.01638373010765428</v>
       </c>
       <c r="F16">
-        <v>-13.09885977983768</v>
+        <v>-13.09885977984856</v>
       </c>
       <c r="G16">
-        <v>-1.3227065673634819</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1.322706567374356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B17">
-        <v>0.8870041012712081</v>
+        <v>0.8870041012718166</v>
       </c>
       <c r="C17">
-        <v>0.5032939567962752</v>
+        <v>0.5032939567970807</v>
       </c>
       <c r="D17">
-        <v>1.7623976789179929</v>
+        <v>1.762397678916382</v>
       </c>
       <c r="E17">
-        <v>7.8002130536756975E-2</v>
+        <v>0.07800213053702902</v>
       </c>
       <c r="F17">
-        <v>-9.9433927686149226E-2</v>
+        <v>-0.09943392768711945</v>
       </c>
       <c r="G17">
-        <v>1.873442130228566</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.873442130230753</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B18">
-        <v>0.2652898296493823</v>
+        <v>0.2652898296486454</v>
       </c>
       <c r="C18">
-        <v>3.695739557135512E-2</v>
+        <v>0.03695739557135379</v>
       </c>
       <c r="D18">
-        <v>7.1782609555691401</v>
+        <v>7.178260955549459</v>
       </c>
       <c r="E18">
-        <v>7.0603703315602233E-13</v>
+        <v>7.060370332576361E-13</v>
       </c>
       <c r="F18">
-        <v>0.1928546653671262</v>
+        <v>0.1928546653663919</v>
       </c>
       <c r="G18">
-        <v>0.33772499393163852</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.337724993930899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B19">
-        <v>1.0899051658638841</v>
+        <v>1.089905165864922</v>
       </c>
       <c r="C19">
-        <v>0.71006642451059598</v>
+        <v>0.7100664245124766</v>
       </c>
       <c r="D19">
-        <v>1.5349340966446721</v>
+        <v>1.534934096642069</v>
       </c>
       <c r="E19">
-        <v>0.12480001710436681</v>
+        <v>0.1248000171050064</v>
       </c>
       <c r="F19">
-        <v>-0.30179945280801301</v>
+        <v>-0.3017994528106611</v>
       </c>
       <c r="G19">
-        <v>2.481609784535781</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.481609784540505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B20">
-        <v>0.82838219677231484</v>
+        <v>0.8283821967723384</v>
       </c>
       <c r="C20">
-        <v>0.69600766804225589</v>
+        <v>0.6960076680438665</v>
       </c>
       <c r="D20">
-        <v>1.190191193011428</v>
+        <v>1.190191193008708</v>
       </c>
       <c r="E20">
-        <v>0.2339712539027331</v>
+        <v>0.2339712539038019</v>
       </c>
       <c r="F20">
-        <v>-0.53576776555421635</v>
+        <v>-0.5357677655573494</v>
       </c>
       <c r="G20">
-        <v>2.192532159098846</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.192532159102026</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B21">
-        <v>0.58148417938299035</v>
+        <v>0.5814841793816461</v>
       </c>
       <c r="C21">
-        <v>0.70762497546243486</v>
+        <v>0.707624975463675</v>
       </c>
       <c r="D21">
-        <v>0.8217406105585644</v>
+        <v>0.8217406105552246</v>
       </c>
       <c r="E21">
-        <v>0.41122454088212151</v>
+        <v>0.4112245408840228</v>
       </c>
       <c r="F21">
-        <v>-0.80543528708442147</v>
+        <v>-0.8054352870881962</v>
       </c>
       <c r="G21">
-        <v>1.968403645850402</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.968403645851488</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B22">
-        <v>-2.7899276843917429</v>
+        <v>-2.789927684391871</v>
       </c>
       <c r="C22">
-        <v>0.68406715165006415</v>
+        <v>0.6840671516507538</v>
       </c>
       <c r="D22">
-        <v>-4.078441243176278</v>
+        <v>-4.078441243172353</v>
       </c>
       <c r="E22">
-        <v>4.5338657190327059E-5</v>
+        <v>4.533865719109237E-05</v>
       </c>
       <c r="F22">
-        <v>-4.1306746646327683</v>
+        <v>-4.130674664634247</v>
       </c>
       <c r="G22">
-        <v>-1.4491807041507181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1.449180704149494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B23">
-        <v>-3.1177889417659439</v>
+        <v>-3.117788941765496</v>
       </c>
       <c r="C23">
-        <v>0.6908171986543381</v>
+        <v>0.690817198655147</v>
       </c>
       <c r="D23">
-        <v>-4.5131895208155957</v>
+        <v>-4.513189520809663</v>
       </c>
       <c r="E23">
-        <v>6.3859908879692996E-6</v>
+        <v>6.38599088814802E-06</v>
       </c>
       <c r="F23">
-        <v>-4.4717657710292986</v>
+        <v>-4.471765771030436</v>
       </c>
       <c r="G23">
-        <v>-1.7638121125025901</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1.763812112500556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B24">
-        <v>1.3430248649076031</v>
+        <v>1.343024864907931</v>
       </c>
       <c r="C24">
-        <v>0.67524721391829012</v>
+        <v>0.6752472139193186</v>
       </c>
       <c r="D24">
-        <v>1.988938032212479</v>
+        <v>1.988938032209936</v>
       </c>
       <c r="E24">
-        <v>4.6708043217821661E-2</v>
+        <v>0.04670804321810237</v>
       </c>
       <c r="F24">
-        <v>1.95646449667406E-2</v>
+        <v>0.01956464496505328</v>
       </c>
       <c r="G24">
-        <v>2.6664850848484649</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.666485084850809</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B25">
-        <v>5.6916274626461894</v>
+        <v>5.691627462645853</v>
       </c>
       <c r="C25">
-        <v>0.70676570709014563</v>
+        <v>0.7067657070909396</v>
       </c>
       <c r="D25">
-        <v>8.0530611566871642</v>
+        <v>8.053061156677641</v>
       </c>
       <c r="E25">
-        <v>8.0748529919727052E-16</v>
+        <v>8.07485299260129E-16</v>
       </c>
       <c r="F25">
-        <v>4.3063921312415188</v>
+        <v>4.306392131239626</v>
       </c>
       <c r="G25">
-        <v>7.0768627940508599</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.076862794052079</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B26">
-        <v>1.1516839575357041</v>
+        <v>1.151683957535567</v>
       </c>
       <c r="C26">
-        <v>0.67136062100634686</v>
+        <v>0.6713606210069935</v>
       </c>
       <c r="D26">
-        <v>1.7154475873329731</v>
+        <v>1.715447587331117</v>
       </c>
       <c r="E26">
-        <v>8.6263197013048243E-2</v>
+        <v>0.08626319701338836</v>
       </c>
       <c r="F26">
-        <v>-0.16415868027518041</v>
+        <v>-0.1641586802765849</v>
       </c>
       <c r="G26">
-        <v>2.4675265953465888</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.467526595347719</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B27">
-        <v>6.6333406386117524</v>
+        <v>6.633340638612042</v>
       </c>
       <c r="C27">
-        <v>0.67024760574579401</v>
+        <v>0.6702476057453783</v>
       </c>
       <c r="D27">
-        <v>9.896850927547499</v>
+        <v>9.89685092755407</v>
       </c>
       <c r="E27">
-        <v>4.2958903417661812E-23</v>
+        <v>4.295890341484028E-23</v>
       </c>
       <c r="F27">
-        <v>5.319679470625795</v>
+        <v>5.319679470626899</v>
       </c>
       <c r="G27">
-        <v>7.9470018065977097</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.947001806597185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B28">
-        <v>-4.0755791932262753</v>
+        <v>-4.075579193226659</v>
       </c>
       <c r="C28">
-        <v>0.67145779937216443</v>
+        <v>0.6714577993737878</v>
       </c>
       <c r="D28">
-        <v>-6.0697473423304924</v>
+        <v>-6.069747342316388</v>
       </c>
       <c r="E28">
-        <v>1.2811163971090779E-9</v>
+        <v>1.281116397221579E-09</v>
       </c>
       <c r="F28">
-        <v>-5.3916122971342393</v>
+        <v>-5.391612297137804</v>
       </c>
       <c r="G28">
-        <v>-2.7595460893183121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-2.759546089315513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B29">
-        <v>-3.60277333559192</v>
+        <v>-3.602773335591529</v>
       </c>
       <c r="C29">
-        <v>0.62127597496235198</v>
+        <v>0.621275974963776</v>
       </c>
       <c r="D29">
-        <v>-5.7989902728980303</v>
+        <v>-5.798990272884111</v>
       </c>
       <c r="E29">
-        <v>6.6715401695230291E-9</v>
+        <v>6.671540170076742E-09</v>
       </c>
       <c r="F29">
-        <v>-4.8204518709781379</v>
+        <v>-4.820451870980539</v>
       </c>
       <c r="G29">
-        <v>-2.3850948002057009</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-2.38509480020252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B30">
-        <v>1.5236919447371799</v>
+        <v>1.523691944737029</v>
       </c>
       <c r="C30">
-        <v>0.7533792413168231</v>
+        <v>0.7533792413176129</v>
       </c>
       <c r="D30">
-        <v>2.022476677315844</v>
+        <v>2.022476677313524</v>
       </c>
       <c r="E30">
-        <v>4.3127130656560042E-2</v>
+        <v>0.04312713065679949</v>
       </c>
       <c r="F30">
-        <v>4.7095765056096139E-2</v>
+        <v>0.04709576505439794</v>
       </c>
       <c r="G30">
-        <v>3.000288124418264</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.000288124419661</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B31">
-        <v>-1.0477220717039619</v>
+        <v>-1.047722071704426</v>
       </c>
       <c r="C31">
-        <v>0.65638666257356015</v>
+        <v>0.6563866625746562</v>
       </c>
       <c r="D31">
-        <v>-1.596196466875262</v>
+        <v>-1.596196466873304</v>
       </c>
       <c r="E31">
-        <v>0.1104449361920375</v>
+        <v>0.1104449361924746</v>
       </c>
       <c r="F31">
-        <v>-2.334216290280585</v>
+        <v>-2.334216290283197</v>
       </c>
       <c r="G31">
-        <v>0.2387721468726611</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.2387721468743453</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B32">
-        <v>6.4787990631603893</v>
+        <v>6.478799063160885</v>
       </c>
       <c r="C32">
-        <v>0.76239813750302943</v>
+        <v>0.7623981375052392</v>
       </c>
       <c r="D32">
-        <v>8.4979208952155201</v>
+        <v>8.497920895191539</v>
       </c>
       <c r="E32">
-        <v>1.9301656841367409E-17</v>
+        <v>1.930165684535397E-17</v>
       </c>
       <c r="F32">
-        <v>4.9845261717740357</v>
+        <v>4.984526171770201</v>
       </c>
       <c r="G32">
-        <v>7.973071954546743</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.973071954551569</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B33">
-        <v>-4.776185322657394</v>
+        <v>-4.776185322657261</v>
       </c>
       <c r="C33">
-        <v>0.79257125854208099</v>
+        <v>0.7925712585436302</v>
       </c>
       <c r="D33">
-        <v>-6.026190416547645</v>
+        <v>-6.026190416535697</v>
       </c>
       <c r="E33">
-        <v>1.6786939495781839E-9</v>
+        <v>1.678693949702215E-09</v>
       </c>
       <c r="F33">
-        <v>-6.3295964445814574</v>
+        <v>-6.329596444584359</v>
       </c>
       <c r="G33">
-        <v>-3.222774200733332</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-3.222774200730162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B34">
-        <v>0.45507071373480379</v>
+        <v>0.4550707137343766</v>
       </c>
       <c r="C34">
-        <v>0.77120369534637179</v>
+        <v>0.7712036953480311</v>
       </c>
       <c r="D34">
-        <v>0.59007849220745401</v>
+        <v>0.5900784922056305</v>
       </c>
       <c r="E34">
-        <v>0.55513802747747598</v>
+        <v>0.5551380274786984</v>
       </c>
       <c r="F34">
-        <v>-1.0564607538882851</v>
+        <v>-1.056460753891964</v>
       </c>
       <c r="G34">
-        <v>1.9666021813578931</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.966602181360718</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B35">
-        <v>-3.2949994481804472</v>
+        <v>-3.294999448180145</v>
       </c>
       <c r="C35">
-        <v>0.73835128894590896</v>
+        <v>0.738351288947604</v>
       </c>
       <c r="D35">
-        <v>-4.4626446753881623</v>
+        <v>-4.462644675377509</v>
       </c>
       <c r="E35">
-        <v>8.0954233943722214E-6</v>
+        <v>8.095423394774875E-06</v>
       </c>
       <c r="F35">
-        <v>-4.7421413824531564</v>
+        <v>-4.742141382456176</v>
       </c>
       <c r="G35">
-        <v>-1.8478575139077389</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1.847857513904114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B36">
-        <v>12.15474137185382</v>
+        <v>12.15474137185372</v>
       </c>
       <c r="C36">
-        <v>0.78657426069876113</v>
+        <v>0.7865742606990255</v>
       </c>
       <c r="D36">
-        <v>15.452757583315829</v>
+        <v>15.45275758331051</v>
       </c>
       <c r="E36">
-        <v>7.2283650591869185E-54</v>
+        <v>7.228365059782907E-54</v>
       </c>
       <c r="F36">
-        <v>10.613084149718031</v>
+        <v>10.61308414971742</v>
       </c>
       <c r="G36">
-        <v>13.69639859398961</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13.69639859399003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B37">
-        <v>-4.4065612668348981</v>
+        <v>-4.406561266835553</v>
       </c>
       <c r="C37">
-        <v>0.91077320467146639</v>
+        <v>0.9107732046726125</v>
       </c>
       <c r="D37">
-        <v>-4.8382640642402626</v>
+        <v>-4.838264064234894</v>
       </c>
       <c r="E37">
-        <v>1.3097805276436289E-6</v>
+        <v>1.309780527679006E-06</v>
       </c>
       <c r="F37">
-        <v>-6.1916439460751</v>
+        <v>-6.191643946078001</v>
       </c>
       <c r="G37">
-        <v>-2.6214785875946971</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-2.621478587593105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B38">
-        <v>5.6385423919501383</v>
+        <v>5.63854239195031</v>
       </c>
       <c r="C38">
-        <v>0.50002989742549286</v>
+        <v>0.5000298974271014</v>
       </c>
       <c r="D38">
-        <v>11.276410512614021</v>
+        <v>11.27641051257809</v>
       </c>
       <c r="E38">
-        <v>1.716060071858029E-29</v>
+        <v>1.716060072558703E-29</v>
       </c>
       <c r="F38">
-        <v>4.658501801802915</v>
+        <v>4.658501801799933</v>
       </c>
       <c r="G38">
-        <v>6.6185829820973616</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.618582982100686</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B39">
-        <v>-4.9080905417390941</v>
+        <v>-4.908090541738369</v>
       </c>
       <c r="C39">
-        <v>0.6506586911863651</v>
+        <v>0.6506586911869093</v>
       </c>
       <c r="D39">
-        <v>-7.5432643999422009</v>
+        <v>-7.543264399934777</v>
       </c>
       <c r="E39">
-        <v>4.5835053071166832E-14</v>
+        <v>4.583505307377715E-14</v>
       </c>
       <c r="F39">
-        <v>-6.183358142692339</v>
+        <v>-6.183358142692681</v>
       </c>
       <c r="G39">
-        <v>-3.6328229407858492</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-3.632822940784058</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B40">
-        <v>3.5933211199619581</v>
+        <v>3.593321119961951</v>
       </c>
       <c r="C40">
-        <v>0.72576441539719627</v>
+        <v>0.7257644153986286</v>
       </c>
       <c r="D40">
-        <v>4.9510847373185216</v>
+        <v>4.95108473730874</v>
       </c>
       <c r="E40">
-        <v>7.3800957947055664E-7</v>
+        <v>7.380095795076528E-07</v>
       </c>
       <c r="F40">
-        <v>2.1708490045226871</v>
+        <v>2.170849004519872</v>
       </c>
       <c r="G40">
-        <v>5.0157932354012296</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.015793235404029</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B41">
-        <v>-1.403592675772493</v>
+        <v>-1.403592675772042</v>
       </c>
       <c r="C41">
-        <v>0.78720763527090942</v>
+        <v>0.7872076352720196</v>
       </c>
       <c r="D41">
-        <v>-1.783001857304727</v>
+        <v>-1.783001857301639</v>
       </c>
       <c r="E41">
-        <v>7.4586000987743289E-2</v>
+        <v>0.07458600098824593</v>
       </c>
       <c r="F41">
-        <v>-2.946491289258419</v>
+        <v>-2.946491289260143</v>
       </c>
       <c r="G41">
-        <v>0.139305937713432</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.1393059377160593</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B42">
-        <v>-4.3301350225390323</v>
+        <v>-4.330135022539351</v>
       </c>
       <c r="C42">
-        <v>0.79884438368717248</v>
+        <v>0.7988443836888767</v>
       </c>
       <c r="D42">
-        <v>-5.4204987992188398</v>
+        <v>-5.420498799207675</v>
       </c>
       <c r="E42">
-        <v>5.9432971734262727E-8</v>
+        <v>5.943297173797501E-08</v>
       </c>
       <c r="F42">
-        <v>-5.895841243817987</v>
+        <v>-5.895841243821645</v>
       </c>
       <c r="G42">
-        <v>-2.764428801260078</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-2.764428801257057</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B43">
-        <v>0.92897087867783046</v>
+        <v>0.9289708786781221</v>
       </c>
       <c r="C43">
-        <v>0.76445881819281203</v>
+        <v>0.7644588181935141</v>
       </c>
       <c r="D43">
-        <v>1.215200683895473</v>
+        <v>1.215200683894739</v>
       </c>
       <c r="E43">
-        <v>0.22428955966622829</v>
+        <v>0.2242895596665083</v>
       </c>
       <c r="F43">
-        <v>-0.56934087264413413</v>
+        <v>-0.5693408726452187</v>
       </c>
       <c r="G43">
-        <v>2.4272826299997949</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.427282630001463</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B44">
-        <v>-8.0816802199510853</v>
+        <v>-8.081680219951469</v>
       </c>
       <c r="C44">
-        <v>0.61396863553871284</v>
+        <v>0.613968635539754</v>
       </c>
       <c r="D44">
-        <v>-13.1630180308152</v>
+        <v>-13.16301803079351</v>
       </c>
       <c r="E44">
-        <v>1.432474966488012E-39</v>
+        <v>1.432474966899477E-39</v>
       </c>
       <c r="F44">
-        <v>-9.285036633244161</v>
+        <v>-9.285036633246586</v>
       </c>
       <c r="G44">
-        <v>-6.8783238066580097</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-6.878323806656352</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B45">
-        <v>2.3667262302270111</v>
+        <v>2.366726230227232</v>
       </c>
       <c r="C45">
-        <v>0.83500887499537957</v>
+        <v>0.8350088749965136</v>
       </c>
       <c r="D45">
-        <v>2.8343725451302619</v>
+        <v>2.834372545126678</v>
       </c>
       <c r="E45">
-        <v>4.5915769665578997E-3</v>
+        <v>0.004591576966609404</v>
       </c>
       <c r="F45">
-        <v>0.73013890846475915</v>
+        <v>0.7301389084627576</v>
       </c>
       <c r="G45">
-        <v>4.0033135519892644</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.003313551991707</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B46">
-        <v>4.40004744699774</v>
+        <v>4.400047446997604</v>
       </c>
       <c r="C46">
-        <v>0.78339418961286145</v>
+        <v>0.7833941896128401</v>
       </c>
       <c r="D46">
-        <v>5.61664549640349</v>
+        <v>5.61664549640347</v>
       </c>
       <c r="E46">
-        <v>1.947003082978475E-8</v>
+        <v>1.947003082978711E-08</v>
       </c>
       <c r="F46">
-        <v>2.8646230496585892</v>
+        <v>2.864623049658495</v>
       </c>
       <c r="G46">
-        <v>5.9354718443368908</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.935471844336713</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B47">
-        <v>0.65262706880594767</v>
+        <v>0.6526270688070359</v>
       </c>
       <c r="C47">
-        <v>0.46401187889087542</v>
+        <v>0.4640118788912109</v>
       </c>
       <c r="D47">
-        <v>1.40648784760838</v>
+        <v>1.406487847609708</v>
       </c>
       <c r="E47">
-        <v>0.15957931068623901</v>
+        <v>0.1595793106858449</v>
       </c>
       <c r="F47">
-        <v>-0.25681950221892941</v>
+        <v>-0.2568195022184988</v>
       </c>
       <c r="G47">
-        <v>1.562073639830825</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.562073639832571</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B48">
-        <v>1.634883277390597</v>
+        <v>-7.271206326843293</v>
       </c>
       <c r="C48">
-        <v>0.41525684109267791</v>
+        <v>1.228128864289408</v>
       </c>
       <c r="D48">
-        <v>3.9370411649057462</v>
+        <v>-5.92055649718028</v>
       </c>
       <c r="E48">
-        <v>8.2492460240503608E-5</v>
+        <v>3.208540448418225E-09</v>
       </c>
       <c r="F48">
-        <v>0.82099482451507566</v>
+        <v>-9.678294669224613</v>
       </c>
       <c r="G48">
-        <v>2.4487717302661181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-4.864117984461974</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B49">
-        <v>-8.7646976574489841</v>
+        <v>-1006.139481603883</v>
       </c>
       <c r="C49">
-        <v>0.99325230374419782</v>
+        <v>7803.136834124107</v>
       </c>
       <c r="D49">
-        <v>-8.824240955102022</v>
+        <v>-0.1289403867946936</v>
       </c>
       <c r="E49">
-        <v>1.1020471409289661E-18</v>
+        <v>0.8974048193483372</v>
       </c>
       <c r="F49">
-        <v>-10.711436400349051</v>
+        <v>-16300.00664292503</v>
       </c>
       <c r="G49">
-        <v>-6.8179589145489183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14287.72767971726</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B50">
-        <v>-405.63357398473909</v>
+        <v>2430.214947040768</v>
       </c>
       <c r="C50">
-        <v>3118.0421784731921</v>
+        <v>18423.90392024822</v>
       </c>
       <c r="D50">
-        <v>-0.13009239476784931</v>
+        <v>0.131905537369304</v>
       </c>
       <c r="E50">
-        <v>0.89649332708374829</v>
+        <v>0.8950590087152676</v>
       </c>
       <c r="F50">
-        <v>-6516.883946069006</v>
+        <v>-33679.97319127205</v>
       </c>
       <c r="G50">
-        <v>5705.6167980995278</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38540.40308535358</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B51">
-        <v>0.33313488758615301</v>
+        <v>1.63488327739013</v>
       </c>
       <c r="C51">
-        <v>5.16218966301287E-2</v>
+        <v>0.4152568410929133</v>
       </c>
       <c r="D51">
-        <v>6.4533639663235753</v>
+        <v>3.93704116490239</v>
       </c>
       <c r="E51">
-        <v>1.093942002601348E-10</v>
+        <v>8.249246024165675E-05</v>
       </c>
       <c r="F51">
-        <v>0.2319578293774511</v>
+        <v>0.8209948245141478</v>
       </c>
       <c r="G51">
-        <v>0.43431194579485483</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.448771730266113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B52">
-        <v>0.28781810589957108</v>
+        <v>-405.6335739992282</v>
       </c>
       <c r="C52">
-        <v>5.3072209947816709E-2</v>
+        <v>3118.042178473773</v>
       </c>
       <c r="D52">
-        <v>5.4231415308043234</v>
+        <v>-0.1300923947724719</v>
       </c>
       <c r="E52">
-        <v>5.8560588452680041E-8</v>
+        <v>0.8964933270800911</v>
       </c>
       <c r="F52">
-        <v>0.183798485821902</v>
+        <v>-6516.883946084634</v>
       </c>
       <c r="G52">
-        <v>0.39183772597724031</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5705.616798086177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B53">
-        <v>-46.000929181689571</v>
+        <v>0.3331348875858388</v>
       </c>
       <c r="C53">
-        <v>347.86944667720422</v>
+        <v>0.05162189663008544</v>
       </c>
       <c r="D53">
-        <v>-0.1322361869404842</v>
+        <v>6.453363966322898</v>
       </c>
       <c r="E53">
-        <v>0.89479747939417065</v>
+        <v>1.093942002606239E-10</v>
       </c>
       <c r="F53">
-        <v>-727.81251599088648</v>
+        <v>0.2319578293772217</v>
       </c>
       <c r="G53">
-        <v>635.81065762750734</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.4343119457944558</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B54">
-        <v>-7.2712063268441316</v>
+        <v>0.2878181058996416</v>
       </c>
       <c r="C54">
-        <v>1.2281288642877219</v>
+        <v>0.05307220994781953</v>
       </c>
       <c r="D54">
-        <v>-5.9205564971890894</v>
+        <v>5.423141530805363</v>
       </c>
       <c r="E54">
-        <v>3.2085404482463311E-9</v>
+        <v>5.856058845233908E-08</v>
       </c>
       <c r="F54">
-        <v>-9.6782946692221472</v>
+        <v>0.183798485821967</v>
       </c>
       <c r="G54">
-        <v>-4.8641179844661169</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.3918377259773163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B55">
-        <v>-1006.1394815678721</v>
+        <v>-46.00092918331075</v>
       </c>
       <c r="C55">
-        <v>7803.1368341226371</v>
+        <v>347.8694466772649</v>
       </c>
       <c r="D55">
-        <v>-0.12894038679010289</v>
+        <v>-0.1322361869451214</v>
       </c>
       <c r="E55">
-        <v>0.89740481935196958</v>
+        <v>0.8947974793905029</v>
       </c>
       <c r="F55">
-        <v>-16300.006642886139</v>
+        <v>-727.8125159926268</v>
       </c>
       <c r="G55">
-        <v>14287.727679750389</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>635.8106576260053</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B56">
-        <v>2430.21494695513</v>
+        <v>-8.76469765744883</v>
       </c>
       <c r="C56">
-        <v>18423.903920244731</v>
+        <v>0.9932523037446688</v>
       </c>
       <c r="D56">
-        <v>0.1319055373646808</v>
+        <v>-8.824240955097682</v>
       </c>
       <c r="E56">
-        <v>0.89505900871892441</v>
+        <v>1.102047140971701E-18</v>
       </c>
       <c r="F56">
-        <v>-33679.973191350851</v>
+        <v>-10.71143640034982</v>
       </c>
       <c r="G56">
-        <v>38540.40308526111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-6.817958914547841</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B57">
-        <v>-2.8965352070843569</v>
+        <v>-2.896535207083549</v>
       </c>
       <c r="C57">
-        <v>2.2180558508208832</v>
+        <v>2.218055850820743</v>
       </c>
       <c r="D57">
-        <v>-1.30588921194765</v>
+        <v>-1.305889211947368</v>
       </c>
       <c r="E57">
-        <v>0.19159023578118309</v>
+        <v>0.1915902357812789</v>
       </c>
       <c r="F57">
-        <v>-7.2438447903916341</v>
+        <v>-7.243844790390551</v>
       </c>
       <c r="G57">
-        <v>1.4507743762229199</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.450774376223454</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B58">
-        <v>18.687671752480998</v>
+        <v>18.68767175247946</v>
       </c>
       <c r="C58">
-        <v>2.2827914679287482</v>
+        <v>2.282791467928751</v>
       </c>
       <c r="D58">
-        <v>8.1863245132228144</v>
+        <v>8.186324513222127</v>
       </c>
       <c r="E58">
-        <v>2.6932490743526441E-16</v>
+        <v>2.693249074368058E-16</v>
       </c>
       <c r="F58">
-        <v>14.21348269112533</v>
+        <v>14.21348269112378</v>
       </c>
       <c r="G58">
-        <v>23.161860813836672</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23.16186081383513</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B59">
-        <v>9.8794226425905496</v>
+        <v>9.879422642589923</v>
       </c>
       <c r="C59">
-        <v>2.243634736421694</v>
+        <v>2.243634736420948</v>
       </c>
       <c r="D59">
-        <v>4.4033115026320839</v>
+        <v>4.403311502633268</v>
       </c>
       <c r="E59">
-        <v>1.0661091661098581E-5</v>
+        <v>1.066109166104039E-05</v>
       </c>
       <c r="F59">
-        <v>5.4819793647410124</v>
+        <v>5.481979364741846</v>
       </c>
       <c r="G59">
-        <v>14.276865920440089</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14.276865920438</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B60">
-        <v>-6.1750591395318137E-13</v>
+        <v>1.42637948775501E-12</v>
       </c>
       <c r="C60">
-        <v>7.5785639220840355E-14</v>
+        <v>1.766814255731568E-13</v>
       </c>
       <c r="D60">
-        <v>-8.1480597155585244</v>
+        <v>8.073171716425859</v>
       </c>
       <c r="E60">
-        <v>3.698097395900344E-16</v>
+        <v>6.849517068284792E-16</v>
       </c>
       <c r="F60">
-        <v>-7.660430373713746E-13</v>
+        <v>1.080090256894428E-12</v>
       </c>
       <c r="G60">
-        <v>-4.6896879053498815E-13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.772668718615591E-12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B61">
-        <v>-1.036767106451659E-12</v>
+        <v>6.126865676501458E-13</v>
       </c>
       <c r="C61">
-        <v>1.285171491563448E-13</v>
+        <v>7.563774619487547E-14</v>
       </c>
       <c r="D61">
-        <v>-8.0671498960065051</v>
+        <v>8.100275305290044</v>
       </c>
       <c r="E61">
-        <v>7.195818267770725E-16</v>
+        <v>5.483495398451004E-16</v>
       </c>
       <c r="F61">
-        <v>-1.2886560901938571E-12</v>
+        <v>4.644393092364084E-13</v>
       </c>
       <c r="G61">
-        <v>-7.8487812270946147E-13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.609338260638832E-13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B62">
-        <v>5.7882217040568681E-14</v>
+        <v>4.178188616380418E-16</v>
       </c>
       <c r="C62">
-        <v>6.8869374975435718E-15</v>
+        <v>2.795460374983422E-16</v>
       </c>
       <c r="D62">
-        <v>8.4046380646280099</v>
+        <v>1.494633461368665</v>
       </c>
       <c r="E62">
-        <v>4.291831260018489E-17</v>
+        <v>0.135010128338423</v>
       </c>
       <c r="F62">
-        <v>4.438406758160487E-14</v>
+        <v>-1.300813038795922E-16</v>
       </c>
       <c r="G62">
-        <v>7.1380366499532491E-14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9.657190271556758E-16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B63">
-        <v>-1.1009497412416089E-14</v>
+        <v>2.593899624731934E-14</v>
       </c>
       <c r="C63">
-        <v>1.288457895806105E-15</v>
+        <v>2.842705560500087E-15</v>
       </c>
       <c r="D63">
-        <v>-8.5447087159399615</v>
+        <v>9.124756572663184</v>
       </c>
       <c r="E63">
-        <v>1.288608768625913E-17</v>
+        <v>7.189765411458254E-20</v>
       </c>
       <c r="F63">
-        <v>-1.353482848379232E-14</v>
+        <v>2.036739573008743E-14</v>
       </c>
       <c r="G63">
-        <v>-8.4841663410398637E-15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.151059676455126E-14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B64">
-        <v>2.3856477565198589E-14</v>
+        <v>-3.686159670045399E-14</v>
       </c>
       <c r="C64">
-        <v>2.6625034751875741E-15</v>
+        <v>4.273741137669162E-15</v>
       </c>
       <c r="D64">
-        <v>8.9601676720883514</v>
+        <v>-8.625135569291356</v>
       </c>
       <c r="E64">
-        <v>3.2418506858720988E-19</v>
+        <v>6.401677432897817E-18</v>
       </c>
       <c r="F64">
-        <v>1.8638066645118209E-14</v>
+        <v>-4.523797540953279E-14</v>
       </c>
       <c r="G64">
-        <v>2.9074888485278969E-14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-2.84852179913752E-14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B65">
-        <v>-5.1514683764097633</v>
+        <v>-5.151468376409349</v>
       </c>
       <c r="C65">
-        <v>2.3474279858150209</v>
+        <v>2.347427985816313</v>
       </c>
       <c r="D65">
-        <v>-2.194516043746146</v>
+        <v>-2.194516043744761</v>
       </c>
       <c r="E65">
-        <v>2.8198331838071512E-2</v>
+        <v>0.02819833183817095</v>
       </c>
       <c r="F65">
-        <v>-9.752342684908605</v>
+        <v>-9.752342684910724</v>
       </c>
       <c r="G65">
-        <v>-0.55059406791092158</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-0.5505940679079746</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
@@ -5499,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
@@ -5516,142 +5493,142 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B68">
-        <v>23.476367076713188</v>
+        <v>23.47636707671281</v>
       </c>
       <c r="C68">
-        <v>2.431157165937857</v>
+        <v>2.431157165937765</v>
       </c>
       <c r="D68">
-        <v>9.6564580051149473</v>
+        <v>9.656458005115157</v>
       </c>
       <c r="E68">
-        <v>4.6154638121626403E-22</v>
+        <v>4.615463812153228E-22</v>
       </c>
       <c r="F68">
-        <v>18.711386590718519</v>
+        <v>18.71138659071832</v>
       </c>
       <c r="G68">
-        <v>28.241347562707858</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28.2413475627073</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B69">
-        <v>20.797500940137841</v>
+        <v>20.79750094013721</v>
       </c>
       <c r="C69">
-        <v>1.367875044857195</v>
+        <v>1.367875044857567</v>
       </c>
       <c r="D69">
-        <v>15.204240342222979</v>
+        <v>15.20424034221839</v>
       </c>
       <c r="E69">
-        <v>3.3145335499535311E-52</v>
+        <v>3.314533550185559E-52</v>
       </c>
       <c r="F69">
-        <v>18.116515116866619</v>
+        <v>18.11651511686527</v>
       </c>
       <c r="G69">
-        <v>23.478486763409052</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23.47848676340915</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B70">
-        <v>-3.0251019082164672</v>
+        <v>-3.025101908215867</v>
       </c>
       <c r="C70">
-        <v>6.2594604816812431</v>
+        <v>6.259460481682348</v>
       </c>
       <c r="D70">
-        <v>-0.48328476824314859</v>
+        <v>-0.4832847682429674</v>
       </c>
       <c r="E70">
-        <v>0.628893553665548</v>
+        <v>0.6288935536656766</v>
       </c>
       <c r="F70">
-        <v>-15.29341901496344</v>
+        <v>-15.29341901496501</v>
       </c>
       <c r="G70">
-        <v>9.2432151985305087</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9.243215198533274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B71">
-        <v>-1.9877296321348079</v>
+        <v>-1.987729632134783</v>
       </c>
       <c r="C71">
-        <v>5.0278169796917043</v>
+        <v>5.027816979691556</v>
       </c>
       <c r="D71">
-        <v>-0.39534645755078618</v>
+        <v>-0.3953464575507929</v>
       </c>
       <c r="E71">
-        <v>0.69258721785627597</v>
+        <v>0.6925872178562711</v>
       </c>
       <c r="F71">
-        <v>-11.8420698331895</v>
+        <v>-11.84206983318919</v>
       </c>
       <c r="G71">
-        <v>7.8666105689198851</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.866610568919619</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B72">
-        <v>-4.1630603360198473</v>
+        <v>-4.163060336020029</v>
       </c>
       <c r="C72">
-        <v>1.3284007662910171</v>
+        <v>1.328400766291039</v>
       </c>
       <c r="D72">
-        <v>-3.133888839618324</v>
+        <v>-3.133888839618408</v>
       </c>
       <c r="E72">
-        <v>1.725061923755286E-3</v>
+        <v>0.001725061923754791</v>
       </c>
       <c r="F72">
-        <v>-6.7666779949856499</v>
+        <v>-6.766677994985876</v>
       </c>
       <c r="G72">
-        <v>-1.559442677054045</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1.559442677054183</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.97571622418212467</v>
+        <v>-0.9757162241823325</v>
       </c>
       <c r="C73">
-        <v>1.711387762326593</v>
+        <v>1.711387762326228</v>
       </c>
       <c r="D73">
-        <v>-0.57013158891335081</v>
+        <v>-0.5701315889135941</v>
       </c>
       <c r="E73">
-        <v>0.56858845144021997</v>
+        <v>0.568588451440055</v>
       </c>
       <c r="F73">
-        <v>-4.3299746019248424</v>
+        <v>-4.329974601924333</v>
       </c>
       <c r="G73">
-        <v>2.3785421535605922</v>
+        <v>2.378542153559668</v>
       </c>
     </row>
   </sheetData>

--- a/Presentacion 1/resultados_regresion_pisa.xlsx
+++ b/Presentacion 1/resultados_regresion_pisa.xlsx
@@ -638,22 +638,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>19899.29449173898</v>
+        <v>19899.2944877366</v>
       </c>
       <c r="C2">
-        <v>52832.60097050513</v>
+        <v>52832.60097048795</v>
       </c>
       <c r="D2">
-        <v>0.3766480189542091</v>
+        <v>0.3766480188785756</v>
       </c>
       <c r="E2">
-        <v>0.706435197374996</v>
+        <v>0.7064351974312106</v>
       </c>
       <c r="F2">
-        <v>-83650.70062002698</v>
+        <v>-83650.70062399568</v>
       </c>
       <c r="G2">
-        <v>123449.2896035049</v>
+        <v>123449.2895994689</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -661,22 +661,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>3.050267506355613</v>
+        <v>3.050267506337653</v>
       </c>
       <c r="C3">
-        <v>1.897069903815169</v>
+        <v>1.897069903814886</v>
       </c>
       <c r="D3">
-        <v>1.607883557807367</v>
+        <v>1.607883557798139</v>
       </c>
       <c r="E3">
-        <v>0.1078606835427562</v>
+        <v>0.1078606835447777</v>
       </c>
       <c r="F3">
-        <v>-0.667921181276983</v>
+        <v>-0.6679211812943886</v>
       </c>
       <c r="G3">
-        <v>6.768456193988209</v>
+        <v>6.768456193969694</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -684,22 +684,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>7.226434426674202</v>
+        <v>7.226434426698336</v>
       </c>
       <c r="C4">
-        <v>1.469167305558244</v>
+        <v>1.469167305556425</v>
       </c>
       <c r="D4">
-        <v>4.918728043657596</v>
+        <v>4.918728043680112</v>
       </c>
       <c r="E4">
-        <v>8.710839381575769E-07</v>
+        <v>8.710839380573947E-07</v>
       </c>
       <c r="F4">
-        <v>4.346919420516292</v>
+        <v>4.34691942054399</v>
       </c>
       <c r="G4">
-        <v>10.10594943283211</v>
+        <v>10.10594943285268</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -707,22 +707,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.03467945240942732</v>
+        <v>0.03467945240957689</v>
       </c>
       <c r="C5">
-        <v>0.02754802087782661</v>
+        <v>0.02754802087782759</v>
       </c>
       <c r="D5">
-        <v>1.258872735839285</v>
+        <v>1.258872735844669</v>
       </c>
       <c r="E5">
-        <v>0.2080763029836169</v>
+        <v>0.2080763029816716</v>
       </c>
       <c r="F5">
-        <v>-0.01931367635647033</v>
+        <v>-0.01931367635632267</v>
       </c>
       <c r="G5">
-        <v>0.08867258117532496</v>
+        <v>0.08867258117547644</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -730,22 +730,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-20.56989503449755</v>
+        <v>-20.56989503448041</v>
       </c>
       <c r="C6">
-        <v>2.212786790383825</v>
+        <v>2.212786790385921</v>
       </c>
       <c r="D6">
-        <v>-9.295922735931345</v>
+        <v>-9.295922735914797</v>
       </c>
       <c r="E6">
-        <v>1.459348050522479E-20</v>
+        <v>1.459348050749525E-20</v>
       </c>
       <c r="F6">
-        <v>-24.90687744911583</v>
+        <v>-24.9068774491028</v>
       </c>
       <c r="G6">
-        <v>-16.23291261987927</v>
+        <v>-16.23291261985803</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -753,22 +753,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-8.589632468104348</v>
+        <v>-8.589632468104826</v>
       </c>
       <c r="C7">
-        <v>1.986441063172187</v>
+        <v>1.986441063174787</v>
       </c>
       <c r="D7">
-        <v>-4.324131547294635</v>
+        <v>-4.324131547289216</v>
       </c>
       <c r="E7">
-        <v>1.53133904902041E-05</v>
+        <v>1.531339049058046E-05</v>
       </c>
       <c r="F7">
-        <v>-12.48298540933329</v>
+        <v>-12.48298540933886</v>
       </c>
       <c r="G7">
-        <v>-4.696279526875408</v>
+        <v>-4.696279526870789</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -776,22 +776,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-2.853823463560081</v>
+        <v>-2.853823463554092</v>
       </c>
       <c r="C8">
-        <v>1.162017944027832</v>
+        <v>1.162017944028413</v>
       </c>
       <c r="D8">
-        <v>-2.455920305041114</v>
+        <v>-2.455920305034732</v>
       </c>
       <c r="E8">
-        <v>0.01405243172677378</v>
+        <v>0.01405243172702336</v>
       </c>
       <c r="F8">
-        <v>-5.131336783243912</v>
+        <v>-5.131336783239062</v>
       </c>
       <c r="G8">
-        <v>-0.5763101438762503</v>
+        <v>-0.5763101438691218</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -799,22 +799,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-2.097947060063674</v>
+        <v>-2.097947060062376</v>
       </c>
       <c r="C9">
-        <v>0.1562422205283867</v>
+        <v>0.1562422205287702</v>
       </c>
       <c r="D9">
-        <v>-13.42752972255992</v>
+        <v>-13.42752972251865</v>
       </c>
       <c r="E9">
-        <v>4.170941137678766E-41</v>
+        <v>4.170941140002903E-41</v>
       </c>
       <c r="F9">
-        <v>-2.404176185163877</v>
+        <v>-2.404176185163331</v>
       </c>
       <c r="G9">
-        <v>-1.791717934963472</v>
+        <v>-1.791717934961422</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -822,22 +822,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-1.502153732785934</v>
+        <v>-1.502153732787691</v>
       </c>
       <c r="C10">
-        <v>0.1952934153600327</v>
+        <v>0.1952934153604539</v>
       </c>
       <c r="D10">
-        <v>-7.691778701379368</v>
+        <v>-7.691778701371775</v>
       </c>
       <c r="E10">
-        <v>1.451034413836789E-14</v>
+        <v>1.451034413922923E-14</v>
       </c>
       <c r="F10">
-        <v>-1.88492179330942</v>
+        <v>-1.884921793312002</v>
       </c>
       <c r="G10">
-        <v>-1.119385672262448</v>
+        <v>-1.11938567226338</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -845,22 +845,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-2.444593109035213</v>
+        <v>-2.444593109036987</v>
       </c>
       <c r="C11">
-        <v>0.183677430194968</v>
+        <v>0.1836774301948572</v>
       </c>
       <c r="D11">
-        <v>-13.30916436733872</v>
+        <v>-13.30916436735641</v>
       </c>
       <c r="E11">
-        <v>2.047590091048704E-40</v>
+        <v>2.047590090564063E-40</v>
       </c>
       <c r="F11">
-        <v>-2.80459425699022</v>
+        <v>-2.804594256991777</v>
       </c>
       <c r="G11">
-        <v>-2.084591961080206</v>
+        <v>-2.084591961082197</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -868,22 +868,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.532244780872283</v>
+        <v>-0.5322447808710016</v>
       </c>
       <c r="C12">
-        <v>0.1589544089657837</v>
+        <v>0.1589544089661221</v>
       </c>
       <c r="D12">
-        <v>-3.348411562379835</v>
+        <v>-3.348411562364645</v>
       </c>
       <c r="E12">
-        <v>0.0008127621593673817</v>
+        <v>0.000812762159411935</v>
       </c>
       <c r="F12">
-        <v>-0.8437896976290696</v>
+        <v>-0.8437896976284516</v>
       </c>
       <c r="G12">
-        <v>-0.2206998641154964</v>
+        <v>-0.2206998641135516</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -891,22 +891,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>1.917613227551141</v>
+        <v>1.917613227551234</v>
       </c>
       <c r="C13">
-        <v>0.3244886931059306</v>
+        <v>0.3244886931074705</v>
       </c>
       <c r="D13">
-        <v>5.909645754359548</v>
+        <v>5.909645754331789</v>
       </c>
       <c r="E13">
-        <v>3.428442073138285E-09</v>
+        <v>3.428442073715977E-09</v>
       </c>
       <c r="F13">
-        <v>1.281627075673046</v>
+        <v>1.281627075670121</v>
       </c>
       <c r="G13">
-        <v>2.553599379429235</v>
+        <v>2.553599379432347</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -914,22 +914,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>7.860204372233368</v>
+        <v>7.860204372232656</v>
       </c>
       <c r="C14">
-        <v>1.672882273154196</v>
+        <v>1.672882273152729</v>
       </c>
       <c r="D14">
-        <v>4.698599834770838</v>
+        <v>4.698599834774532</v>
       </c>
       <c r="E14">
-        <v>2.619511339080881E-06</v>
+        <v>2.619511339033518E-06</v>
       </c>
       <c r="F14">
-        <v>4.581415366475648</v>
+        <v>4.58141536647781</v>
       </c>
       <c r="G14">
-        <v>11.13899337799109</v>
+        <v>11.1389933779875</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -937,22 +937,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>13.00612432163743</v>
+        <v>13.00612432163823</v>
       </c>
       <c r="C15">
-        <v>1.905011127319159</v>
+        <v>1.905011127317812</v>
       </c>
       <c r="D15">
-        <v>6.827321969473424</v>
+        <v>6.82732196947867</v>
       </c>
       <c r="E15">
-        <v>8.651438599835873E-12</v>
+        <v>8.651438599519602E-12</v>
       </c>
       <c r="F15">
-        <v>9.272371121943829</v>
+        <v>9.27237112194727</v>
       </c>
       <c r="G15">
-        <v>16.73987752133103</v>
+        <v>16.73987752132919</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -960,22 +960,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>-5.197928877641806</v>
+        <v>-5.19792887761434</v>
       </c>
       <c r="C16">
-        <v>2.472941691917225</v>
+        <v>2.472941691918397</v>
       </c>
       <c r="D16">
-        <v>-2.101921324967412</v>
+        <v>-2.101921324955308</v>
       </c>
       <c r="E16">
-        <v>0.03556016817543948</v>
+        <v>0.0355601681764999</v>
       </c>
       <c r="F16">
-        <v>-10.04480552966711</v>
+        <v>-10.04480552964194</v>
       </c>
       <c r="G16">
-        <v>-0.3510522256164998</v>
+        <v>-0.3510522255867352</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -983,22 +983,22 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>1.114716217077709</v>
+        <v>1.114716217073886</v>
       </c>
       <c r="C17">
-        <v>0.4182878618396187</v>
+        <v>0.4182878618410018</v>
       </c>
       <c r="D17">
-        <v>2.664949951392844</v>
+        <v>2.664949951374894</v>
       </c>
       <c r="E17">
-        <v>0.007699978139891348</v>
+        <v>0.007699978140302354</v>
       </c>
       <c r="F17">
-        <v>0.2948870727017898</v>
+        <v>0.2948870726952565</v>
       </c>
       <c r="G17">
-        <v>1.934545361453627</v>
+        <v>1.934545361452515</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1006,22 +1006,22 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>0.2075767628636044</v>
+        <v>0.2075767628644248</v>
       </c>
       <c r="C18">
-        <v>0.03063755764214895</v>
+        <v>0.03063755764221312</v>
       </c>
       <c r="D18">
-        <v>6.775238590756176</v>
+        <v>6.775238590768764</v>
       </c>
       <c r="E18">
-        <v>1.242011207266641E-11</v>
+        <v>1.242011207158507E-11</v>
       </c>
       <c r="F18">
-        <v>0.1475282533107226</v>
+        <v>0.1475282533114172</v>
       </c>
       <c r="G18">
-        <v>0.2676252724164863</v>
+        <v>0.2676252724174324</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1029,22 +1029,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>0.8440311319622225</v>
+        <v>0.8440311319617769</v>
       </c>
       <c r="C19">
-        <v>0.5942637906925935</v>
+        <v>0.594263790694754</v>
       </c>
       <c r="D19">
-        <v>1.420297088904801</v>
+        <v>1.420297088898888</v>
       </c>
       <c r="E19">
-        <v>0.1555212083196688</v>
+        <v>0.1555212083213897</v>
       </c>
       <c r="F19">
-        <v>-0.3207044951115097</v>
+        <v>-0.3207044951161898</v>
       </c>
       <c r="G19">
-        <v>2.008766759035955</v>
+        <v>2.008766759039744</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1052,22 +1052,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>1.922661384972948</v>
+        <v>1.922661384972312</v>
       </c>
       <c r="C20">
-        <v>0.5892782554228052</v>
+        <v>0.5892782554248746</v>
       </c>
       <c r="D20">
-        <v>3.262739405840531</v>
+        <v>3.262739405827995</v>
       </c>
       <c r="E20">
-        <v>0.001103409310923361</v>
+        <v>0.00110340931097217</v>
       </c>
       <c r="F20">
-        <v>0.7676972274716551</v>
+        <v>0.7676972274669636</v>
       </c>
       <c r="G20">
-        <v>3.077625542474241</v>
+        <v>3.077625542477661</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1075,22 +1075,22 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>0.09255225616716745</v>
+        <v>0.09255225616825147</v>
       </c>
       <c r="C21">
-        <v>0.5870981101169495</v>
+        <v>0.5870981101182826</v>
       </c>
       <c r="D21">
-        <v>0.1576435940983205</v>
+        <v>0.1576435940998089</v>
       </c>
       <c r="E21">
-        <v>0.8747376499281985</v>
+        <v>0.8747376499270256</v>
       </c>
       <c r="F21">
-        <v>-1.058138895053584</v>
+        <v>-1.058138895055113</v>
       </c>
       <c r="G21">
-        <v>1.243243407387919</v>
+        <v>1.243243407391616</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1098,22 +1098,22 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.8925113087745897</v>
+        <v>-0.8925113087726686</v>
       </c>
       <c r="C22">
-        <v>0.5683068972253758</v>
+        <v>0.5683068972261999</v>
       </c>
       <c r="D22">
-        <v>-1.570474180644411</v>
+        <v>-1.570474180638754</v>
       </c>
       <c r="E22">
-        <v>0.116304836551621</v>
+        <v>0.1163048365529364</v>
       </c>
       <c r="F22">
-        <v>-2.006372359502032</v>
+        <v>-2.006372359501726</v>
       </c>
       <c r="G22">
-        <v>0.2213497419528527</v>
+        <v>0.221349741956389</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1121,22 +1121,22 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>-3.556772127575423</v>
+        <v>-3.55677212757537</v>
       </c>
       <c r="C23">
-        <v>0.5812241067629444</v>
+        <v>0.5812241067640991</v>
       </c>
       <c r="D23">
-        <v>-6.119450460140795</v>
+        <v>-6.119450460128548</v>
       </c>
       <c r="E23">
-        <v>9.389861611289919E-10</v>
+        <v>9.389861612011541E-10</v>
       </c>
       <c r="F23">
-        <v>-4.695950443777257</v>
+        <v>-4.695950443779468</v>
       </c>
       <c r="G23">
-        <v>-2.417593811373589</v>
+        <v>-2.417593811371273</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1144,22 +1144,22 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>1.502404686896801</v>
+        <v>1.502404686897397</v>
       </c>
       <c r="C24">
-        <v>0.5751968474188672</v>
+        <v>0.5751968474201425</v>
       </c>
       <c r="D24">
-        <v>2.611983521187011</v>
+        <v>2.611983521182257</v>
       </c>
       <c r="E24">
-        <v>0.009001859302561133</v>
+        <v>0.009001859302686323</v>
       </c>
       <c r="F24">
-        <v>0.3750395819348402</v>
+        <v>0.3750395819329371</v>
       </c>
       <c r="G24">
-        <v>2.629769791858761</v>
+        <v>2.629769791861857</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1167,22 +1167,22 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>3.076141171672902</v>
+        <v>3.076141171673331</v>
       </c>
       <c r="C25">
-        <v>0.5998972702615566</v>
+        <v>0.5998972702623298</v>
       </c>
       <c r="D25">
-        <v>5.127779911936751</v>
+        <v>5.127779911930858</v>
       </c>
       <c r="E25">
-        <v>2.931788905186597E-07</v>
+        <v>2.931788905278352E-07</v>
       </c>
       <c r="F25">
-        <v>1.90036412753636</v>
+        <v>1.900364127535274</v>
       </c>
       <c r="G25">
-        <v>4.251918215809445</v>
+        <v>4.251918215811389</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1190,22 +1190,22 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>0.6806364485867453</v>
+        <v>0.6806364485863678</v>
       </c>
       <c r="C26">
-        <v>0.5473002407902415</v>
+        <v>0.5473002407911878</v>
       </c>
       <c r="D26">
-        <v>1.243625341008403</v>
+        <v>1.243625341005563</v>
       </c>
       <c r="E26">
-        <v>0.2136374851523281</v>
+        <v>0.2136374851533739</v>
       </c>
       <c r="F26">
-        <v>-0.3920523120922275</v>
+        <v>-0.3920523120944597</v>
       </c>
       <c r="G26">
-        <v>1.753325209265718</v>
+        <v>1.753325209267195</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1213,22 +1213,22 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>4.737845005298258</v>
+        <v>4.737845005296095</v>
       </c>
       <c r="C27">
-        <v>0.5664469078188293</v>
+        <v>0.566446907817823</v>
       </c>
       <c r="D27">
-        <v>8.364146647991936</v>
+        <v>8.364146648002976</v>
       </c>
       <c r="E27">
-        <v>6.05515689254984E-17</v>
+        <v>6.055156891982869E-17</v>
       </c>
       <c r="F27">
-        <v>3.627629466819273</v>
+        <v>3.627629466819082</v>
       </c>
       <c r="G27">
-        <v>5.848060543777243</v>
+        <v>5.848060543773109</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1236,22 +1236,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>-3.085620520673267</v>
+        <v>-3.085620520673481</v>
       </c>
       <c r="C28">
-        <v>0.5544825373611312</v>
+        <v>0.5544825373630906</v>
       </c>
       <c r="D28">
-        <v>-5.564865099914988</v>
+        <v>-5.564865099895708</v>
       </c>
       <c r="E28">
-        <v>2.623552877643762E-08</v>
+        <v>2.623552877933829E-08</v>
       </c>
       <c r="F28">
-        <v>-4.172386323957469</v>
+        <v>-4.172386323961524</v>
       </c>
       <c r="G28">
-        <v>-1.998854717389065</v>
+        <v>-1.998854717385438</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1259,22 +1259,22 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>-3.312833029040942</v>
+        <v>-3.312833029041256</v>
       </c>
       <c r="C29">
-        <v>0.5222974371378318</v>
+        <v>0.5222974371399118</v>
       </c>
       <c r="D29">
-        <v>-6.342809275869949</v>
+        <v>-6.342809275845291</v>
       </c>
       <c r="E29">
-        <v>2.256126740300524E-10</v>
+        <v>2.256126740661766E-10</v>
       </c>
       <c r="F29">
-        <v>-4.336517195048665</v>
+        <v>-4.336517195053056</v>
       </c>
       <c r="G29">
-        <v>-2.289148863033218</v>
+        <v>-2.289148863029456</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1282,22 +1282,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>0.7608791990298209</v>
+        <v>0.760879199030126</v>
       </c>
       <c r="C30">
-        <v>0.628629262972049</v>
+        <v>0.6286292629734702</v>
       </c>
       <c r="D30">
-        <v>1.210378268794738</v>
+        <v>1.210378268792487</v>
       </c>
       <c r="E30">
-        <v>0.2261337766852088</v>
+        <v>0.2261337766860724</v>
       </c>
       <c r="F30">
-        <v>-0.4712115160233536</v>
+        <v>-0.4712115160258341</v>
       </c>
       <c r="G30">
-        <v>1.992969914082996</v>
+        <v>1.992969914086086</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1305,22 +1305,22 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>-1.162795787914468</v>
+        <v>-1.162795787915738</v>
       </c>
       <c r="C31">
-        <v>0.5391868858424588</v>
+        <v>0.5391868858438548</v>
       </c>
       <c r="D31">
-        <v>-2.156572829284681</v>
+        <v>-2.156572829281454</v>
       </c>
       <c r="E31">
-        <v>0.03103896348468574</v>
+        <v>0.03103896348493738</v>
       </c>
       <c r="F31">
-        <v>-2.219582665101997</v>
+        <v>-2.219582665106003</v>
       </c>
       <c r="G31">
-        <v>-0.1060089107269389</v>
+        <v>-0.1060089107254736</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1328,22 +1328,22 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>3.825268620294275</v>
+        <v>3.825268620293746</v>
       </c>
       <c r="C32">
-        <v>0.6374389337463124</v>
+        <v>0.637438933749561</v>
       </c>
       <c r="D32">
-        <v>6.000996201805039</v>
+        <v>6.000996201773627</v>
       </c>
       <c r="E32">
-        <v>1.961105788063332E-09</v>
+        <v>1.961105788442769E-09</v>
       </c>
       <c r="F32">
-        <v>2.575911267807889</v>
+        <v>2.575911267800993</v>
       </c>
       <c r="G32">
-        <v>5.074625972780661</v>
+        <v>5.0746259727865</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1351,22 +1351,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>-5.653436735416928</v>
+        <v>-5.653436735419007</v>
       </c>
       <c r="C33">
-        <v>0.6686557835263889</v>
+        <v>0.6686557835283461</v>
       </c>
       <c r="D33">
-        <v>-8.45492834235511</v>
+        <v>-8.454928342333471</v>
       </c>
       <c r="E33">
-        <v>2.792587956917765E-17</v>
+        <v>2.792587957435671E-17</v>
       </c>
       <c r="F33">
-        <v>-6.963977989183062</v>
+        <v>-6.963977989188976</v>
       </c>
       <c r="G33">
-        <v>-4.342895481650795</v>
+        <v>-4.342895481649037</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1374,22 +1374,22 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>0.2313228997287942</v>
+        <v>0.2313228997295403</v>
       </c>
       <c r="C34">
-        <v>0.648859207131705</v>
+        <v>0.6488592071338536</v>
       </c>
       <c r="D34">
-        <v>0.3565070776314659</v>
+        <v>0.3565070776314354</v>
       </c>
       <c r="E34">
-        <v>0.7214608526544042</v>
+        <v>0.7214608526544271</v>
       </c>
       <c r="F34">
-        <v>-1.040417777286563</v>
+        <v>-1.040417777290028</v>
       </c>
       <c r="G34">
-        <v>1.503063576744151</v>
+        <v>1.503063576749108</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1397,22 +1397,22 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>-2.498060966159343</v>
+        <v>-2.49806096616084</v>
       </c>
       <c r="C35">
-        <v>0.613178778691985</v>
+        <v>0.6131787786946203</v>
       </c>
       <c r="D35">
-        <v>-4.073952088635771</v>
+        <v>-4.073952088620703</v>
       </c>
       <c r="E35">
-        <v>4.622199444843191E-05</v>
+        <v>4.622199445142403E-05</v>
       </c>
       <c r="F35">
-        <v>-3.69986928847989</v>
+        <v>-3.699869288486552</v>
       </c>
       <c r="G35">
-        <v>-1.296252643838796</v>
+        <v>-1.296252643835128</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1420,22 +1420,22 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>13.70313261396953</v>
+        <v>13.70313261396832</v>
       </c>
       <c r="C36">
-        <v>0.6667537999788142</v>
+        <v>0.6667537999782724</v>
       </c>
       <c r="D36">
-        <v>20.5520127735379</v>
+        <v>20.55201277355279</v>
       </c>
       <c r="E36">
-        <v>7.383740332714871E-94</v>
+        <v>7.38374033045E-94</v>
       </c>
       <c r="F36">
-        <v>12.39631917945583</v>
+        <v>12.39631917945568</v>
       </c>
       <c r="G36">
-        <v>15.00994604848323</v>
+        <v>15.00994604848096</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1443,22 +1443,22 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>-3.027505844185291</v>
+        <v>-3.027505844184436</v>
       </c>
       <c r="C37">
-        <v>0.777829648313363</v>
+        <v>0.7778296483147039</v>
       </c>
       <c r="D37">
-        <v>-3.892247937257342</v>
+        <v>-3.892247937249533</v>
       </c>
       <c r="E37">
-        <v>9.931966718320583E-05</v>
+        <v>9.931966718640358E-05</v>
       </c>
       <c r="F37">
-        <v>-4.552023940986938</v>
+        <v>-4.552023940988712</v>
       </c>
       <c r="G37">
-        <v>-1.502987747383643</v>
+        <v>-1.50298774738016</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1466,22 +1466,22 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>5.644146198506284</v>
+        <v>5.644146198506684</v>
       </c>
       <c r="C38">
-        <v>0.4274729728725531</v>
+        <v>0.4274729728742816</v>
       </c>
       <c r="D38">
-        <v>13.2035159102071</v>
+        <v>13.20351591015465</v>
       </c>
       <c r="E38">
-        <v>8.373373820041445E-40</v>
+        <v>8.373373825873571E-40</v>
       </c>
       <c r="F38">
-        <v>4.806314567311813</v>
+        <v>4.806314567308824</v>
       </c>
       <c r="G38">
-        <v>6.481977829700756</v>
+        <v>6.481977829704544</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1489,22 +1489,22 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>-6.394456398560134</v>
+        <v>-6.394456398561708</v>
       </c>
       <c r="C39">
-        <v>0.5437964232711364</v>
+        <v>0.5437964232717641</v>
       </c>
       <c r="D39">
-        <v>-11.75891588270316</v>
+        <v>-11.75891588269248</v>
       </c>
       <c r="E39">
-        <v>6.354496717104797E-32</v>
+        <v>6.354496717908403E-32</v>
       </c>
       <c r="F39">
-        <v>-7.460277803093261</v>
+        <v>-7.460277803096065</v>
       </c>
       <c r="G39">
-        <v>-5.328634994027007</v>
+        <v>-5.328634994027351</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1512,22 +1512,22 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>3.531551231368065</v>
+        <v>3.531551231367521</v>
       </c>
       <c r="C40">
-        <v>0.6159056858877474</v>
+        <v>0.6159056858893827</v>
       </c>
       <c r="D40">
-        <v>5.733915617742343</v>
+        <v>5.733915617726236</v>
       </c>
       <c r="E40">
-        <v>9.813816964762978E-09</v>
+        <v>9.813816965695414E-09</v>
       </c>
       <c r="F40">
-        <v>2.32439826915464</v>
+        <v>2.324398269150891</v>
       </c>
       <c r="G40">
-        <v>4.738704193581489</v>
+        <v>4.73870419358415</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1535,22 +1535,22 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>-3.002077635243228</v>
+        <v>-3.002077635244148</v>
       </c>
       <c r="C41">
-        <v>0.6658469330081467</v>
+        <v>0.665846933009453</v>
       </c>
       <c r="D41">
-        <v>-4.508660303773596</v>
+        <v>-4.508660303766132</v>
       </c>
       <c r="E41">
-        <v>6.523826677699799E-06</v>
+        <v>6.523826677929279E-06</v>
       </c>
       <c r="F41">
-        <v>-4.30711364315565</v>
+        <v>-4.30711364315913</v>
       </c>
       <c r="G41">
-        <v>-1.697041627330806</v>
+        <v>-1.697041627329166</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1558,22 +1558,22 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>-3.835151664051489</v>
+        <v>-3.835151664050203</v>
       </c>
       <c r="C42">
-        <v>0.6678498362873437</v>
+        <v>0.6678498362893808</v>
       </c>
       <c r="D42">
-        <v>-5.742535905034507</v>
+        <v>-5.742535905015067</v>
       </c>
       <c r="E42">
-        <v>9.326909397804629E-09</v>
+        <v>9.326909398875756E-09</v>
       </c>
       <c r="F42">
-        <v>-5.144113290255653</v>
+        <v>-5.14411329025836</v>
       </c>
       <c r="G42">
-        <v>-2.526190037847324</v>
+        <v>-2.526190037842046</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1581,22 +1581,22 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>0.2040256546345286</v>
+        <v>0.2040256546349148</v>
       </c>
       <c r="C43">
-        <v>0.638522842726603</v>
+        <v>0.6385228427276891</v>
       </c>
       <c r="D43">
-        <v>0.3195275736155401</v>
+        <v>0.3195275736156015</v>
       </c>
       <c r="E43">
-        <v>0.7493264856538033</v>
+        <v>0.7493264856537568</v>
       </c>
       <c r="F43">
-        <v>-1.047456120415747</v>
+        <v>-1.047456120417489</v>
       </c>
       <c r="G43">
-        <v>1.455507429684804</v>
+        <v>1.455507429687319</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1604,22 +1604,22 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>-6.262666579002539</v>
+        <v>-6.26266657900283</v>
       </c>
       <c r="C44">
-        <v>0.5132935054523229</v>
+        <v>0.5132935054540069</v>
       </c>
       <c r="D44">
-        <v>-12.20094646138913</v>
+        <v>-12.20094646134966</v>
       </c>
       <c r="E44">
-        <v>3.072319053541891E-34</v>
+        <v>3.072319055030909E-34</v>
       </c>
       <c r="F44">
-        <v>-7.268703363187406</v>
+        <v>-7.268703363190998</v>
       </c>
       <c r="G44">
-        <v>-5.256629794817671</v>
+        <v>-5.256629794814662</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1627,22 +1627,22 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>2.639537942865074</v>
+        <v>2.639537942864767</v>
       </c>
       <c r="C45">
-        <v>0.7087755325706246</v>
+        <v>0.7087755325719574</v>
       </c>
       <c r="D45">
-        <v>3.724081633139702</v>
+        <v>3.724081633132267</v>
       </c>
       <c r="E45">
-        <v>0.0001960274934933375</v>
+        <v>0.0001960274934991139</v>
       </c>
       <c r="F45">
-        <v>1.250363425903454</v>
+        <v>1.250363425900535</v>
       </c>
       <c r="G45">
-        <v>4.028712459826695</v>
+        <v>4.028712459829</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1650,22 +1650,22 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>1.166561984964936</v>
+        <v>1.166561984965271</v>
       </c>
       <c r="C46">
-        <v>0.6584159194745861</v>
+        <v>0.6584159194756842</v>
       </c>
       <c r="D46">
-        <v>1.771770624707629</v>
+        <v>1.771770624705184</v>
       </c>
       <c r="E46">
-        <v>0.07643264065682955</v>
+        <v>0.0764326406572356</v>
       </c>
       <c r="F46">
-        <v>-0.1239095040530775</v>
+        <v>-0.1239095040548941</v>
       </c>
       <c r="G46">
-        <v>2.457033473982949</v>
+        <v>2.457033473985437</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1673,22 +1673,22 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>0.9997974929731019</v>
+        <v>0.9997974929735061</v>
       </c>
       <c r="C47">
-        <v>0.3846008636901118</v>
+        <v>0.384600863690455</v>
       </c>
       <c r="D47">
-        <v>2.599571627011942</v>
+        <v>2.599571627010672</v>
       </c>
       <c r="E47">
-        <v>0.009334019684277869</v>
+        <v>0.009334019684312396</v>
       </c>
       <c r="F47">
-        <v>0.2459936517174843</v>
+        <v>0.2459936517172157</v>
       </c>
       <c r="G47">
-        <v>1.75360133422872</v>
+        <v>1.753601334229796</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1696,22 +1696,22 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>-4.002128774383032</v>
+        <v>-4.002128774384296</v>
       </c>
       <c r="C48">
-        <v>1.052297075372426</v>
+        <v>1.052297075374786</v>
       </c>
       <c r="D48">
-        <v>-3.80323092028609</v>
+        <v>-3.80323092027876</v>
       </c>
       <c r="E48">
-        <v>0.0001428211102009544</v>
+        <v>0.0001428211102051819</v>
       </c>
       <c r="F48">
-        <v>-6.064593143149818</v>
+        <v>-6.064593143155708</v>
       </c>
       <c r="G48">
-        <v>-1.939664405616247</v>
+        <v>-1.939664405612885</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1719,22 +1719,22 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>-2408.679209370808</v>
+        <v>-2408.679208874571</v>
       </c>
       <c r="C49">
-        <v>6551.102367613699</v>
+        <v>6551.102367611474</v>
       </c>
       <c r="D49">
-        <v>-0.3676754039562035</v>
+        <v>-0.3676754038805798</v>
       </c>
       <c r="E49">
-        <v>0.7131152826181411</v>
+        <v>0.7131152826745364</v>
       </c>
       <c r="F49">
-        <v>-15248.60390892874</v>
+        <v>-15248.60390842814</v>
       </c>
       <c r="G49">
-        <v>10431.24549018712</v>
+        <v>10431.245490679</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1742,22 +1742,22 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>5730.845251956944</v>
+        <v>5730.845250785205</v>
       </c>
       <c r="C50">
-        <v>15467.75344411995</v>
+        <v>15467.75344411468</v>
       </c>
       <c r="D50">
-        <v>0.3705027541756892</v>
+        <v>0.3705027541000618</v>
       </c>
       <c r="E50">
-        <v>0.7110079248075371</v>
+        <v>0.7110079248638763</v>
       </c>
       <c r="F50">
-        <v>-24585.39442026353</v>
+        <v>-24585.39442142495</v>
       </c>
       <c r="G50">
-        <v>36047.08492417742</v>
+        <v>36047.08492299536</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1765,22 +1765,22 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>1.443433785645229</v>
+        <v>1.443433785646968</v>
       </c>
       <c r="C51">
-        <v>0.3403217993622408</v>
+        <v>0.3403217993627339</v>
       </c>
       <c r="D51">
-        <v>4.241379154524357</v>
+        <v>4.241379154523322</v>
       </c>
       <c r="E51">
-        <v>2.221504903292252E-05</v>
+        <v>2.221504903302494E-05</v>
       </c>
       <c r="F51">
-        <v>0.7764153157413705</v>
+        <v>0.7764153157421433</v>
       </c>
       <c r="G51">
-        <v>2.110452255549087</v>
+        <v>2.110452255551793</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1788,22 +1788,22 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>-964.8886489116339</v>
+        <v>-964.8886487131967</v>
       </c>
       <c r="C52">
-        <v>2617.746060228202</v>
+        <v>2617.746060227309</v>
       </c>
       <c r="D52">
-        <v>-0.3685952062239069</v>
+        <v>-0.368595206148228</v>
       </c>
       <c r="E52">
-        <v>0.7124294692476819</v>
+        <v>0.7124294693040992</v>
       </c>
       <c r="F52">
-        <v>-6095.57664763053</v>
+        <v>-6095.576647430342</v>
       </c>
       <c r="G52">
-        <v>4165.799349807262</v>
+        <v>4165.799350003948</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1811,22 +1811,22 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>0.281681097166257</v>
+        <v>0.2816810971658886</v>
       </c>
       <c r="C53">
-        <v>0.04466382540699447</v>
+        <v>0.04466382540696751</v>
       </c>
       <c r="D53">
-        <v>6.306694390806593</v>
+        <v>6.306694390802152</v>
       </c>
       <c r="E53">
-        <v>2.850578976484876E-10</v>
+        <v>2.850578976566638E-10</v>
       </c>
       <c r="F53">
-        <v>0.1941416079567628</v>
+        <v>0.1941416079564473</v>
       </c>
       <c r="G53">
-        <v>0.3692205863757512</v>
+        <v>0.36922058637533</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1834,22 +1834,22 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>0.2947518455513915</v>
+        <v>0.2947518455518063</v>
       </c>
       <c r="C54">
-        <v>0.04572558953132597</v>
+        <v>0.04572558953133474</v>
       </c>
       <c r="D54">
-        <v>6.446102687193592</v>
+        <v>6.446102687201427</v>
       </c>
       <c r="E54">
-        <v>1.14762921148914E-10</v>
+        <v>1.14762921142984E-10</v>
       </c>
       <c r="F54">
-        <v>0.2051313368981308</v>
+        <v>0.2051313368985285</v>
       </c>
       <c r="G54">
-        <v>0.3843723542046522</v>
+        <v>0.3843723542050841</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1857,22 +1857,22 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>-108.2975621497108</v>
+        <v>-108.2975621275821</v>
       </c>
       <c r="C55">
-        <v>292.0524427674789</v>
+        <v>292.0524427673802</v>
       </c>
       <c r="D55">
-        <v>-0.3708154642484301</v>
+        <v>-0.3708154641727859</v>
       </c>
       <c r="E55">
-        <v>0.7107749824495562</v>
+        <v>0.7107749825059013</v>
       </c>
       <c r="F55">
-        <v>-680.7098315709148</v>
+        <v>-680.7098315485925</v>
       </c>
       <c r="G55">
-        <v>464.1147072714933</v>
+        <v>464.1147072934284</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1880,22 +1880,22 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>-8.092920562974403</v>
+        <v>-8.092920562975378</v>
       </c>
       <c r="C56">
-        <v>0.8365190927467735</v>
+        <v>0.8365190927473189</v>
       </c>
       <c r="D56">
-        <v>-9.674519844371618</v>
+        <v>-9.674519844366475</v>
       </c>
       <c r="E56">
-        <v>3.869035228240187E-22</v>
+        <v>3.869035228434695E-22</v>
       </c>
       <c r="F56">
-        <v>-9.7324678571382</v>
+        <v>-9.732467857140245</v>
       </c>
       <c r="G56">
-        <v>-6.453373268810605</v>
+        <v>-6.453373268810512</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1903,22 +1903,22 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>-1.655761829885458</v>
+        <v>-1.655761829887729</v>
       </c>
       <c r="C57">
-        <v>1.843137578373848</v>
+        <v>1.8431375783736</v>
       </c>
       <c r="D57">
-        <v>-0.8983387074915448</v>
+        <v>-0.8983387074928977</v>
       </c>
       <c r="E57">
-        <v>0.3690050024105425</v>
+        <v>0.3690050024098215</v>
       </c>
       <c r="F57">
-        <v>-5.268245102050571</v>
+        <v>-5.268245102052356</v>
       </c>
       <c r="G57">
-        <v>1.956721442279655</v>
+        <v>1.956721442276898</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1926,22 +1926,22 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>14.89725505780677</v>
+        <v>14.89725505780857</v>
       </c>
       <c r="C58">
-        <v>1.894323142580167</v>
+        <v>1.894323142579381</v>
       </c>
       <c r="D58">
-        <v>7.86415724062576</v>
+        <v>7.86415724062998</v>
       </c>
       <c r="E58">
-        <v>3.71590555079989E-15</v>
+        <v>3.715905550674627E-15</v>
       </c>
       <c r="F58">
-        <v>11.1844499232689</v>
+        <v>11.18444992327225</v>
       </c>
       <c r="G58">
-        <v>18.61006019234463</v>
+        <v>18.61006019234489</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1949,22 +1949,22 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>10.02006844035336</v>
+        <v>10.02006844035451</v>
       </c>
       <c r="C59">
-        <v>1.838377301044686</v>
+        <v>1.838377301043507</v>
       </c>
       <c r="D59">
-        <v>5.45049617108485</v>
+        <v>5.45049617108897</v>
       </c>
       <c r="E59">
-        <v>5.022948429809997E-08</v>
+        <v>5.022948429693631E-08</v>
       </c>
       <c r="F59">
-        <v>6.416915140309827</v>
+        <v>6.416915140313287</v>
       </c>
       <c r="G59">
-        <v>13.62322174039689</v>
+        <v>13.62322174039573</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1972,22 +1972,22 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>1.138675899299891E-12</v>
+        <v>4.834066920431568E-13</v>
       </c>
       <c r="C60">
-        <v>1.487478786663709E-13</v>
+        <v>6.360009170796495E-14</v>
       </c>
       <c r="D60">
-        <v>7.655073198414112</v>
+        <v>7.600723191765734</v>
       </c>
       <c r="E60">
-        <v>1.932021638700435E-14</v>
+        <v>2.944804003674472E-14</v>
       </c>
       <c r="F60">
-        <v>8.471354143370697E-13</v>
+        <v>3.58752802882101E-13</v>
       </c>
       <c r="G60">
-        <v>1.430216384262711E-12</v>
+        <v>6.080605812042126E-13</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1995,22 +1995,22 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>4.880042605468956E-13</v>
+        <v>3.068223353908513E-13</v>
       </c>
       <c r="C61">
-        <v>6.366758460020916E-14</v>
+        <v>4.000472256631925E-14</v>
       </c>
       <c r="D61">
-        <v>7.664877874843903</v>
+        <v>7.669652873662746</v>
       </c>
       <c r="E61">
-        <v>1.790014432739207E-14</v>
+        <v>1.724624427960571E-14</v>
       </c>
       <c r="F61">
-        <v>3.632180877478286E-13</v>
+        <v>2.284145199493488E-13</v>
       </c>
       <c r="G61">
-        <v>6.127904333459625E-13</v>
+        <v>3.852301508323538E-13</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2018,22 +2018,22 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>-7.134653212740888E-16</v>
+        <v>2.052047310643414E-13</v>
       </c>
       <c r="C62">
-        <v>2.340306269568803E-16</v>
+        <v>2.627073984199096E-14</v>
       </c>
       <c r="D62">
-        <v>-3.048598085435815</v>
+        <v>7.811151581515172</v>
       </c>
       <c r="E62">
-        <v>0.002299118450153867</v>
+        <v>5.666781222763328E-15</v>
       </c>
       <c r="F62">
-        <v>-1.172156921388903E-15</v>
+        <v>1.537150271268176E-13</v>
       </c>
       <c r="G62">
-        <v>-2.547737211592747E-16</v>
+        <v>2.566944350018651E-13</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2041,22 +2041,22 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>1.936746696339724E-14</v>
+        <v>-1.622143537582505E-14</v>
       </c>
       <c r="C63">
-        <v>2.401254284346963E-15</v>
+        <v>1.949128810213402E-15</v>
       </c>
       <c r="D63">
-        <v>8.06556268931941</v>
+        <v>-8.322402958093381</v>
       </c>
       <c r="E63">
-        <v>7.289931684010516E-16</v>
+        <v>8.619768714451972E-17</v>
       </c>
       <c r="F63">
-        <v>1.46610950483547E-14</v>
+        <v>-2.004165764507272E-14</v>
       </c>
       <c r="G63">
-        <v>2.407383887843979E-14</v>
+        <v>-1.240121310657737E-14</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2064,22 +2064,22 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>-2.806045934258968E-14</v>
+        <v>1.171753598072492E-16</v>
       </c>
       <c r="C64">
-        <v>3.607180588813356E-15</v>
+        <v>2.242389461094795E-16</v>
       </c>
       <c r="D64">
-        <v>-7.779055872503642</v>
+        <v>0.5225468717197816</v>
       </c>
       <c r="E64">
-        <v>7.306778849873732E-15</v>
+        <v>0.6012896205100995</v>
       </c>
       <c r="F64">
-        <v>-3.513040338239585E-14</v>
+        <v>-3.223248984985486E-16</v>
       </c>
       <c r="G64">
-        <v>-2.099051530278352E-14</v>
+        <v>5.566756181130471E-16</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2087,22 +2087,22 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>10.220228511765</v>
+        <v>10.22022851176215</v>
       </c>
       <c r="C65">
-        <v>1.984314314736744</v>
+        <v>1.984314314737489</v>
       </c>
       <c r="D65">
-        <v>5.15050888655253</v>
+        <v>5.150508886549162</v>
       </c>
       <c r="E65">
-        <v>2.59780622178269E-07</v>
+        <v>2.597806221829345E-07</v>
       </c>
       <c r="F65">
-        <v>6.3310439208737</v>
+        <v>6.331043920869392</v>
       </c>
       <c r="G65">
-        <v>14.10941310265629</v>
+        <v>14.1094131026549</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2144,22 +2144,22 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>22.81984506110672</v>
+        <v>22.81984506110584</v>
       </c>
       <c r="C68">
-        <v>2.090855733849582</v>
+        <v>2.090855733847385</v>
       </c>
       <c r="D68">
-        <v>10.91411745519713</v>
+        <v>10.91411745520817</v>
       </c>
       <c r="E68">
-        <v>9.868308588875406E-28</v>
+        <v>9.868308587675808E-28</v>
       </c>
       <c r="F68">
-        <v>18.72184312589247</v>
+        <v>18.7218431258959</v>
       </c>
       <c r="G68">
-        <v>26.91784699632096</v>
+        <v>26.91784699631578</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2167,22 +2167,22 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>19.10641597935291</v>
+        <v>19.10641597935336</v>
       </c>
       <c r="C69">
-        <v>1.146573349256478</v>
+        <v>1.146573349257096</v>
       </c>
       <c r="D69">
-        <v>16.66392820986368</v>
+        <v>16.6639282098551</v>
       </c>
       <c r="E69">
-        <v>2.397477161492132E-62</v>
+        <v>2.397477161836173E-62</v>
       </c>
       <c r="F69">
-        <v>16.85917350917675</v>
+        <v>16.85917350917599</v>
       </c>
       <c r="G69">
-        <v>21.35365844952907</v>
+        <v>21.35365844953073</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2190,22 +2190,22 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>-3.174801173345916</v>
+        <v>-3.174801173351263</v>
       </c>
       <c r="C70">
-        <v>4.950549045411932</v>
+        <v>4.950549045407662</v>
       </c>
       <c r="D70">
-        <v>-0.6413028422146949</v>
+        <v>-0.6413028422163279</v>
       </c>
       <c r="E70">
-        <v>0.5213259429733481</v>
+        <v>0.5213259429722874</v>
       </c>
       <c r="F70">
-        <v>-12.87769900605245</v>
+        <v>-12.87769900604943</v>
       </c>
       <c r="G70">
-        <v>6.528096659360616</v>
+        <v>6.5280966593469</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2213,22 +2213,22 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.3759733027763357</v>
+        <v>-0.3759733027740761</v>
       </c>
       <c r="C71">
-        <v>4.340832966482094</v>
+        <v>4.34083296648046</v>
       </c>
       <c r="D71">
-        <v>-0.08661316979469787</v>
+        <v>-0.08661316979420995</v>
       </c>
       <c r="E71">
-        <v>0.9309789972607057</v>
+        <v>0.9309789972610935</v>
       </c>
       <c r="F71">
-        <v>-8.883849579985403</v>
+        <v>-8.883849579979941</v>
       </c>
       <c r="G71">
-        <v>8.131902974432732</v>
+        <v>8.131902974431789</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2236,22 +2236,22 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>-4.293145447798818</v>
+        <v>-4.29314544779886</v>
       </c>
       <c r="C72">
-        <v>1.10286617109067</v>
+        <v>1.102866171090946</v>
       </c>
       <c r="D72">
-        <v>-3.892716596387347</v>
+        <v>-3.892716596386411</v>
       </c>
       <c r="E72">
-        <v>9.91279290292814E-05</v>
+        <v>9.912792902966423E-05</v>
       </c>
       <c r="F72">
-        <v>-6.45472342290412</v>
+        <v>-6.454723422904704</v>
       </c>
       <c r="G72">
-        <v>-2.131567472693515</v>
+        <v>-2.131567472693017</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2259,22 +2259,22 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>-2.378282207638351</v>
+        <v>-2.378282207637424</v>
       </c>
       <c r="C73">
-        <v>1.453073336501763</v>
+        <v>1.453073336501465</v>
       </c>
       <c r="D73">
-        <v>-1.636725516802893</v>
+        <v>-1.63672551680259</v>
       </c>
       <c r="E73">
-        <v>0.1016878348241918</v>
+        <v>0.1016878348242551</v>
       </c>
       <c r="F73">
-        <v>-5.226253614077257</v>
+        <v>-5.226253614075747</v>
       </c>
       <c r="G73">
-        <v>0.4696891988005545</v>
+        <v>0.4696891988008987</v>
       </c>
     </row>
   </sheetData>
@@ -2315,22 +2315,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>44910.95439221087</v>
+        <v>44910.95438623423</v>
       </c>
       <c r="C2">
-        <v>66090.825648015</v>
+        <v>66090.82564796979</v>
       </c>
       <c r="D2">
-        <v>0.6795338680045638</v>
+        <v>0.6795338679145979</v>
       </c>
       <c r="E2">
-        <v>0.4967996558455388</v>
+        <v>0.496799655902522</v>
       </c>
       <c r="F2">
-        <v>-84624.68358641461</v>
+        <v>-84624.68359230264</v>
       </c>
       <c r="G2">
-        <v>174446.5923708364</v>
+        <v>174446.5923647711</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2338,22 +2338,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>2.789629093484546</v>
+        <v>2.78962909344479</v>
       </c>
       <c r="C3">
-        <v>2.356103536186463</v>
+        <v>2.356103536184741</v>
       </c>
       <c r="D3">
-        <v>1.18400106389203</v>
+        <v>1.184001063876022</v>
       </c>
       <c r="E3">
-        <v>0.2364126416766015</v>
+        <v>0.2364126416829382</v>
       </c>
       <c r="F3">
-        <v>-1.828248981288386</v>
+        <v>-1.828248981324767</v>
       </c>
       <c r="G3">
-        <v>7.407507168257478</v>
+        <v>7.407507168214347</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2361,22 +2361,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>7.906591669555966</v>
+        <v>7.906591669610799</v>
       </c>
       <c r="C4">
-        <v>1.828699390479311</v>
+        <v>1.82869939047667</v>
       </c>
       <c r="D4">
-        <v>4.323614756323405</v>
+        <v>4.323614756359635</v>
       </c>
       <c r="E4">
-        <v>1.534932374156527E-05</v>
+        <v>1.53493237390433E-05</v>
       </c>
       <c r="F4">
-        <v>4.322406725666167</v>
+        <v>4.322406725726179</v>
       </c>
       <c r="G4">
-        <v>11.49077661344576</v>
+        <v>11.49077661349542</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2384,22 +2384,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.05351697048477517</v>
+        <v>0.05351697048510252</v>
       </c>
       <c r="C5">
-        <v>0.03509730952012601</v>
+        <v>0.03509730952014061</v>
       </c>
       <c r="D5">
-        <v>1.524816893844432</v>
+        <v>1.524816893853125</v>
       </c>
       <c r="E5">
-        <v>0.127304774975259</v>
+        <v>0.1273047749730901</v>
       </c>
       <c r="F5">
-        <v>-0.01527249212892658</v>
+        <v>-0.01527249212862784</v>
       </c>
       <c r="G5">
-        <v>0.1223064330984769</v>
+        <v>0.1223064330988329</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2407,22 +2407,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-23.11164502697823</v>
+        <v>-23.11164502693794</v>
       </c>
       <c r="C6">
-        <v>2.887707644559251</v>
+        <v>2.887707644557858</v>
       </c>
       <c r="D6">
-        <v>-8.003457368865934</v>
+        <v>-8.003457368855843</v>
       </c>
       <c r="E6">
-        <v>1.209735764348053E-15</v>
+        <v>1.209735764447241E-15</v>
       </c>
       <c r="F6">
-        <v>-28.77144800819535</v>
+        <v>-28.77144800815233</v>
       </c>
       <c r="G6">
-        <v>-17.45184204576111</v>
+        <v>-17.45184204572355</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2430,22 +2430,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-13.73176932815565</v>
+        <v>-13.73176932815759</v>
       </c>
       <c r="C7">
-        <v>2.582124279104101</v>
+        <v>2.582124279103696</v>
       </c>
       <c r="D7">
-        <v>-5.318012552409002</v>
+        <v>-5.318012552410586</v>
       </c>
       <c r="E7">
-        <v>1.04906833447995E-07</v>
+        <v>1.049068334470816E-07</v>
       </c>
       <c r="F7">
-        <v>-18.79263991880614</v>
+        <v>-18.79263991880728</v>
       </c>
       <c r="G7">
-        <v>-8.670898737505166</v>
+        <v>-8.670898737507896</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2453,22 +2453,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-4.686176868700256</v>
+        <v>-4.686176868685457</v>
       </c>
       <c r="C8">
-        <v>1.482413406226195</v>
+        <v>1.482413406226216</v>
       </c>
       <c r="D8">
-        <v>-3.161180848080656</v>
+        <v>-3.161180848070628</v>
       </c>
       <c r="E8">
-        <v>0.001571309070286235</v>
+        <v>0.001571309070340337</v>
       </c>
       <c r="F8">
-        <v>-7.591653755102943</v>
+        <v>-7.591653755088185</v>
       </c>
       <c r="G8">
-        <v>-1.78069998229757</v>
+        <v>-1.78069998228273</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2476,22 +2476,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-2.96542918635638</v>
+        <v>-2.965429186353405</v>
       </c>
       <c r="C9">
-        <v>0.1943376730560945</v>
+        <v>0.1943376730560407</v>
       </c>
       <c r="D9">
-        <v>-15.25915762869315</v>
+        <v>-15.25915762868207</v>
       </c>
       <c r="E9">
-        <v>1.430835151452292E-52</v>
+        <v>1.43083515169527E-52</v>
       </c>
       <c r="F9">
-        <v>-3.346324026385645</v>
+        <v>-3.346324026382565</v>
       </c>
       <c r="G9">
-        <v>-2.584534346327115</v>
+        <v>-2.584534346324245</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2499,22 +2499,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-1.166287083041692</v>
+        <v>-1.166287083045536</v>
       </c>
       <c r="C10">
-        <v>0.2493793444230413</v>
+        <v>0.2493793444224979</v>
       </c>
       <c r="D10">
-        <v>-4.676758958284972</v>
+        <v>-4.676758958310577</v>
       </c>
       <c r="E10">
-        <v>2.914444944940228E-06</v>
+        <v>2.914444944576478E-06</v>
       </c>
       <c r="F10">
-        <v>-1.655061616599062</v>
+        <v>-1.655061616601842</v>
       </c>
       <c r="G10">
-        <v>-0.6775125494843213</v>
+        <v>-0.6775125494892305</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2522,22 +2522,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-3.252722111462607</v>
+        <v>-3.252722111466705</v>
       </c>
       <c r="C11">
-        <v>0.2298938990154916</v>
+        <v>0.2298938990154521</v>
       </c>
       <c r="D11">
-        <v>-14.14879701197908</v>
+        <v>-14.14879701199933</v>
       </c>
       <c r="E11">
-        <v>1.899793868330493E-45</v>
+        <v>1.899793867783419E-45</v>
       </c>
       <c r="F11">
-        <v>-3.703305873798459</v>
+        <v>-3.703305873802479</v>
       </c>
       <c r="G11">
-        <v>-2.802138349126756</v>
+        <v>-2.80213834913093</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2545,22 +2545,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.1872002588063857</v>
+        <v>-0.1872002588034614</v>
       </c>
       <c r="C12">
-        <v>0.1982691514933226</v>
+        <v>0.1982691514929815</v>
       </c>
       <c r="D12">
-        <v>-0.9441723908960714</v>
+        <v>-0.9441723908829461</v>
       </c>
       <c r="E12">
-        <v>0.3450815613763144</v>
+        <v>0.3450815613830205</v>
       </c>
       <c r="F12">
-        <v>-0.5758006549786139</v>
+        <v>-0.575800654975021</v>
       </c>
       <c r="G12">
-        <v>0.2014001373658423</v>
+        <v>0.2014001373680982</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2568,22 +2568,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>2.05215597120031</v>
+        <v>2.052155971200647</v>
       </c>
       <c r="C13">
-        <v>0.4101296492058278</v>
+        <v>0.4101296492049593</v>
       </c>
       <c r="D13">
-        <v>5.003676215982168</v>
+        <v>5.003676215993585</v>
       </c>
       <c r="E13">
-        <v>5.624720130761883E-07</v>
+        <v>5.624720130428565E-07</v>
       </c>
       <c r="F13">
-        <v>1.248316629764842</v>
+        <v>1.24831662976688</v>
       </c>
       <c r="G13">
-        <v>2.855995312635779</v>
+        <v>2.855995312634414</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2591,22 +2591,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>0.7306688815661122</v>
+        <v>0.7306688815649025</v>
       </c>
       <c r="C14">
-        <v>2.046337669743624</v>
+        <v>2.046337669744068</v>
       </c>
       <c r="D14">
-        <v>0.3570617363739653</v>
+        <v>0.3570617363732966</v>
       </c>
       <c r="E14">
-        <v>0.7210455887942131</v>
+        <v>0.7210455887947138</v>
       </c>
       <c r="F14">
-        <v>-3.28007925133901</v>
+        <v>-3.28007925134109</v>
       </c>
       <c r="G14">
-        <v>4.741417014471234</v>
+        <v>4.741417014470895</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2614,22 +2614,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>6.436856181127391</v>
+        <v>6.436856181129052</v>
       </c>
       <c r="C15">
-        <v>2.300555746309383</v>
+        <v>2.300555746309519</v>
       </c>
       <c r="D15">
-        <v>2.797957055139211</v>
+        <v>2.797957055139768</v>
       </c>
       <c r="E15">
-        <v>0.005142694978281406</v>
+        <v>0.005142694978272536</v>
       </c>
       <c r="F15">
-        <v>1.927849773934335</v>
+        <v>1.92784977393573</v>
       </c>
       <c r="G15">
-        <v>10.94586258832045</v>
+        <v>10.94586258832237</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2637,22 +2637,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>-8.386925062655862</v>
+        <v>-8.386925062592407</v>
       </c>
       <c r="C16">
-        <v>3.094104515942271</v>
+        <v>3.094104515943535</v>
       </c>
       <c r="D16">
-        <v>-2.710614660701508</v>
+        <v>-2.710614660679893</v>
       </c>
       <c r="E16">
-        <v>0.006715862398995372</v>
+        <v>0.006715862399433136</v>
       </c>
       <c r="F16">
-        <v>-14.45125847830545</v>
+        <v>-14.45125847824447</v>
       </c>
       <c r="G16">
-        <v>-2.322591647006274</v>
+        <v>-2.322591646940342</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2660,22 +2660,22 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>0.9661317475652821</v>
+        <v>0.966131747556263</v>
       </c>
       <c r="C17">
-        <v>0.5322088808651632</v>
+        <v>0.5322088808646632</v>
       </c>
       <c r="D17">
-        <v>1.815324362860556</v>
+        <v>1.815324362845315</v>
       </c>
       <c r="E17">
-        <v>0.0694740771242438</v>
+        <v>0.06947407712658464</v>
       </c>
       <c r="F17">
-        <v>-0.07697849118280609</v>
+        <v>-0.07697849119084532</v>
       </c>
       <c r="G17">
-        <v>2.00924198631337</v>
+        <v>2.009241986303371</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2683,22 +2683,22 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>0.2821483088818503</v>
+        <v>0.2821483088837464</v>
       </c>
       <c r="C18">
-        <v>0.03875794789213629</v>
+        <v>0.03875794789218711</v>
       </c>
       <c r="D18">
-        <v>7.279753553182732</v>
+        <v>7.279753553222108</v>
       </c>
       <c r="E18">
-        <v>3.344305511422659E-13</v>
+        <v>3.344305510446573E-13</v>
       </c>
       <c r="F18">
-        <v>0.2061841268985831</v>
+        <v>0.2061841269003796</v>
       </c>
       <c r="G18">
-        <v>0.3581124908651175</v>
+        <v>0.3581124908671133</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2706,22 +2706,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>0.5881204103963189</v>
+        <v>0.588120410395472</v>
       </c>
       <c r="C19">
-        <v>0.7594206686227893</v>
+        <v>0.7594206686207731</v>
       </c>
       <c r="D19">
-        <v>0.7744329785794166</v>
+        <v>0.7744329785803576</v>
       </c>
       <c r="E19">
-        <v>0.4386747877060709</v>
+        <v>0.4386747877055147</v>
       </c>
       <c r="F19">
-        <v>-0.9003167492196753</v>
+        <v>-0.9003167492165702</v>
       </c>
       <c r="G19">
-        <v>2.076557570012313</v>
+        <v>2.076557570007514</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2729,22 +2729,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>1.356694406244278</v>
+        <v>1.35669440624291</v>
       </c>
       <c r="C20">
-        <v>0.7471434658994474</v>
+        <v>0.7471434658974866</v>
       </c>
       <c r="D20">
-        <v>1.815841894047784</v>
+        <v>1.815841894050718</v>
       </c>
       <c r="E20">
-        <v>0.06939462875133663</v>
+        <v>0.06939462875088646</v>
       </c>
       <c r="F20">
-        <v>-0.1076798782030686</v>
+        <v>-0.1076798782005937</v>
       </c>
       <c r="G20">
-        <v>2.821068690691625</v>
+        <v>2.821068690686414</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2752,22 +2752,22 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.4385241754214348</v>
+        <v>-0.4385241754189837</v>
       </c>
       <c r="C21">
-        <v>0.7409025979559682</v>
+        <v>0.7409025979545345</v>
       </c>
       <c r="D21">
-        <v>-0.5918783071233019</v>
+        <v>-0.591878307121139</v>
       </c>
       <c r="E21">
-        <v>0.5539320810686716</v>
+        <v>0.55393208107012</v>
       </c>
       <c r="F21">
-        <v>-1.890666583467292</v>
+        <v>-1.890666583462031</v>
       </c>
       <c r="G21">
-        <v>1.013618232624422</v>
+        <v>1.013618232624063</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2775,22 +2775,22 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>-3.731133732812193</v>
+        <v>-3.731133732807734</v>
       </c>
       <c r="C22">
-        <v>0.7178835469742724</v>
+        <v>0.7178835469733706</v>
       </c>
       <c r="D22">
-        <v>-5.197408059480029</v>
+        <v>-5.197408059480346</v>
       </c>
       <c r="E22">
-        <v>2.020864330290426E-07</v>
+        <v>2.020864330286979E-07</v>
       </c>
       <c r="F22">
-        <v>-5.138159629975635</v>
+        <v>-5.138159629969409</v>
       </c>
       <c r="G22">
-        <v>-2.324107835648752</v>
+        <v>-2.32410783564606</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2798,22 +2798,22 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>-3.939129367898441</v>
+        <v>-3.939129367898444</v>
       </c>
       <c r="C23">
-        <v>0.7287579105140046</v>
+        <v>0.72875791051297</v>
       </c>
       <c r="D23">
-        <v>-5.405264644221989</v>
+        <v>-5.405264644229666</v>
       </c>
       <c r="E23">
-        <v>6.47127733289693E-08</v>
+        <v>6.471277332619763E-08</v>
       </c>
       <c r="F23">
-        <v>-5.367468625954555</v>
+        <v>-5.367468625952529</v>
       </c>
       <c r="G23">
-        <v>-2.510790109842329</v>
+        <v>-2.510790109844359</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2821,22 +2821,22 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>2.402331054274789</v>
+        <v>2.402331054275862</v>
       </c>
       <c r="C24">
-        <v>0.7128604828104739</v>
+        <v>0.712860482809334</v>
       </c>
       <c r="D24">
-        <v>3.369987693529493</v>
+        <v>3.369987693536386</v>
       </c>
       <c r="E24">
-        <v>0.0007517154077076882</v>
+        <v>0.000751715407688883</v>
       </c>
       <c r="F24">
-        <v>1.005150181964426</v>
+        <v>1.005150181967733</v>
       </c>
       <c r="G24">
-        <v>3.799511926585152</v>
+        <v>3.799511926583991</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2844,22 +2844,22 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>5.827214763853659</v>
+        <v>5.827214763854872</v>
       </c>
       <c r="C25">
-        <v>0.73700712128068</v>
+        <v>0.7370071212795758</v>
       </c>
       <c r="D25">
-        <v>7.906592210028913</v>
+        <v>7.906592210042406</v>
       </c>
       <c r="E25">
-        <v>2.645303749729249E-15</v>
+        <v>2.645303749442656E-15</v>
       </c>
       <c r="F25">
-        <v>4.382707349793982</v>
+        <v>4.38270734979736</v>
       </c>
       <c r="G25">
-        <v>7.271722177913336</v>
+        <v>7.271722177912385</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2867,22 +2867,22 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.2345797058295949</v>
+        <v>-0.2345797058304298</v>
       </c>
       <c r="C26">
-        <v>0.7159751864031504</v>
+        <v>0.7159751864020584</v>
       </c>
       <c r="D26">
-        <v>-0.3276366420015959</v>
+        <v>-0.3276366420032617</v>
       </c>
       <c r="E26">
-        <v>0.7431864135007898</v>
+        <v>0.7431864134995301</v>
       </c>
       <c r="F26">
-        <v>-1.637865285004121</v>
+        <v>-1.637865285002816</v>
       </c>
       <c r="G26">
-        <v>1.168705873344932</v>
+        <v>1.168705873341956</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2890,22 +2890,22 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>7.711142038585685</v>
+        <v>7.711142038580826</v>
       </c>
       <c r="C27">
-        <v>0.680893456167571</v>
+        <v>0.6808934561678532</v>
       </c>
       <c r="D27">
-        <v>11.32503473008549</v>
+        <v>11.32503473007366</v>
       </c>
       <c r="E27">
-        <v>9.863977020696623E-30</v>
+        <v>9.863977022028489E-30</v>
       </c>
       <c r="F27">
-        <v>6.376615387188244</v>
+        <v>6.376615387182832</v>
       </c>
       <c r="G27">
-        <v>9.045668689983128</v>
+        <v>9.04566868997882</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2913,22 +2913,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>-4.578076072806249</v>
+        <v>-4.578076072806728</v>
       </c>
       <c r="C28">
-        <v>0.713613962689604</v>
+        <v>0.7136139626873906</v>
       </c>
       <c r="D28">
-        <v>-6.415339822600339</v>
+        <v>-6.415339822620908</v>
       </c>
       <c r="E28">
-        <v>1.405090804475799E-10</v>
+        <v>1.405090804286082E-10</v>
       </c>
       <c r="F28">
-        <v>-5.976733738542783</v>
+        <v>-5.976733738538924</v>
       </c>
       <c r="G28">
-        <v>-3.179418407069716</v>
+        <v>-3.179418407074532</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2936,22 +2936,22 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>-2.45998563333143</v>
+        <v>-2.459985633332173</v>
       </c>
       <c r="C29">
-        <v>0.6495433255809815</v>
+        <v>0.6495433255793548</v>
       </c>
       <c r="D29">
-        <v>-3.787254116006975</v>
+        <v>-3.787254116017603</v>
       </c>
       <c r="E29">
-        <v>0.00015232129767704</v>
+        <v>0.0001523212976705272</v>
       </c>
       <c r="F29">
-        <v>-3.733067157868529</v>
+        <v>-3.733067157866083</v>
       </c>
       <c r="G29">
-        <v>-1.186904108794332</v>
+        <v>-1.186904108798263</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2959,22 +2959,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>2.296020494869913</v>
+        <v>2.296020494870556</v>
       </c>
       <c r="C30">
-        <v>0.7810460010836933</v>
+        <v>0.781046001082819</v>
       </c>
       <c r="D30">
-        <v>2.939673836988101</v>
+        <v>2.939673836992216</v>
       </c>
       <c r="E30">
-        <v>0.003285579068222277</v>
+        <v>0.003285579068178654</v>
       </c>
       <c r="F30">
-        <v>0.7651984624768426</v>
+        <v>0.7651984624791992</v>
       </c>
       <c r="G30">
-        <v>3.826842527262984</v>
+        <v>3.826842527261914</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2982,22 +2982,22 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.422053408225644</v>
+        <v>-0.4220534082283649</v>
       </c>
       <c r="C31">
-        <v>0.6704438815209638</v>
+        <v>0.6704438815196579</v>
       </c>
       <c r="D31">
-        <v>-0.629513401283008</v>
+        <v>-0.6295134012882926</v>
       </c>
       <c r="E31">
-        <v>0.5290129979961156</v>
+        <v>0.5290129979926571</v>
       </c>
       <c r="F31">
-        <v>-1.736099269661972</v>
+        <v>-1.736099269662134</v>
       </c>
       <c r="G31">
-        <v>0.8919924532106842</v>
+        <v>0.8919924532054038</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3005,22 +3005,22 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>6.08536385882341</v>
+        <v>6.085363858822355</v>
       </c>
       <c r="C32">
-        <v>0.8150916435146025</v>
+        <v>0.8150916435120467</v>
       </c>
       <c r="D32">
-        <v>7.465864614417912</v>
+        <v>7.465864614440028</v>
       </c>
       <c r="E32">
-        <v>8.275440017950923E-14</v>
+        <v>8.275440016560844E-14</v>
       </c>
       <c r="F32">
-        <v>4.487813593435228</v>
+        <v>4.487813593439182</v>
       </c>
       <c r="G32">
-        <v>7.682914124211591</v>
+        <v>7.682914124205527</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3028,22 +3028,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>-5.07648024717709</v>
+        <v>-5.076480247181403</v>
       </c>
       <c r="C33">
-        <v>0.83625639651747</v>
+        <v>0.8362563965158863</v>
       </c>
       <c r="D33">
-        <v>-6.07048301013628</v>
+        <v>-6.070483010152934</v>
       </c>
       <c r="E33">
-        <v>1.27526108352882E-09</v>
+        <v>1.275261083396562E-09</v>
       </c>
       <c r="F33">
-        <v>-6.715512666192577</v>
+        <v>-6.715512666193788</v>
       </c>
       <c r="G33">
-        <v>-3.437447828161602</v>
+        <v>-3.437447828169019</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3051,22 +3051,22 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>0.1653091571353613</v>
+        <v>0.1653091571366864</v>
       </c>
       <c r="C34">
-        <v>0.8208281627241997</v>
+        <v>0.820828162722112</v>
       </c>
       <c r="D34">
-        <v>0.20139313518036</v>
+        <v>0.2013931351824866</v>
       </c>
       <c r="E34">
-        <v>0.8403911825811983</v>
+        <v>0.8403911825795357</v>
       </c>
       <c r="F34">
-        <v>-1.443484479300253</v>
+        <v>-1.443484479294836</v>
       </c>
       <c r="G34">
-        <v>1.774102793570976</v>
+        <v>1.774102793568209</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3074,22 +3074,22 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>-3.584688045139412</v>
+        <v>-3.584688045142718</v>
       </c>
       <c r="C35">
-        <v>0.7917708348937685</v>
+        <v>0.7917708348911831</v>
       </c>
       <c r="D35">
-        <v>-4.527431280820501</v>
+        <v>-4.52743128083946</v>
       </c>
       <c r="E35">
-        <v>5.970500755441165E-06</v>
+        <v>5.970500754905667E-06</v>
       </c>
       <c r="F35">
-        <v>-5.136530365540408</v>
+        <v>-5.136530365538646</v>
       </c>
       <c r="G35">
-        <v>-2.032845724738416</v>
+        <v>-2.03284572474679</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3097,22 +3097,22 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>11.50253317678331</v>
+        <v>11.50253317678077</v>
       </c>
       <c r="C36">
-        <v>0.8208344189987987</v>
+        <v>0.8208344189979124</v>
       </c>
       <c r="D36">
-        <v>14.01321985354045</v>
+        <v>14.01321985355249</v>
       </c>
       <c r="E36">
-        <v>1.294024447340789E-44</v>
+        <v>1.294024447121391E-44</v>
       </c>
       <c r="F36">
-        <v>9.893727278274804</v>
+        <v>9.893727278274005</v>
       </c>
       <c r="G36">
-        <v>13.11133907529181</v>
+        <v>13.11133907528754</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3120,22 +3120,22 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>-7.102200504698246</v>
+        <v>-7.102200504696406</v>
       </c>
       <c r="C37">
-        <v>0.9558519530383744</v>
+        <v>0.9558519530367687</v>
       </c>
       <c r="D37">
-        <v>-7.430230677588117</v>
+        <v>-7.430230677598674</v>
       </c>
       <c r="E37">
-        <v>1.084084529741196E-13</v>
+        <v>1.084084529654667E-13</v>
       </c>
       <c r="F37">
-        <v>-8.975635907205731</v>
+        <v>-8.975635907200743</v>
       </c>
       <c r="G37">
-        <v>-5.228765102190761</v>
+        <v>-5.228765102192068</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3143,22 +3143,22 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>5.270782777527417</v>
+        <v>5.270782777527605</v>
       </c>
       <c r="C38">
-        <v>0.5195924973925375</v>
+        <v>0.5195924973910664</v>
       </c>
       <c r="D38">
-        <v>10.14407021652102</v>
+        <v>10.14407021655011</v>
       </c>
       <c r="E38">
-        <v>3.521154128603061E-24</v>
+        <v>3.521154127554276E-24</v>
       </c>
       <c r="F38">
-        <v>4.252400196000822</v>
+        <v>4.252400196003894</v>
       </c>
       <c r="G38">
-        <v>6.289165359054013</v>
+        <v>6.289165359051317</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3166,22 +3166,22 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>-2.69177144512693</v>
+        <v>-2.691771445130718</v>
       </c>
       <c r="C39">
-        <v>0.6789824256903138</v>
+        <v>0.678982425689762</v>
       </c>
       <c r="D39">
-        <v>-3.964419907319746</v>
+        <v>-3.964419907328546</v>
       </c>
       <c r="E39">
-        <v>7.357464371200823E-05</v>
+        <v>7.357464370929423E-05</v>
       </c>
       <c r="F39">
-        <v>-4.022552545615588</v>
+        <v>-4.022552545618295</v>
       </c>
       <c r="G39">
-        <v>-1.360990344638272</v>
+        <v>-1.360990344643141</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3189,22 +3189,22 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>3.950391167319908</v>
+        <v>3.95039116731892</v>
       </c>
       <c r="C40">
-        <v>0.7660174226764641</v>
+        <v>0.7660174226746956</v>
       </c>
       <c r="D40">
-        <v>5.157051328568018</v>
+        <v>5.157051328578634</v>
       </c>
       <c r="E40">
-        <v>2.508690507988185E-07</v>
+        <v>2.508690507846013E-07</v>
       </c>
       <c r="F40">
-        <v>2.449024607343843</v>
+        <v>2.449024607346321</v>
       </c>
       <c r="G40">
-        <v>5.451757727295973</v>
+        <v>5.451757727291519</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3212,22 +3212,22 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>-1.02559223922811</v>
+        <v>-1.025592239230067</v>
       </c>
       <c r="C41">
-        <v>0.8268211791239999</v>
+        <v>0.8268211791224536</v>
       </c>
       <c r="D41">
-        <v>-1.240403929075334</v>
+        <v>-1.24040392908002</v>
       </c>
       <c r="E41">
-        <v>0.2148260284731165</v>
+        <v>0.2148260284713841</v>
       </c>
       <c r="F41">
-        <v>-2.64613197196609</v>
+        <v>-2.646131971965016</v>
       </c>
       <c r="G41">
-        <v>0.5949474935098706</v>
+        <v>0.5949474935048831</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3235,22 +3235,22 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>-5.569802799629552</v>
+        <v>-5.569802799627348</v>
       </c>
       <c r="C42">
-        <v>0.8475622228504672</v>
+        <v>0.8475622228486409</v>
       </c>
       <c r="D42">
-        <v>-6.571556222618732</v>
+        <v>-6.571556222630291</v>
       </c>
       <c r="E42">
-        <v>4.979207808644618E-11</v>
+        <v>4.979207808257985E-11</v>
       </c>
       <c r="F42">
-        <v>-7.230994231073179</v>
+        <v>-7.230994231067395</v>
       </c>
       <c r="G42">
-        <v>-3.908611368185925</v>
+        <v>-3.9086113681873</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3258,22 +3258,22 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>2.12512548163221</v>
+        <v>2.12512548163286</v>
       </c>
       <c r="C43">
-        <v>0.7964626709175652</v>
+        <v>0.7964626709169387</v>
       </c>
       <c r="D43">
-        <v>2.668204749864747</v>
+        <v>2.668204749867662</v>
       </c>
       <c r="E43">
-        <v>0.007625776993467964</v>
+        <v>0.007625776993401791</v>
       </c>
       <c r="F43">
-        <v>0.5640873316032049</v>
+        <v>0.5640873316050834</v>
       </c>
       <c r="G43">
-        <v>3.686163631661215</v>
+        <v>3.686163631660637</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3281,22 +3281,22 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>-9.812646612108804</v>
+        <v>-9.812646612108963</v>
       </c>
       <c r="C44">
-        <v>0.6445957274540931</v>
+        <v>0.6445957274527474</v>
       </c>
       <c r="D44">
-        <v>-15.22294702582812</v>
+        <v>-15.22294702586015</v>
       </c>
       <c r="E44">
-        <v>2.490545643745908E-52</v>
+        <v>2.490545642526351E-52</v>
       </c>
       <c r="F44">
-        <v>-11.07603102250722</v>
+        <v>-11.07603102250475</v>
       </c>
       <c r="G44">
-        <v>-8.549262201710384</v>
+        <v>-8.549262201713182</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3304,22 +3304,22 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>2.457722353313879</v>
+        <v>2.457722353313166</v>
       </c>
       <c r="C45">
-        <v>0.8853194300858236</v>
+        <v>0.8853194300842379</v>
       </c>
       <c r="D45">
-        <v>2.776085410297191</v>
+        <v>2.776085410301358</v>
       </c>
       <c r="E45">
-        <v>0.00550177532664703</v>
+        <v>0.005501775326576498</v>
       </c>
       <c r="F45">
-        <v>0.7225281555321379</v>
+        <v>0.7225281555345335</v>
       </c>
       <c r="G45">
-        <v>4.192916551095619</v>
+        <v>4.192916551091799</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3327,22 +3327,22 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>4.026651787822122</v>
+        <v>4.026651787822816</v>
       </c>
       <c r="C46">
-        <v>0.8327066686220921</v>
+        <v>0.8327066686217356</v>
       </c>
       <c r="D46">
-        <v>4.83561851916613</v>
+        <v>4.835618519169033</v>
       </c>
       <c r="E46">
-        <v>1.327322603468961E-06</v>
+        <v>1.327322603449585E-06</v>
       </c>
       <c r="F46">
-        <v>2.394576707636492</v>
+        <v>2.394576707637885</v>
       </c>
       <c r="G46">
-        <v>5.658726868007752</v>
+        <v>5.658726868007747</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3350,22 +3350,22 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>1.001100481677753</v>
+        <v>1.001100481678774</v>
       </c>
       <c r="C47">
-        <v>0.4895950832827543</v>
+        <v>0.4895950832825575</v>
       </c>
       <c r="D47">
-        <v>2.044751910017836</v>
+        <v>2.044751910020743</v>
       </c>
       <c r="E47">
-        <v>0.04087932305143293</v>
+        <v>0.04087932305114612</v>
       </c>
       <c r="F47">
-        <v>0.04151175143566643</v>
+        <v>0.0415117514370732</v>
       </c>
       <c r="G47">
-        <v>1.96068921191984</v>
+        <v>1.960689211920475</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3373,22 +3373,22 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>-5.938807103576328</v>
+        <v>-5.938807103579318</v>
       </c>
       <c r="C48">
-        <v>1.30210101001857</v>
+        <v>1.302101010016158</v>
       </c>
       <c r="D48">
-        <v>-4.560941937593328</v>
+        <v>-4.560941937604073</v>
       </c>
       <c r="E48">
-        <v>5.092466222459014E-06</v>
+        <v>5.092466222198373E-06</v>
       </c>
       <c r="F48">
-        <v>-8.490878187445954</v>
+        <v>-8.490878187444217</v>
       </c>
       <c r="G48">
-        <v>-3.386736019706702</v>
+        <v>-3.38673601971442</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3396,22 +3396,22 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>-5503.580605253233</v>
+        <v>-5503.580604512397</v>
       </c>
       <c r="C49">
-        <v>8195.115948524466</v>
+        <v>8195.115948518782</v>
       </c>
       <c r="D49">
-        <v>-0.671568363379185</v>
+        <v>-0.6715683632892512</v>
       </c>
       <c r="E49">
-        <v>0.501858524397172</v>
+        <v>0.5018585244544422</v>
       </c>
       <c r="F49">
-        <v>-21565.71271349099</v>
+        <v>-21565.71271273901</v>
       </c>
       <c r="G49">
-        <v>10558.55150298452</v>
+        <v>10558.55150371422</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3419,22 +3419,22 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>13045.47439208486</v>
+        <v>13045.47439033537</v>
       </c>
       <c r="C50">
-        <v>19349.37936696927</v>
+        <v>19349.37936695579</v>
       </c>
       <c r="D50">
-        <v>0.6742063476389524</v>
+        <v>0.6742063475490063</v>
       </c>
       <c r="E50">
-        <v>0.5001801346001846</v>
+        <v>0.500180134657361</v>
       </c>
       <c r="F50">
-        <v>-24878.61229037734</v>
+        <v>-24878.61229210041</v>
       </c>
       <c r="G50">
-        <v>50969.56107454705</v>
+        <v>50969.56107277115</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3442,22 +3442,22 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>1.342636683941655</v>
+        <v>1.342636683945766</v>
       </c>
       <c r="C51">
-        <v>0.4340032006471363</v>
+        <v>0.43400320064665</v>
       </c>
       <c r="D51">
-        <v>3.093610097666718</v>
+        <v>3.093610097679656</v>
       </c>
       <c r="E51">
-        <v>0.001977371691079762</v>
+        <v>0.001977371690993539</v>
       </c>
       <c r="F51">
-        <v>0.4920060414981576</v>
+        <v>0.4920060415032216</v>
       </c>
       <c r="G51">
-        <v>2.193267326385153</v>
+        <v>2.193267326388311</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3465,22 +3465,22 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>-2201.576517298508</v>
+        <v>-2201.576517002406</v>
       </c>
       <c r="C52">
-        <v>3274.668097615873</v>
+        <v>3274.668097613597</v>
       </c>
       <c r="D52">
-        <v>-0.6723052387817163</v>
+        <v>-0.6723052386917615</v>
       </c>
       <c r="E52">
-        <v>0.5013893953332527</v>
+        <v>0.5013893953905079</v>
       </c>
       <c r="F52">
-        <v>-8619.808049947915</v>
+        <v>-8619.80804964735</v>
       </c>
       <c r="G52">
-        <v>4216.655015350897</v>
+        <v>4216.655015642538</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3488,22 +3488,22 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>0.3437275271578325</v>
+        <v>0.3437275271570292</v>
       </c>
       <c r="C53">
-        <v>0.05411710751600063</v>
+        <v>0.05411710751598914</v>
       </c>
       <c r="D53">
-        <v>6.351550238641334</v>
+        <v>6.351550238627838</v>
       </c>
       <c r="E53">
-        <v>2.131557769030004E-10</v>
+        <v>2.131557769217041E-10</v>
       </c>
       <c r="F53">
-        <v>0.2376599454789894</v>
+        <v>0.2376599454782086</v>
       </c>
       <c r="G53">
-        <v>0.4497951088366756</v>
+        <v>0.4497951088358498</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3511,22 +3511,22 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>0.3072031026553782</v>
+        <v>0.3072031026563061</v>
       </c>
       <c r="C54">
-        <v>0.05467179046062406</v>
+        <v>0.054671790460614</v>
       </c>
       <c r="D54">
-        <v>5.619042289764285</v>
+        <v>5.61904228978229</v>
       </c>
       <c r="E54">
-        <v>1.920188565255515E-08</v>
+        <v>1.920188565055435E-08</v>
       </c>
       <c r="F54">
-        <v>0.2000483623822346</v>
+        <v>0.2000483623831821</v>
       </c>
       <c r="G54">
-        <v>0.4143578429285218</v>
+        <v>0.41435784292943</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3534,22 +3534,22 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>-246.4170423991172</v>
+        <v>-246.4170423660926</v>
       </c>
       <c r="C55">
-        <v>365.3435158858519</v>
+        <v>365.3435158855987</v>
       </c>
       <c r="D55">
-        <v>-0.6744804045628878</v>
+        <v>-0.6744804044729618</v>
       </c>
       <c r="E55">
-        <v>0.5000059396652923</v>
+        <v>0.5000059397224452</v>
       </c>
       <c r="F55">
-        <v>-962.4771755206241</v>
+        <v>-962.4771754871032</v>
       </c>
       <c r="G55">
-        <v>469.6430907223896</v>
+        <v>469.643090754918</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3557,22 +3557,22 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>-9.688675886037032</v>
+        <v>-9.688675886039828</v>
       </c>
       <c r="C56">
-        <v>1.035314978365739</v>
+        <v>1.035314978365308</v>
       </c>
       <c r="D56">
-        <v>-9.358191553773096</v>
+        <v>-9.35819155377969</v>
       </c>
       <c r="E56">
-        <v>8.111308806576037E-21</v>
+        <v>8.111308806070008E-21</v>
       </c>
       <c r="F56">
-        <v>-11.71785595628874</v>
+        <v>-11.7178559562907</v>
       </c>
       <c r="G56">
-        <v>-7.659495815785319</v>
+        <v>-7.65949581578896</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3580,22 +3580,22 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>2.622705300779486</v>
+        <v>2.62270530077498</v>
       </c>
       <c r="C57">
-        <v>2.356676262858442</v>
+        <v>2.35667626285859</v>
       </c>
       <c r="D57">
-        <v>1.112883149083181</v>
+        <v>1.112883149081199</v>
       </c>
       <c r="E57">
-        <v>0.2657586180975754</v>
+        <v>0.2657586180984265</v>
       </c>
       <c r="F57">
-        <v>-1.996295297643511</v>
+        <v>-1.996295297648306</v>
       </c>
       <c r="G57">
-        <v>7.241705899202482</v>
+        <v>7.241705899198266</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3603,22 +3603,22 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>17.95576249089427</v>
+        <v>17.95576249089964</v>
       </c>
       <c r="C58">
-        <v>2.395011588896034</v>
+        <v>2.395011588895696</v>
       </c>
       <c r="D58">
-        <v>7.49715056667883</v>
+        <v>7.497150566682132</v>
       </c>
       <c r="E58">
-        <v>6.522004820285209E-14</v>
+        <v>6.522004820120953E-14</v>
       </c>
       <c r="F58">
-        <v>13.26162603410199</v>
+        <v>13.26162603410803</v>
       </c>
       <c r="G58">
-        <v>22.64989894768654</v>
+        <v>22.64989894769126</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3626,22 +3626,22 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>9.894164574430803</v>
+        <v>9.894164574433404</v>
       </c>
       <c r="C59">
-        <v>2.355788069949062</v>
+        <v>2.355788069949937</v>
       </c>
       <c r="D59">
-        <v>4.199938313909851</v>
+        <v>4.199938313909393</v>
       </c>
       <c r="E59">
-        <v>2.669877090868419E-05</v>
+        <v>2.669877090873811E-05</v>
       </c>
       <c r="F59">
-        <v>5.276904802121517</v>
+        <v>5.276904802122401</v>
       </c>
       <c r="G59">
-        <v>14.51142434674009</v>
+        <v>14.51142434674441</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3649,22 +3649,22 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>1.267129193083952E-12</v>
+        <v>5.393385515671384E-13</v>
       </c>
       <c r="C60">
-        <v>1.797403257792011E-13</v>
+        <v>7.686231649854421E-14</v>
       </c>
       <c r="D60">
-        <v>7.049776880011528</v>
+        <v>7.016943752630114</v>
       </c>
       <c r="E60">
-        <v>1.792049085074497E-12</v>
+        <v>2.267738462055397E-12</v>
       </c>
       <c r="F60">
-        <v>9.148446279872214E-13</v>
+        <v>3.886911794616729E-13</v>
       </c>
       <c r="G60">
-        <v>1.619413758180682E-12</v>
+        <v>6.899859236726038E-13</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3672,22 +3672,22 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>5.438608870948185E-13</v>
+        <v>3.424495112169366E-13</v>
       </c>
       <c r="C61">
-        <v>7.694094897360543E-14</v>
+        <v>4.834048387027448E-14</v>
       </c>
       <c r="D61">
-        <v>7.068549249131172</v>
+        <v>7.084114261990572</v>
       </c>
       <c r="E61">
-        <v>1.565617886489238E-12</v>
+        <v>1.399364148004177E-12</v>
       </c>
       <c r="F61">
-        <v>3.930593981702178E-13</v>
+        <v>2.477039038359592E-13</v>
       </c>
       <c r="G61">
-        <v>6.946623760194192E-13</v>
+        <v>4.37195118597914E-13</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3695,22 +3695,22 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>5.381415271879043E-16</v>
+        <v>2.278441315232072E-13</v>
       </c>
       <c r="C62">
-        <v>2.841043119846564E-16</v>
+        <v>3.174124455608571E-14</v>
       </c>
       <c r="D62">
-        <v>1.894168812252901</v>
+        <v>7.178172586163542</v>
       </c>
       <c r="E62">
-        <v>0.05820260635285392</v>
+        <v>7.06493427668386E-13</v>
       </c>
       <c r="F62">
-        <v>-1.869269215455359E-17</v>
+        <v>1.656324353688011E-13</v>
       </c>
       <c r="G62">
-        <v>1.094975746530362E-15</v>
+        <v>2.900558276776132E-13</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3718,22 +3718,22 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>2.281155359042269E-14</v>
+        <v>-1.830568672168639E-14</v>
       </c>
       <c r="C63">
-        <v>2.903047938414454E-15</v>
+        <v>2.356300921499078E-15</v>
       </c>
       <c r="D63">
-        <v>7.857794316301089</v>
+        <v>-7.768823818156602</v>
       </c>
       <c r="E63">
-        <v>3.909565847132458E-15</v>
+        <v>7.921826234301167E-15</v>
       </c>
       <c r="F63">
-        <v>1.71216841857371E-14</v>
+        <v>-2.292395166456312E-14</v>
       </c>
       <c r="G63">
-        <v>2.850142299510827E-14</v>
+        <v>-1.368742177880965E-14</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3741,22 +3741,22 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>-3.241045568341214E-14</v>
+        <v>-4.036432029657808E-16</v>
       </c>
       <c r="C64">
-        <v>4.357937000914293E-15</v>
+        <v>2.759150785419056E-16</v>
       </c>
       <c r="D64">
-        <v>-7.437109732566682</v>
+        <v>-1.462925495405558</v>
       </c>
       <c r="E64">
-        <v>1.029120621047665E-13</v>
+        <v>0.1434877668049745</v>
       </c>
       <c r="F64">
-        <v>-4.095185525209865E-14</v>
+        <v>-9.444268196994561E-16</v>
       </c>
       <c r="G64">
-        <v>-2.386905611472563E-14</v>
+        <v>1.371404137678945E-16</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3764,22 +3764,22 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>0.3848344066253806</v>
+        <v>0.3848344066208618</v>
       </c>
       <c r="C65">
-        <v>2.446343749088577</v>
+        <v>2.446343749086329</v>
       </c>
       <c r="D65">
-        <v>0.1573100292094096</v>
+        <v>0.157310029207707</v>
       </c>
       <c r="E65">
-        <v>0.8750005165036063</v>
+        <v>0.875000516504948</v>
       </c>
       <c r="F65">
-        <v>-4.40991123539292</v>
+        <v>-4.409911235393033</v>
       </c>
       <c r="G65">
-        <v>5.179580048643682</v>
+        <v>5.179580048634757</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3821,22 +3821,22 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>24.03536228060791</v>
+        <v>24.03536228060704</v>
       </c>
       <c r="C68">
-        <v>2.533780072673479</v>
+        <v>2.533780072672648</v>
       </c>
       <c r="D68">
-        <v>9.485970207054065</v>
+        <v>9.485970207056834</v>
       </c>
       <c r="E68">
-        <v>2.401386421786929E-21</v>
+        <v>2.401386421723161E-21</v>
       </c>
       <c r="F68">
-        <v>19.06924459342261</v>
+        <v>19.06924459342337</v>
       </c>
       <c r="G68">
-        <v>29.00147996779321</v>
+        <v>29.00147996779071</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3844,22 +3844,22 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>2.38608012934912</v>
+        <v>2.386080129350035</v>
       </c>
       <c r="C69">
-        <v>1.41997414646618</v>
+        <v>1.419974146465583</v>
       </c>
       <c r="D69">
-        <v>1.680368713252449</v>
+        <v>1.6803687132538</v>
       </c>
       <c r="E69">
-        <v>0.09288559941940945</v>
+        <v>0.09288559941914673</v>
       </c>
       <c r="F69">
-        <v>-0.3970180567025965</v>
+        <v>-0.397018056700511</v>
       </c>
       <c r="G69">
-        <v>5.169178315400836</v>
+        <v>5.169178315400582</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3867,22 +3867,22 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>-8.683080798451053</v>
+        <v>-8.68308079846036</v>
       </c>
       <c r="C70">
-        <v>6.020830497121406</v>
+        <v>6.020830497123443</v>
       </c>
       <c r="D70">
-        <v>-1.442173268721397</v>
+        <v>-1.442173268722455</v>
       </c>
       <c r="E70">
-        <v>0.1492534996191113</v>
+        <v>0.1492534996188129</v>
       </c>
       <c r="F70">
-        <v>-20.4836917298294</v>
+        <v>-20.4836917298427</v>
       </c>
       <c r="G70">
-        <v>3.117530132927293</v>
+        <v>3.117530132921978</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3890,22 +3890,22 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.8326082287891516</v>
+        <v>-0.8326082287848813</v>
       </c>
       <c r="C71">
-        <v>5.738740839872539</v>
+        <v>5.738740839873827</v>
       </c>
       <c r="D71">
-        <v>-0.1450855252086352</v>
+        <v>-0.1450855252078585</v>
       </c>
       <c r="E71">
-        <v>0.8846433465729779</v>
+        <v>0.8846433465735912</v>
       </c>
       <c r="F71">
-        <v>-12.08033359154847</v>
+        <v>-12.08033359154672</v>
       </c>
       <c r="G71">
-        <v>10.41511713397017</v>
+        <v>10.41511713397696</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3913,22 +3913,22 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>-3.92459926304947</v>
+        <v>-3.924599263048857</v>
       </c>
       <c r="C72">
-        <v>1.379958167031611</v>
+        <v>1.37995816703147</v>
       </c>
       <c r="D72">
-        <v>-2.843998721708764</v>
+        <v>-2.84399872170861</v>
       </c>
       <c r="E72">
-        <v>0.00445512266487273</v>
+        <v>0.004455122664874886</v>
       </c>
       <c r="F72">
-        <v>-6.629267570603336</v>
+        <v>-6.629267570602447</v>
       </c>
       <c r="G72">
-        <v>-1.219930955495605</v>
+        <v>-1.219930955495268</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3936,22 +3936,22 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>-1.373177779669427</v>
+        <v>-1.373177779667241</v>
       </c>
       <c r="C73">
-        <v>1.791774325765904</v>
+        <v>1.791774325766012</v>
       </c>
       <c r="D73">
-        <v>-0.7663787564778589</v>
+        <v>-0.7663787564765926</v>
       </c>
       <c r="E73">
-        <v>0.4434509692492395</v>
+        <v>0.4434509692499927</v>
       </c>
       <c r="F73">
-        <v>-4.884990926594137</v>
+        <v>-4.884990926592162</v>
       </c>
       <c r="G73">
-        <v>2.138635367255282</v>
+        <v>2.13863536725768</v>
       </c>
     </row>
   </sheetData>
@@ -3992,22 +3992,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>8622.319715030186</v>
+        <v>8622.319709363452</v>
       </c>
       <c r="C2">
-        <v>62930.34443370998</v>
+        <v>62930.3444336665</v>
       </c>
       <c r="D2">
-        <v>0.1370137060685061</v>
+        <v>0.137013705978553</v>
       </c>
       <c r="E2">
-        <v>0.8910199614087541</v>
+        <v>0.8910199614798557</v>
       </c>
       <c r="F2">
-        <v>-114718.888909742</v>
+        <v>-114718.8889153236</v>
       </c>
       <c r="G2">
-        <v>131963.5283398024</v>
+        <v>131963.5283340504</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4015,22 +4015,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>4.570937692465559</v>
+        <v>4.570937692456766</v>
       </c>
       <c r="C3">
-        <v>2.281521232669085</v>
+        <v>2.281521232669283</v>
       </c>
       <c r="D3">
-        <v>2.003460510037924</v>
+        <v>2.003460510033897</v>
       </c>
       <c r="E3">
-        <v>0.04512788219476579</v>
+        <v>0.04512788219519765</v>
       </c>
       <c r="F3">
-        <v>0.09923824647072266</v>
+        <v>0.09923824646154333</v>
       </c>
       <c r="G3">
-        <v>9.042637138460396</v>
+        <v>9.04263713845199</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4038,22 +4038,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>6.392561884709077</v>
+        <v>6.392561884719777</v>
       </c>
       <c r="C4">
-        <v>1.7805062446108</v>
+        <v>1.780506244609603</v>
       </c>
       <c r="D4">
-        <v>3.590305793118082</v>
+        <v>3.590305793126505</v>
       </c>
       <c r="E4">
-        <v>0.0003302902451540529</v>
+        <v>0.0003302902451433788</v>
       </c>
       <c r="F4">
-        <v>2.902833771023245</v>
+        <v>2.902833771036291</v>
       </c>
       <c r="G4">
-        <v>9.88228999839491</v>
+        <v>9.882289998403264</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4061,22 +4061,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.05547735534004399</v>
+        <v>0.05547735534010619</v>
       </c>
       <c r="C5">
-        <v>0.03357390984310075</v>
+        <v>0.03357390984310959</v>
       </c>
       <c r="D5">
-        <v>1.652394838709685</v>
+        <v>1.652394838711103</v>
       </c>
       <c r="E5">
-        <v>0.09845408701072297</v>
+        <v>0.09845408701043411</v>
       </c>
       <c r="F5">
-        <v>-0.01032629877262831</v>
+        <v>-0.01032629877258343</v>
       </c>
       <c r="G5">
-        <v>0.1212810094527163</v>
+        <v>0.1212810094527958</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4084,22 +4084,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-22.76753401373371</v>
+        <v>-22.76753401372799</v>
       </c>
       <c r="C6">
-        <v>2.721608420280183</v>
+        <v>2.721608420280348</v>
       </c>
       <c r="D6">
-        <v>-8.365470155104036</v>
+        <v>-8.365470155101427</v>
       </c>
       <c r="E6">
-        <v>5.987568545911024E-17</v>
+        <v>5.987568546043539E-17</v>
       </c>
       <c r="F6">
-        <v>-28.10178849750382</v>
+        <v>-28.10178849749842</v>
       </c>
       <c r="G6">
-        <v>-17.4332795299636</v>
+        <v>-17.43327952995756</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4107,22 +4107,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-9.310606325245793</v>
+        <v>-9.310606325244914</v>
       </c>
       <c r="C7">
-        <v>2.36144703850421</v>
+        <v>2.361447038503154</v>
       </c>
       <c r="D7">
-        <v>-3.942754664166987</v>
+        <v>-3.942754664168378</v>
       </c>
       <c r="E7">
-        <v>8.055104433024375E-05</v>
+        <v>8.055104432977639E-05</v>
       </c>
       <c r="F7">
-        <v>-13.93895747211281</v>
+        <v>-13.93895747210987</v>
       </c>
       <c r="G7">
-        <v>-4.682255178378771</v>
+        <v>-4.682255178379961</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4130,22 +4130,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-4.968588238822342</v>
+        <v>-4.968588238821184</v>
       </c>
       <c r="C8">
-        <v>1.390458653035108</v>
+        <v>1.390458653035568</v>
       </c>
       <c r="D8">
-        <v>-3.573344829763082</v>
+        <v>-3.573344829761065</v>
       </c>
       <c r="E8">
-        <v>0.0003524501343751692</v>
+        <v>0.0003524501343778847</v>
       </c>
       <c r="F8">
-        <v>-7.693837120763229</v>
+        <v>-7.693837120762973</v>
       </c>
       <c r="G8">
-        <v>-2.243339356881455</v>
+        <v>-2.243339356879394</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4153,22 +4153,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-2.684326078681313</v>
+        <v>-2.684326078680785</v>
       </c>
       <c r="C9">
-        <v>0.1878755189804744</v>
+        <v>0.1878755189804626</v>
       </c>
       <c r="D9">
-        <v>-14.28779062460123</v>
+        <v>-14.28779062459932</v>
       </c>
       <c r="E9">
-        <v>2.607513543234097E-46</v>
+        <v>2.607513543305848E-46</v>
       </c>
       <c r="F9">
-        <v>-3.052555329459814</v>
+        <v>-3.052555329459263</v>
       </c>
       <c r="G9">
-        <v>-2.316096827902812</v>
+        <v>-2.316096827902307</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4176,22 +4176,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-1.606711085177433</v>
+        <v>-1.606711085178375</v>
       </c>
       <c r="C10">
-        <v>0.2345022420045097</v>
+        <v>0.2345022420044303</v>
       </c>
       <c r="D10">
-        <v>-6.851580912162598</v>
+        <v>-6.851580912168936</v>
       </c>
       <c r="E10">
-        <v>7.303826753127748E-12</v>
+        <v>7.303826752804059E-12</v>
       </c>
       <c r="F10">
-        <v>-2.066327033800167</v>
+        <v>-2.066327033800954</v>
       </c>
       <c r="G10">
-        <v>-1.147095136554698</v>
+        <v>-1.147095136555796</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4199,22 +4199,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-3.103990758083822</v>
+        <v>-3.103990758084501</v>
       </c>
       <c r="C11">
-        <v>0.2155659213982881</v>
+        <v>0.215565921398088</v>
       </c>
       <c r="D11">
-        <v>-14.39926467945166</v>
+        <v>-14.39926467946817</v>
       </c>
       <c r="E11">
-        <v>5.229695291856728E-47</v>
+        <v>5.229695290607588E-47</v>
       </c>
       <c r="F11">
-        <v>-3.526492200318659</v>
+        <v>-3.526492200318946</v>
       </c>
       <c r="G11">
-        <v>-2.681489315848986</v>
+        <v>-2.681489315850056</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4222,22 +4222,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.2992093370853141</v>
+        <v>-0.2992093370847715</v>
       </c>
       <c r="C12">
-        <v>0.1904710527438176</v>
+        <v>0.190471052743709</v>
       </c>
       <c r="D12">
-        <v>-1.57089139150057</v>
+        <v>-1.570891391498617</v>
       </c>
       <c r="E12">
-        <v>0.1162078785225358</v>
+        <v>0.1162078785229893</v>
       </c>
       <c r="F12">
-        <v>-0.6725257405606256</v>
+        <v>-0.6725257405598701</v>
       </c>
       <c r="G12">
-        <v>0.07410706638999753</v>
+        <v>0.0741070663903271</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4245,22 +4245,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>1.813592602398209</v>
+        <v>1.813592602398044</v>
       </c>
       <c r="C13">
-        <v>0.3896025998044123</v>
+        <v>0.3896025998042993</v>
       </c>
       <c r="D13">
-        <v>4.65498075040738</v>
+        <v>4.654980750408305</v>
       </c>
       <c r="E13">
-        <v>3.240109770335971E-06</v>
+        <v>3.240109770321413E-06</v>
       </c>
       <c r="F13">
-        <v>1.049985538498389</v>
+        <v>1.049985538498445</v>
       </c>
       <c r="G13">
-        <v>2.577199666298029</v>
+        <v>2.577199666297642</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4268,22 +4268,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>1.598407420083172</v>
+        <v>1.598407420082562</v>
       </c>
       <c r="C14">
-        <v>2.011792445791349</v>
+        <v>2.011792445791643</v>
       </c>
       <c r="D14">
-        <v>0.7945190486359691</v>
+        <v>0.79451904863555</v>
       </c>
       <c r="E14">
-        <v>0.4268933240836115</v>
+        <v>0.4268933240838555</v>
       </c>
       <c r="F14">
-        <v>-2.344633318037621</v>
+        <v>-2.344633318038807</v>
       </c>
       <c r="G14">
-        <v>5.541448158203965</v>
+        <v>5.541448158203932</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4291,22 +4291,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>9.078743076185216</v>
+        <v>9.078743076185315</v>
       </c>
       <c r="C15">
-        <v>2.283427106502402</v>
+        <v>2.283427106502388</v>
       </c>
       <c r="D15">
-        <v>3.975928572596922</v>
+        <v>3.97592857259699</v>
       </c>
       <c r="E15">
-        <v>7.010516658204123E-05</v>
+        <v>7.010516658202101E-05</v>
       </c>
       <c r="F15">
-        <v>4.603308186118001</v>
+        <v>4.603308186118128</v>
       </c>
       <c r="G15">
-        <v>13.55417796625243</v>
+        <v>13.5541779662525</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4314,22 +4314,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>-7.21078317361146</v>
+        <v>-7.210783173598904</v>
       </c>
       <c r="C16">
-        <v>3.004175919905417</v>
+        <v>3.004175919905465</v>
       </c>
       <c r="D16">
-        <v>-2.400253302688906</v>
+        <v>-2.400253302684689</v>
       </c>
       <c r="E16">
-        <v>0.01638373010765428</v>
+        <v>0.01638373010784305</v>
       </c>
       <c r="F16">
-        <v>-13.09885977984856</v>
+        <v>-13.0988597798361</v>
       </c>
       <c r="G16">
-        <v>-1.322706567374356</v>
+        <v>-1.322706567361707</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4337,22 +4337,22 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>0.8870041012718166</v>
+        <v>0.8870041012704224</v>
       </c>
       <c r="C17">
-        <v>0.5032939567970807</v>
+        <v>0.5032939567971372</v>
       </c>
       <c r="D17">
-        <v>1.762397678916382</v>
+        <v>1.762397678913413</v>
       </c>
       <c r="E17">
-        <v>0.07800213053702902</v>
+        <v>0.07800213053753018</v>
       </c>
       <c r="F17">
-        <v>-0.09943392768711945</v>
+        <v>-0.09943392768862436</v>
       </c>
       <c r="G17">
-        <v>1.873442130230753</v>
+        <v>1.873442130229469</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4360,22 +4360,22 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>0.2652898296486454</v>
+        <v>0.2652898296489606</v>
       </c>
       <c r="C18">
-        <v>0.03695739557135379</v>
+        <v>0.03695739557136358</v>
       </c>
       <c r="D18">
-        <v>7.178260955549459</v>
+        <v>7.178260955556086</v>
       </c>
       <c r="E18">
-        <v>7.060370332576361E-13</v>
+        <v>7.060370332234208E-13</v>
       </c>
       <c r="F18">
-        <v>0.1928546653663919</v>
+        <v>0.1928546653666879</v>
       </c>
       <c r="G18">
-        <v>0.337724993930899</v>
+        <v>0.3377249939312333</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4383,22 +4383,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>1.089905165864922</v>
+        <v>1.089905165864586</v>
       </c>
       <c r="C19">
-        <v>0.7100664245124766</v>
+        <v>0.7100664245121312</v>
       </c>
       <c r="D19">
-        <v>1.534934096642069</v>
+        <v>1.534934096642343</v>
       </c>
       <c r="E19">
-        <v>0.1248000171050064</v>
+        <v>0.124800017104939</v>
       </c>
       <c r="F19">
-        <v>-0.3017994528106611</v>
+        <v>-0.3017994528103198</v>
       </c>
       <c r="G19">
-        <v>2.481609784540505</v>
+        <v>2.481609784539493</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4406,22 +4406,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>0.8283821967723384</v>
+        <v>0.8283821967720506</v>
       </c>
       <c r="C20">
-        <v>0.6960076680438665</v>
+        <v>0.6960076680434361</v>
       </c>
       <c r="D20">
-        <v>1.190191193008708</v>
+        <v>1.190191193009031</v>
       </c>
       <c r="E20">
-        <v>0.2339712539038019</v>
+        <v>0.2339712539036751</v>
       </c>
       <c r="F20">
-        <v>-0.5357677655573494</v>
+        <v>-0.5357677655567936</v>
       </c>
       <c r="G20">
-        <v>2.192532159102026</v>
+        <v>2.192532159100895</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4429,22 +4429,22 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>0.5814841793816461</v>
+        <v>0.5814841793821131</v>
       </c>
       <c r="C21">
-        <v>0.707624975463675</v>
+        <v>0.7076249754633707</v>
       </c>
       <c r="D21">
-        <v>0.8217406105552246</v>
+        <v>0.8217406105562379</v>
       </c>
       <c r="E21">
-        <v>0.4112245408840228</v>
+        <v>0.4112245408834458</v>
       </c>
       <c r="F21">
-        <v>-0.8054352870881962</v>
+        <v>-0.8054352870871329</v>
       </c>
       <c r="G21">
-        <v>1.968403645851488</v>
+        <v>1.968403645851359</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4452,22 +4452,22 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>-2.789927684391871</v>
+        <v>-2.789927684391032</v>
       </c>
       <c r="C22">
-        <v>0.6840671516507538</v>
+        <v>0.6840671516504869</v>
       </c>
       <c r="D22">
-        <v>-4.078441243172353</v>
+        <v>-4.078441243172717</v>
       </c>
       <c r="E22">
-        <v>4.533865719109237E-05</v>
+        <v>4.533865719102137E-05</v>
       </c>
       <c r="F22">
-        <v>-4.130674664634247</v>
+        <v>-4.130674664632886</v>
       </c>
       <c r="G22">
-        <v>-1.449180704149494</v>
+        <v>-1.449180704149178</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4475,22 +4475,22 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>-3.117788941765496</v>
+        <v>-3.117788941765295</v>
       </c>
       <c r="C23">
-        <v>0.690817198655147</v>
+        <v>0.6908171986548797</v>
       </c>
       <c r="D23">
-        <v>-4.513189520809663</v>
+        <v>-4.513189520811117</v>
       </c>
       <c r="E23">
-        <v>6.38599088814802E-06</v>
+        <v>6.385990888104189E-06</v>
       </c>
       <c r="F23">
-        <v>-4.471765771030436</v>
+        <v>-4.471765771029711</v>
       </c>
       <c r="G23">
-        <v>-1.763812112500556</v>
+        <v>-1.763812112500879</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4498,22 +4498,22 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>1.343024864907931</v>
+        <v>1.343024864908466</v>
       </c>
       <c r="C24">
-        <v>0.6752472139193186</v>
+        <v>0.6752472139189449</v>
       </c>
       <c r="D24">
-        <v>1.988938032209936</v>
+        <v>1.988938032211829</v>
       </c>
       <c r="E24">
-        <v>0.04670804321810237</v>
+        <v>0.04670804321789341</v>
       </c>
       <c r="F24">
-        <v>0.01956464496505328</v>
+        <v>0.01956464496632071</v>
       </c>
       <c r="G24">
-        <v>2.666485084850809</v>
+        <v>2.666485084850612</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4521,22 +4521,22 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>5.691627462645853</v>
+        <v>5.691627462645689</v>
       </c>
       <c r="C25">
-        <v>0.7067657070909396</v>
+        <v>0.7067657070906811</v>
       </c>
       <c r="D25">
-        <v>8.053061156677641</v>
+        <v>8.053061156680355</v>
       </c>
       <c r="E25">
-        <v>8.07485299260129E-16</v>
+        <v>8.0748529924221E-16</v>
       </c>
       <c r="F25">
-        <v>4.306392131239626</v>
+        <v>4.306392131239969</v>
       </c>
       <c r="G25">
-        <v>7.076862794052079</v>
+        <v>7.07686279405141</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4544,22 +4544,22 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>1.151683957535567</v>
+        <v>1.151683957535441</v>
       </c>
       <c r="C26">
-        <v>0.6713606210069935</v>
+        <v>0.6713606210066914</v>
       </c>
       <c r="D26">
-        <v>1.715447587331117</v>
+        <v>1.7154475873317</v>
       </c>
       <c r="E26">
-        <v>0.08626319701338836</v>
+        <v>0.08626319701328146</v>
       </c>
       <c r="F26">
-        <v>-0.1641586802765849</v>
+        <v>-0.1641586802761195</v>
       </c>
       <c r="G26">
-        <v>2.467526595347719</v>
+        <v>2.467526595347</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4567,22 +4567,22 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>6.633340638612042</v>
+        <v>6.633340638611055</v>
       </c>
       <c r="C27">
-        <v>0.6702476057453783</v>
+        <v>0.6702476057453055</v>
       </c>
       <c r="D27">
-        <v>9.89685092755407</v>
+        <v>9.896850927553674</v>
       </c>
       <c r="E27">
-        <v>4.295890341484028E-23</v>
+        <v>4.295890341501015E-23</v>
       </c>
       <c r="F27">
-        <v>5.319679470626899</v>
+        <v>5.319679470626055</v>
       </c>
       <c r="G27">
-        <v>7.947001806597185</v>
+        <v>7.947001806596055</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4590,22 +4590,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>-4.075579193226659</v>
+        <v>-4.075579193226754</v>
       </c>
       <c r="C28">
-        <v>0.6714577993737878</v>
+        <v>0.671457799373494</v>
       </c>
       <c r="D28">
-        <v>-6.069747342316388</v>
+        <v>-6.069747342319185</v>
       </c>
       <c r="E28">
-        <v>1.281116397221579E-09</v>
+        <v>1.281116397199266E-09</v>
       </c>
       <c r="F28">
-        <v>-5.391612297137804</v>
+        <v>-5.391612297137323</v>
       </c>
       <c r="G28">
-        <v>-2.759546089315513</v>
+        <v>-2.759546089316185</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4613,22 +4613,22 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>-3.602773335591529</v>
+        <v>-3.602773335591678</v>
       </c>
       <c r="C29">
-        <v>0.621275974963776</v>
+        <v>0.6212759749634903</v>
       </c>
       <c r="D29">
-        <v>-5.798990272884111</v>
+        <v>-5.798990272887017</v>
       </c>
       <c r="E29">
-        <v>6.671540170076742E-09</v>
+        <v>6.67154016996113E-09</v>
       </c>
       <c r="F29">
-        <v>-4.820451870980539</v>
+        <v>-4.820451870980127</v>
       </c>
       <c r="G29">
-        <v>-2.38509480020252</v>
+        <v>-2.385094800203229</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4636,22 +4636,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>1.523691944737029</v>
+        <v>1.523691944737274</v>
       </c>
       <c r="C30">
-        <v>0.7533792413176129</v>
+        <v>0.7533792413174873</v>
       </c>
       <c r="D30">
-        <v>2.022476677313524</v>
+        <v>2.022476677314185</v>
       </c>
       <c r="E30">
-        <v>0.04312713065679949</v>
+        <v>0.04312713065673124</v>
       </c>
       <c r="F30">
-        <v>0.04709576505439794</v>
+        <v>0.04709576505488822</v>
       </c>
       <c r="G30">
-        <v>3.000288124419661</v>
+        <v>3.000288124419659</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4659,22 +4659,22 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>-1.047722071704426</v>
+        <v>-1.047722071705141</v>
       </c>
       <c r="C31">
-        <v>0.6563866625746562</v>
+        <v>0.6563866625744571</v>
       </c>
       <c r="D31">
-        <v>-1.596196466873304</v>
+        <v>-1.596196466874877</v>
       </c>
       <c r="E31">
-        <v>0.1104449361924746</v>
+        <v>0.1104449361921234</v>
       </c>
       <c r="F31">
-        <v>-2.334216290283197</v>
+        <v>-2.334216290283522</v>
       </c>
       <c r="G31">
-        <v>0.2387721468743453</v>
+        <v>0.2387721468732402</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4682,22 +4682,22 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>6.478799063160885</v>
+        <v>6.478799063160464</v>
       </c>
       <c r="C32">
-        <v>0.7623981375052392</v>
+        <v>0.7623981375048913</v>
       </c>
       <c r="D32">
-        <v>8.497920895191539</v>
+        <v>8.497920895194866</v>
       </c>
       <c r="E32">
-        <v>1.930165684535397E-17</v>
+        <v>1.930165684480076E-17</v>
       </c>
       <c r="F32">
-        <v>4.984526171770201</v>
+        <v>4.984526171770462</v>
       </c>
       <c r="G32">
-        <v>7.973071954551569</v>
+        <v>7.973071954550466</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4705,22 +4705,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>-4.776185322657261</v>
+        <v>-4.776185322658575</v>
       </c>
       <c r="C33">
-        <v>0.7925712585436302</v>
+        <v>0.7925712585433232</v>
       </c>
       <c r="D33">
-        <v>-6.026190416535697</v>
+        <v>-6.02619041653969</v>
       </c>
       <c r="E33">
-        <v>1.678693949702215E-09</v>
+        <v>1.67869394966075E-09</v>
       </c>
       <c r="F33">
-        <v>-6.329596444584359</v>
+        <v>-6.329596444585072</v>
       </c>
       <c r="G33">
-        <v>-3.222774200730162</v>
+        <v>-3.222774200732078</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4728,22 +4728,22 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>0.4550707137343766</v>
+        <v>0.4550707137351484</v>
       </c>
       <c r="C34">
-        <v>0.7712036953480311</v>
+        <v>0.7712036953475659</v>
       </c>
       <c r="D34">
-        <v>0.5900784922056305</v>
+        <v>0.5900784922069872</v>
       </c>
       <c r="E34">
-        <v>0.5551380274786984</v>
+        <v>0.555138027477789</v>
       </c>
       <c r="F34">
-        <v>-1.056460753891964</v>
+        <v>-1.056460753890281</v>
       </c>
       <c r="G34">
-        <v>1.966602181360718</v>
+        <v>1.966602181360578</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4751,22 +4751,22 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>-3.294999448180145</v>
+        <v>-3.294999448180904</v>
       </c>
       <c r="C35">
-        <v>0.738351288947604</v>
+        <v>0.7383512889472592</v>
       </c>
       <c r="D35">
-        <v>-4.462644675377509</v>
+        <v>-4.46264467538062</v>
       </c>
       <c r="E35">
-        <v>8.095423394774875E-06</v>
+        <v>8.095423394657282E-06</v>
       </c>
       <c r="F35">
-        <v>-4.742141382456176</v>
+        <v>-4.742141382456259</v>
       </c>
       <c r="G35">
-        <v>-1.847857513904114</v>
+        <v>-1.847857513905549</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4774,22 +4774,22 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>12.15474137185372</v>
+        <v>12.15474137185292</v>
       </c>
       <c r="C36">
-        <v>0.7865742606990255</v>
+        <v>0.7865742606989676</v>
       </c>
       <c r="D36">
-        <v>15.45275758331051</v>
+        <v>15.45275758331062</v>
       </c>
       <c r="E36">
-        <v>7.228365059782907E-54</v>
+        <v>7.228365059770424E-54</v>
       </c>
       <c r="F36">
-        <v>10.61308414971742</v>
+        <v>10.61308414971672</v>
       </c>
       <c r="G36">
-        <v>13.69639859399003</v>
+        <v>13.69639859398911</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4797,22 +4797,22 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>-4.406561266835553</v>
+        <v>-4.406561266835006</v>
       </c>
       <c r="C37">
-        <v>0.9107732046726125</v>
+        <v>0.9107732046725096</v>
       </c>
       <c r="D37">
-        <v>-4.838264064234894</v>
+        <v>-4.838264064234839</v>
       </c>
       <c r="E37">
-        <v>1.309780527679006E-06</v>
+        <v>1.309780527679362E-06</v>
       </c>
       <c r="F37">
-        <v>-6.191643946078001</v>
+        <v>-6.191643946077251</v>
       </c>
       <c r="G37">
-        <v>-2.621478587593105</v>
+        <v>-2.62147858759276</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4820,22 +4820,22 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>5.63854239195031</v>
+        <v>5.63854239195132</v>
       </c>
       <c r="C38">
-        <v>0.5000298974271014</v>
+        <v>0.5000298974268941</v>
       </c>
       <c r="D38">
-        <v>11.27641051257809</v>
+        <v>11.27641051258479</v>
       </c>
       <c r="E38">
-        <v>1.716060072558703E-29</v>
+        <v>1.716060072428144E-29</v>
       </c>
       <c r="F38">
-        <v>4.658501801799933</v>
+        <v>4.658501801801351</v>
       </c>
       <c r="G38">
-        <v>6.618582982100686</v>
+        <v>6.61858298210129</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -4843,22 +4843,22 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>-4.908090541738369</v>
+        <v>-4.908090541738757</v>
       </c>
       <c r="C39">
-        <v>0.6506586911869093</v>
+        <v>0.6506586911868466</v>
       </c>
       <c r="D39">
-        <v>-7.543264399934777</v>
+        <v>-7.543264399936101</v>
       </c>
       <c r="E39">
-        <v>4.583505307377715E-14</v>
+        <v>4.583505307331163E-14</v>
       </c>
       <c r="F39">
-        <v>-6.183358142692681</v>
+        <v>-6.183358142692946</v>
       </c>
       <c r="G39">
-        <v>-3.632822940784058</v>
+        <v>-3.632822940784569</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -4866,22 +4866,22 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>3.593321119961951</v>
+        <v>3.593321119961419</v>
       </c>
       <c r="C40">
-        <v>0.7257644153986286</v>
+        <v>0.725764415398422</v>
       </c>
       <c r="D40">
-        <v>4.95108473730874</v>
+        <v>4.951084737309418</v>
       </c>
       <c r="E40">
-        <v>7.380095795076528E-07</v>
+        <v>7.380095795050835E-07</v>
       </c>
       <c r="F40">
-        <v>2.170849004519872</v>
+        <v>2.170849004519745</v>
       </c>
       <c r="G40">
-        <v>5.015793235404029</v>
+        <v>5.015793235403093</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -4889,22 +4889,22 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>-1.403592675772042</v>
+        <v>-1.403592675772634</v>
       </c>
       <c r="C41">
-        <v>0.7872076352720196</v>
+        <v>0.7872076352718803</v>
       </c>
       <c r="D41">
-        <v>-1.783001857301639</v>
+        <v>-1.783001857302707</v>
       </c>
       <c r="E41">
-        <v>0.07458600098824593</v>
+        <v>0.07458600098807207</v>
       </c>
       <c r="F41">
-        <v>-2.946491289260143</v>
+        <v>-2.946491289260463</v>
       </c>
       <c r="G41">
-        <v>0.1393059377160593</v>
+        <v>0.139305937715194</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -4912,22 +4912,22 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>-4.330135022539351</v>
+        <v>-4.330135022537929</v>
       </c>
       <c r="C42">
-        <v>0.7988443836888767</v>
+        <v>0.7988443836885045</v>
       </c>
       <c r="D42">
-        <v>-5.420498799207675</v>
+        <v>-5.42049879920842</v>
       </c>
       <c r="E42">
-        <v>5.943297173797501E-08</v>
+        <v>5.943297173772732E-08</v>
       </c>
       <c r="F42">
-        <v>-5.895841243821645</v>
+        <v>-5.895841243819494</v>
       </c>
       <c r="G42">
-        <v>-2.764428801257057</v>
+        <v>-2.764428801256364</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -4935,22 +4935,22 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>0.9289708786781221</v>
+        <v>0.9289708786784678</v>
       </c>
       <c r="C43">
-        <v>0.7644588181935141</v>
+        <v>0.7644588181933429</v>
       </c>
       <c r="D43">
-        <v>1.215200683894739</v>
+        <v>1.215200683895463</v>
       </c>
       <c r="E43">
-        <v>0.2242895596665083</v>
+        <v>0.2242895596662321</v>
       </c>
       <c r="F43">
-        <v>-0.5693408726452187</v>
+        <v>-0.5693408726445373</v>
       </c>
       <c r="G43">
-        <v>2.427282630001463</v>
+        <v>2.427282630001473</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -4958,22 +4958,22 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>-8.081680219951469</v>
+        <v>-8.081680219952357</v>
       </c>
       <c r="C44">
-        <v>0.613968635539754</v>
+        <v>0.6139686355394598</v>
       </c>
       <c r="D44">
-        <v>-13.16301803079351</v>
+        <v>-13.16301803080126</v>
       </c>
       <c r="E44">
-        <v>1.432474966899477E-39</v>
+        <v>1.43247496675242E-39</v>
       </c>
       <c r="F44">
-        <v>-9.285036633246586</v>
+        <v>-9.285036633246897</v>
       </c>
       <c r="G44">
-        <v>-6.878323806656352</v>
+        <v>-6.878323806657818</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -4981,22 +4981,22 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>2.366726230227232</v>
+        <v>2.366726230227069</v>
       </c>
       <c r="C45">
-        <v>0.8350088749965136</v>
+        <v>0.8350088749962526</v>
       </c>
       <c r="D45">
-        <v>2.834372545126678</v>
+        <v>2.834372545127369</v>
       </c>
       <c r="E45">
-        <v>0.004591576966609404</v>
+        <v>0.004591576966599476</v>
       </c>
       <c r="F45">
-        <v>0.7301389084627576</v>
+        <v>0.730138908463106</v>
       </c>
       <c r="G45">
-        <v>4.003313551991707</v>
+        <v>4.003313551991033</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5004,22 +5004,22 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>4.400047446997604</v>
+        <v>4.400047446997769</v>
       </c>
       <c r="C46">
-        <v>0.7833941896128401</v>
+        <v>0.783394189612823</v>
       </c>
       <c r="D46">
-        <v>5.61664549640347</v>
+        <v>5.616645496403803</v>
       </c>
       <c r="E46">
-        <v>1.947003082978711E-08</v>
+        <v>1.94700308297496E-08</v>
       </c>
       <c r="F46">
-        <v>2.864623049658495</v>
+        <v>2.864623049658694</v>
       </c>
       <c r="G46">
-        <v>5.935471844336713</v>
+        <v>5.935471844336845</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5027,22 +5027,22 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>0.6526270688070359</v>
+        <v>0.6526270688071454</v>
       </c>
       <c r="C47">
-        <v>0.4640118788912109</v>
+        <v>0.4640118788911594</v>
       </c>
       <c r="D47">
-        <v>1.406487847609708</v>
+        <v>1.406487847610101</v>
       </c>
       <c r="E47">
-        <v>0.1595793106858449</v>
+        <v>0.1595793106857284</v>
       </c>
       <c r="F47">
-        <v>-0.2568195022184988</v>
+        <v>-0.2568195022182883</v>
       </c>
       <c r="G47">
-        <v>1.562073639832571</v>
+        <v>1.562073639832579</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5050,22 +5050,22 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>-7.271206326843293</v>
+        <v>-7.271206326843705</v>
       </c>
       <c r="C48">
-        <v>1.228128864289408</v>
+        <v>1.228128864288871</v>
       </c>
       <c r="D48">
-        <v>-5.92055649718028</v>
+        <v>-5.920556497183207</v>
       </c>
       <c r="E48">
-        <v>3.208540448418225E-09</v>
+        <v>3.208540448361092E-09</v>
       </c>
       <c r="F48">
-        <v>-9.678294669224613</v>
+        <v>-9.678294669223972</v>
       </c>
       <c r="G48">
-        <v>-4.864117984461974</v>
+        <v>-4.864117984463439</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5073,22 +5073,22 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>-1006.139481603883</v>
+        <v>-1006.139480901584</v>
       </c>
       <c r="C49">
-        <v>7803.136834124107</v>
+        <v>7803.136834118593</v>
       </c>
       <c r="D49">
-        <v>-0.1289403867946936</v>
+        <v>-0.1289403867047825</v>
       </c>
       <c r="E49">
-        <v>0.8974048193483372</v>
+        <v>0.8974048194194819</v>
       </c>
       <c r="F49">
-        <v>-16300.00664292503</v>
+        <v>-16300.00664221193</v>
       </c>
       <c r="G49">
-        <v>14287.72767971726</v>
+        <v>14287.72768040876</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -5096,22 +5096,22 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>2430.214947040768</v>
+        <v>2430.214945381827</v>
       </c>
       <c r="C50">
-        <v>18423.90392024822</v>
+        <v>18423.9039202352</v>
       </c>
       <c r="D50">
-        <v>0.131905537369304</v>
+        <v>0.1319055372793544</v>
       </c>
       <c r="E50">
-        <v>0.8950590087152676</v>
+        <v>0.8950590087864153</v>
       </c>
       <c r="F50">
-        <v>-33679.97319127205</v>
+        <v>-33679.97319290548</v>
       </c>
       <c r="G50">
-        <v>38540.40308535358</v>
+        <v>38540.40308366914</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -5119,22 +5119,22 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>1.63488327739013</v>
+        <v>1.634883277390719</v>
       </c>
       <c r="C51">
-        <v>0.4152568410929133</v>
+        <v>0.4152568410928534</v>
       </c>
       <c r="D51">
-        <v>3.93704116490239</v>
+        <v>3.937041164904376</v>
       </c>
       <c r="E51">
-        <v>8.249246024165675E-05</v>
+        <v>8.249246024097436E-05</v>
       </c>
       <c r="F51">
-        <v>0.8209948245141478</v>
+        <v>0.8209948245148537</v>
       </c>
       <c r="G51">
-        <v>2.448771730266113</v>
+        <v>2.448771730266584</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -5142,22 +5142,22 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>-405.6335739992282</v>
+        <v>-405.6335737184781</v>
       </c>
       <c r="C52">
-        <v>3118.042178473773</v>
+        <v>3118.042178471571</v>
       </c>
       <c r="D52">
-        <v>-0.1300923947724719</v>
+        <v>-0.1300923946825232</v>
       </c>
       <c r="E52">
-        <v>0.8964933270800911</v>
+        <v>0.896493327151255</v>
       </c>
       <c r="F52">
-        <v>-6516.883946084634</v>
+        <v>-6516.883945799568</v>
       </c>
       <c r="G52">
-        <v>5705.616798086177</v>
+        <v>5705.616798362612</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -5165,22 +5165,22 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>0.3331348875858388</v>
+        <v>0.33313488758565</v>
       </c>
       <c r="C53">
-        <v>0.05162189663008544</v>
+        <v>0.05162189663008641</v>
       </c>
       <c r="D53">
-        <v>6.453363966322898</v>
+        <v>6.453363966319119</v>
       </c>
       <c r="E53">
-        <v>1.093942002606239E-10</v>
+        <v>1.093942002633525E-10</v>
       </c>
       <c r="F53">
-        <v>0.2319578293772217</v>
+        <v>0.2319578293770311</v>
       </c>
       <c r="G53">
-        <v>0.4343119457944558</v>
+        <v>0.434311945794269</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -5188,22 +5188,22 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>0.2878181058996416</v>
+        <v>0.2878181058998334</v>
       </c>
       <c r="C54">
-        <v>0.05307220994781953</v>
+        <v>0.05307220994783179</v>
       </c>
       <c r="D54">
-        <v>5.423141530805363</v>
+        <v>5.423141530807723</v>
       </c>
       <c r="E54">
-        <v>5.856058845233908E-08</v>
+        <v>5.856058845156563E-08</v>
       </c>
       <c r="F54">
-        <v>0.183798485821967</v>
+        <v>0.1837984858221347</v>
       </c>
       <c r="G54">
-        <v>0.3918377259773163</v>
+        <v>0.3918377259775321</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -5211,22 +5211,22 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>-46.00092918331075</v>
+        <v>-46.00092915198729</v>
       </c>
       <c r="C55">
-        <v>347.8694466772649</v>
+        <v>347.86944667702</v>
       </c>
       <c r="D55">
-        <v>-0.1322361869451214</v>
+        <v>-0.1322361868551708</v>
       </c>
       <c r="E55">
-        <v>0.8947974793905029</v>
+        <v>0.8947974794616483</v>
       </c>
       <c r="F55">
-        <v>-727.8125159926268</v>
+        <v>-727.8125159608232</v>
       </c>
       <c r="G55">
-        <v>635.8106576260053</v>
+        <v>635.8106576568487</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -5234,22 +5234,22 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>-8.76469765744883</v>
+        <v>-8.764697657448417</v>
       </c>
       <c r="C56">
-        <v>0.9932523037446688</v>
+        <v>0.9932523037444254</v>
       </c>
       <c r="D56">
-        <v>-8.824240955097682</v>
+        <v>-8.82424095509943</v>
       </c>
       <c r="E56">
-        <v>1.102047140971701E-18</v>
+        <v>1.102047140954497E-18</v>
       </c>
       <c r="F56">
-        <v>-10.71143640034982</v>
+        <v>-10.71143640034893</v>
       </c>
       <c r="G56">
-        <v>-6.817958914547841</v>
+        <v>-6.817958914547905</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -5257,22 +5257,22 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>-2.896535207083549</v>
+        <v>-2.896535207085453</v>
       </c>
       <c r="C57">
-        <v>2.218055850820743</v>
+        <v>2.21805585082086</v>
       </c>
       <c r="D57">
-        <v>-1.305889211947368</v>
+        <v>-1.305889211948158</v>
       </c>
       <c r="E57">
-        <v>0.1915902357812789</v>
+        <v>0.1915902357810104</v>
       </c>
       <c r="F57">
-        <v>-7.243844790390551</v>
+        <v>-7.243844790392686</v>
       </c>
       <c r="G57">
-        <v>1.450774376223454</v>
+        <v>1.45077437622178</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -5280,22 +5280,22 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>18.68767175247946</v>
+        <v>18.68767175247849</v>
       </c>
       <c r="C58">
-        <v>2.282791467928751</v>
+        <v>2.282791467929025</v>
       </c>
       <c r="D58">
-        <v>8.186324513222127</v>
+        <v>8.186324513220718</v>
       </c>
       <c r="E58">
-        <v>2.693249074368058E-16</v>
+        <v>2.693249074399549E-16</v>
       </c>
       <c r="F58">
-        <v>14.21348269112378</v>
+        <v>14.21348269112227</v>
       </c>
       <c r="G58">
-        <v>23.16186081383513</v>
+        <v>23.1618608138347</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -5303,22 +5303,22 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>9.879422642589923</v>
+        <v>9.879422642590233</v>
       </c>
       <c r="C59">
-        <v>2.243634736420948</v>
+        <v>2.243634736421297</v>
       </c>
       <c r="D59">
-        <v>4.403311502633268</v>
+        <v>4.403311502632723</v>
       </c>
       <c r="E59">
-        <v>1.066109166104039E-05</v>
+        <v>1.066109166106714E-05</v>
       </c>
       <c r="F59">
-        <v>5.481979364741846</v>
+        <v>5.481979364741475</v>
       </c>
       <c r="G59">
-        <v>14.276865920438</v>
+        <v>14.27686592043899</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -5326,22 +5326,22 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>1.42637948775501E-12</v>
+        <v>6.071858569983577E-13</v>
       </c>
       <c r="C60">
-        <v>1.766814255731568E-13</v>
+        <v>7.555541772868307E-14</v>
       </c>
       <c r="D60">
-        <v>8.073171716425859</v>
+        <v>8.036298061096577</v>
       </c>
       <c r="E60">
-        <v>6.849517068284792E-16</v>
+        <v>9.259334971211359E-16</v>
       </c>
       <c r="F60">
-        <v>1.080090256894428E-12</v>
+        <v>4.590999594132598E-13</v>
       </c>
       <c r="G60">
-        <v>1.772668718615591E-12</v>
+        <v>7.552717545834556E-13</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -5349,22 +5349,22 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>6.126865676501458E-13</v>
+        <v>3.863349007399886E-13</v>
       </c>
       <c r="C61">
-        <v>7.563774619487547E-14</v>
+        <v>4.752361675143045E-14</v>
       </c>
       <c r="D61">
-        <v>8.100275305290044</v>
+        <v>8.129324473780924</v>
       </c>
       <c r="E61">
-        <v>5.483495398451004E-16</v>
+        <v>4.316893549802283E-16</v>
       </c>
       <c r="F61">
-        <v>4.644393092364084E-13</v>
+        <v>2.931903234921006E-13</v>
       </c>
       <c r="G61">
-        <v>7.609338260638832E-13</v>
+        <v>4.794794779878767E-13</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -5372,22 +5372,22 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>4.178188616380418E-16</v>
+        <v>2.567935417230226E-13</v>
       </c>
       <c r="C62">
-        <v>2.795460374983422E-16</v>
+        <v>3.119575883757795E-14</v>
       </c>
       <c r="D62">
-        <v>1.494633461368665</v>
+        <v>8.231681205769959</v>
       </c>
       <c r="E62">
-        <v>0.135010128338423</v>
+        <v>1.846040030791814E-16</v>
       </c>
       <c r="F62">
-        <v>-1.300813038795922E-16</v>
+        <v>1.956509779309727E-13</v>
       </c>
       <c r="G62">
-        <v>9.657190271556758E-16</v>
+        <v>3.179361055150725E-13</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -5395,22 +5395,22 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>2.593899624731934E-14</v>
+        <v>-2.008967827876557E-14</v>
       </c>
       <c r="C63">
-        <v>2.842705560500087E-15</v>
+        <v>2.307528140586628E-15</v>
       </c>
       <c r="D63">
-        <v>9.124756572663184</v>
+        <v>-8.706146601383724</v>
       </c>
       <c r="E63">
-        <v>7.189765411458254E-20</v>
+        <v>3.143801682191181E-18</v>
       </c>
       <c r="F63">
-        <v>2.036739573008743E-14</v>
+        <v>-2.461235032762804E-14</v>
       </c>
       <c r="G63">
-        <v>3.151059676455126E-14</v>
+        <v>-1.55670062299031E-14</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -5418,22 +5418,22 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>-3.686159670045399E-14</v>
+        <v>-7.293384499724579E-16</v>
       </c>
       <c r="C64">
-        <v>4.273741137669162E-15</v>
+        <v>2.648956636393671E-16</v>
       </c>
       <c r="D64">
-        <v>-8.625135569291356</v>
+        <v>-2.753304602846916</v>
       </c>
       <c r="E64">
-        <v>6.401677432897817E-18</v>
+        <v>0.005899697618003311</v>
       </c>
       <c r="F64">
-        <v>-4.523797540953279E-14</v>
+        <v>-1.248524410366454E-15</v>
       </c>
       <c r="G64">
-        <v>-2.84852179913752E-14</v>
+        <v>-2.10152489578462E-16</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -5441,22 +5441,22 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>-5.151468376409349</v>
+        <v>-5.151468376412897</v>
       </c>
       <c r="C65">
-        <v>2.347427985816313</v>
+        <v>2.347427985815394</v>
       </c>
       <c r="D65">
-        <v>-2.194516043744761</v>
+        <v>-2.194516043747132</v>
       </c>
       <c r="E65">
-        <v>0.02819833183817095</v>
+        <v>0.02819833183800073</v>
       </c>
       <c r="F65">
-        <v>-9.752342684910724</v>
+        <v>-9.75234268491247</v>
       </c>
       <c r="G65">
-        <v>-0.5505940679079746</v>
+        <v>-0.5505940679133241</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -5498,22 +5498,22 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>23.47636707671281</v>
+        <v>23.47636707671095</v>
       </c>
       <c r="C68">
-        <v>2.431157165937765</v>
+        <v>2.431157165937791</v>
       </c>
       <c r="D68">
-        <v>9.656458005115157</v>
+        <v>9.65645800511429</v>
       </c>
       <c r="E68">
-        <v>4.615463812153228E-22</v>
+        <v>4.615463812192267E-22</v>
       </c>
       <c r="F68">
-        <v>18.71138659071832</v>
+        <v>18.71138659071641</v>
       </c>
       <c r="G68">
-        <v>28.2413475627073</v>
+        <v>28.24134756270549</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -5521,22 +5521,22 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>20.79750094013721</v>
+        <v>20.79750094013736</v>
       </c>
       <c r="C69">
-        <v>1.367875044857567</v>
+        <v>1.367875044857548</v>
       </c>
       <c r="D69">
-        <v>15.20424034221839</v>
+        <v>15.20424034221871</v>
       </c>
       <c r="E69">
-        <v>3.314533550185559E-52</v>
+        <v>3.314533550169571E-52</v>
       </c>
       <c r="F69">
-        <v>18.11651511686527</v>
+        <v>18.11651511686546</v>
       </c>
       <c r="G69">
-        <v>23.47848676340915</v>
+        <v>23.47848676340926</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -5544,22 +5544,22 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>-3.025101908215867</v>
+        <v>-3.025101908222354</v>
       </c>
       <c r="C70">
-        <v>6.259460481682348</v>
+        <v>6.259460481682399</v>
       </c>
       <c r="D70">
-        <v>-0.4832847682429674</v>
+        <v>-0.4832847682439999</v>
       </c>
       <c r="E70">
-        <v>0.6288935536656766</v>
+        <v>0.6288935536649436</v>
       </c>
       <c r="F70">
-        <v>-15.29341901496501</v>
+        <v>-15.29341901497159</v>
       </c>
       <c r="G70">
-        <v>9.243215198533274</v>
+        <v>9.243215198526887</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -5567,22 +5567,22 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>-1.987729632134783</v>
+        <v>-1.987729632132671</v>
       </c>
       <c r="C71">
-        <v>5.027816979691556</v>
+        <v>5.027816979691403</v>
       </c>
       <c r="D71">
-        <v>-0.3953464575507929</v>
+        <v>-0.3953464575503848</v>
       </c>
       <c r="E71">
-        <v>0.6925872178562711</v>
+        <v>0.6925872178565722</v>
       </c>
       <c r="F71">
-        <v>-11.84206983318919</v>
+        <v>-11.84206983318677</v>
       </c>
       <c r="G71">
-        <v>7.866610568919619</v>
+        <v>7.866610568921431</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -5590,22 +5590,22 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>-4.163060336020029</v>
+        <v>-4.163060336020971</v>
       </c>
       <c r="C72">
-        <v>1.328400766291039</v>
+        <v>1.328400766291108</v>
       </c>
       <c r="D72">
-        <v>-3.133888839618408</v>
+        <v>-3.133888839618955</v>
       </c>
       <c r="E72">
-        <v>0.001725061923754791</v>
+        <v>0.001725061923751576</v>
       </c>
       <c r="F72">
-        <v>-6.766677994985876</v>
+        <v>-6.766677994986952</v>
       </c>
       <c r="G72">
-        <v>-1.559442677054183</v>
+        <v>-1.55944267705499</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -5613,22 +5613,22 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.9757162241823325</v>
+        <v>-0.9757162241819612</v>
       </c>
       <c r="C73">
-        <v>1.711387762326228</v>
+        <v>1.711387762326017</v>
       </c>
       <c r="D73">
-        <v>-0.5701315889135941</v>
+        <v>-0.5701315889134472</v>
       </c>
       <c r="E73">
-        <v>0.568588451440055</v>
+        <v>0.5685884514401546</v>
       </c>
       <c r="F73">
-        <v>-4.329974601924333</v>
+        <v>-4.329974601923549</v>
       </c>
       <c r="G73">
-        <v>2.378542153559668</v>
+        <v>2.378542153559627</v>
       </c>
     </row>
   </sheetData>
